--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FE83C-5A81-45BA-9805-08657C6DF58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEC0C6-A981-4B10-B1F9-DBF4629021E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="5595" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Validation" sheetId="3" r:id="rId3"/>
-    <sheet name="Old Validation" sheetId="4" r:id="rId4"/>
+    <sheet name="Old_Validation" sheetId="4" r:id="rId4"/>
     <sheet name="Robertson 2002 Exp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
   <si>
     <t>SimulationName</t>
   </si>
@@ -510,9 +510,6 @@
     <t>aps18SowJan4_Berken</t>
   </si>
   <si>
-    <t>aps18SowNov18_King</t>
-  </si>
-  <si>
     <t>aps18SowDec14_King</t>
   </si>
   <si>
@@ -726,31 +723,31 @@
     <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
-    <t>Irr_Dec4Emerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec4Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec4Emerald</t>
+    <t>Irr_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec31SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec31SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec31SowEmerald</t>
   </si>
 </sst>
 </file>
@@ -937,7 +934,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -982,6 +979,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4424,11 +4422,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4447,61 +4445,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="N1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="U1" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>6</v>
@@ -4510,10 +4508,10 @@
         <v>105</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y1" s="21" t="s">
         <v>227</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -4521,7 +4519,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="23">
-        <v>33370</v>
+        <v>33347</v>
       </c>
       <c r="C2" s="17">
         <v>108</v>
@@ -4548,12 +4546,12 @@
         <v>91.53</v>
       </c>
       <c r="K2" s="21">
-        <f t="shared" ref="K2:K23" si="0">E2/F2</f>
+        <f t="shared" ref="K2:K22" si="0">E2/F2</f>
         <v>0.46687582228519381</v>
       </c>
       <c r="L2" s="21">
-        <f>G2/H2*10000</f>
-        <v>153.94282123782594</v>
+        <f>G2/H2</f>
+        <v>1.5394282123782594E-2</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
@@ -4578,7 +4576,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="23">
-        <v>33370</v>
+        <v>33347</v>
       </c>
       <c r="C3" s="19">
         <v>108</v>
@@ -4608,8 +4606,9 @@
         <f t="shared" si="0"/>
         <v>0.50987730821663158</v>
       </c>
-      <c r="L3" s="19">
-        <v>158.73015873015873</v>
+      <c r="L3" s="21">
+        <f>G3/H3</f>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4633,8 +4632,8 @@
       <c r="A4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="23">
-        <v>34288</v>
+      <c r="B4" s="36">
+        <v>34365</v>
       </c>
       <c r="C4" s="26">
         <v>20</v>
@@ -4681,8 +4680,8 @@
       <c r="A5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="23">
-        <v>34307</v>
+      <c r="B5" s="36">
+        <v>34373</v>
       </c>
       <c r="C5" s="26">
         <v>39</v>
@@ -4729,8 +4728,8 @@
       <c r="A6" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="23">
-        <v>34324</v>
+      <c r="B6" s="36">
+        <v>34390</v>
       </c>
       <c r="C6" s="26">
         <v>56</v>
@@ -4777,8 +4776,8 @@
       <c r="A7" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="23">
-        <v>34348</v>
+      <c r="B7" s="36">
+        <v>34414</v>
       </c>
       <c r="C7" s="26">
         <v>80</v>
@@ -4825,8 +4824,8 @@
       <c r="A8" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="23">
-        <v>34288</v>
+      <c r="B8" s="36">
+        <v>34365</v>
       </c>
       <c r="C8" s="26">
         <v>20</v>
@@ -4873,20 +4872,20 @@
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="23">
-        <v>34307</v>
+      <c r="B9" s="36">
+        <v>34390</v>
       </c>
       <c r="C9" s="26">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D9" s="21">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E9" s="21">
-        <v>116.33321699999999</v>
+        <v>132.333201</v>
       </c>
       <c r="F9" s="21">
-        <v>92.444351999999981</v>
+        <v>219.4331139</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
@@ -4894,7 +4893,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21">
         <f t="shared" si="0"/>
-        <v>1.2584134615384617</v>
+        <v>0.60306850979796445</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -4911,30 +4910,30 @@
         <v>107</v>
       </c>
       <c r="X9" s="26">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Y9" s="26">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="23">
-        <v>34324</v>
+      <c r="B10" s="36">
+        <v>34414</v>
       </c>
       <c r="C10" s="26">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="21">
-        <v>132.333201</v>
+        <v>131.333202</v>
       </c>
       <c r="F10" s="21">
-        <v>219.4331139</v>
+        <v>247.19975279999994</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
@@ -4942,7 +4941,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21">
         <f t="shared" si="0"/>
-        <v>0.60306850979796445</v>
+        <v>0.53128371089536153</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -4959,30 +4958,30 @@
         <v>107</v>
       </c>
       <c r="X10" s="26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y10" s="26">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="23">
-        <v>34348</v>
+      <c r="B11" s="36">
+        <v>34424</v>
       </c>
       <c r="C11" s="26">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D11" s="21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="21">
-        <v>131.333202</v>
+        <v>93.999905999999996</v>
       </c>
       <c r="F11" s="21">
-        <v>247.19975279999994</v>
+        <v>152.26651439999998</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -4990,7 +4989,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21">
         <f t="shared" si="0"/>
-        <v>0.53128371089536153</v>
+        <v>0.61733800350262702</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -5000,37 +4999,37 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="26"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="21" t="s">
         <v>107</v>
       </c>
       <c r="X11" s="26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y11" s="26">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="23">
-        <v>34358</v>
+      <c r="B12" s="36">
+        <v>34450</v>
       </c>
       <c r="C12" s="26">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D12" s="21">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E12" s="21">
-        <v>93.999905999999996</v>
+        <v>115.33321799999999</v>
       </c>
       <c r="F12" s="21">
-        <v>152.26651439999998</v>
+        <v>233.66643299999996</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
@@ -5038,7 +5037,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21">
         <f t="shared" si="0"/>
-        <v>0.61733800350262702</v>
+        <v>0.49358059914407992</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -5055,38 +5054,38 @@
         <v>107</v>
       </c>
       <c r="X12" s="26">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="Y12" s="26">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="19" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B13" s="23">
-        <v>34384</v>
-      </c>
-      <c r="C13" s="26">
-        <v>116</v>
+        <v>34436</v>
+      </c>
+      <c r="C13" s="21">
+        <v>118</v>
       </c>
       <c r="D13" s="21">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="E13" s="21">
-        <v>115.33321799999999</v>
+        <v>84.47999999999999</v>
       </c>
       <c r="F13" s="21">
-        <v>233.66643299999996</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
+        <v>317.125</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21">
         <f t="shared" si="0"/>
-        <v>0.49358059914407992</v>
+        <v>0.26639337800551832</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -5098,43 +5097,39 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="21"/>
       <c r="W13" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="X13" s="26">
-        <v>62</v>
-      </c>
-      <c r="Y13" s="26">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" s="23">
-        <v>34436</v>
+        <v>34444</v>
       </c>
       <c r="C14" s="21">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D14" s="21">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="21">
-        <v>84.47999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="F14" s="21">
-        <v>317.125</v>
+        <v>107.2</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="29"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21">
         <f t="shared" si="0"/>
-        <v>0.26639337800551832</v>
+        <v>0.31156716417910446</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -5148,29 +5143,29 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15" s="23">
-        <v>34444</v>
+        <v>34417</v>
       </c>
       <c r="C15" s="21">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D15" s="21">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E15" s="21">
-        <v>33.4</v>
+        <v>78.3</v>
       </c>
       <c r="F15" s="21">
-        <v>107.2</v>
+        <v>243</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -5178,7 +5173,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
-        <v>0.31156716417910446</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -5192,29 +5187,29 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="23">
-        <v>34417</v>
+        <v>34413</v>
       </c>
       <c r="C16" s="21">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" s="21">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E16" s="21">
-        <v>78.3</v>
+        <v>161.9</v>
       </c>
       <c r="F16" s="21">
-        <v>243</v>
+        <v>412.6</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -5222,7 +5217,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21">
         <f t="shared" si="0"/>
-        <v>0.32222222222222219</v>
+        <v>0.39238972370334463</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5236,29 +5231,29 @@
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="23">
-        <v>34413</v>
+        <v>34398</v>
       </c>
       <c r="C17" s="21">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D17" s="21">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E17" s="21">
-        <v>161.9</v>
+        <v>96.8</v>
       </c>
       <c r="F17" s="21">
-        <v>412.6</v>
+        <v>329</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -5266,7 +5261,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21">
         <f t="shared" si="0"/>
-        <v>0.39238972370334463</v>
+        <v>0.29422492401215805</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -5280,29 +5275,29 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" s="23">
-        <v>34398</v>
+        <v>34410</v>
       </c>
       <c r="C18" s="21">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D18" s="21">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E18" s="21">
-        <v>96.8</v>
+        <v>140.1</v>
       </c>
       <c r="F18" s="21">
-        <v>329</v>
+        <v>299.8</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -5310,7 +5305,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21">
         <f t="shared" si="0"/>
-        <v>0.29422492401215805</v>
+        <v>0.46731154102735151</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -5324,29 +5319,29 @@
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="23">
-        <v>34410</v>
+        <v>34432</v>
       </c>
       <c r="C19" s="21">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D19" s="21">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E19" s="21">
-        <v>140.1</v>
+        <v>132</v>
       </c>
       <c r="F19" s="21">
-        <v>299.8</v>
+        <v>340.9</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -5354,7 +5349,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21">
         <f t="shared" si="0"/>
-        <v>0.46731154102735151</v>
+        <v>0.3872103256086829</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -5368,29 +5363,29 @@
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20" s="23">
-        <v>34432</v>
+        <v>34437</v>
       </c>
       <c r="C20" s="21">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D20" s="21">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="E20" s="21">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="F20" s="21">
-        <v>340.9</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -5398,7 +5393,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21">
         <f t="shared" si="0"/>
-        <v>0.3872103256086829</v>
+        <v>0.42537851478010097</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -5412,29 +5407,29 @@
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B21" s="23">
-        <v>34437</v>
+        <v>34414</v>
       </c>
       <c r="C21" s="21">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D21" s="21">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E21" s="21">
-        <v>59</v>
+        <v>85.6</v>
       </c>
       <c r="F21" s="21">
-        <v>138.69999999999999</v>
+        <v>309.60000000000002</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -5442,7 +5437,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21">
         <f t="shared" si="0"/>
-        <v>0.42537851478010097</v>
+        <v>0.27648578811369506</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -5456,37 +5451,37 @@
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="19" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B22" s="23">
-        <v>34414</v>
-      </c>
-      <c r="C22" s="21">
-        <v>96</v>
+        <v>32946</v>
+      </c>
+      <c r="C22" s="17">
+        <v>89</v>
       </c>
       <c r="D22" s="21">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E22" s="21">
-        <v>85.6</v>
+        <v>223.4</v>
       </c>
       <c r="F22" s="21">
-        <v>309.60000000000002</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>731.5</v>
+      </c>
+      <c r="G22" s="24"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21">
         <f t="shared" si="0"/>
-        <v>0.27648578811369506</v>
+        <v>0.30539986329460017</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -5500,7 +5495,7 @@
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -5510,40 +5505,35 @@
         <v>171</v>
       </c>
       <c r="B23" s="23">
-        <v>34407</v>
-      </c>
-      <c r="C23" s="17">
-        <v>89</v>
-      </c>
-      <c r="D23" s="21">
-        <v>85</v>
-      </c>
-      <c r="E23" s="21">
-        <v>223.4</v>
-      </c>
-      <c r="F23" s="21">
-        <v>731.5</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21">
-        <f t="shared" si="0"/>
-        <v>0.30539986329460017</v>
-      </c>
-      <c r="L23" s="21"/>
+        <v>33324</v>
+      </c>
+      <c r="C23" s="30">
+        <v>102</v>
+      </c>
+      <c r="D23" s="31">
+        <v>87</v>
+      </c>
+      <c r="E23" s="32">
+        <v>126.11111111111111</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="21" t="s">
+      <c r="W23" s="32" t="s">
         <v>117</v>
       </c>
       <c r="X23" s="21"/>
@@ -5554,16 +5544,16 @@
         <v>172</v>
       </c>
       <c r="B24" s="23">
-        <v>34420</v>
+        <v>33329</v>
       </c>
       <c r="C24" s="30">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D24" s="31">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E24" s="32">
-        <v>126.11111111111111</v>
+        <v>212.32638888888886</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -5593,35 +5583,31 @@
         <v>173</v>
       </c>
       <c r="B25" s="23">
-        <v>34425</v>
-      </c>
-      <c r="C25" s="30">
-        <v>107</v>
-      </c>
-      <c r="D25" s="31">
-        <v>92</v>
-      </c>
-      <c r="E25" s="32">
-        <v>212.32638888888886</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
+        <v>32241</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="19">
+        <v>137.9</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="32"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="32" t="s">
+      <c r="W25" s="19" t="s">
         <v>117</v>
       </c>
       <c r="X25" s="21"/>
@@ -5629,15 +5615,15 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B26" s="23">
-        <v>32241</v>
+        <v>32261</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="31"/>
       <c r="E26" s="19">
-        <v>137.9</v>
+        <v>97.6</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -5667,12 +5653,12 @@
         <v>176</v>
       </c>
       <c r="B27" s="23">
-        <v>32261</v>
+        <v>32278</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="31"/>
       <c r="E27" s="19">
-        <v>97.6</v>
+        <v>117.6</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -5702,12 +5688,12 @@
         <v>177</v>
       </c>
       <c r="B28" s="23">
-        <v>32278</v>
+        <v>32261</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="31"/>
       <c r="E28" s="19">
-        <v>117.6</v>
+        <v>133.4</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -5737,12 +5723,12 @@
         <v>178</v>
       </c>
       <c r="B29" s="23">
-        <v>32261</v>
+        <v>32278</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="31"/>
       <c r="E29" s="19">
-        <v>133.4</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -5769,15 +5755,15 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B30" s="23">
-        <v>32278</v>
+        <v>32241</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="31"/>
       <c r="E30" s="19">
-        <v>132.69999999999999</v>
+        <v>179</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -5804,15 +5790,15 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B31" s="23">
-        <v>32241</v>
+        <v>32261</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="31"/>
       <c r="E31" s="19">
-        <v>179</v>
+        <v>152.4</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -5842,12 +5828,12 @@
         <v>180</v>
       </c>
       <c r="B32" s="23">
-        <v>32261</v>
+        <v>32278</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="31"/>
       <c r="E32" s="19">
-        <v>152.4</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -5874,34 +5860,34 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B33" s="23">
-        <v>32278</v>
+        <v>32226</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="19">
-        <v>132.69999999999999</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="E33" s="32">
+        <v>115.9</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="19"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="19" t="s">
+      <c r="W33" s="32" t="s">
         <v>117</v>
       </c>
       <c r="X33" s="21"/>
@@ -5917,7 +5903,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32">
-        <v>115.9</v>
+        <v>151.1</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -5950,9 +5936,9 @@
         <v>32226</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="32"/>
       <c r="E35" s="32">
-        <v>151.1</v>
+        <v>168.6</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -5982,12 +5968,12 @@
         <v>164</v>
       </c>
       <c r="B36" s="23">
-        <v>32226</v>
+        <v>32241</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="32">
-        <v>168.6</v>
+        <v>84</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -6022,7 +6008,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="31"/>
       <c r="E37" s="32">
-        <v>84</v>
+        <v>100.6</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -6057,7 +6043,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="31"/>
       <c r="E38" s="32">
-        <v>100.6</v>
+        <v>87.3</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -6092,7 +6078,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32">
-        <v>87.3</v>
+        <v>102.7</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -6127,7 +6113,7 @@
       <c r="C40" s="19"/>
       <c r="D40" s="31"/>
       <c r="E40" s="32">
-        <v>102.7</v>
+        <v>100.6</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -6162,7 +6148,7 @@
       <c r="C41" s="19"/>
       <c r="D41" s="31"/>
       <c r="E41" s="32">
-        <v>100.6</v>
+        <v>93.4</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -6189,22 +6175,27 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="19" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="B42" s="23">
-        <v>32241</v>
+        <v>28194</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="31"/>
       <c r="E42" s="32">
-        <v>93.4</v>
-      </c>
-      <c r="F42" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="F42" s="32">
+        <v>190</v>
+      </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="21"/>
+      <c r="K42" s="21">
+        <f t="shared" ref="K42:K47" si="1">E42/F42</f>
+        <v>0.5368421052631579</v>
+      </c>
       <c r="L42" s="32"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -6217,7 +6208,7 @@
       <c r="U42" s="32"/>
       <c r="V42" s="21"/>
       <c r="W42" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
@@ -6232,18 +6223,18 @@
       <c r="C43" s="19"/>
       <c r="D43" s="31"/>
       <c r="E43" s="32">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="F43" s="32">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="21">
-        <f t="shared" ref="K43:K48" si="1">E43/F43</f>
-        <v>0.5368421052631579</v>
+        <f t="shared" si="1"/>
+        <v>0.57831325301204817</v>
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="21"/>
@@ -6264,18 +6255,18 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B44" s="23">
-        <v>28194</v>
+        <v>28193</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="31"/>
       <c r="E44" s="32">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F44" s="32">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -6283,7 +6274,7 @@
       <c r="J44" s="32"/>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>0.57831325301204817</v>
+        <v>0.63366336633663367</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="21"/>
@@ -6304,18 +6295,18 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B45" s="23">
-        <v>28193</v>
+        <v>28591</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="31"/>
       <c r="E45" s="32">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="F45" s="32">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -6323,7 +6314,7 @@
       <c r="J45" s="32"/>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>0.63366336633663367</v>
+        <v>0.40989399293286222</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="21"/>
@@ -6344,18 +6335,18 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B46" s="23">
         <v>28591</v>
       </c>
       <c r="C46" s="19"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="32">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="F46" s="32">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -6363,7 +6354,7 @@
       <c r="J46" s="32"/>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>0.40989399293286222</v>
+        <v>0.36633663366336633</v>
       </c>
       <c r="L46" s="32"/>
       <c r="M46" s="21"/>
@@ -6384,7 +6375,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47" s="23">
         <v>28591</v>
@@ -6392,10 +6383,10 @@
       <c r="C47" s="19"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F47" s="32">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -6403,7 +6394,7 @@
       <c r="J47" s="32"/>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>0.36633663366336633</v>
+        <v>0.45789473684210524</v>
       </c>
       <c r="L47" s="32"/>
       <c r="M47" s="21"/>
@@ -6424,43 +6415,42 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B48" s="23">
-        <v>28591</v>
+        <v>29400</v>
       </c>
       <c r="C48" s="19"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32">
-        <v>87</v>
-      </c>
-      <c r="F48" s="32">
-        <v>190</v>
-      </c>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="21">
-        <f t="shared" si="1"/>
-        <v>0.45789473684210524</v>
-      </c>
-      <c r="L48" s="32"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19">
+        <v>250</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
       <c r="V48" s="21"/>
       <c r="W48" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="X48" s="21"/>
-      <c r="Y48" s="21"/>
+        <v>119</v>
+      </c>
+      <c r="X48" s="21">
+        <v>36</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>72</v>
+      </c>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="19" t="s">
@@ -6472,7 +6462,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -6495,10 +6485,10 @@
         <v>119</v>
       </c>
       <c r="X49" s="21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y49" s="21">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -6511,7 +6501,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -6534,10 +6524,10 @@
         <v>119</v>
       </c>
       <c r="X50" s="21">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="21">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -6545,19 +6535,24 @@
         <v>184</v>
       </c>
       <c r="B51" s="23">
-        <v>29400</v>
+        <v>29312</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19">
-        <v>163</v>
-      </c>
-      <c r="F51" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="F51" s="19">
+        <v>541</v>
+      </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="21"/>
+      <c r="K51" s="21">
+        <f>E51/F51</f>
+        <v>0.27171903881700554</v>
+      </c>
       <c r="L51" s="19"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
@@ -6572,12 +6567,8 @@
       <c r="W51" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="X51" s="21">
-        <v>35</v>
-      </c>
-      <c r="Y51" s="21">
-        <v>64</v>
-      </c>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="19" t="s">
@@ -6589,10 +6580,10 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F52" s="19">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -6600,7 +6591,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="21">
         <f>E52/F52</f>
-        <v>0.27171903881700554</v>
+        <v>0.2689243027888446</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="21"/>
@@ -6629,10 +6620,10 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F53" s="19">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -6640,7 +6631,7 @@
       <c r="J53" s="19"/>
       <c r="K53" s="21">
         <f>E53/F53</f>
-        <v>0.2689243027888446</v>
+        <v>0.25124792013311148</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="21"/>
@@ -6669,10 +6660,10 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F54" s="19">
-        <v>601</v>
+        <v>555</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -6680,7 +6671,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="21">
         <f>E54/F54</f>
-        <v>0.25124792013311148</v>
+        <v>0.25225225225225223</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="21"/>
@@ -6709,10 +6700,10 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F55" s="19">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -6720,7 +6711,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="21">
         <f>E55/F55</f>
-        <v>0.25225225225225223</v>
+        <v>0.26094003241491087</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="21"/>
@@ -6741,40 +6732,35 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="19" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B56" s="23">
-        <v>29312</v>
+        <v>28171</v>
       </c>
       <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19">
-        <v>161</v>
-      </c>
-      <c r="F56" s="19">
-        <v>617</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="21">
-        <f>E56/F56</f>
-        <v>0.26094003241491087</v>
-      </c>
-      <c r="L56" s="19"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32">
+        <v>103</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
       <c r="V56" s="21"/>
       <c r="W56" s="32" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="X56" s="21"/>
       <c r="Y56" s="21"/>
@@ -6784,12 +6770,12 @@
         <v>196</v>
       </c>
       <c r="B57" s="23">
-        <v>28171</v>
+        <v>28239</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="31"/>
       <c r="E57" s="32">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -6824,7 +6810,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -6859,7 +6845,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="31"/>
       <c r="E59" s="32">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -6889,12 +6875,12 @@
         <v>199</v>
       </c>
       <c r="B60" s="23">
-        <v>28239</v>
+        <v>28171</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="31"/>
       <c r="E60" s="32">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -6929,7 +6915,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -6964,7 +6950,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="31"/>
       <c r="E62" s="32">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -6994,12 +6980,12 @@
         <v>202</v>
       </c>
       <c r="B63" s="23">
-        <v>28171</v>
+        <v>28200</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="31"/>
       <c r="E63" s="32">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -7034,10 +7020,10 @@
       <c r="C64" s="19"/>
       <c r="D64" s="31"/>
       <c r="E64" s="32">
-        <v>122</v>
-      </c>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
+        <v>91</v>
+      </c>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
@@ -7069,7 +7055,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="31"/>
       <c r="E65" s="32">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -7104,10 +7090,10 @@
       <c r="C66" s="19"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32">
-        <v>102</v>
-      </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+        <v>110</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
@@ -7134,12 +7120,12 @@
         <v>206</v>
       </c>
       <c r="B67" s="23">
-        <v>28200</v>
+        <v>28239</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="31"/>
       <c r="E67" s="32">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -7169,235 +7155,233 @@
         <v>207</v>
       </c>
       <c r="B68" s="23">
-        <v>28239</v>
+        <v>32970</v>
       </c>
       <c r="C68" s="19"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32">
-        <v>122</v>
-      </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="32" t="s">
+      <c r="D68" s="19">
+        <v>80</v>
+      </c>
+      <c r="E68" s="19">
+        <v>255.86232461632574</v>
+      </c>
+      <c r="F68" s="19">
+        <v>827.42843296930982</v>
+      </c>
+      <c r="G68" s="19">
+        <v>3.7146270068734548</v>
+      </c>
+      <c r="H68" s="19">
+        <v>162.15302218430827</v>
+      </c>
+      <c r="I68" s="19">
+        <v>294.7108780893733</v>
+      </c>
+      <c r="J68" s="19">
+        <v>370.56453269562809</v>
+      </c>
+      <c r="K68" s="21">
+        <f>E68/F68</f>
+        <v>0.30922592748975058</v>
+      </c>
+      <c r="L68" s="19">
+        <v>43.793369997180861</v>
+      </c>
+      <c r="M68" s="19">
+        <v>2.2275</v>
+      </c>
+      <c r="N68" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="O68" s="19">
+        <v>4.5225</v>
+      </c>
+      <c r="P68" s="19">
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="Q68" s="19">
+        <v>3.6016558180705838</v>
+      </c>
+      <c r="R68" s="19">
+        <v>11.573361460739584</v>
+      </c>
+      <c r="S68" s="19">
+        <v>2.286525150986261</v>
+      </c>
+      <c r="T68" s="19">
+        <v>0.69238658835282352</v>
+      </c>
+      <c r="U68" s="19">
+        <v>18.153929018149253</v>
+      </c>
+      <c r="V68" s="19">
+        <v>0.97816440232504842</v>
+      </c>
+      <c r="W68" s="21" t="s">
         <v>107</v>
       </c>
       <c r="X68" s="21"/>
       <c r="Y68" s="21"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B69" s="23">
-        <v>32970</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19">
-        <v>80</v>
-      </c>
-      <c r="E69" s="19">
-        <v>255.86232461632574</v>
-      </c>
-      <c r="F69" s="19">
-        <v>827.42843296930982</v>
-      </c>
-      <c r="G69" s="19">
-        <v>3.7146270068734548</v>
-      </c>
-      <c r="H69" s="19">
-        <v>162.15302218430827</v>
-      </c>
-      <c r="I69" s="19">
-        <v>294.7108780893733</v>
-      </c>
-      <c r="J69" s="19">
-        <v>370.56453269562809</v>
-      </c>
-      <c r="K69" s="21">
-        <f>E69/F69</f>
-        <v>0.30922592748975058</v>
-      </c>
-      <c r="L69" s="19">
-        <v>43.793369997180861</v>
-      </c>
-      <c r="M69" s="19">
-        <v>2.2275</v>
-      </c>
-      <c r="N69" s="19">
-        <v>0.77</v>
-      </c>
-      <c r="O69" s="19">
-        <v>4.5225</v>
-      </c>
-      <c r="P69" s="19">
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="Q69" s="19">
-        <v>3.6016558180705838</v>
-      </c>
-      <c r="R69" s="19">
-        <v>11.573361460739584</v>
-      </c>
-      <c r="S69" s="19">
-        <v>2.286525150986261</v>
-      </c>
-      <c r="T69" s="19">
-        <v>0.69238658835282352</v>
-      </c>
-      <c r="U69" s="19">
-        <v>18.153929018149253</v>
-      </c>
-      <c r="V69" s="19">
-        <v>0.97816440232504842</v>
-      </c>
-      <c r="W69" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
+      <c r="A69" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B69" s="35">
+        <v>35817</v>
+      </c>
+      <c r="C69" s="34">
+        <v>21</v>
+      </c>
+      <c r="D69" s="34">
+        <v>49</v>
+      </c>
+      <c r="F69" s="34">
+        <v>349.5</v>
+      </c>
+      <c r="G69" s="34">
+        <v>5.7</v>
+      </c>
+      <c r="H69" s="34">
+        <v>215.5</v>
+      </c>
+      <c r="I69" s="34">
+        <v>134</v>
+      </c>
+      <c r="J69" s="34"/>
+      <c r="U69" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="Z69" s="35"/>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B70" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C70" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D70" s="34">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F70" s="34">
-        <v>349.5</v>
+        <v>849</v>
       </c>
       <c r="G70" s="34">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H70" s="34">
-        <v>215.5</v>
+        <v>215.4</v>
       </c>
       <c r="I70" s="34">
-        <v>134</v>
-      </c>
-      <c r="J70" s="34"/>
+        <v>275.8</v>
+      </c>
+      <c r="J70" s="34">
+        <v>357.8</v>
+      </c>
       <c r="U70" s="34">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="Z70" s="35"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B71" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C71" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D71" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F71" s="34">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="G71" s="34">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="H71" s="34">
-        <v>215.4</v>
+        <v>191.3</v>
       </c>
       <c r="I71" s="34">
-        <v>275.8</v>
+        <v>318.7</v>
       </c>
       <c r="J71" s="34">
-        <v>357.8</v>
+        <v>382.7</v>
       </c>
       <c r="U71" s="34">
-        <v>19</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Z71" s="35"/>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C72" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D72" s="34">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F72" s="34">
-        <v>892</v>
+        <v>580.4</v>
       </c>
       <c r="G72" s="34">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="H72" s="34">
-        <v>191.3</v>
+        <v>13.1</v>
       </c>
       <c r="I72" s="34">
-        <v>318.7</v>
+        <v>177.7</v>
       </c>
       <c r="J72" s="34">
-        <v>382.7</v>
+        <v>385.6</v>
       </c>
       <c r="U72" s="34">
-        <v>19.100000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="Z72" s="35"/>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C73" s="34">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D73" s="34">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F73" s="34">
-        <v>580.4</v>
+        <v>589.5</v>
       </c>
       <c r="G73" s="34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H73" s="34">
-        <v>13.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I73" s="34">
-        <v>177.7</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="J73" s="34">
-        <v>385.6</v>
+        <v>428.7</v>
       </c>
       <c r="U73" s="34">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="Z73" s="35"/>
     </row>
@@ -7406,161 +7390,161 @@
         <v>229</v>
       </c>
       <c r="B74" s="35">
-        <v>35878</v>
+        <v>35817</v>
       </c>
       <c r="C74" s="34">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D74" s="34">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="F74" s="34">
-        <v>589.5</v>
+        <v>113.1</v>
       </c>
       <c r="G74" s="34">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H74" s="34">
-        <v>5.0999999999999996</v>
+        <v>76.8</v>
       </c>
       <c r="I74" s="34">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="J74" s="34">
-        <v>428.7</v>
-      </c>
+        <v>36.4</v>
+      </c>
+      <c r="J74" s="34"/>
       <c r="U74" s="34">
-        <v>14.3</v>
+        <v>3.9</v>
       </c>
       <c r="Z74" s="35"/>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B75" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C75" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D75" s="34">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F75" s="34">
-        <v>113.1</v>
+        <v>704.7</v>
       </c>
       <c r="G75" s="34">
-        <v>2.2999999999999998</v>
+        <v>6.6</v>
       </c>
       <c r="H75" s="34">
-        <v>76.8</v>
+        <v>211.7</v>
       </c>
       <c r="I75" s="34">
-        <v>36.4</v>
-      </c>
-      <c r="J75" s="34"/>
+        <v>251.7</v>
+      </c>
+      <c r="J75" s="34">
+        <v>241.4</v>
+      </c>
       <c r="U75" s="34">
-        <v>3.9</v>
+        <v>15</v>
       </c>
       <c r="Z75" s="35"/>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B76" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C76" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D76" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F76" s="34">
-        <v>704.7</v>
+        <v>779</v>
       </c>
       <c r="G76" s="34">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="H76" s="34">
-        <v>211.7</v>
+        <v>179.2</v>
       </c>
       <c r="I76" s="34">
-        <v>251.7</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="J76" s="34">
-        <v>241.4</v>
+        <v>335.9</v>
       </c>
       <c r="U76" s="34">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="Z76" s="35"/>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B77" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C77" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D77" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F77" s="34">
-        <v>779</v>
+        <v>661.9</v>
       </c>
       <c r="G77" s="34">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H77" s="34">
-        <v>179.2</v>
+        <v>114.6</v>
       </c>
       <c r="I77" s="34">
-        <v>263.89999999999998</v>
+        <v>222.4</v>
       </c>
       <c r="J77" s="34">
-        <v>335.9</v>
+        <v>286.2</v>
       </c>
       <c r="U77" s="34">
-        <v>16.8</v>
+        <v>14.8</v>
       </c>
       <c r="Z77" s="35"/>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B78" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C78" s="34">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D78" s="34">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F78" s="34">
-        <v>661.9</v>
+        <v>542</v>
       </c>
       <c r="G78" s="34">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H78" s="34">
-        <v>114.6</v>
+        <v>13.1</v>
       </c>
       <c r="I78" s="34">
-        <v>222.4</v>
+        <v>177.7</v>
       </c>
       <c r="J78" s="34">
-        <v>286.2</v>
+        <v>360.8</v>
       </c>
       <c r="U78" s="34">
-        <v>14.8</v>
+        <v>12.9</v>
       </c>
       <c r="Z78" s="35"/>
     </row>
@@ -7569,192 +7553,192 @@
         <v>230</v>
       </c>
       <c r="B79" s="35">
-        <v>35878</v>
+        <v>35817</v>
       </c>
       <c r="C79" s="34">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D79" s="34">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F79" s="34">
-        <v>542</v>
+        <v>10.6</v>
       </c>
       <c r="G79" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H79" s="34">
-        <v>13.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I79" s="34">
-        <v>177.7</v>
-      </c>
-      <c r="J79" s="34">
-        <v>360.8</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="J79" s="34"/>
       <c r="U79" s="34">
-        <v>12.9</v>
+        <v>0.4</v>
       </c>
       <c r="Z79" s="35"/>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B80" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C80" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D80" s="34">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F80" s="34">
-        <v>10.6</v>
+        <v>396.2</v>
       </c>
       <c r="G80" s="34">
-        <v>0.3</v>
+        <v>6.2</v>
       </c>
       <c r="H80" s="34">
-        <v>8.8000000000000007</v>
+        <v>204.3</v>
       </c>
       <c r="I80" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="J80" s="34"/>
+        <v>175.6</v>
+      </c>
+      <c r="J80" s="34">
+        <v>16.399999999999999</v>
+      </c>
       <c r="U80" s="34">
-        <v>0.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z80" s="35"/>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B81" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C81" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D81" s="34">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F81" s="34">
-        <v>396.2</v>
+        <v>622.1</v>
       </c>
       <c r="G81" s="34">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H81" s="34">
-        <v>204.3</v>
+        <v>182.8</v>
       </c>
       <c r="I81" s="34">
-        <v>175.6</v>
+        <v>191.9</v>
       </c>
       <c r="J81" s="34">
-        <v>16.399999999999999</v>
+        <v>247.4</v>
       </c>
       <c r="U81" s="34">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="Z81" s="35"/>
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B82" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C82" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D82" s="34">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F82" s="34">
-        <v>622.1</v>
+        <v>581.5</v>
       </c>
       <c r="G82" s="34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H82" s="34">
-        <v>182.8</v>
+        <v>114.6</v>
       </c>
       <c r="I82" s="34">
-        <v>191.9</v>
+        <v>222.4</v>
       </c>
       <c r="J82" s="34">
-        <v>247.4</v>
+        <v>244.5</v>
       </c>
       <c r="U82" s="34">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
       <c r="Z82" s="35"/>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C83" s="34">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D83" s="34">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F83" s="34">
-        <v>581.5</v>
-      </c>
-      <c r="G83" s="34">
-        <v>3.2</v>
-      </c>
+        <v>583.29999999999995</v>
+      </c>
+      <c r="G83" s="34"/>
       <c r="H83" s="34">
-        <v>114.6</v>
+        <v>113.4</v>
       </c>
       <c r="I83" s="34">
-        <v>222.4</v>
+        <v>190.7</v>
       </c>
       <c r="J83" s="34">
-        <v>244.5</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="U83" s="34">
-        <v>12.8</v>
+        <v>12</v>
       </c>
       <c r="Z83" s="35"/>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B84" s="35">
-        <v>35878</v>
+        <v>35899</v>
       </c>
       <c r="C84" s="34">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="D84" s="34">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F84" s="34">
-        <v>583.29999999999995</v>
-      </c>
-      <c r="G84" s="34"/>
+        <v>473</v>
+      </c>
+      <c r="G84" s="34">
+        <v>0</v>
+      </c>
       <c r="H84" s="34">
-        <v>113.4</v>
+        <v>6.4</v>
       </c>
       <c r="I84" s="34">
-        <v>190.7</v>
+        <v>150.6</v>
       </c>
       <c r="J84" s="34">
-        <v>279.10000000000002</v>
+        <v>316</v>
       </c>
       <c r="U84" s="34">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="Z84" s="35"/>
     </row>
@@ -7763,128 +7747,128 @@
         <v>231</v>
       </c>
       <c r="B85" s="35">
-        <v>35899</v>
+        <v>35817</v>
       </c>
       <c r="C85" s="34">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D85" s="34">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F85" s="34">
-        <v>473</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G85" s="34">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H85" s="34">
-        <v>6.4</v>
+        <v>196.4</v>
       </c>
       <c r="I85" s="34">
-        <v>150.6</v>
-      </c>
-      <c r="J85" s="34">
-        <v>316</v>
-      </c>
+        <v>125.7</v>
+      </c>
+      <c r="J85" s="34"/>
       <c r="U85" s="34">
-        <v>11.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z85" s="35"/>
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B86" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C86" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D86" s="34">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F86" s="34">
-        <v>322.10000000000002</v>
+        <v>761.7</v>
       </c>
       <c r="G86" s="34">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H86" s="34">
-        <v>196.4</v>
+        <v>218.6</v>
       </c>
       <c r="I86" s="34">
-        <v>125.7</v>
-      </c>
-      <c r="J86" s="34"/>
+        <v>260.3</v>
+      </c>
+      <c r="J86" s="34">
+        <v>282.8</v>
+      </c>
       <c r="U86" s="34">
-        <v>9.8000000000000007</v>
+        <v>16.2</v>
       </c>
       <c r="Z86" s="35"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B87" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C87" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D87" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F87" s="34">
-        <v>761.7</v>
+        <v>842.6</v>
       </c>
       <c r="G87" s="34">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H87" s="34">
-        <v>218.6</v>
+        <v>171.4</v>
       </c>
       <c r="I87" s="34">
-        <v>260.3</v>
+        <v>285.8</v>
       </c>
       <c r="J87" s="34">
-        <v>282.8</v>
+        <v>385.4</v>
       </c>
       <c r="U87" s="34">
-        <v>16.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Z87" s="35"/>
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B88" s="35">
-        <v>35859</v>
+        <v>35871</v>
       </c>
       <c r="C88" s="34">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D88" s="34">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F88" s="34">
-        <v>842.6</v>
+        <v>522.9</v>
       </c>
       <c r="G88" s="34">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H88" s="34">
-        <v>171.4</v>
+        <v>3</v>
       </c>
       <c r="I88" s="34">
-        <v>285.8</v>
+        <v>177.1</v>
       </c>
       <c r="J88" s="34">
-        <v>385.4</v>
+        <v>342.8</v>
       </c>
       <c r="U88" s="34">
-        <v>18.600000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="Z88" s="35"/>
     </row>
@@ -7893,160 +7877,160 @@
         <v>232</v>
       </c>
       <c r="B89" s="35">
-        <v>35871</v>
+        <v>35817</v>
       </c>
       <c r="C89" s="34">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D89" s="34">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="F89" s="34">
-        <v>522.9</v>
+        <v>115.9</v>
       </c>
       <c r="G89" s="34">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H89" s="34">
-        <v>3</v>
+        <v>77.5</v>
       </c>
       <c r="I89" s="34">
-        <v>177.1</v>
-      </c>
-      <c r="J89" s="34">
-        <v>342.8</v>
-      </c>
+        <v>38.4</v>
+      </c>
+      <c r="J89" s="34"/>
       <c r="U89" s="34">
-        <v>11.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z89" s="35"/>
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B90" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C90" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D90" s="34">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F90" s="34">
-        <v>115.9</v>
+        <v>639.70000000000005</v>
       </c>
       <c r="G90" s="34">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="H90" s="34">
-        <v>77.5</v>
+        <v>177.9</v>
       </c>
       <c r="I90" s="34">
-        <v>38.4</v>
-      </c>
-      <c r="J90" s="34"/>
+        <v>199.1</v>
+      </c>
+      <c r="J90" s="34">
+        <v>262.7</v>
+      </c>
       <c r="U90" s="34">
-        <v>4.0999999999999996</v>
+        <v>14.2</v>
       </c>
       <c r="Z90" s="35"/>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B91" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C91" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D91" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F91" s="34">
-        <v>639.70000000000005</v>
+        <v>649.6</v>
       </c>
       <c r="G91" s="34">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H91" s="34">
-        <v>177.9</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I91" s="34">
-        <v>199.1</v>
+        <v>245.3</v>
       </c>
       <c r="J91" s="34">
-        <v>262.7</v>
+        <v>263.7</v>
       </c>
       <c r="U91" s="34">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="Z91" s="35"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B92" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C92" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D92" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F92" s="34">
-        <v>649.6</v>
+        <v>500.7</v>
       </c>
       <c r="G92" s="34">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H92" s="34">
-        <v>140.69999999999999</v>
+        <v>22.2</v>
       </c>
       <c r="I92" s="34">
-        <v>245.3</v>
+        <v>184.3</v>
       </c>
       <c r="J92" s="34">
-        <v>263.7</v>
-      </c>
-      <c r="U92" s="34">
-        <v>14.4</v>
-      </c>
+        <v>294.2</v>
+      </c>
+      <c r="U92" s="34"/>
       <c r="Z92" s="35"/>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B93" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C93" s="34">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D93" s="34">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F93" s="34">
-        <v>500.7</v>
+        <v>421.3</v>
       </c>
       <c r="G93" s="34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H93" s="34">
-        <v>22.2</v>
+        <v>5.7</v>
       </c>
       <c r="I93" s="34">
-        <v>184.3</v>
+        <v>137</v>
       </c>
       <c r="J93" s="34">
-        <v>294.2</v>
-      </c>
-      <c r="U93" s="34"/>
+        <v>278.7</v>
+      </c>
+      <c r="U93" s="33">
+        <v>9.4</v>
+      </c>
       <c r="Z93" s="35"/>
     </row>
     <row r="94" spans="1:26">
@@ -8054,160 +8038,160 @@
         <v>233</v>
       </c>
       <c r="B94" s="35">
-        <v>35878</v>
+        <v>35817</v>
       </c>
       <c r="C94" s="34">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D94" s="34">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F94" s="34">
-        <v>421.3</v>
+        <v>10.9</v>
       </c>
       <c r="G94" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H94" s="34">
-        <v>5.7</v>
+        <v>9.6</v>
       </c>
       <c r="I94" s="34">
-        <v>137</v>
-      </c>
-      <c r="J94" s="34">
-        <v>278.7</v>
-      </c>
-      <c r="U94" s="33">
-        <v>9.4</v>
+        <v>1.3</v>
+      </c>
+      <c r="J94" s="34"/>
+      <c r="U94" s="34">
+        <v>0.5</v>
       </c>
       <c r="Z94" s="35"/>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B95" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C95" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D95" s="34">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F95" s="34">
-        <v>10.9</v>
+        <v>403.1</v>
       </c>
       <c r="G95" s="34">
-        <v>0.3</v>
+        <v>6.1</v>
       </c>
       <c r="H95" s="34">
-        <v>9.6</v>
+        <v>203.7</v>
       </c>
       <c r="I95" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="J95" s="34"/>
+        <v>171.5</v>
+      </c>
+      <c r="J95" s="34">
+        <v>27.9</v>
+      </c>
       <c r="U95" s="34">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="Z95" s="35"/>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C96" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D96" s="34">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F96" s="34">
-        <v>403.1</v>
+        <v>561.29999999999995</v>
       </c>
       <c r="G96" s="34">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="H96" s="34">
-        <v>203.7</v>
+        <v>120.8</v>
       </c>
       <c r="I96" s="34">
-        <v>171.5</v>
+        <v>174.5</v>
       </c>
       <c r="J96" s="34">
-        <v>27.9</v>
+        <v>266</v>
       </c>
       <c r="U96" s="34">
-        <v>10.4</v>
+        <v>12.1</v>
       </c>
       <c r="Z96" s="35"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B97" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C97" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D97" s="34">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F97" s="34">
-        <v>561.29999999999995</v>
+        <v>514.6</v>
       </c>
       <c r="G97" s="34">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H97" s="34">
-        <v>120.8</v>
+        <v>61.1</v>
       </c>
       <c r="I97" s="34">
-        <v>174.5</v>
+        <v>187</v>
       </c>
       <c r="J97" s="34">
-        <v>266</v>
-      </c>
-      <c r="U97" s="34">
-        <v>12.1</v>
-      </c>
+        <v>266.60000000000002</v>
+      </c>
+      <c r="U97" s="34"/>
       <c r="Z97" s="35"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C98" s="34">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D98" s="34">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F98" s="34">
-        <v>514.6</v>
+        <v>429.7</v>
       </c>
       <c r="G98" s="34">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H98" s="34">
-        <v>61.1</v>
+        <v>11.2</v>
       </c>
       <c r="I98" s="34">
-        <v>187</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="J98" s="34">
-        <v>266.60000000000002</v>
-      </c>
-      <c r="U98" s="34"/>
+        <v>266.2</v>
+      </c>
+      <c r="U98" s="34">
+        <v>9.6</v>
+      </c>
       <c r="Z98" s="35"/>
     </row>
     <row r="99" spans="1:26">
@@ -8215,293 +8199,293 @@
         <v>234</v>
       </c>
       <c r="B99" s="35">
-        <v>35878</v>
+        <v>35817</v>
       </c>
       <c r="C99" s="34">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="D99" s="34">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F99" s="34">
-        <v>429.7</v>
+        <v>328.6</v>
       </c>
       <c r="G99" s="34">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H99" s="34">
-        <v>11.2</v>
+        <v>185.3</v>
       </c>
       <c r="I99" s="34">
-        <v>152.30000000000001</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="J99" s="34">
-        <v>266.2</v>
+        <v>0.9</v>
       </c>
       <c r="U99" s="34">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="Z99" s="35"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B100" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C100" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D100" s="34">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F100" s="34">
-        <v>328.6</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="G100" s="34">
-        <v>3.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H100" s="34">
-        <v>185.3</v>
+        <v>60.8</v>
       </c>
       <c r="I100" s="34">
-        <v>139.19999999999999</v>
+        <v>141.5</v>
       </c>
       <c r="J100" s="34">
-        <v>0.9</v>
+        <v>95.1</v>
       </c>
       <c r="U100" s="34">
-        <v>8.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z100" s="35"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B101" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C101" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D101" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F101" s="34">
-        <v>297.39999999999998</v>
+        <v>331.5</v>
       </c>
       <c r="G101" s="34">
         <v>1.1000000000000001</v>
       </c>
       <c r="H101" s="34">
-        <v>60.8</v>
+        <v>50</v>
       </c>
       <c r="I101" s="34">
-        <v>141.5</v>
+        <v>124.3</v>
       </c>
       <c r="J101" s="34">
-        <v>95.1</v>
+        <v>157.1</v>
       </c>
       <c r="U101" s="34">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="Z101" s="35"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B102" s="35">
-        <v>35859</v>
+        <v>35867</v>
       </c>
       <c r="C102" s="34">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D102" s="34">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F102" s="34">
-        <v>331.5</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="G102" s="34">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H102" s="34">
-        <v>50</v>
+        <v>12.2</v>
       </c>
       <c r="I102" s="34">
-        <v>124.3</v>
+        <v>116.5</v>
       </c>
       <c r="J102" s="34">
-        <v>157.1</v>
+        <v>176.9</v>
       </c>
       <c r="U102" s="34">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z102" s="35"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B103" s="35">
-        <v>35867</v>
+        <v>35817</v>
       </c>
       <c r="C103" s="34">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D103" s="34">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F103" s="34">
-        <v>305.60000000000002</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="G103" s="34">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H103" s="34">
-        <v>12.2</v>
+        <v>94.2</v>
       </c>
       <c r="I103" s="34">
-        <v>116.5</v>
-      </c>
-      <c r="J103" s="34">
-        <v>176.9</v>
-      </c>
+        <v>52.5</v>
+      </c>
+      <c r="J103" s="34"/>
       <c r="U103" s="34">
-        <v>7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z103" s="35"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C104" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D104" s="34">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F104" s="34">
-        <v>146.69999999999999</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G104" s="34">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H104" s="34">
-        <v>94.2</v>
+        <v>84.5</v>
       </c>
       <c r="I104" s="34">
-        <v>52.5</v>
-      </c>
-      <c r="J104" s="34"/>
+        <v>119.6</v>
+      </c>
+      <c r="J104" s="34">
+        <v>117.9</v>
+      </c>
       <c r="U104" s="34">
-        <v>4.9000000000000004</v>
+        <v>7.1</v>
       </c>
       <c r="Z104" s="35"/>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B105" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C105" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D105" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F105" s="34">
-        <v>322.10000000000002</v>
+        <v>352.9</v>
       </c>
       <c r="G105" s="34">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H105" s="34">
-        <v>84.5</v>
+        <v>80.8</v>
       </c>
       <c r="I105" s="34">
-        <v>119.6</v>
+        <v>133.5</v>
       </c>
       <c r="J105" s="34">
-        <v>117.9</v>
+        <v>138.6</v>
       </c>
       <c r="U105" s="34">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="Z105" s="35"/>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C106" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D106" s="34">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F106" s="34">
-        <v>352.9</v>
+        <v>359.6</v>
       </c>
       <c r="G106" s="34">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H106" s="34">
-        <v>80.8</v>
+        <v>21.9</v>
       </c>
       <c r="I106" s="34">
-        <v>133.5</v>
+        <v>103.6</v>
       </c>
       <c r="J106" s="34">
-        <v>138.6</v>
+        <v>234</v>
       </c>
       <c r="U106" s="34">
-        <v>8.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z106" s="35"/>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B107" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C107" s="34">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D107" s="34">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F107" s="34">
-        <v>359.6</v>
+        <v>298</v>
       </c>
       <c r="G107" s="34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H107" s="34">
-        <v>21.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I107" s="34">
-        <v>103.6</v>
+        <v>79.2</v>
       </c>
       <c r="J107" s="34">
-        <v>234</v>
+        <v>210.1</v>
       </c>
       <c r="U107" s="34">
-        <v>9.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="Z107" s="35"/>
     </row>
@@ -8510,240 +8494,210 @@
         <v>236</v>
       </c>
       <c r="B108" s="35">
-        <v>35878</v>
+        <v>35817</v>
       </c>
       <c r="C108" s="34">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D108" s="34">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="F108" s="34">
-        <v>298</v>
+        <v>13.7</v>
       </c>
       <c r="G108" s="34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H108" s="34">
-        <v>8.6999999999999993</v>
+        <v>12</v>
       </c>
       <c r="I108" s="34">
-        <v>79.2</v>
-      </c>
-      <c r="J108" s="34">
-        <v>210.1</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J108" s="34"/>
       <c r="U108" s="34">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="Z108" s="35"/>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B109" s="35">
-        <v>35817</v>
+        <v>35845</v>
       </c>
       <c r="C109" s="34">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D109" s="34">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F109" s="34">
-        <v>13.7</v>
+        <v>200.8</v>
       </c>
       <c r="G109" s="34">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H109" s="34">
-        <v>12</v>
+        <v>94.8</v>
       </c>
       <c r="I109" s="34">
-        <v>1.6</v>
-      </c>
-      <c r="J109" s="34"/>
+        <v>92.2</v>
+      </c>
+      <c r="J109" s="34">
+        <v>13.8</v>
+      </c>
       <c r="U109" s="34">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z109" s="35"/>
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B110" s="35">
-        <v>35845</v>
+        <v>35859</v>
       </c>
       <c r="C110" s="34">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D110" s="34">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F110" s="34">
-        <v>200.8</v>
+        <v>374.1</v>
       </c>
       <c r="G110" s="34">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H110" s="34">
-        <v>94.8</v>
+        <v>122.6</v>
       </c>
       <c r="I110" s="34">
-        <v>92.2</v>
+        <v>94</v>
       </c>
       <c r="J110" s="34">
-        <v>13.8</v>
+        <v>157.5</v>
       </c>
       <c r="U110" s="34">
-        <v>4.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z110" s="35"/>
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B111" s="35">
-        <v>35859</v>
+        <v>35873</v>
       </c>
       <c r="C111" s="34">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D111" s="34">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F111" s="34">
-        <v>374.1</v>
+        <v>423.7</v>
       </c>
       <c r="G111" s="34">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H111" s="34">
-        <v>122.6</v>
+        <v>97</v>
       </c>
       <c r="I111" s="34">
-        <v>94</v>
+        <v>98.1</v>
       </c>
       <c r="J111" s="34">
-        <v>157.5</v>
+        <v>228.6</v>
       </c>
       <c r="U111" s="34">
-        <v>9.8000000000000007</v>
+        <v>11.6</v>
       </c>
       <c r="Z111" s="35"/>
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B112" s="35">
-        <v>35873</v>
+        <v>35878</v>
       </c>
       <c r="C112" s="34">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D112" s="34">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F112" s="34">
-        <v>423.7</v>
+        <v>302.8</v>
       </c>
       <c r="G112" s="34">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="H112" s="34">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I112" s="34">
-        <v>98.1</v>
+        <v>56.4</v>
       </c>
       <c r="J112" s="34">
-        <v>228.6</v>
+        <v>243.5</v>
       </c>
       <c r="U112" s="34">
-        <v>11.6</v>
+        <v>8.1</v>
       </c>
       <c r="Z112" s="35"/>
     </row>
-    <row r="113" spans="1:26">
-      <c r="A113" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B113" s="35">
-        <v>35878</v>
-      </c>
-      <c r="C113" s="34">
-        <v>90</v>
-      </c>
-      <c r="D113" s="34">
-        <v>91</v>
-      </c>
-      <c r="F113" s="34">
-        <v>302.8</v>
-      </c>
-      <c r="G113" s="34">
-        <v>0</v>
-      </c>
-      <c r="H113" s="34">
-        <v>3</v>
-      </c>
-      <c r="I113" s="34">
-        <v>56.4</v>
-      </c>
-      <c r="J113" s="34">
-        <v>243.5</v>
-      </c>
-      <c r="U113" s="34">
-        <v>8.1</v>
-      </c>
+    <row r="113" spans="26:26">
       <c r="Z113" s="35"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="26:26">
       <c r="Z114" s="35"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="26:26">
       <c r="Z115" s="35"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="26:26">
       <c r="Z116" s="35"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="26:26">
       <c r="Z117" s="35"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="26:26">
       <c r="Z118" s="35"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="26:26">
       <c r="Z119" s="35"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="26:26">
       <c r="Z120" s="35"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="26:26">
       <c r="Z121" s="35"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="26:26">
       <c r="Z122" s="35"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="26:26">
       <c r="Z123" s="35"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="26:26">
       <c r="Z124" s="35"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="26:26">
       <c r="Z125" s="35"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="26:26">
       <c r="Z126" s="35"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="26:26">
       <c r="Z127" s="35"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="26:26">
       <c r="Z128" s="35"/>
     </row>
     <row r="129" spans="26:26">
@@ -8958,9 +8912,6 @@
     </row>
     <row r="199" spans="26:26">
       <c r="Z199" s="35"/>
-    </row>
-    <row r="200" spans="26:26">
-      <c r="Z200" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8984,6 +8935,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -9155,12 +9112,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9171,6 +9122,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9188,15 +9148,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
   <ds:schemaRefs>

--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAEC0C6-A981-4B10-B1F9-DBF4629021E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FE83C-5A81-45BA-9805-08657C6DF58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Validation" sheetId="3" r:id="rId3"/>
-    <sheet name="Old_Validation" sheetId="4" r:id="rId4"/>
+    <sheet name="Old Validation" sheetId="4" r:id="rId4"/>
     <sheet name="Robertson 2002 Exp" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
   <si>
     <t>SimulationName</t>
   </si>
@@ -510,6 +510,9 @@
     <t>aps18SowJan4_Berken</t>
   </si>
   <si>
+    <t>aps18SowNov18_King</t>
+  </si>
+  <si>
     <t>aps18SowDec14_King</t>
   </si>
   <si>
@@ -723,31 +726,31 @@
     <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
-    <t>Irr_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec31SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec31SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec31SowEmerald</t>
+    <t>Irr_Dec4Emerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec18Emerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec31Emerald</t>
+  </si>
+  <si>
+    <t>RF_Dec4Emerald</t>
+  </si>
+  <si>
+    <t>RF_Dec18Emerald</t>
+  </si>
+  <si>
+    <t>RF_Dec31Emerald</t>
+  </si>
+  <si>
+    <t>RO_Dec31Emerald</t>
+  </si>
+  <si>
+    <t>RO_Dec18Emerald</t>
+  </si>
+  <si>
+    <t>RO_Dec4Emerald</t>
   </si>
 </sst>
 </file>
@@ -934,7 +937,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,7 +982,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4422,11 +4424,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4445,61 +4447,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>223</v>
-      </c>
       <c r="U1" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>6</v>
@@ -4508,10 +4510,10 @@
         <v>105</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -4519,7 +4521,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="23">
-        <v>33347</v>
+        <v>33370</v>
       </c>
       <c r="C2" s="17">
         <v>108</v>
@@ -4546,12 +4548,12 @@
         <v>91.53</v>
       </c>
       <c r="K2" s="21">
-        <f t="shared" ref="K2:K22" si="0">E2/F2</f>
+        <f t="shared" ref="K2:K23" si="0">E2/F2</f>
         <v>0.46687582228519381</v>
       </c>
       <c r="L2" s="21">
-        <f>G2/H2</f>
-        <v>1.5394282123782594E-2</v>
+        <f>G2/H2*10000</f>
+        <v>153.94282123782594</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
@@ -4576,7 +4578,7 @@
         <v>151</v>
       </c>
       <c r="B3" s="23">
-        <v>33347</v>
+        <v>33370</v>
       </c>
       <c r="C3" s="19">
         <v>108</v>
@@ -4606,9 +4608,8 @@
         <f t="shared" si="0"/>
         <v>0.50987730821663158</v>
       </c>
-      <c r="L3" s="21">
-        <f>G3/H3</f>
-        <v>1.5873015873015872E-2</v>
+      <c r="L3" s="19">
+        <v>158.73015873015873</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4632,8 +4633,8 @@
       <c r="A4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="36">
-        <v>34365</v>
+      <c r="B4" s="23">
+        <v>34288</v>
       </c>
       <c r="C4" s="26">
         <v>20</v>
@@ -4680,8 +4681,8 @@
       <c r="A5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="36">
-        <v>34373</v>
+      <c r="B5" s="23">
+        <v>34307</v>
       </c>
       <c r="C5" s="26">
         <v>39</v>
@@ -4728,8 +4729,8 @@
       <c r="A6" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="36">
-        <v>34390</v>
+      <c r="B6" s="23">
+        <v>34324</v>
       </c>
       <c r="C6" s="26">
         <v>56</v>
@@ -4776,8 +4777,8 @@
       <c r="A7" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="36">
-        <v>34414</v>
+      <c r="B7" s="23">
+        <v>34348</v>
       </c>
       <c r="C7" s="26">
         <v>80</v>
@@ -4824,8 +4825,8 @@
       <c r="A8" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="36">
-        <v>34365</v>
+      <c r="B8" s="23">
+        <v>34288</v>
       </c>
       <c r="C8" s="26">
         <v>20</v>
@@ -4872,20 +4873,20 @@
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="36">
-        <v>34390</v>
+      <c r="B9" s="23">
+        <v>34307</v>
       </c>
       <c r="C9" s="26">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D9" s="21">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E9" s="21">
-        <v>132.333201</v>
+        <v>116.33321699999999</v>
       </c>
       <c r="F9" s="21">
-        <v>219.4331139</v>
+        <v>92.444351999999981</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
@@ -4893,7 +4894,7 @@
       <c r="J9" s="21"/>
       <c r="K9" s="21">
         <f t="shared" si="0"/>
-        <v>0.60306850979796445</v>
+        <v>1.2584134615384617</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -4910,30 +4911,30 @@
         <v>107</v>
       </c>
       <c r="X9" s="26">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Y9" s="26">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="36">
-        <v>34414</v>
+      <c r="B10" s="23">
+        <v>34324</v>
       </c>
       <c r="C10" s="26">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D10" s="21">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="21">
-        <v>131.333202</v>
+        <v>132.333201</v>
       </c>
       <c r="F10" s="21">
-        <v>247.19975279999994</v>
+        <v>219.4331139</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
@@ -4941,7 +4942,7 @@
       <c r="J10" s="21"/>
       <c r="K10" s="21">
         <f t="shared" si="0"/>
-        <v>0.53128371089536153</v>
+        <v>0.60306850979796445</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -4958,30 +4959,30 @@
         <v>107</v>
       </c>
       <c r="X10" s="26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y10" s="26">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="36">
-        <v>34424</v>
+      <c r="B11" s="23">
+        <v>34348</v>
       </c>
       <c r="C11" s="26">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="21">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="21">
-        <v>93.999905999999996</v>
+        <v>131.333202</v>
       </c>
       <c r="F11" s="21">
-        <v>152.26651439999998</v>
+        <v>247.19975279999994</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
@@ -4989,7 +4990,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21">
         <f t="shared" si="0"/>
-        <v>0.61733800350262702</v>
+        <v>0.53128371089536153</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -4999,37 +5000,37 @@
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="17"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="21" t="s">
         <v>107</v>
       </c>
       <c r="X11" s="26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y11" s="26">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="36">
-        <v>34450</v>
+      <c r="B12" s="23">
+        <v>34358</v>
       </c>
       <c r="C12" s="26">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D12" s="21">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E12" s="21">
-        <v>115.33321799999999</v>
+        <v>93.999905999999996</v>
       </c>
       <c r="F12" s="21">
-        <v>233.66643299999996</v>
+        <v>152.26651439999998</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
@@ -5037,7 +5038,7 @@
       <c r="J12" s="21"/>
       <c r="K12" s="21">
         <f t="shared" si="0"/>
-        <v>0.49358059914407992</v>
+        <v>0.61733800350262702</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
@@ -5054,38 +5055,38 @@
         <v>107</v>
       </c>
       <c r="X12" s="26">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="Y12" s="26">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="19" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B13" s="23">
-        <v>34436</v>
-      </c>
-      <c r="C13" s="21">
-        <v>118</v>
+        <v>34384</v>
+      </c>
+      <c r="C13" s="26">
+        <v>116</v>
       </c>
       <c r="D13" s="21">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E13" s="21">
-        <v>84.47999999999999</v>
+        <v>115.33321799999999</v>
       </c>
       <c r="F13" s="21">
-        <v>317.125</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="29"/>
+        <v>233.66643299999996</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21">
         <f t="shared" si="0"/>
-        <v>0.26639337800551832</v>
+        <v>0.49358059914407992</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -5097,39 +5098,43 @@
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="X13" s="26">
+        <v>62</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="23">
-        <v>34444</v>
+        <v>34436</v>
       </c>
       <c r="C14" s="21">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D14" s="21">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E14" s="21">
-        <v>33.4</v>
+        <v>84.47999999999999</v>
       </c>
       <c r="F14" s="21">
-        <v>107.2</v>
+        <v>317.125</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21">
         <f t="shared" si="0"/>
-        <v>0.31156716417910446</v>
+        <v>0.26639337800551832</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -5143,29 +5148,29 @@
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
       <c r="W14" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="23">
-        <v>34417</v>
+        <v>34444</v>
       </c>
       <c r="C15" s="21">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D15" s="21">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="E15" s="21">
-        <v>78.3</v>
+        <v>33.4</v>
       </c>
       <c r="F15" s="21">
-        <v>243</v>
+        <v>107.2</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -5173,7 +5178,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21">
         <f t="shared" si="0"/>
-        <v>0.32222222222222219</v>
+        <v>0.31156716417910446</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -5187,29 +5192,29 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="23">
-        <v>34413</v>
+        <v>34417</v>
       </c>
       <c r="C16" s="21">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D16" s="21">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E16" s="21">
-        <v>161.9</v>
+        <v>78.3</v>
       </c>
       <c r="F16" s="21">
-        <v>412.6</v>
+        <v>243</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -5217,7 +5222,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21">
         <f t="shared" si="0"/>
-        <v>0.39238972370334463</v>
+        <v>0.32222222222222219</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -5231,29 +5236,29 @@
       <c r="U16" s="21"/>
       <c r="V16" s="21"/>
       <c r="W16" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="23">
-        <v>34398</v>
+        <v>34413</v>
       </c>
       <c r="C17" s="21">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D17" s="21">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E17" s="21">
-        <v>96.8</v>
+        <v>161.9</v>
       </c>
       <c r="F17" s="21">
-        <v>329</v>
+        <v>412.6</v>
       </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
@@ -5261,7 +5266,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21">
         <f t="shared" si="0"/>
-        <v>0.29422492401215805</v>
+        <v>0.39238972370334463</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -5275,29 +5280,29 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="23">
-        <v>34410</v>
+        <v>34398</v>
       </c>
       <c r="C18" s="21">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D18" s="21">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E18" s="21">
-        <v>140.1</v>
+        <v>96.8</v>
       </c>
       <c r="F18" s="21">
-        <v>299.8</v>
+        <v>329</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -5305,7 +5310,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21">
         <f t="shared" si="0"/>
-        <v>0.46731154102735151</v>
+        <v>0.29422492401215805</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -5319,29 +5324,29 @@
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="23">
-        <v>34432</v>
+        <v>34410</v>
       </c>
       <c r="C19" s="21">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D19" s="21">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E19" s="21">
-        <v>132</v>
+        <v>140.1</v>
       </c>
       <c r="F19" s="21">
-        <v>340.9</v>
+        <v>299.8</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -5349,7 +5354,7 @@
       <c r="J19" s="21"/>
       <c r="K19" s="21">
         <f t="shared" si="0"/>
-        <v>0.3872103256086829</v>
+        <v>0.46731154102735151</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -5363,29 +5368,29 @@
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="23">
-        <v>34437</v>
+        <v>34432</v>
       </c>
       <c r="C20" s="21">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D20" s="21">
+        <v>117</v>
+      </c>
+      <c r="E20" s="21">
         <v>132</v>
       </c>
-      <c r="E20" s="21">
-        <v>59</v>
-      </c>
       <c r="F20" s="21">
-        <v>138.69999999999999</v>
+        <v>340.9</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -5393,7 +5398,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21">
         <f t="shared" si="0"/>
-        <v>0.42537851478010097</v>
+        <v>0.3872103256086829</v>
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
@@ -5407,29 +5412,29 @@
       <c r="U20" s="21"/>
       <c r="V20" s="21"/>
       <c r="W20" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="23">
-        <v>34414</v>
+        <v>34437</v>
       </c>
       <c r="C21" s="21">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D21" s="21">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E21" s="21">
-        <v>85.6</v>
+        <v>59</v>
       </c>
       <c r="F21" s="21">
-        <v>309.60000000000002</v>
+        <v>138.69999999999999</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -5437,7 +5442,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21">
         <f t="shared" si="0"/>
-        <v>0.27648578811369506</v>
+        <v>0.42537851478010097</v>
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
@@ -5451,37 +5456,37 @@
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X21" s="21"/>
       <c r="Y21" s="21"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="19" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B22" s="23">
-        <v>32946</v>
-      </c>
-      <c r="C22" s="17">
-        <v>89</v>
+        <v>34414</v>
+      </c>
+      <c r="C22" s="21">
+        <v>96</v>
       </c>
       <c r="D22" s="21">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E22" s="21">
-        <v>223.4</v>
+        <v>85.6</v>
       </c>
       <c r="F22" s="21">
-        <v>731.5</v>
-      </c>
-      <c r="G22" s="24"/>
+        <v>309.60000000000002</v>
+      </c>
+      <c r="G22" s="21"/>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21">
         <f t="shared" si="0"/>
-        <v>0.30539986329460017</v>
+        <v>0.27648578811369506</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -5495,7 +5500,7 @@
       <c r="U22" s="21"/>
       <c r="V22" s="21"/>
       <c r="W22" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X22" s="21"/>
       <c r="Y22" s="21"/>
@@ -5505,35 +5510,40 @@
         <v>171</v>
       </c>
       <c r="B23" s="23">
-        <v>33324</v>
-      </c>
-      <c r="C23" s="30">
-        <v>102</v>
-      </c>
-      <c r="D23" s="31">
-        <v>87</v>
-      </c>
-      <c r="E23" s="32">
-        <v>126.11111111111111</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="32"/>
+        <v>34407</v>
+      </c>
+      <c r="C23" s="17">
+        <v>89</v>
+      </c>
+      <c r="D23" s="21">
+        <v>85</v>
+      </c>
+      <c r="E23" s="21">
+        <v>223.4</v>
+      </c>
+      <c r="F23" s="21">
+        <v>731.5</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21">
+        <f t="shared" si="0"/>
+        <v>0.30539986329460017</v>
+      </c>
+      <c r="L23" s="21"/>
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
       <c r="V23" s="21"/>
-      <c r="W23" s="32" t="s">
+      <c r="W23" s="21" t="s">
         <v>117</v>
       </c>
       <c r="X23" s="21"/>
@@ -5544,16 +5554,16 @@
         <v>172</v>
       </c>
       <c r="B24" s="23">
-        <v>33329</v>
+        <v>34420</v>
       </c>
       <c r="C24" s="30">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D24" s="31">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E24" s="32">
-        <v>212.32638888888886</v>
+        <v>126.11111111111111</v>
       </c>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
@@ -5583,31 +5593,35 @@
         <v>173</v>
       </c>
       <c r="B25" s="23">
-        <v>32241</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="19">
-        <v>137.9</v>
-      </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+        <v>34425</v>
+      </c>
+      <c r="C25" s="30">
+        <v>107</v>
+      </c>
+      <c r="D25" s="31">
+        <v>92</v>
+      </c>
+      <c r="E25" s="32">
+        <v>212.32638888888886</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="21"/>
-      <c r="L25" s="19"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
       <c r="V25" s="21"/>
-      <c r="W25" s="19" t="s">
+      <c r="W25" s="32" t="s">
         <v>117</v>
       </c>
       <c r="X25" s="21"/>
@@ -5615,15 +5629,15 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="23">
-        <v>32261</v>
+        <v>32241</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="31"/>
       <c r="E26" s="19">
-        <v>97.6</v>
+        <v>137.9</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -5653,12 +5667,12 @@
         <v>176</v>
       </c>
       <c r="B27" s="23">
-        <v>32278</v>
+        <v>32261</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="31"/>
       <c r="E27" s="19">
-        <v>117.6</v>
+        <v>97.6</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -5688,12 +5702,12 @@
         <v>177</v>
       </c>
       <c r="B28" s="23">
-        <v>32261</v>
+        <v>32278</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="31"/>
       <c r="E28" s="19">
-        <v>133.4</v>
+        <v>117.6</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -5723,12 +5737,12 @@
         <v>178</v>
       </c>
       <c r="B29" s="23">
-        <v>32278</v>
+        <v>32261</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="31"/>
       <c r="E29" s="19">
-        <v>132.69999999999999</v>
+        <v>133.4</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -5755,15 +5769,15 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" s="19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B30" s="23">
-        <v>32241</v>
+        <v>32278</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="31"/>
       <c r="E30" s="19">
-        <v>179</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -5790,15 +5804,15 @@
     </row>
     <row r="31" spans="1:25">
       <c r="A31" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B31" s="23">
-        <v>32261</v>
+        <v>32241</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="31"/>
       <c r="E31" s="19">
-        <v>152.4</v>
+        <v>179</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -5828,12 +5842,12 @@
         <v>180</v>
       </c>
       <c r="B32" s="23">
-        <v>32278</v>
+        <v>32261</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="31"/>
       <c r="E32" s="19">
-        <v>132.69999999999999</v>
+        <v>152.4</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -5860,34 +5874,34 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" s="19" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B33" s="23">
-        <v>32226</v>
+        <v>32278</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="32">
-        <v>115.9</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="E33" s="19">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="21"/>
-      <c r="L33" s="32"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
       <c r="V33" s="21"/>
-      <c r="W33" s="32" t="s">
+      <c r="W33" s="19" t="s">
         <v>117</v>
       </c>
       <c r="X33" s="21"/>
@@ -5903,7 +5917,7 @@
       <c r="C34" s="19"/>
       <c r="D34" s="31"/>
       <c r="E34" s="32">
-        <v>151.1</v>
+        <v>115.9</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -5936,9 +5950,9 @@
         <v>32226</v>
       </c>
       <c r="C35" s="19"/>
-      <c r="D35" s="32"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="32">
-        <v>168.6</v>
+        <v>151.1</v>
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
@@ -5968,12 +5982,12 @@
         <v>164</v>
       </c>
       <c r="B36" s="23">
-        <v>32241</v>
+        <v>32226</v>
       </c>
       <c r="C36" s="19"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="32">
-        <v>84</v>
+        <v>168.6</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -6008,7 +6022,7 @@
       <c r="C37" s="19"/>
       <c r="D37" s="31"/>
       <c r="E37" s="32">
-        <v>100.6</v>
+        <v>84</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -6043,7 +6057,7 @@
       <c r="C38" s="19"/>
       <c r="D38" s="31"/>
       <c r="E38" s="32">
-        <v>87.3</v>
+        <v>100.6</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -6078,7 +6092,7 @@
       <c r="C39" s="19"/>
       <c r="D39" s="31"/>
       <c r="E39" s="32">
-        <v>102.7</v>
+        <v>87.3</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -6113,7 +6127,7 @@
       <c r="C40" s="19"/>
       <c r="D40" s="31"/>
       <c r="E40" s="32">
-        <v>100.6</v>
+        <v>102.7</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -6148,7 +6162,7 @@
       <c r="C41" s="19"/>
       <c r="D41" s="31"/>
       <c r="E41" s="32">
-        <v>93.4</v>
+        <v>100.6</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -6175,27 +6189,22 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" s="19" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B42" s="23">
-        <v>28194</v>
+        <v>32241</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="31"/>
       <c r="E42" s="32">
-        <v>102</v>
-      </c>
-      <c r="F42" s="32">
-        <v>190</v>
-      </c>
+        <v>93.4</v>
+      </c>
+      <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
-      <c r="K42" s="21">
-        <f t="shared" ref="K42:K47" si="1">E42/F42</f>
-        <v>0.5368421052631579</v>
-      </c>
+      <c r="K42" s="21"/>
       <c r="L42" s="32"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -6208,7 +6217,7 @@
       <c r="U42" s="32"/>
       <c r="V42" s="21"/>
       <c r="W42" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
@@ -6223,18 +6232,18 @@
       <c r="C43" s="19"/>
       <c r="D43" s="31"/>
       <c r="E43" s="32">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F43" s="32">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="21">
-        <f t="shared" si="1"/>
-        <v>0.57831325301204817</v>
+        <f t="shared" ref="K43:K48" si="1">E43/F43</f>
+        <v>0.5368421052631579</v>
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="21"/>
@@ -6255,18 +6264,18 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44" s="23">
-        <v>28193</v>
+        <v>28194</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="31"/>
       <c r="E44" s="32">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F44" s="32">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -6274,7 +6283,7 @@
       <c r="J44" s="32"/>
       <c r="K44" s="21">
         <f t="shared" si="1"/>
-        <v>0.63366336633663367</v>
+        <v>0.57831325301204817</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="21"/>
@@ -6295,18 +6304,18 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B45" s="23">
-        <v>28591</v>
+        <v>28193</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="31"/>
       <c r="E45" s="32">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="F45" s="32">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -6314,7 +6323,7 @@
       <c r="J45" s="32"/>
       <c r="K45" s="21">
         <f t="shared" si="1"/>
-        <v>0.40989399293286222</v>
+        <v>0.63366336633663367</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="21"/>
@@ -6335,18 +6344,18 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="19" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B46" s="23">
         <v>28591</v>
       </c>
       <c r="C46" s="19"/>
-      <c r="D46" s="32"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="32">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="F46" s="32">
-        <v>101</v>
+        <v>283</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -6354,7 +6363,7 @@
       <c r="J46" s="32"/>
       <c r="K46" s="21">
         <f t="shared" si="1"/>
-        <v>0.36633663366336633</v>
+        <v>0.40989399293286222</v>
       </c>
       <c r="L46" s="32"/>
       <c r="M46" s="21"/>
@@ -6375,7 +6384,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B47" s="23">
         <v>28591</v>
@@ -6383,10 +6392,10 @@
       <c r="C47" s="19"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F47" s="32">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -6394,7 +6403,7 @@
       <c r="J47" s="32"/>
       <c r="K47" s="21">
         <f t="shared" si="1"/>
-        <v>0.45789473684210524</v>
+        <v>0.36633663366336633</v>
       </c>
       <c r="L47" s="32"/>
       <c r="M47" s="21"/>
@@ -6415,42 +6424,43 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="19" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B48" s="23">
-        <v>29400</v>
+        <v>28591</v>
       </c>
       <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19">
-        <v>250</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="19"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32">
+        <v>87</v>
+      </c>
+      <c r="F48" s="32">
+        <v>190</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="21">
+        <f t="shared" si="1"/>
+        <v>0.45789473684210524</v>
+      </c>
+      <c r="L48" s="32"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="21"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="21"/>
       <c r="W48" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="X48" s="21">
-        <v>36</v>
-      </c>
-      <c r="Y48" s="21">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="19" t="s">
@@ -6462,7 +6472,7 @@
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -6485,10 +6495,10 @@
         <v>119</v>
       </c>
       <c r="X49" s="21">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y49" s="21">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -6501,7 +6511,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -6524,10 +6534,10 @@
         <v>119</v>
       </c>
       <c r="X50" s="21">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y50" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -6535,24 +6545,19 @@
         <v>184</v>
       </c>
       <c r="B51" s="23">
-        <v>29312</v>
+        <v>29400</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19">
-        <v>147</v>
-      </c>
-      <c r="F51" s="19">
-        <v>541</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="21">
-        <f>E51/F51</f>
-        <v>0.27171903881700554</v>
-      </c>
+      <c r="K51" s="21"/>
       <c r="L51" s="19"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21"/>
@@ -6567,8 +6572,12 @@
       <c r="W51" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
+      <c r="X51" s="21">
+        <v>35</v>
+      </c>
+      <c r="Y51" s="21">
+        <v>64</v>
+      </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="19" t="s">
@@ -6580,10 +6589,10 @@
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="19">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F52" s="19">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -6591,7 +6600,7 @@
       <c r="J52" s="19"/>
       <c r="K52" s="21">
         <f>E52/F52</f>
-        <v>0.2689243027888446</v>
+        <v>0.27171903881700554</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" s="21"/>
@@ -6620,10 +6629,10 @@
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="19">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F53" s="19">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -6631,7 +6640,7 @@
       <c r="J53" s="19"/>
       <c r="K53" s="21">
         <f>E53/F53</f>
-        <v>0.25124792013311148</v>
+        <v>0.2689243027888446</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" s="21"/>
@@ -6660,10 +6669,10 @@
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F54" s="19">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -6671,7 +6680,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="21">
         <f>E54/F54</f>
-        <v>0.25225225225225223</v>
+        <v>0.25124792013311148</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" s="21"/>
@@ -6700,10 +6709,10 @@
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F55" s="19">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -6711,7 +6720,7 @@
       <c r="J55" s="19"/>
       <c r="K55" s="21">
         <f>E55/F55</f>
-        <v>0.26094003241491087</v>
+        <v>0.25225225225225223</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" s="21"/>
@@ -6732,35 +6741,40 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B56" s="23">
-        <v>28171</v>
+        <v>29312</v>
       </c>
       <c r="C56" s="19"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32">
-        <v>103</v>
-      </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="32"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19">
+        <v>161</v>
+      </c>
+      <c r="F56" s="19">
+        <v>617</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="21">
+        <f>E56/F56</f>
+        <v>0.26094003241491087</v>
+      </c>
+      <c r="L56" s="19"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
       <c r="O56" s="21"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
       <c r="V56" s="21"/>
       <c r="W56" s="32" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="X56" s="21"/>
       <c r="Y56" s="21"/>
@@ -6770,12 +6784,12 @@
         <v>196</v>
       </c>
       <c r="B57" s="23">
-        <v>28239</v>
+        <v>28171</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="31"/>
       <c r="E57" s="32">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
@@ -6810,7 +6824,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="31"/>
       <c r="E58" s="32">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
@@ -6845,7 +6859,7 @@
       <c r="C59" s="19"/>
       <c r="D59" s="31"/>
       <c r="E59" s="32">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
@@ -6875,12 +6889,12 @@
         <v>199</v>
       </c>
       <c r="B60" s="23">
-        <v>28171</v>
+        <v>28239</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="31"/>
       <c r="E60" s="32">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="F60" s="32"/>
       <c r="G60" s="32"/>
@@ -6915,7 +6929,7 @@
       <c r="C61" s="19"/>
       <c r="D61" s="31"/>
       <c r="E61" s="32">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F61" s="32"/>
       <c r="G61" s="32"/>
@@ -6950,7 +6964,7 @@
       <c r="C62" s="19"/>
       <c r="D62" s="31"/>
       <c r="E62" s="32">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F62" s="32"/>
       <c r="G62" s="32"/>
@@ -6980,12 +6994,12 @@
         <v>202</v>
       </c>
       <c r="B63" s="23">
-        <v>28200</v>
+        <v>28171</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="31"/>
       <c r="E63" s="32">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F63" s="32"/>
       <c r="G63" s="32"/>
@@ -7020,10 +7034,10 @@
       <c r="C64" s="19"/>
       <c r="D64" s="31"/>
       <c r="E64" s="32">
-        <v>91</v>
-      </c>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+        <v>122</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
@@ -7055,7 +7069,7 @@
       <c r="C65" s="19"/>
       <c r="D65" s="31"/>
       <c r="E65" s="32">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -7090,10 +7104,10 @@
       <c r="C66" s="19"/>
       <c r="D66" s="31"/>
       <c r="E66" s="32">
-        <v>110</v>
-      </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
+        <v>102</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
@@ -7120,12 +7134,12 @@
         <v>206</v>
       </c>
       <c r="B67" s="23">
-        <v>28239</v>
+        <v>28200</v>
       </c>
       <c r="C67" s="19"/>
       <c r="D67" s="31"/>
       <c r="E67" s="32">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F67" s="32"/>
       <c r="G67" s="32"/>
@@ -7155,233 +7169,235 @@
         <v>207</v>
       </c>
       <c r="B68" s="23">
-        <v>32970</v>
+        <v>28239</v>
       </c>
       <c r="C68" s="19"/>
-      <c r="D68" s="19">
-        <v>80</v>
-      </c>
-      <c r="E68" s="19">
-        <v>255.86232461632574</v>
-      </c>
-      <c r="F68" s="19">
-        <v>827.42843296930982</v>
-      </c>
-      <c r="G68" s="19">
-        <v>3.7146270068734548</v>
-      </c>
-      <c r="H68" s="19">
-        <v>162.15302218430827</v>
-      </c>
-      <c r="I68" s="19">
-        <v>294.7108780893733</v>
-      </c>
-      <c r="J68" s="19">
-        <v>370.56453269562809</v>
-      </c>
-      <c r="K68" s="21">
-        <f>E68/F68</f>
-        <v>0.30922592748975058</v>
-      </c>
-      <c r="L68" s="19">
-        <v>43.793369997180861</v>
-      </c>
-      <c r="M68" s="19">
-        <v>2.2275</v>
-      </c>
-      <c r="N68" s="19">
-        <v>0.77</v>
-      </c>
-      <c r="O68" s="19">
-        <v>4.5225</v>
-      </c>
-      <c r="P68" s="19">
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="Q68" s="19">
-        <v>3.6016558180705838</v>
-      </c>
-      <c r="R68" s="19">
-        <v>11.573361460739584</v>
-      </c>
-      <c r="S68" s="19">
-        <v>2.286525150986261</v>
-      </c>
-      <c r="T68" s="19">
-        <v>0.69238658835282352</v>
-      </c>
-      <c r="U68" s="19">
-        <v>18.153929018149253</v>
-      </c>
-      <c r="V68" s="19">
-        <v>0.97816440232504842</v>
-      </c>
-      <c r="W68" s="21" t="s">
+      <c r="D68" s="31"/>
+      <c r="E68" s="32">
+        <v>122</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="32"/>
+      <c r="U68" s="32"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="32" t="s">
         <v>107</v>
       </c>
       <c r="X68" s="21"/>
       <c r="Y68" s="21"/>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B69" s="35">
-        <v>35817</v>
-      </c>
-      <c r="C69" s="34">
-        <v>21</v>
-      </c>
-      <c r="D69" s="34">
-        <v>49</v>
-      </c>
-      <c r="F69" s="34">
-        <v>349.5</v>
-      </c>
-      <c r="G69" s="34">
-        <v>5.7</v>
-      </c>
-      <c r="H69" s="34">
-        <v>215.5</v>
-      </c>
-      <c r="I69" s="34">
-        <v>134</v>
-      </c>
-      <c r="J69" s="34"/>
-      <c r="U69" s="34">
-        <v>10.5</v>
-      </c>
-      <c r="Z69" s="35"/>
+      <c r="A69" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="23">
+        <v>32970</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19">
+        <v>80</v>
+      </c>
+      <c r="E69" s="19">
+        <v>255.86232461632574</v>
+      </c>
+      <c r="F69" s="19">
+        <v>827.42843296930982</v>
+      </c>
+      <c r="G69" s="19">
+        <v>3.7146270068734548</v>
+      </c>
+      <c r="H69" s="19">
+        <v>162.15302218430827</v>
+      </c>
+      <c r="I69" s="19">
+        <v>294.7108780893733</v>
+      </c>
+      <c r="J69" s="19">
+        <v>370.56453269562809</v>
+      </c>
+      <c r="K69" s="21">
+        <f>E69/F69</f>
+        <v>0.30922592748975058</v>
+      </c>
+      <c r="L69" s="19">
+        <v>43.793369997180861</v>
+      </c>
+      <c r="M69" s="19">
+        <v>2.2275</v>
+      </c>
+      <c r="N69" s="19">
+        <v>0.77</v>
+      </c>
+      <c r="O69" s="19">
+        <v>4.5225</v>
+      </c>
+      <c r="P69" s="19">
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="Q69" s="19">
+        <v>3.6016558180705838</v>
+      </c>
+      <c r="R69" s="19">
+        <v>11.573361460739584</v>
+      </c>
+      <c r="S69" s="19">
+        <v>2.286525150986261</v>
+      </c>
+      <c r="T69" s="19">
+        <v>0.69238658835282352</v>
+      </c>
+      <c r="U69" s="19">
+        <v>18.153929018149253</v>
+      </c>
+      <c r="V69" s="19">
+        <v>0.97816440232504842</v>
+      </c>
+      <c r="W69" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B70" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C70" s="34">
+        <v>21</v>
+      </c>
+      <c r="D70" s="34">
         <v>49</v>
       </c>
-      <c r="D70" s="34">
-        <v>77</v>
-      </c>
       <c r="F70" s="34">
-        <v>849</v>
+        <v>349.5</v>
       </c>
       <c r="G70" s="34">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="H70" s="34">
-        <v>215.4</v>
+        <v>215.5</v>
       </c>
       <c r="I70" s="34">
-        <v>275.8</v>
-      </c>
-      <c r="J70" s="34">
-        <v>357.8</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="J70" s="34"/>
       <c r="U70" s="34">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z70" s="35"/>
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C71" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D71" s="34">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F71" s="34">
-        <v>892</v>
+        <v>849</v>
       </c>
       <c r="G71" s="34">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H71" s="34">
-        <v>191.3</v>
+        <v>215.4</v>
       </c>
       <c r="I71" s="34">
-        <v>318.7</v>
+        <v>275.8</v>
       </c>
       <c r="J71" s="34">
-        <v>382.7</v>
+        <v>357.8</v>
       </c>
       <c r="U71" s="34">
-        <v>19.100000000000001</v>
+        <v>19</v>
       </c>
       <c r="Z71" s="35"/>
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B72" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C72" s="34">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D72" s="34">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F72" s="34">
-        <v>580.4</v>
+        <v>892</v>
       </c>
       <c r="G72" s="34">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
       <c r="H72" s="34">
-        <v>13.1</v>
+        <v>191.3</v>
       </c>
       <c r="I72" s="34">
-        <v>177.7</v>
+        <v>318.7</v>
       </c>
       <c r="J72" s="34">
-        <v>385.6</v>
+        <v>382.7</v>
       </c>
       <c r="U72" s="34">
-        <v>14.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="Z72" s="35"/>
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B73" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C73" s="34">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D73" s="34">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F73" s="34">
-        <v>589.5</v>
+        <v>580.4</v>
       </c>
       <c r="G73" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H73" s="34">
-        <v>5.0999999999999996</v>
+        <v>13.1</v>
       </c>
       <c r="I73" s="34">
-        <v>155.80000000000001</v>
+        <v>177.7</v>
       </c>
       <c r="J73" s="34">
-        <v>428.7</v>
+        <v>385.6</v>
       </c>
       <c r="U73" s="34">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="Z73" s="35"/>
     </row>
@@ -7390,161 +7406,161 @@
         <v>229</v>
       </c>
       <c r="B74" s="35">
-        <v>35817</v>
+        <v>35878</v>
       </c>
       <c r="C74" s="34">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D74" s="34">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F74" s="34">
-        <v>113.1</v>
+        <v>589.5</v>
       </c>
       <c r="G74" s="34">
-        <v>2.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="H74" s="34">
-        <v>76.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I74" s="34">
-        <v>36.4</v>
-      </c>
-      <c r="J74" s="34"/>
+        <v>155.80000000000001</v>
+      </c>
+      <c r="J74" s="34">
+        <v>428.7</v>
+      </c>
       <c r="U74" s="34">
-        <v>3.9</v>
+        <v>14.3</v>
       </c>
       <c r="Z74" s="35"/>
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B75" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C75" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D75" s="34">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F75" s="34">
-        <v>704.7</v>
+        <v>113.1</v>
       </c>
       <c r="G75" s="34">
-        <v>6.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H75" s="34">
-        <v>211.7</v>
+        <v>76.8</v>
       </c>
       <c r="I75" s="34">
-        <v>251.7</v>
-      </c>
-      <c r="J75" s="34">
-        <v>241.4</v>
-      </c>
+        <v>36.4</v>
+      </c>
+      <c r="J75" s="34"/>
       <c r="U75" s="34">
-        <v>15</v>
+        <v>3.9</v>
       </c>
       <c r="Z75" s="35"/>
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B76" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C76" s="34">
+        <v>49</v>
+      </c>
+      <c r="D76" s="34">
         <v>63</v>
       </c>
-      <c r="D76" s="34">
-        <v>77</v>
-      </c>
       <c r="F76" s="34">
-        <v>779</v>
+        <v>704.7</v>
       </c>
       <c r="G76" s="34">
-        <v>4.2</v>
+        <v>6.6</v>
       </c>
       <c r="H76" s="34">
-        <v>179.2</v>
+        <v>211.7</v>
       </c>
       <c r="I76" s="34">
-        <v>263.89999999999998</v>
+        <v>251.7</v>
       </c>
       <c r="J76" s="34">
-        <v>335.9</v>
+        <v>241.4</v>
       </c>
       <c r="U76" s="34">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="Z76" s="35"/>
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B77" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C77" s="34">
+        <v>63</v>
+      </c>
+      <c r="D77" s="34">
         <v>77</v>
       </c>
-      <c r="D77" s="34">
-        <v>91</v>
-      </c>
       <c r="F77" s="34">
-        <v>661.9</v>
+        <v>779</v>
       </c>
       <c r="G77" s="34">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H77" s="34">
-        <v>114.6</v>
+        <v>179.2</v>
       </c>
       <c r="I77" s="34">
-        <v>222.4</v>
+        <v>263.89999999999998</v>
       </c>
       <c r="J77" s="34">
-        <v>286.2</v>
+        <v>335.9</v>
       </c>
       <c r="U77" s="34">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="Z77" s="35"/>
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B78" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C78" s="34">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D78" s="34">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F78" s="34">
-        <v>542</v>
+        <v>661.9</v>
       </c>
       <c r="G78" s="34">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H78" s="34">
-        <v>13.1</v>
+        <v>114.6</v>
       </c>
       <c r="I78" s="34">
-        <v>177.7</v>
+        <v>222.4</v>
       </c>
       <c r="J78" s="34">
-        <v>360.8</v>
+        <v>286.2</v>
       </c>
       <c r="U78" s="34">
-        <v>12.9</v>
+        <v>14.8</v>
       </c>
       <c r="Z78" s="35"/>
     </row>
@@ -7553,192 +7569,192 @@
         <v>230</v>
       </c>
       <c r="B79" s="35">
-        <v>35817</v>
+        <v>35878</v>
       </c>
       <c r="C79" s="34">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D79" s="34">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F79" s="34">
-        <v>10.6</v>
+        <v>542</v>
       </c>
       <c r="G79" s="34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H79" s="34">
-        <v>8.8000000000000007</v>
+        <v>13.1</v>
       </c>
       <c r="I79" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="J79" s="34"/>
+        <v>177.7</v>
+      </c>
+      <c r="J79" s="34">
+        <v>360.8</v>
+      </c>
       <c r="U79" s="34">
-        <v>0.4</v>
+        <v>12.9</v>
       </c>
       <c r="Z79" s="35"/>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B80" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C80" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D80" s="34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F80" s="34">
-        <v>396.2</v>
+        <v>10.6</v>
       </c>
       <c r="G80" s="34">
-        <v>6.2</v>
+        <v>0.3</v>
       </c>
       <c r="H80" s="34">
-        <v>204.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I80" s="34">
-        <v>175.6</v>
-      </c>
-      <c r="J80" s="34">
-        <v>16.399999999999999</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="J80" s="34"/>
       <c r="U80" s="34">
-        <v>10.5</v>
+        <v>0.4</v>
       </c>
       <c r="Z80" s="35"/>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B81" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C81" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D81" s="34">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F81" s="34">
-        <v>622.1</v>
+        <v>396.2</v>
       </c>
       <c r="G81" s="34">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H81" s="34">
-        <v>182.8</v>
+        <v>204.3</v>
       </c>
       <c r="I81" s="34">
-        <v>191.9</v>
+        <v>175.6</v>
       </c>
       <c r="J81" s="34">
-        <v>247.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="U81" s="34">
-        <v>12.1</v>
+        <v>10.5</v>
       </c>
       <c r="Z81" s="35"/>
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B82" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C82" s="34">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D82" s="34">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F82" s="34">
-        <v>581.5</v>
+        <v>622.1</v>
       </c>
       <c r="G82" s="34">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="H82" s="34">
-        <v>114.6</v>
+        <v>182.8</v>
       </c>
       <c r="I82" s="34">
-        <v>222.4</v>
+        <v>191.9</v>
       </c>
       <c r="J82" s="34">
-        <v>244.5</v>
+        <v>247.4</v>
       </c>
       <c r="U82" s="34">
-        <v>12.8</v>
+        <v>12.1</v>
       </c>
       <c r="Z82" s="35"/>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B83" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C83" s="34">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D83" s="34">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F83" s="34">
-        <v>583.29999999999995</v>
-      </c>
-      <c r="G83" s="34"/>
+        <v>581.5</v>
+      </c>
+      <c r="G83" s="34">
+        <v>3.2</v>
+      </c>
       <c r="H83" s="34">
-        <v>113.4</v>
+        <v>114.6</v>
       </c>
       <c r="I83" s="34">
-        <v>190.7</v>
+        <v>222.4</v>
       </c>
       <c r="J83" s="34">
-        <v>279.10000000000002</v>
+        <v>244.5</v>
       </c>
       <c r="U83" s="34">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="Z83" s="35"/>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B84" s="35">
-        <v>35899</v>
+        <v>35878</v>
       </c>
       <c r="C84" s="34">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D84" s="34">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F84" s="34">
-        <v>473</v>
-      </c>
-      <c r="G84" s="34">
-        <v>0</v>
-      </c>
+        <v>583.29999999999995</v>
+      </c>
+      <c r="G84" s="34"/>
       <c r="H84" s="34">
-        <v>6.4</v>
+        <v>113.4</v>
       </c>
       <c r="I84" s="34">
-        <v>150.6</v>
+        <v>190.7</v>
       </c>
       <c r="J84" s="34">
-        <v>316</v>
+        <v>279.10000000000002</v>
       </c>
       <c r="U84" s="34">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="Z84" s="35"/>
     </row>
@@ -7747,128 +7763,128 @@
         <v>231</v>
       </c>
       <c r="B85" s="35">
-        <v>35817</v>
+        <v>35899</v>
       </c>
       <c r="C85" s="34">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D85" s="34">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F85" s="34">
-        <v>322.10000000000002</v>
+        <v>473</v>
       </c>
       <c r="G85" s="34">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="H85" s="34">
-        <v>196.4</v>
+        <v>6.4</v>
       </c>
       <c r="I85" s="34">
-        <v>125.7</v>
-      </c>
-      <c r="J85" s="34"/>
+        <v>150.6</v>
+      </c>
+      <c r="J85" s="34">
+        <v>316</v>
+      </c>
       <c r="U85" s="34">
-        <v>9.8000000000000007</v>
+        <v>11.4</v>
       </c>
       <c r="Z85" s="35"/>
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B86" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C86" s="34">
+        <v>21</v>
+      </c>
+      <c r="D86" s="34">
         <v>49</v>
       </c>
-      <c r="D86" s="34">
-        <v>77</v>
-      </c>
       <c r="F86" s="34">
-        <v>761.7</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G86" s="34">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H86" s="34">
-        <v>218.6</v>
+        <v>196.4</v>
       </c>
       <c r="I86" s="34">
-        <v>260.3</v>
-      </c>
-      <c r="J86" s="34">
-        <v>282.8</v>
-      </c>
+        <v>125.7</v>
+      </c>
+      <c r="J86" s="34"/>
       <c r="U86" s="34">
-        <v>16.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z86" s="35"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B87" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C87" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D87" s="34">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F87" s="34">
-        <v>842.6</v>
+        <v>761.7</v>
       </c>
       <c r="G87" s="34">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H87" s="34">
-        <v>171.4</v>
+        <v>218.6</v>
       </c>
       <c r="I87" s="34">
-        <v>285.8</v>
+        <v>260.3</v>
       </c>
       <c r="J87" s="34">
-        <v>385.4</v>
+        <v>282.8</v>
       </c>
       <c r="U87" s="34">
-        <v>18.600000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="Z87" s="35"/>
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B88" s="35">
-        <v>35871</v>
+        <v>35859</v>
       </c>
       <c r="C88" s="34">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D88" s="34">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F88" s="34">
-        <v>522.9</v>
+        <v>842.6</v>
       </c>
       <c r="G88" s="34">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H88" s="34">
-        <v>3</v>
+        <v>171.4</v>
       </c>
       <c r="I88" s="34">
-        <v>177.1</v>
+        <v>285.8</v>
       </c>
       <c r="J88" s="34">
-        <v>342.8</v>
+        <v>385.4</v>
       </c>
       <c r="U88" s="34">
-        <v>11.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Z88" s="35"/>
     </row>
@@ -7877,160 +7893,160 @@
         <v>232</v>
       </c>
       <c r="B89" s="35">
-        <v>35817</v>
+        <v>35871</v>
       </c>
       <c r="C89" s="34">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="D89" s="34">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F89" s="34">
-        <v>115.9</v>
+        <v>522.9</v>
       </c>
       <c r="G89" s="34">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H89" s="34">
-        <v>77.5</v>
+        <v>3</v>
       </c>
       <c r="I89" s="34">
-        <v>38.4</v>
-      </c>
-      <c r="J89" s="34"/>
+        <v>177.1</v>
+      </c>
+      <c r="J89" s="34">
+        <v>342.8</v>
+      </c>
       <c r="U89" s="34">
-        <v>4.0999999999999996</v>
+        <v>11.8</v>
       </c>
       <c r="Z89" s="35"/>
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B90" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C90" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D90" s="34">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F90" s="34">
-        <v>639.70000000000005</v>
+        <v>115.9</v>
       </c>
       <c r="G90" s="34">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H90" s="34">
-        <v>177.9</v>
+        <v>77.5</v>
       </c>
       <c r="I90" s="34">
-        <v>199.1</v>
-      </c>
-      <c r="J90" s="34">
-        <v>262.7</v>
-      </c>
+        <v>38.4</v>
+      </c>
+      <c r="J90" s="34"/>
       <c r="U90" s="34">
-        <v>14.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z90" s="35"/>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B91" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C91" s="34">
+        <v>49</v>
+      </c>
+      <c r="D91" s="34">
         <v>63</v>
       </c>
-      <c r="D91" s="34">
-        <v>77</v>
-      </c>
       <c r="F91" s="34">
-        <v>649.6</v>
+        <v>639.70000000000005</v>
       </c>
       <c r="G91" s="34">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H91" s="34">
-        <v>140.69999999999999</v>
+        <v>177.9</v>
       </c>
       <c r="I91" s="34">
-        <v>245.3</v>
+        <v>199.1</v>
       </c>
       <c r="J91" s="34">
-        <v>263.7</v>
+        <v>262.7</v>
       </c>
       <c r="U91" s="34">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="Z91" s="35"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B92" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C92" s="34">
+        <v>63</v>
+      </c>
+      <c r="D92" s="34">
         <v>77</v>
       </c>
-      <c r="D92" s="34">
-        <v>91</v>
-      </c>
       <c r="F92" s="34">
-        <v>500.7</v>
+        <v>649.6</v>
       </c>
       <c r="G92" s="34">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H92" s="34">
-        <v>22.2</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="I92" s="34">
-        <v>184.3</v>
+        <v>245.3</v>
       </c>
       <c r="J92" s="34">
-        <v>294.2</v>
-      </c>
-      <c r="U92" s="34"/>
+        <v>263.7</v>
+      </c>
+      <c r="U92" s="34">
+        <v>14.4</v>
+      </c>
       <c r="Z92" s="35"/>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B93" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C93" s="34">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D93" s="34">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F93" s="34">
-        <v>421.3</v>
+        <v>500.7</v>
       </c>
       <c r="G93" s="34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H93" s="34">
-        <v>5.7</v>
+        <v>22.2</v>
       </c>
       <c r="I93" s="34">
-        <v>137</v>
+        <v>184.3</v>
       </c>
       <c r="J93" s="34">
-        <v>278.7</v>
-      </c>
-      <c r="U93" s="33">
-        <v>9.4</v>
-      </c>
+        <v>294.2</v>
+      </c>
+      <c r="U93" s="34"/>
       <c r="Z93" s="35"/>
     </row>
     <row r="94" spans="1:26">
@@ -8038,160 +8054,160 @@
         <v>233</v>
       </c>
       <c r="B94" s="35">
-        <v>35817</v>
+        <v>35878</v>
       </c>
       <c r="C94" s="34">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D94" s="34">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F94" s="34">
-        <v>10.9</v>
+        <v>421.3</v>
       </c>
       <c r="G94" s="34">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H94" s="34">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="I94" s="34">
-        <v>1.3</v>
-      </c>
-      <c r="J94" s="34"/>
-      <c r="U94" s="34">
-        <v>0.5</v>
+        <v>137</v>
+      </c>
+      <c r="J94" s="34">
+        <v>278.7</v>
+      </c>
+      <c r="U94" s="33">
+        <v>9.4</v>
       </c>
       <c r="Z94" s="35"/>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B95" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C95" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D95" s="34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F95" s="34">
-        <v>403.1</v>
+        <v>10.9</v>
       </c>
       <c r="G95" s="34">
-        <v>6.1</v>
+        <v>0.3</v>
       </c>
       <c r="H95" s="34">
-        <v>203.7</v>
+        <v>9.6</v>
       </c>
       <c r="I95" s="34">
-        <v>171.5</v>
-      </c>
-      <c r="J95" s="34">
-        <v>27.9</v>
-      </c>
+        <v>1.3</v>
+      </c>
+      <c r="J95" s="34"/>
       <c r="U95" s="34">
-        <v>10.4</v>
+        <v>0.5</v>
       </c>
       <c r="Z95" s="35"/>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C96" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D96" s="34">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F96" s="34">
-        <v>561.29999999999995</v>
+        <v>403.1</v>
       </c>
       <c r="G96" s="34">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="H96" s="34">
-        <v>120.8</v>
+        <v>203.7</v>
       </c>
       <c r="I96" s="34">
-        <v>174.5</v>
+        <v>171.5</v>
       </c>
       <c r="J96" s="34">
-        <v>266</v>
+        <v>27.9</v>
       </c>
       <c r="U96" s="34">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="Z96" s="35"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B97" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C97" s="34">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D97" s="34">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F97" s="34">
-        <v>514.6</v>
+        <v>561.29999999999995</v>
       </c>
       <c r="G97" s="34">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="H97" s="34">
-        <v>61.1</v>
+        <v>120.8</v>
       </c>
       <c r="I97" s="34">
-        <v>187</v>
+        <v>174.5</v>
       </c>
       <c r="J97" s="34">
-        <v>266.60000000000002</v>
-      </c>
-      <c r="U97" s="34"/>
+        <v>266</v>
+      </c>
+      <c r="U97" s="34">
+        <v>12.1</v>
+      </c>
       <c r="Z97" s="35"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B98" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C98" s="34">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D98" s="34">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F98" s="34">
-        <v>429.7</v>
+        <v>514.6</v>
       </c>
       <c r="G98" s="34">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H98" s="34">
-        <v>11.2</v>
+        <v>61.1</v>
       </c>
       <c r="I98" s="34">
-        <v>152.30000000000001</v>
+        <v>187</v>
       </c>
       <c r="J98" s="34">
-        <v>266.2</v>
-      </c>
-      <c r="U98" s="34">
-        <v>9.6</v>
-      </c>
+        <v>266.60000000000002</v>
+      </c>
+      <c r="U98" s="34"/>
       <c r="Z98" s="35"/>
     </row>
     <row r="99" spans="1:26">
@@ -8199,293 +8215,293 @@
         <v>234</v>
       </c>
       <c r="B99" s="35">
-        <v>35817</v>
+        <v>35878</v>
       </c>
       <c r="C99" s="34">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D99" s="34">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F99" s="34">
-        <v>328.6</v>
+        <v>429.7</v>
       </c>
       <c r="G99" s="34">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H99" s="34">
-        <v>185.3</v>
+        <v>11.2</v>
       </c>
       <c r="I99" s="34">
-        <v>139.19999999999999</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="J99" s="34">
-        <v>0.9</v>
+        <v>266.2</v>
       </c>
       <c r="U99" s="34">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="Z99" s="35"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B100" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C100" s="34">
+        <v>21</v>
+      </c>
+      <c r="D100" s="34">
         <v>49</v>
       </c>
-      <c r="D100" s="34">
-        <v>77</v>
-      </c>
       <c r="F100" s="34">
-        <v>297.39999999999998</v>
+        <v>328.6</v>
       </c>
       <c r="G100" s="34">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H100" s="34">
-        <v>60.8</v>
+        <v>185.3</v>
       </c>
       <c r="I100" s="34">
-        <v>141.5</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="J100" s="34">
-        <v>95.1</v>
+        <v>0.9</v>
       </c>
       <c r="U100" s="34">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="Z100" s="35"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B101" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C101" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D101" s="34">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F101" s="34">
-        <v>331.5</v>
+        <v>297.39999999999998</v>
       </c>
       <c r="G101" s="34">
         <v>1.1000000000000001</v>
       </c>
       <c r="H101" s="34">
-        <v>50</v>
+        <v>60.8</v>
       </c>
       <c r="I101" s="34">
-        <v>124.3</v>
+        <v>141.5</v>
       </c>
       <c r="J101" s="34">
-        <v>157.1</v>
+        <v>95.1</v>
       </c>
       <c r="U101" s="34">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="Z101" s="35"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="33" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B102" s="35">
-        <v>35867</v>
+        <v>35859</v>
       </c>
       <c r="C102" s="34">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D102" s="34">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F102" s="34">
-        <v>305.60000000000002</v>
+        <v>331.5</v>
       </c>
       <c r="G102" s="34">
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H102" s="34">
-        <v>12.2</v>
+        <v>50</v>
       </c>
       <c r="I102" s="34">
-        <v>116.5</v>
+        <v>124.3</v>
       </c>
       <c r="J102" s="34">
-        <v>176.9</v>
+        <v>157.1</v>
       </c>
       <c r="U102" s="34">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z102" s="35"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B103" s="35">
-        <v>35817</v>
+        <v>35867</v>
       </c>
       <c r="C103" s="34">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D103" s="34">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F103" s="34">
-        <v>146.69999999999999</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="G103" s="34">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="H103" s="34">
-        <v>94.2</v>
+        <v>12.2</v>
       </c>
       <c r="I103" s="34">
-        <v>52.5</v>
-      </c>
-      <c r="J103" s="34"/>
+        <v>116.5</v>
+      </c>
+      <c r="J103" s="34">
+        <v>176.9</v>
+      </c>
       <c r="U103" s="34">
-        <v>4.9000000000000004</v>
+        <v>7</v>
       </c>
       <c r="Z103" s="35"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B104" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C104" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D104" s="34">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="F104" s="34">
-        <v>322.10000000000002</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="G104" s="34">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H104" s="34">
-        <v>84.5</v>
+        <v>94.2</v>
       </c>
       <c r="I104" s="34">
-        <v>119.6</v>
-      </c>
-      <c r="J104" s="34">
-        <v>117.9</v>
-      </c>
+        <v>52.5</v>
+      </c>
+      <c r="J104" s="34"/>
       <c r="U104" s="34">
-        <v>7.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z104" s="35"/>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C105" s="34">
+        <v>49</v>
+      </c>
+      <c r="D105" s="34">
         <v>63</v>
       </c>
-      <c r="D105" s="34">
-        <v>77</v>
-      </c>
       <c r="F105" s="34">
-        <v>352.9</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="G105" s="34">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H105" s="34">
-        <v>80.8</v>
+        <v>84.5</v>
       </c>
       <c r="I105" s="34">
-        <v>133.5</v>
+        <v>119.6</v>
       </c>
       <c r="J105" s="34">
-        <v>138.6</v>
+        <v>117.9</v>
       </c>
       <c r="U105" s="34">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="Z105" s="35"/>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B106" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C106" s="34">
+        <v>63</v>
+      </c>
+      <c r="D106" s="34">
         <v>77</v>
       </c>
-      <c r="D106" s="34">
-        <v>91</v>
-      </c>
       <c r="F106" s="34">
-        <v>359.6</v>
+        <v>352.9</v>
       </c>
       <c r="G106" s="34">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="H106" s="34">
-        <v>21.9</v>
+        <v>80.8</v>
       </c>
       <c r="I106" s="34">
-        <v>103.6</v>
+        <v>133.5</v>
       </c>
       <c r="J106" s="34">
-        <v>234</v>
+        <v>138.6</v>
       </c>
       <c r="U106" s="34">
-        <v>9.8000000000000007</v>
+        <v>8.4</v>
       </c>
       <c r="Z106" s="35"/>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B107" s="35">
-        <v>35878</v>
+        <v>35873</v>
       </c>
       <c r="C107" s="34">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D107" s="34">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F107" s="34">
-        <v>298</v>
+        <v>359.6</v>
       </c>
       <c r="G107" s="34">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H107" s="34">
-        <v>8.6999999999999993</v>
+        <v>21.9</v>
       </c>
       <c r="I107" s="34">
-        <v>79.2</v>
+        <v>103.6</v>
       </c>
       <c r="J107" s="34">
-        <v>210.1</v>
+        <v>234</v>
       </c>
       <c r="U107" s="34">
-        <v>7.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z107" s="35"/>
     </row>
@@ -8494,210 +8510,240 @@
         <v>236</v>
       </c>
       <c r="B108" s="35">
-        <v>35817</v>
+        <v>35878</v>
       </c>
       <c r="C108" s="34">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="D108" s="34">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F108" s="34">
-        <v>13.7</v>
+        <v>298</v>
       </c>
       <c r="G108" s="34">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H108" s="34">
-        <v>12</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I108" s="34">
-        <v>1.6</v>
-      </c>
-      <c r="J108" s="34"/>
+        <v>79.2</v>
+      </c>
+      <c r="J108" s="34">
+        <v>210.1</v>
+      </c>
       <c r="U108" s="34">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z108" s="35"/>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B109" s="35">
-        <v>35845</v>
+        <v>35817</v>
       </c>
       <c r="C109" s="34">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D109" s="34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F109" s="34">
-        <v>200.8</v>
+        <v>13.7</v>
       </c>
       <c r="G109" s="34">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H109" s="34">
-        <v>94.8</v>
+        <v>12</v>
       </c>
       <c r="I109" s="34">
-        <v>92.2</v>
-      </c>
-      <c r="J109" s="34">
-        <v>13.8</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J109" s="34"/>
       <c r="U109" s="34">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="Z109" s="35"/>
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B110" s="35">
-        <v>35859</v>
+        <v>35845</v>
       </c>
       <c r="C110" s="34">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D110" s="34">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F110" s="34">
-        <v>374.1</v>
+        <v>200.8</v>
       </c>
       <c r="G110" s="34">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H110" s="34">
-        <v>122.6</v>
+        <v>94.8</v>
       </c>
       <c r="I110" s="34">
-        <v>94</v>
+        <v>92.2</v>
       </c>
       <c r="J110" s="34">
-        <v>157.5</v>
+        <v>13.8</v>
       </c>
       <c r="U110" s="34">
-        <v>9.8000000000000007</v>
+        <v>4.7</v>
       </c>
       <c r="Z110" s="35"/>
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B111" s="35">
-        <v>35873</v>
+        <v>35859</v>
       </c>
       <c r="C111" s="34">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D111" s="34">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F111" s="34">
-        <v>423.7</v>
+        <v>374.1</v>
       </c>
       <c r="G111" s="34">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H111" s="34">
-        <v>97</v>
+        <v>122.6</v>
       </c>
       <c r="I111" s="34">
-        <v>98.1</v>
+        <v>94</v>
       </c>
       <c r="J111" s="34">
-        <v>228.6</v>
+        <v>157.5</v>
       </c>
       <c r="U111" s="34">
-        <v>11.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z111" s="35"/>
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B112" s="35">
+        <v>35873</v>
+      </c>
+      <c r="C112" s="34">
+        <v>77</v>
+      </c>
+      <c r="D112" s="34">
+        <v>78</v>
+      </c>
+      <c r="F112" s="34">
+        <v>423.7</v>
+      </c>
+      <c r="G112" s="34">
+        <v>3.3</v>
+      </c>
+      <c r="H112" s="34">
+        <v>97</v>
+      </c>
+      <c r="I112" s="34">
+        <v>98.1</v>
+      </c>
+      <c r="J112" s="34">
+        <v>228.6</v>
+      </c>
+      <c r="U112" s="34">
+        <v>11.6</v>
+      </c>
+      <c r="Z112" s="35"/>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B113" s="35">
         <v>35878</v>
       </c>
-      <c r="C112" s="34">
+      <c r="C113" s="34">
         <v>90</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D113" s="34">
         <v>91</v>
       </c>
-      <c r="F112" s="34">
+      <c r="F113" s="34">
         <v>302.8</v>
       </c>
-      <c r="G112" s="34">
-        <v>0</v>
-      </c>
-      <c r="H112" s="34">
+      <c r="G113" s="34">
+        <v>0</v>
+      </c>
+      <c r="H113" s="34">
         <v>3</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I113" s="34">
         <v>56.4</v>
       </c>
-      <c r="J112" s="34">
+      <c r="J113" s="34">
         <v>243.5</v>
       </c>
-      <c r="U112" s="34">
+      <c r="U113" s="34">
         <v>8.1</v>
       </c>
-      <c r="Z112" s="35"/>
-    </row>
-    <row r="113" spans="26:26">
       <c r="Z113" s="35"/>
     </row>
-    <row r="114" spans="26:26">
+    <row r="114" spans="1:26">
       <c r="Z114" s="35"/>
     </row>
-    <row r="115" spans="26:26">
+    <row r="115" spans="1:26">
       <c r="Z115" s="35"/>
     </row>
-    <row r="116" spans="26:26">
+    <row r="116" spans="1:26">
       <c r="Z116" s="35"/>
     </row>
-    <row r="117" spans="26:26">
+    <row r="117" spans="1:26">
       <c r="Z117" s="35"/>
     </row>
-    <row r="118" spans="26:26">
+    <row r="118" spans="1:26">
       <c r="Z118" s="35"/>
     </row>
-    <row r="119" spans="26:26">
+    <row r="119" spans="1:26">
       <c r="Z119" s="35"/>
     </row>
-    <row r="120" spans="26:26">
+    <row r="120" spans="1:26">
       <c r="Z120" s="35"/>
     </row>
-    <row r="121" spans="26:26">
+    <row r="121" spans="1:26">
       <c r="Z121" s="35"/>
     </row>
-    <row r="122" spans="26:26">
+    <row r="122" spans="1:26">
       <c r="Z122" s="35"/>
     </row>
-    <row r="123" spans="26:26">
+    <row r="123" spans="1:26">
       <c r="Z123" s="35"/>
     </row>
-    <row r="124" spans="26:26">
+    <row r="124" spans="1:26">
       <c r="Z124" s="35"/>
     </row>
-    <row r="125" spans="26:26">
+    <row r="125" spans="1:26">
       <c r="Z125" s="35"/>
     </row>
-    <row r="126" spans="26:26">
+    <row r="126" spans="1:26">
       <c r="Z126" s="35"/>
     </row>
-    <row r="127" spans="26:26">
+    <row r="127" spans="1:26">
       <c r="Z127" s="35"/>
     </row>
-    <row r="128" spans="26:26">
+    <row r="128" spans="1:26">
       <c r="Z128" s="35"/>
     </row>
     <row r="129" spans="26:26">
@@ -8912,6 +8958,9 @@
     </row>
     <row r="199" spans="26:26">
       <c r="Z199" s="35"/>
+    </row>
+    <row r="200" spans="26:26">
+      <c r="Z200" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -8935,12 +8984,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -9112,6 +9155,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9122,15 +9171,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9148,6 +9188,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
   <ds:schemaRefs>

--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FE83C-5A81-45BA-9805-08657C6DF58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08C5B64-3BE3-4636-923E-95D3BDBB1EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Validation" sheetId="3" r:id="rId3"/>
+    <sheet name="GenLit for Validation" sheetId="3" r:id="rId3"/>
     <sheet name="Old Validation" sheetId="4" r:id="rId4"/>
-    <sheet name="Robertson 2002 Exp" sheetId="5" r:id="rId5"/>
+    <sheet name="DAF for Validation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="286">
   <si>
     <t>SimulationName</t>
   </si>
@@ -751,6 +751,150 @@
   </si>
   <si>
     <t>RO_Dec4Emerald</t>
+  </si>
+  <si>
+    <t>ACRI</t>
+  </si>
+  <si>
+    <t>SW120cm</t>
+  </si>
+  <si>
+    <t>SoilN120cm</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.Size</t>
+  </si>
+  <si>
+    <t>SoilN90cm</t>
+  </si>
+  <si>
+    <t>Soybean.Nodule.Nfixed</t>
+  </si>
+  <si>
+    <t>0N_inoc_Opal_rf</t>
+  </si>
+  <si>
+    <t>0N_Jade_rf</t>
+  </si>
+  <si>
+    <t>0N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>30N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>60N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>90N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>120N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>150N_inoc_Jade_rf</t>
+  </si>
+  <si>
+    <t>0N_inoc_Opal_irr</t>
+  </si>
+  <si>
+    <t>0N_Jade_irr</t>
+  </si>
+  <si>
+    <t>0N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>30N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>60N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>90N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>120N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>150N_inoc_Jade_irr</t>
+  </si>
+  <si>
+    <t>0N_rf</t>
+  </si>
+  <si>
+    <t>0N_inoc_rf</t>
+  </si>
+  <si>
+    <t>0N_doubstarter_rf</t>
+  </si>
+  <si>
+    <t>30N_rf</t>
+  </si>
+  <si>
+    <t>60N_rf</t>
+  </si>
+  <si>
+    <t>90N_rf</t>
+  </si>
+  <si>
+    <t>120N_rf</t>
+  </si>
+  <si>
+    <t>150N_rf</t>
+  </si>
+  <si>
+    <t>0N_irr</t>
+  </si>
+  <si>
+    <t>0N_inoc_irr</t>
+  </si>
+  <si>
+    <t>0N_doubstarter_irr</t>
+  </si>
+  <si>
+    <t>30N_irr</t>
+  </si>
+  <si>
+    <t>60N_irr</t>
+  </si>
+  <si>
+    <t>90N_irr</t>
+  </si>
+  <si>
+    <t>120N_irr</t>
+  </si>
+  <si>
+    <t>150N_irr</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.Height</t>
+  </si>
+  <si>
+    <t>HopelandSpring</t>
+  </si>
+  <si>
+    <t>Soil.PAW_0_30cm</t>
+  </si>
+  <si>
+    <t>Soil.PAW_30_60cm</t>
+  </si>
+  <si>
+    <t>Soil.PAW_60_90cm</t>
+  </si>
+  <si>
+    <t>Soil.PAW_90_120cm</t>
+  </si>
+  <si>
+    <t>SoilN_0_10cm</t>
+  </si>
+  <si>
+    <t>SoilN_10_30cm</t>
+  </si>
+  <si>
+    <t>SoilN_60_90cm</t>
+  </si>
+  <si>
+    <t>SoilN_30_60cm</t>
   </si>
 </sst>
 </file>
@@ -763,7 +907,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +969,11 @@
       <sz val="8.5"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
     </font>
   </fonts>
   <fills count="3">
@@ -937,7 +1086,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -982,6 +1131,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1622,10 +1774,13 @@
   <dimension ref="A1:AK135"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="15" t="s">
@@ -4426,9 +4581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G191" sqref="G191"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8971,19 +9126,4875 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AFC0C-9ADA-4F34-AF6E-16A8777333E1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AM296"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>1790</v>
+      </c>
+      <c r="F2">
+        <v>5380</v>
+      </c>
+      <c r="X2">
+        <v>42.3</v>
+      </c>
+      <c r="Y2">
+        <v>67</v>
+      </c>
+      <c r="AK2">
+        <v>72.8</v>
+      </c>
+      <c r="AL2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="36">
+        <v>43727</v>
+      </c>
+      <c r="AE3">
+        <v>55</v>
+      </c>
+      <c r="AF3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="36">
+        <v>43860</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>55</v>
+      </c>
+      <c r="AF4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D5">
+        <v>106</v>
+      </c>
+      <c r="AE5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D6">
+        <v>96</v>
+      </c>
+      <c r="E6">
+        <v>1910</v>
+      </c>
+      <c r="F6">
+        <v>5150</v>
+      </c>
+      <c r="X6">
+        <v>41.5</v>
+      </c>
+      <c r="Y6">
+        <v>67.8</v>
+      </c>
+      <c r="AK6">
+        <v>78.8</v>
+      </c>
+      <c r="AL6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
+      <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D7">
+        <v>106</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D8">
+        <v>96</v>
+      </c>
+      <c r="E8">
+        <v>1820</v>
+      </c>
+      <c r="F8">
+        <v>4910</v>
+      </c>
+      <c r="X8">
+        <v>41.3</v>
+      </c>
+      <c r="Y8">
+        <v>67.5</v>
+      </c>
+      <c r="AK8">
+        <v>79.2</v>
+      </c>
+      <c r="AL8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D9">
+        <v>106</v>
+      </c>
+      <c r="AE9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D10">
+        <v>96</v>
+      </c>
+      <c r="E10">
+        <v>1820</v>
+      </c>
+      <c r="F10">
+        <v>5430</v>
+      </c>
+      <c r="X10">
+        <v>41.8</v>
+      </c>
+      <c r="Y10">
+        <v>67.5</v>
+      </c>
+      <c r="AK10">
+        <v>80.2</v>
+      </c>
+      <c r="AL10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D11">
+        <v>106</v>
+      </c>
+      <c r="AE11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>1930</v>
+      </c>
+      <c r="F12">
+        <v>5500</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="X12">
+        <v>41.8</v>
+      </c>
+      <c r="Y12">
+        <v>68</v>
+      </c>
+      <c r="AK12">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AL12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D13">
+        <v>106</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="AE13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D14">
+        <v>96</v>
+      </c>
+      <c r="E14">
+        <v>1880</v>
+      </c>
+      <c r="F14">
+        <v>5640</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="X14">
+        <v>41.8</v>
+      </c>
+      <c r="Y14">
+        <v>67.8</v>
+      </c>
+      <c r="AK14">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="AL14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D15">
+        <v>106</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="AE15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D16">
+        <v>96</v>
+      </c>
+      <c r="E16">
+        <v>1950</v>
+      </c>
+      <c r="F16">
+        <v>5540</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="X16">
+        <v>41</v>
+      </c>
+      <c r="Y16">
+        <v>67.8</v>
+      </c>
+      <c r="AK16">
+        <v>81.5</v>
+      </c>
+      <c r="AL16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D17">
+        <v>106</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="AE17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D18">
+        <v>96</v>
+      </c>
+      <c r="E18">
+        <v>1970</v>
+      </c>
+      <c r="F18">
+        <v>5450</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="X18">
+        <v>41.8</v>
+      </c>
+      <c r="Y18">
+        <v>67.5</v>
+      </c>
+      <c r="AK18">
+        <v>81.5</v>
+      </c>
+      <c r="AL18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D19">
+        <v>106</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="AE19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D20">
+        <v>96</v>
+      </c>
+      <c r="E20">
+        <v>2320</v>
+      </c>
+      <c r="F20">
+        <v>6570</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="X20">
+        <v>41.3</v>
+      </c>
+      <c r="Y20">
+        <v>68.3</v>
+      </c>
+      <c r="AK20">
+        <v>71.7</v>
+      </c>
+      <c r="AL20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="AE21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D22">
+        <v>96</v>
+      </c>
+      <c r="E22">
+        <v>2270</v>
+      </c>
+      <c r="F22">
+        <v>6710</v>
+      </c>
+      <c r="I22" s="36"/>
+      <c r="X22">
+        <v>41.3</v>
+      </c>
+      <c r="Y22">
+        <v>69.5</v>
+      </c>
+      <c r="AK22">
+        <v>76</v>
+      </c>
+      <c r="AL22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D23">
+        <v>106</v>
+      </c>
+      <c r="I23" s="36"/>
+      <c r="AE23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D24">
+        <v>96</v>
+      </c>
+      <c r="E24">
+        <v>2220</v>
+      </c>
+      <c r="F24">
+        <v>6960</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="X24">
+        <v>41.8</v>
+      </c>
+      <c r="Y24">
+        <v>69.8</v>
+      </c>
+      <c r="AK24">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AL24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D25">
+        <v>106</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="AE25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D26">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <v>2230</v>
+      </c>
+      <c r="F26">
+        <v>7060</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="X26">
+        <v>41</v>
+      </c>
+      <c r="Y26">
+        <v>69.5</v>
+      </c>
+      <c r="AK26">
+        <v>77</v>
+      </c>
+      <c r="AL26">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D27">
+        <v>106</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="AE27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D28">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>2540</v>
+      </c>
+      <c r="F28">
+        <v>7030</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="X28">
+        <v>41.3</v>
+      </c>
+      <c r="Y28">
+        <v>70</v>
+      </c>
+      <c r="AK28">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="AL28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D29">
+        <v>106</v>
+      </c>
+      <c r="I29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="AE29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D30">
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <v>2430</v>
+      </c>
+      <c r="F30">
+        <v>7140</v>
+      </c>
+      <c r="I30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="X30">
+        <v>41.3</v>
+      </c>
+      <c r="Y30">
+        <v>70</v>
+      </c>
+      <c r="AK30">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AL30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D31">
+        <v>106</v>
+      </c>
+      <c r="I31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="AE31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D32">
+        <v>96</v>
+      </c>
+      <c r="E32">
+        <v>2430</v>
+      </c>
+      <c r="F32">
+        <v>7350</v>
+      </c>
+      <c r="I32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="X32">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="Y32">
+        <v>70</v>
+      </c>
+      <c r="AK32">
+        <v>77.8</v>
+      </c>
+      <c r="AL32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D33">
+        <v>106</v>
+      </c>
+      <c r="I33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="AE33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="36">
+        <v>43949</v>
+      </c>
+      <c r="D34">
+        <v>96</v>
+      </c>
+      <c r="E34">
+        <v>2390</v>
+      </c>
+      <c r="F34">
+        <v>7100</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="X34">
+        <v>41.5</v>
+      </c>
+      <c r="Y34">
+        <v>69.5</v>
+      </c>
+      <c r="AK34">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="AL34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="A35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="36">
+        <v>43959</v>
+      </c>
+      <c r="D35">
+        <v>106</v>
+      </c>
+      <c r="I35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="AE35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="36">
+        <v>43739</v>
+      </c>
+      <c r="N36" s="36"/>
+      <c r="AE36">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="B37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="36">
+        <v>43862</v>
+      </c>
+      <c r="N37" s="36"/>
+      <c r="AE37">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="G38">
+        <v>0.48</v>
+      </c>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>0.66</v>
+      </c>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>2441</v>
+      </c>
+      <c r="I40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="X40">
+        <v>39</v>
+      </c>
+      <c r="Y40">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="B41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C41" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="G41">
+        <v>0.78</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="B42" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D42">
+        <v>49</v>
+      </c>
+      <c r="G42">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I42" s="36"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D43">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>983</v>
+      </c>
+      <c r="F43">
+        <v>3006</v>
+      </c>
+      <c r="I43" s="36"/>
+      <c r="K43">
+        <v>0.33</v>
+      </c>
+      <c r="N43" s="36"/>
+      <c r="AM43">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D44">
+        <v>27</v>
+      </c>
+      <c r="G44">
+        <v>0.54</v>
+      </c>
+      <c r="I44" s="36"/>
+      <c r="N44" s="36"/>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C45" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>0.71</v>
+      </c>
+      <c r="I45" s="36"/>
+      <c r="N45" s="36"/>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>2458</v>
+      </c>
+      <c r="I46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="X46">
+        <v>40</v>
+      </c>
+      <c r="Y46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="G47">
+        <v>0.78</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="N47" s="36"/>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D48">
+        <v>49</v>
+      </c>
+      <c r="G48">
+        <v>0.65</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="N48" s="36"/>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D49">
+        <v>59</v>
+      </c>
+      <c r="E49">
+        <v>895</v>
+      </c>
+      <c r="F49">
+        <v>2735</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="K49">
+        <v>0.32</v>
+      </c>
+      <c r="N49" s="36"/>
+      <c r="AM49">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="G50">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="36"/>
+      <c r="N50" s="36"/>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D51">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>0.69</v>
+      </c>
+      <c r="I51" s="36"/>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D52">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>2748</v>
+      </c>
+      <c r="I52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="X52">
+        <v>39</v>
+      </c>
+      <c r="Y52">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C53" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D53">
+        <v>41</v>
+      </c>
+      <c r="G53">
+        <v>0.75</v>
+      </c>
+      <c r="I53" s="36"/>
+      <c r="N53" s="36"/>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D54">
+        <v>49</v>
+      </c>
+      <c r="G54">
+        <v>0.64</v>
+      </c>
+      <c r="I54" s="36"/>
+      <c r="N54" s="36"/>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>262</v>
+      </c>
+      <c r="C55" s="36">
+        <v>43937</v>
+      </c>
+      <c r="D55">
+        <v>59</v>
+      </c>
+      <c r="E55">
+        <v>1041</v>
+      </c>
+      <c r="F55">
+        <v>3088</v>
+      </c>
+      <c r="I55" s="36"/>
+      <c r="K55">
+        <v>0.34</v>
+      </c>
+      <c r="N55" s="36"/>
+      <c r="AM55">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="G56">
+        <v>0.42</v>
+      </c>
+      <c r="I56" s="36"/>
+      <c r="N56" s="36"/>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D57">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>0.65</v>
+      </c>
+      <c r="I57" s="36"/>
+      <c r="N57" s="36"/>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>263</v>
+      </c>
+      <c r="C58" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D58">
+        <v>39</v>
+      </c>
+      <c r="F58">
+        <v>2500</v>
+      </c>
+      <c r="I58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="X58">
+        <v>39</v>
+      </c>
+      <c r="Y58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D59">
+        <v>41</v>
+      </c>
+      <c r="G59">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D60">
+        <v>49</v>
+      </c>
+      <c r="G60">
+        <v>0.69</v>
+      </c>
+      <c r="I60" s="36"/>
+      <c r="N60" s="36"/>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>1046</v>
+      </c>
+      <c r="F61">
+        <v>2732</v>
+      </c>
+      <c r="I61" s="36"/>
+      <c r="K61">
+        <v>0.32</v>
+      </c>
+      <c r="N61" s="36"/>
+      <c r="AM61">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C62" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D62">
+        <v>27</v>
+      </c>
+      <c r="G62">
+        <v>0.44</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D63">
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>0.67</v>
+      </c>
+      <c r="I63" s="36"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D64">
+        <v>39</v>
+      </c>
+      <c r="F64">
+        <v>2638</v>
+      </c>
+      <c r="I64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="X64">
+        <v>39</v>
+      </c>
+      <c r="Y64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>264</v>
+      </c>
+      <c r="C65" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D65">
+        <v>41</v>
+      </c>
+      <c r="G65">
+        <v>0.72</v>
+      </c>
+      <c r="I65" s="36"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="1:39">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D66">
+        <v>49</v>
+      </c>
+      <c r="G66">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="N66" s="36"/>
+    </row>
+    <row r="67" spans="1:39">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>936</v>
+      </c>
+      <c r="F67">
+        <v>3058</v>
+      </c>
+      <c r="I67" s="36"/>
+      <c r="K67">
+        <v>0.31</v>
+      </c>
+      <c r="N67" s="36"/>
+      <c r="AM67">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="G68">
+        <v>0.51</v>
+      </c>
+      <c r="I68" s="36"/>
+      <c r="N68" s="36"/>
+    </row>
+    <row r="69" spans="1:39">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="G69">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I69" s="36"/>
+      <c r="N69" s="36"/>
+    </row>
+    <row r="70" spans="1:39">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+      <c r="F70">
+        <v>2589</v>
+      </c>
+      <c r="I70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="X70">
+        <v>39</v>
+      </c>
+      <c r="Y70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>265</v>
+      </c>
+      <c r="C71" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D71">
+        <v>41</v>
+      </c>
+      <c r="G71">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D72">
+        <v>49</v>
+      </c>
+      <c r="G72">
+        <v>0.67</v>
+      </c>
+      <c r="I72" s="36"/>
+      <c r="N72" s="36"/>
+    </row>
+    <row r="73" spans="1:39">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D73">
+        <v>60</v>
+      </c>
+      <c r="E73">
+        <v>1034</v>
+      </c>
+      <c r="F73">
+        <v>3143</v>
+      </c>
+      <c r="I73" s="36"/>
+      <c r="K73">
+        <v>0.33</v>
+      </c>
+      <c r="N73" s="36"/>
+      <c r="AM73">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="G74">
+        <v>0.495</v>
+      </c>
+      <c r="I74" s="36"/>
+      <c r="N74" s="36"/>
+    </row>
+    <row r="75" spans="1:39">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D75">
+        <v>34</v>
+      </c>
+      <c r="G75">
+        <v>0.7</v>
+      </c>
+      <c r="I75" s="36"/>
+      <c r="N75" s="36"/>
+    </row>
+    <row r="76" spans="1:39">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D76">
+        <v>39</v>
+      </c>
+      <c r="F76">
+        <v>2663</v>
+      </c>
+      <c r="I76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="X76">
+        <v>39</v>
+      </c>
+      <c r="Y76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>266</v>
+      </c>
+      <c r="C77" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D77">
+        <v>41</v>
+      </c>
+      <c r="G77">
+        <v>0.78</v>
+      </c>
+      <c r="I77" s="36"/>
+      <c r="N77" s="36"/>
+    </row>
+    <row r="78" spans="1:39">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D78">
+        <v>49</v>
+      </c>
+      <c r="G78">
+        <v>0.72</v>
+      </c>
+      <c r="I78" s="36"/>
+      <c r="N78" s="36"/>
+    </row>
+    <row r="79" spans="1:39">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D79">
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <v>1164</v>
+      </c>
+      <c r="F79">
+        <v>3264</v>
+      </c>
+      <c r="I79" s="36"/>
+      <c r="K79">
+        <v>0.36</v>
+      </c>
+      <c r="N79" s="36"/>
+      <c r="AM79">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="G80">
+        <v>0.46</v>
+      </c>
+      <c r="I80" s="36"/>
+      <c r="N80" s="36"/>
+    </row>
+    <row r="81" spans="1:39">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D81">
+        <v>34</v>
+      </c>
+      <c r="G81">
+        <v>0.68</v>
+      </c>
+      <c r="I81" s="36"/>
+      <c r="N81" s="36"/>
+    </row>
+    <row r="82" spans="1:39">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D82">
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>2462</v>
+      </c>
+      <c r="I82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="X82">
+        <v>40</v>
+      </c>
+      <c r="Y82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D83">
+        <v>41</v>
+      </c>
+      <c r="G83">
+        <v>0.72</v>
+      </c>
+      <c r="I83" s="36"/>
+      <c r="N83" s="36"/>
+    </row>
+    <row r="84" spans="1:39">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D84">
+        <v>49</v>
+      </c>
+      <c r="G84">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="I84" s="36"/>
+      <c r="N84" s="36"/>
+    </row>
+    <row r="85" spans="1:39">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+      <c r="C85" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D85">
+        <v>60</v>
+      </c>
+      <c r="E85">
+        <v>922</v>
+      </c>
+      <c r="F85">
+        <v>3092</v>
+      </c>
+      <c r="I85" s="36"/>
+      <c r="K85">
+        <v>0.3</v>
+      </c>
+      <c r="N85" s="36"/>
+      <c r="AM85">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>268</v>
+      </c>
+      <c r="C86" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D86">
+        <v>27</v>
+      </c>
+      <c r="G86">
+        <v>0.45</v>
+      </c>
+      <c r="I86" s="36"/>
+      <c r="N86" s="36"/>
+    </row>
+    <row r="87" spans="1:39">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D87">
+        <v>34</v>
+      </c>
+      <c r="G87">
+        <v>0.65</v>
+      </c>
+      <c r="I87" s="36"/>
+      <c r="N87" s="36"/>
+    </row>
+    <row r="88" spans="1:39">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>268</v>
+      </c>
+      <c r="C88" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D88">
+        <v>39</v>
+      </c>
+      <c r="F88">
+        <v>2395</v>
+      </c>
+      <c r="I88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="X88">
+        <v>39</v>
+      </c>
+      <c r="Y88">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>268</v>
+      </c>
+      <c r="C89" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D89">
+        <v>41</v>
+      </c>
+      <c r="G89">
+        <v>0.78</v>
+      </c>
+      <c r="I89" s="36"/>
+      <c r="N89" s="36"/>
+    </row>
+    <row r="90" spans="1:39">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D90">
+        <v>49</v>
+      </c>
+      <c r="G90">
+        <v>0.83</v>
+      </c>
+      <c r="I90" s="36"/>
+      <c r="N90" s="36"/>
+    </row>
+    <row r="91" spans="1:39">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+      <c r="C91" s="36">
+        <v>43937</v>
+      </c>
+      <c r="D91">
+        <v>59</v>
+      </c>
+      <c r="E91">
+        <v>1295</v>
+      </c>
+      <c r="F91">
+        <v>3732</v>
+      </c>
+      <c r="I91" s="36"/>
+      <c r="K91">
+        <v>0.35</v>
+      </c>
+      <c r="N91" s="36"/>
+      <c r="AM91">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D92">
+        <v>27</v>
+      </c>
+      <c r="G92">
+        <v>0.48</v>
+      </c>
+      <c r="I92" s="36"/>
+      <c r="N92" s="36"/>
+    </row>
+    <row r="93" spans="1:39">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+      <c r="G93">
+        <v>0.68</v>
+      </c>
+      <c r="I93" s="36"/>
+      <c r="N93" s="36"/>
+    </row>
+    <row r="94" spans="1:39">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
+        <v>269</v>
+      </c>
+      <c r="C94" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>2161</v>
+      </c>
+      <c r="I94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="X94">
+        <v>40</v>
+      </c>
+      <c r="Y94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D95">
+        <v>41</v>
+      </c>
+      <c r="G95">
+        <v>0.77</v>
+      </c>
+      <c r="I95" s="36"/>
+      <c r="N95" s="36"/>
+    </row>
+    <row r="96" spans="1:39">
+      <c r="A96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D96">
+        <v>49</v>
+      </c>
+      <c r="G96">
+        <v>0.83</v>
+      </c>
+      <c r="I96" s="36"/>
+      <c r="N96" s="36"/>
+    </row>
+    <row r="97" spans="1:39">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D97">
+        <v>60</v>
+      </c>
+      <c r="E97">
+        <v>1199</v>
+      </c>
+      <c r="F97">
+        <v>3920</v>
+      </c>
+      <c r="I97" s="36"/>
+      <c r="K97">
+        <v>0.3</v>
+      </c>
+      <c r="N97" s="36"/>
+      <c r="AM97">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D98">
+        <v>27</v>
+      </c>
+      <c r="G98">
+        <v>0.44</v>
+      </c>
+      <c r="I98" s="36"/>
+      <c r="N98" s="36"/>
+    </row>
+    <row r="99" spans="1:39">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+      <c r="G99">
+        <v>0.67</v>
+      </c>
+      <c r="I99" s="36"/>
+      <c r="N99" s="36"/>
+    </row>
+    <row r="100" spans="1:39">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D100">
+        <v>40</v>
+      </c>
+      <c r="F100">
+        <v>2203</v>
+      </c>
+      <c r="I100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="X100">
+        <v>40</v>
+      </c>
+      <c r="Y100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39">
+      <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" t="s">
+        <v>270</v>
+      </c>
+      <c r="C101" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D101">
+        <v>41</v>
+      </c>
+      <c r="G101">
+        <v>0.77</v>
+      </c>
+      <c r="I101" s="36"/>
+      <c r="N101" s="36"/>
+    </row>
+    <row r="102" spans="1:39">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D102">
+        <v>49</v>
+      </c>
+      <c r="G102">
+        <v>0.81</v>
+      </c>
+      <c r="I102" s="36"/>
+      <c r="N102" s="36"/>
+    </row>
+    <row r="103" spans="1:39">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D103">
+        <v>60</v>
+      </c>
+      <c r="E103">
+        <v>1418</v>
+      </c>
+      <c r="F103">
+        <v>4323</v>
+      </c>
+      <c r="I103" s="36"/>
+      <c r="K103">
+        <v>0.33</v>
+      </c>
+      <c r="N103" s="36"/>
+      <c r="AM103">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="s">
+        <v>271</v>
+      </c>
+      <c r="C104" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D104">
+        <v>27</v>
+      </c>
+      <c r="G104">
+        <v>0.48</v>
+      </c>
+      <c r="I104" s="36"/>
+      <c r="N104" s="36"/>
+    </row>
+    <row r="105" spans="1:39">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C105" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D105">
+        <v>34</v>
+      </c>
+      <c r="G105">
+        <v>0.65</v>
+      </c>
+      <c r="I105" s="36"/>
+      <c r="N105" s="36"/>
+    </row>
+    <row r="106" spans="1:39">
+      <c r="A106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D106">
+        <v>39</v>
+      </c>
+      <c r="F106">
+        <v>2568</v>
+      </c>
+      <c r="I106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="X106">
+        <v>39</v>
+      </c>
+      <c r="Y106">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D107">
+        <v>41</v>
+      </c>
+      <c r="G107">
+        <v>0.81</v>
+      </c>
+      <c r="I107" s="36"/>
+      <c r="N107" s="36"/>
+    </row>
+    <row r="108" spans="1:39">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>271</v>
+      </c>
+      <c r="C108" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D108">
+        <v>49</v>
+      </c>
+      <c r="G108">
+        <v>0.83</v>
+      </c>
+      <c r="I108" s="36"/>
+      <c r="N108" s="36"/>
+    </row>
+    <row r="109" spans="1:39">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>271</v>
+      </c>
+      <c r="C109" s="36">
+        <v>43937</v>
+      </c>
+      <c r="D109">
+        <v>59</v>
+      </c>
+      <c r="E109">
+        <v>1398</v>
+      </c>
+      <c r="F109">
+        <v>4035</v>
+      </c>
+      <c r="I109" s="36"/>
+      <c r="K109">
+        <v>0.34</v>
+      </c>
+      <c r="N109" s="36"/>
+      <c r="AM109">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="G110">
+        <v>0.42</v>
+      </c>
+      <c r="I110" s="36"/>
+      <c r="N110" s="36"/>
+    </row>
+    <row r="111" spans="1:39">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+      <c r="G111">
+        <v>0.63</v>
+      </c>
+      <c r="I111" s="36"/>
+      <c r="N111" s="36"/>
+    </row>
+    <row r="112" spans="1:39">
+      <c r="A112" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D112">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>2335</v>
+      </c>
+      <c r="I112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="X112">
+        <v>40</v>
+      </c>
+      <c r="Y112">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D113">
+        <v>41</v>
+      </c>
+      <c r="G113">
+        <v>0.74</v>
+      </c>
+      <c r="I113" s="36"/>
+      <c r="N113" s="36"/>
+    </row>
+    <row r="114" spans="1:39">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D114">
+        <v>49</v>
+      </c>
+      <c r="G114">
+        <v>0.79</v>
+      </c>
+      <c r="I114" s="36"/>
+      <c r="N114" s="36"/>
+    </row>
+    <row r="115" spans="1:39">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+      <c r="E115">
+        <v>1538</v>
+      </c>
+      <c r="F115">
+        <v>4197</v>
+      </c>
+      <c r="I115" s="36"/>
+      <c r="K115">
+        <v>0.37</v>
+      </c>
+      <c r="N115" s="36"/>
+      <c r="AM115">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D116">
+        <v>27</v>
+      </c>
+      <c r="G116">
+        <v>0.49</v>
+      </c>
+      <c r="I116" s="36"/>
+      <c r="N116" s="36"/>
+    </row>
+    <row r="117" spans="1:39">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="G117">
+        <v>0.7</v>
+      </c>
+      <c r="I117" s="36"/>
+      <c r="N117" s="36"/>
+    </row>
+    <row r="118" spans="1:39">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D118">
+        <v>40</v>
+      </c>
+      <c r="F118">
+        <v>2403</v>
+      </c>
+      <c r="I118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="X118">
+        <v>40</v>
+      </c>
+      <c r="Y118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D119">
+        <v>41</v>
+      </c>
+      <c r="G119">
+        <v>0.77</v>
+      </c>
+      <c r="I119" s="36"/>
+      <c r="N119" s="36"/>
+    </row>
+    <row r="120" spans="1:39">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D120">
+        <v>49</v>
+      </c>
+      <c r="G120">
+        <v>0.82</v>
+      </c>
+      <c r="I120" s="36"/>
+      <c r="N120" s="36"/>
+    </row>
+    <row r="121" spans="1:39">
+      <c r="A121" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" t="s">
+        <v>273</v>
+      </c>
+      <c r="C121" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D121">
+        <v>60</v>
+      </c>
+      <c r="E121">
+        <v>1408</v>
+      </c>
+      <c r="F121">
+        <v>4378</v>
+      </c>
+      <c r="I121" s="36"/>
+      <c r="K121">
+        <v>0.32</v>
+      </c>
+      <c r="N121" s="36"/>
+      <c r="AM121">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" t="s">
+        <v>274</v>
+      </c>
+      <c r="C122" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D122">
+        <v>27</v>
+      </c>
+      <c r="G122">
+        <v>0.42</v>
+      </c>
+      <c r="I122" s="36"/>
+      <c r="N122" s="36"/>
+    </row>
+    <row r="123" spans="1:39">
+      <c r="A123" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" t="s">
+        <v>274</v>
+      </c>
+      <c r="C123" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D123">
+        <v>34</v>
+      </c>
+      <c r="G123">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="I123" s="36"/>
+      <c r="N123" s="36"/>
+    </row>
+    <row r="124" spans="1:39">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="36">
+        <v>43918</v>
+      </c>
+      <c r="D124">
+        <v>40</v>
+      </c>
+      <c r="F124">
+        <v>2597</v>
+      </c>
+      <c r="I124" s="36"/>
+      <c r="N124" s="36"/>
+      <c r="X124">
+        <v>40</v>
+      </c>
+      <c r="Y124">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="125" spans="1:39">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D125">
+        <v>41</v>
+      </c>
+      <c r="G125">
+        <v>0.72</v>
+      </c>
+      <c r="I125" s="36"/>
+      <c r="N125" s="36"/>
+    </row>
+    <row r="126" spans="1:39">
+      <c r="A126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D126">
+        <v>49</v>
+      </c>
+      <c r="G126">
+        <v>0.82</v>
+      </c>
+      <c r="I126" s="36"/>
+      <c r="N126" s="36"/>
+    </row>
+    <row r="127" spans="1:39">
+      <c r="A127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" t="s">
+        <v>274</v>
+      </c>
+      <c r="C127" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D127">
+        <v>60</v>
+      </c>
+      <c r="E127">
+        <v>1349</v>
+      </c>
+      <c r="F127">
+        <v>4241</v>
+      </c>
+      <c r="I127" s="36"/>
+      <c r="K127">
+        <v>0.32</v>
+      </c>
+      <c r="N127" s="36"/>
+      <c r="AM127">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="128" spans="1:39">
+      <c r="A128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="36">
+        <v>43905</v>
+      </c>
+      <c r="D128">
+        <v>27</v>
+      </c>
+      <c r="G128">
+        <v>0.46</v>
+      </c>
+      <c r="I128" s="36"/>
+      <c r="N128" s="36"/>
+    </row>
+    <row r="129" spans="1:39">
+      <c r="A129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" t="s">
+        <v>275</v>
+      </c>
+      <c r="C129" s="36">
+        <v>43912</v>
+      </c>
+      <c r="D129">
+        <v>34</v>
+      </c>
+      <c r="G129">
+        <v>0.63</v>
+      </c>
+      <c r="I129" s="36"/>
+      <c r="N129" s="36"/>
+    </row>
+    <row r="130" spans="1:39">
+      <c r="A130" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="36">
+        <v>43917</v>
+      </c>
+      <c r="D130">
+        <v>39</v>
+      </c>
+      <c r="F130">
+        <v>2452</v>
+      </c>
+      <c r="I130" s="36"/>
+      <c r="N130" s="36"/>
+      <c r="X130">
+        <v>39</v>
+      </c>
+      <c r="Y130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:39">
+      <c r="A131" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" s="36">
+        <v>43919</v>
+      </c>
+      <c r="D131">
+        <v>41</v>
+      </c>
+      <c r="G131">
+        <v>0.76</v>
+      </c>
+      <c r="I131" s="36"/>
+      <c r="N131" s="36"/>
+    </row>
+    <row r="132" spans="1:39">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" t="s">
+        <v>275</v>
+      </c>
+      <c r="C132" s="36">
+        <v>43928</v>
+      </c>
+      <c r="D132">
+        <v>49</v>
+      </c>
+      <c r="G132">
+        <v>0.79</v>
+      </c>
+      <c r="I132" s="36"/>
+      <c r="N132" s="36"/>
+    </row>
+    <row r="133" spans="1:39">
+      <c r="A133" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="36">
+        <v>43938</v>
+      </c>
+      <c r="D133">
+        <v>60</v>
+      </c>
+      <c r="E133">
+        <v>1229</v>
+      </c>
+      <c r="F133">
+        <v>3779</v>
+      </c>
+      <c r="I133" s="36"/>
+      <c r="K133">
+        <v>0.32</v>
+      </c>
+      <c r="N133" s="36"/>
+      <c r="AM133">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="134" spans="1:39">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+      <c r="B134" t="s">
+        <v>260</v>
+      </c>
+      <c r="C134" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="I134" s="36"/>
+      <c r="N134" s="36"/>
+      <c r="X134">
+        <v>52</v>
+      </c>
+      <c r="AA134">
+        <v>24.65</v>
+      </c>
+      <c r="AB134">
+        <v>11.6</v>
+      </c>
+      <c r="AC134">
+        <v>21.9</v>
+      </c>
+      <c r="AD134">
+        <v>30.87</v>
+      </c>
+      <c r="AE134">
+        <v>87</v>
+      </c>
+      <c r="AG134">
+        <v>33</v>
+      </c>
+      <c r="AH134">
+        <v>39.5</v>
+      </c>
+      <c r="AI134">
+        <v>24.5</v>
+      </c>
+      <c r="AJ134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:39">
+      <c r="A135" t="s">
+        <v>277</v>
+      </c>
+      <c r="B135" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" s="36">
+        <v>44150</v>
+      </c>
+      <c r="D135">
+        <v>32</v>
+      </c>
+      <c r="G135">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I135" s="36"/>
+      <c r="N135" s="36"/>
+    </row>
+    <row r="136" spans="1:39">
+      <c r="A136" t="s">
+        <v>277</v>
+      </c>
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" s="36">
+        <v>44155</v>
+      </c>
+      <c r="D136">
+        <v>37</v>
+      </c>
+      <c r="G136">
+        <v>0.34</v>
+      </c>
+      <c r="I136" s="36"/>
+      <c r="N136" s="36"/>
+    </row>
+    <row r="137" spans="1:39">
+      <c r="A137" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C137" s="36">
+        <v>44164</v>
+      </c>
+      <c r="D137">
+        <v>46</v>
+      </c>
+      <c r="G137" s="38">
+        <v>0.45</v>
+      </c>
+      <c r="I137" s="36"/>
+      <c r="N137" s="36"/>
+    </row>
+    <row r="138" spans="1:39">
+      <c r="A138" t="s">
+        <v>277</v>
+      </c>
+      <c r="B138" t="s">
+        <v>260</v>
+      </c>
+      <c r="C138" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D138">
+        <v>52</v>
+      </c>
+      <c r="F138">
+        <v>848</v>
+      </c>
+      <c r="G138" s="38"/>
+      <c r="I138" s="36"/>
+      <c r="N138" s="36"/>
+    </row>
+    <row r="139" spans="1:39">
+      <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>260</v>
+      </c>
+      <c r="C139" s="36">
+        <v>44172</v>
+      </c>
+      <c r="D139">
+        <v>54</v>
+      </c>
+      <c r="G139" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="I139" s="36"/>
+    </row>
+    <row r="140" spans="1:39">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="36">
+        <v>44182</v>
+      </c>
+      <c r="D140">
+        <v>64</v>
+      </c>
+      <c r="G140" s="38">
+        <v>0.84</v>
+      </c>
+      <c r="I140" s="36"/>
+    </row>
+    <row r="141" spans="1:39">
+      <c r="A141" t="s">
+        <v>277</v>
+      </c>
+      <c r="B141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C141" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D141">
+        <v>80</v>
+      </c>
+      <c r="E141">
+        <v>277</v>
+      </c>
+      <c r="F141">
+        <v>1701</v>
+      </c>
+      <c r="G141" s="38"/>
+      <c r="I141" s="36"/>
+      <c r="AA141">
+        <v>21.75</v>
+      </c>
+      <c r="AB141">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC141">
+        <v>21.9</v>
+      </c>
+      <c r="AD141">
+        <v>26.46</v>
+      </c>
+      <c r="AE141">
+        <v>80</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>6</v>
+      </c>
+      <c r="AI141">
+        <v>1</v>
+      </c>
+      <c r="AJ141">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:39">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>261</v>
+      </c>
+      <c r="C142" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="G142" s="36"/>
+      <c r="I142" s="36"/>
+    </row>
+    <row r="143" spans="1:39">
+      <c r="A143" t="s">
+        <v>277</v>
+      </c>
+      <c r="B143" t="s">
+        <v>261</v>
+      </c>
+      <c r="C143" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D143">
+        <v>52</v>
+      </c>
+      <c r="F143">
+        <v>879</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="I143" s="36"/>
+    </row>
+    <row r="144" spans="1:39">
+      <c r="A144" t="s">
+        <v>277</v>
+      </c>
+      <c r="B144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D144">
+        <v>80</v>
+      </c>
+      <c r="E144">
+        <v>269</v>
+      </c>
+      <c r="F144">
+        <v>1762</v>
+      </c>
+      <c r="G144" s="36"/>
+      <c r="I144" s="36"/>
+      <c r="AA144">
+        <v>24.65</v>
+      </c>
+      <c r="AB144">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC144">
+        <v>17.52</v>
+      </c>
+      <c r="AD144">
+        <v>22.05</v>
+      </c>
+      <c r="AE144">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31">
+      <c r="A145" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="G145" s="36"/>
+      <c r="I145" s="36"/>
+    </row>
+    <row r="146" spans="1:31">
+      <c r="A146" t="s">
+        <v>277</v>
+      </c>
+      <c r="B146" t="s">
+        <v>262</v>
+      </c>
+      <c r="C146" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D146">
+        <v>52</v>
+      </c>
+      <c r="F146">
+        <v>860</v>
+      </c>
+      <c r="G146" s="36"/>
+      <c r="I146" s="36"/>
+    </row>
+    <row r="147" spans="1:31">
+      <c r="A147" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" t="s">
+        <v>262</v>
+      </c>
+      <c r="C147" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D147">
+        <v>80</v>
+      </c>
+      <c r="E147">
+        <v>276</v>
+      </c>
+      <c r="F147">
+        <v>1663</v>
+      </c>
+      <c r="G147" s="36"/>
+      <c r="I147" s="36"/>
+      <c r="AA147">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="AB147">
+        <v>5.8</v>
+      </c>
+      <c r="AC147">
+        <v>21.9</v>
+      </c>
+      <c r="AD147">
+        <v>26.46</v>
+      </c>
+      <c r="AE147">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31">
+      <c r="A148" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" t="s">
+        <v>263</v>
+      </c>
+      <c r="C148" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="G148" s="36"/>
+      <c r="I148" s="36"/>
+    </row>
+    <row r="149" spans="1:31">
+      <c r="A149" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" t="s">
+        <v>263</v>
+      </c>
+      <c r="C149" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D149">
+        <v>52</v>
+      </c>
+      <c r="F149">
+        <v>1012</v>
+      </c>
+      <c r="G149" s="36"/>
+      <c r="I149" s="36"/>
+    </row>
+    <row r="150" spans="1:31">
+      <c r="A150" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" t="s">
+        <v>263</v>
+      </c>
+      <c r="C150" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D150">
+        <v>80</v>
+      </c>
+      <c r="E150">
+        <v>318</v>
+      </c>
+      <c r="F150">
+        <v>1799</v>
+      </c>
+      <c r="G150" s="36"/>
+      <c r="I150" s="36"/>
+      <c r="AA150">
+        <v>36.25</v>
+      </c>
+      <c r="AB150">
+        <v>11.6</v>
+      </c>
+      <c r="AC150">
+        <v>17.52</v>
+      </c>
+      <c r="AD150">
+        <v>22.05</v>
+      </c>
+      <c r="AE150">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31">
+      <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="G151" s="36"/>
+      <c r="I151" s="36"/>
+    </row>
+    <row r="152" spans="1:31">
+      <c r="A152" t="s">
+        <v>277</v>
+      </c>
+      <c r="B152" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D152">
+        <v>52</v>
+      </c>
+      <c r="F152">
+        <v>1006</v>
+      </c>
+      <c r="G152" s="36"/>
+      <c r="I152" s="36"/>
+    </row>
+    <row r="153" spans="1:31">
+      <c r="A153" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D153">
+        <v>80</v>
+      </c>
+      <c r="E153">
+        <v>294</v>
+      </c>
+      <c r="F153">
+        <v>1813</v>
+      </c>
+      <c r="G153" s="36"/>
+      <c r="I153" s="36"/>
+      <c r="AA153">
+        <v>63.8</v>
+      </c>
+      <c r="AB153">
+        <v>29</v>
+      </c>
+      <c r="AC153">
+        <v>26.28</v>
+      </c>
+      <c r="AD153">
+        <v>17.64</v>
+      </c>
+      <c r="AE153">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31">
+      <c r="A154" t="s">
+        <v>277</v>
+      </c>
+      <c r="B154" t="s">
+        <v>265</v>
+      </c>
+      <c r="C154" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="G154" s="36"/>
+      <c r="I154" s="36"/>
+    </row>
+    <row r="155" spans="1:31">
+      <c r="A155" t="s">
+        <v>277</v>
+      </c>
+      <c r="B155" t="s">
+        <v>265</v>
+      </c>
+      <c r="C155" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D155">
+        <v>52</v>
+      </c>
+      <c r="F155">
+        <v>821</v>
+      </c>
+      <c r="G155" s="36"/>
+      <c r="I155" s="36"/>
+    </row>
+    <row r="156" spans="1:31">
+      <c r="A156" t="s">
+        <v>277</v>
+      </c>
+      <c r="B156" t="s">
+        <v>265</v>
+      </c>
+      <c r="C156" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D156">
+        <v>80</v>
+      </c>
+      <c r="E156">
+        <v>291</v>
+      </c>
+      <c r="F156">
+        <v>1843</v>
+      </c>
+      <c r="G156" s="36"/>
+      <c r="I156" s="36"/>
+      <c r="AA156">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="AB156">
+        <v>11.6</v>
+      </c>
+      <c r="AC156">
+        <v>17.52</v>
+      </c>
+      <c r="AD156">
+        <v>22.05</v>
+      </c>
+      <c r="AE156">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31">
+      <c r="A157" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" t="s">
+        <v>266</v>
+      </c>
+      <c r="C157" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="G157" s="36"/>
+      <c r="I157" s="36"/>
+    </row>
+    <row r="158" spans="1:31">
+      <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
+        <v>266</v>
+      </c>
+      <c r="C158" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D158">
+        <v>52</v>
+      </c>
+      <c r="F158">
+        <v>973</v>
+      </c>
+      <c r="G158" s="36"/>
+      <c r="I158" s="36"/>
+    </row>
+    <row r="159" spans="1:31">
+      <c r="A159" t="s">
+        <v>277</v>
+      </c>
+      <c r="B159" t="s">
+        <v>266</v>
+      </c>
+      <c r="C159" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D159">
+        <v>80</v>
+      </c>
+      <c r="E159">
+        <v>287</v>
+      </c>
+      <c r="F159">
+        <v>1790</v>
+      </c>
+      <c r="G159" s="36"/>
+      <c r="I159" s="36"/>
+      <c r="AA159">
+        <v>100.05</v>
+      </c>
+      <c r="AB159">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AC159">
+        <v>21.9</v>
+      </c>
+      <c r="AD159">
+        <v>26.46</v>
+      </c>
+      <c r="AE159">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="G160" s="38"/>
+      <c r="I160" s="36"/>
+    </row>
+    <row r="161" spans="1:36">
+      <c r="A161" t="s">
+        <v>277</v>
+      </c>
+      <c r="B161" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D161">
+        <v>52</v>
+      </c>
+      <c r="F161">
+        <v>995</v>
+      </c>
+      <c r="G161" s="38"/>
+      <c r="I161" s="36"/>
+    </row>
+    <row r="162" spans="1:36">
+      <c r="A162" t="s">
+        <v>277</v>
+      </c>
+      <c r="B162" t="s">
+        <v>267</v>
+      </c>
+      <c r="C162" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D162">
+        <v>80</v>
+      </c>
+      <c r="E162">
+        <v>271</v>
+      </c>
+      <c r="F162">
+        <v>1770</v>
+      </c>
+      <c r="G162" s="38"/>
+      <c r="I162" s="36"/>
+      <c r="AA162">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="AB162">
+        <v>23.2</v>
+      </c>
+      <c r="AC162">
+        <v>35.04</v>
+      </c>
+      <c r="AD162">
+        <v>35.28</v>
+      </c>
+      <c r="AE162">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36">
+      <c r="A163" t="s">
+        <v>277</v>
+      </c>
+      <c r="B163" t="s">
+        <v>268</v>
+      </c>
+      <c r="C163" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="G163" s="38"/>
+      <c r="I163" s="36"/>
+      <c r="AA163">
+        <v>23.2</v>
+      </c>
+      <c r="AB163">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC163">
+        <v>8.76</v>
+      </c>
+      <c r="AD163">
+        <v>17.64</v>
+      </c>
+      <c r="AE163">
+        <v>55</v>
+      </c>
+      <c r="AG163">
+        <v>33</v>
+      </c>
+      <c r="AH163">
+        <v>39.5</v>
+      </c>
+      <c r="AI163">
+        <v>24.5</v>
+      </c>
+      <c r="AJ163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36">
+      <c r="A164" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" t="s">
+        <v>268</v>
+      </c>
+      <c r="C164" s="36">
+        <v>44150</v>
+      </c>
+      <c r="D164">
+        <v>32</v>
+      </c>
+      <c r="G164" s="38">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I164" s="36"/>
+    </row>
+    <row r="165" spans="1:36">
+      <c r="A165" t="s">
+        <v>277</v>
+      </c>
+      <c r="B165" t="s">
+        <v>268</v>
+      </c>
+      <c r="C165" s="36">
+        <v>44155</v>
+      </c>
+      <c r="D165">
+        <v>37</v>
+      </c>
+      <c r="G165" s="38">
+        <v>0.34</v>
+      </c>
+      <c r="I165" s="36"/>
+    </row>
+    <row r="166" spans="1:36">
+      <c r="A166" t="s">
+        <v>277</v>
+      </c>
+      <c r="B166" t="s">
+        <v>268</v>
+      </c>
+      <c r="C166" s="36">
+        <v>44164</v>
+      </c>
+      <c r="D166">
+        <v>46</v>
+      </c>
+      <c r="G166" s="38">
+        <v>1.65</v>
+      </c>
+      <c r="I166" s="36"/>
+    </row>
+    <row r="167" spans="1:36">
+      <c r="A167" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" t="s">
+        <v>268</v>
+      </c>
+      <c r="C167" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="F167">
+        <v>1535</v>
+      </c>
+      <c r="G167" s="38"/>
+      <c r="I167" s="36"/>
+    </row>
+    <row r="168" spans="1:36">
+      <c r="A168" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" t="s">
+        <v>268</v>
+      </c>
+      <c r="C168" s="36">
+        <v>44172</v>
+      </c>
+      <c r="D168">
+        <v>54</v>
+      </c>
+      <c r="G168" s="38">
+        <v>1.18</v>
+      </c>
+      <c r="I168" s="36"/>
+    </row>
+    <row r="169" spans="1:36">
+      <c r="A169" t="s">
+        <v>277</v>
+      </c>
+      <c r="B169" t="s">
+        <v>268</v>
+      </c>
+      <c r="C169" s="36">
+        <v>44182</v>
+      </c>
+      <c r="D169">
+        <v>64</v>
+      </c>
+      <c r="G169" s="38">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="I169" s="36"/>
+    </row>
+    <row r="170" spans="1:36">
+      <c r="A170" t="s">
+        <v>277</v>
+      </c>
+      <c r="B170" t="s">
+        <v>268</v>
+      </c>
+      <c r="C170" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D170">
+        <v>80</v>
+      </c>
+      <c r="E170">
+        <v>759</v>
+      </c>
+      <c r="F170">
+        <v>3443</v>
+      </c>
+      <c r="G170" s="38"/>
+      <c r="I170" s="36"/>
+      <c r="AA170">
+        <v>29</v>
+      </c>
+      <c r="AB170">
+        <v>5.8</v>
+      </c>
+      <c r="AC170">
+        <v>8.76</v>
+      </c>
+      <c r="AD170">
+        <v>13.23</v>
+      </c>
+      <c r="AE170">
+        <v>55</v>
+      </c>
+      <c r="AG170">
+        <v>0.5</v>
+      </c>
+      <c r="AH170">
+        <v>18</v>
+      </c>
+      <c r="AI170">
+        <v>8</v>
+      </c>
+      <c r="AJ170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:36">
+      <c r="A171" t="s">
+        <v>277</v>
+      </c>
+      <c r="B171" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="G171" s="38"/>
+      <c r="I171" s="36"/>
+    </row>
+    <row r="172" spans="1:36">
+      <c r="A172" t="s">
+        <v>277</v>
+      </c>
+      <c r="B172" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D172">
+        <v>52</v>
+      </c>
+      <c r="F172">
+        <v>1565</v>
+      </c>
+      <c r="G172" s="38"/>
+      <c r="I172" s="36"/>
+    </row>
+    <row r="173" spans="1:36">
+      <c r="A173" t="s">
+        <v>277</v>
+      </c>
+      <c r="B173" t="s">
+        <v>269</v>
+      </c>
+      <c r="C173" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D173">
+        <v>80</v>
+      </c>
+      <c r="E173">
+        <v>838</v>
+      </c>
+      <c r="F173">
+        <v>3568</v>
+      </c>
+      <c r="G173" s="38"/>
+      <c r="I173" s="36"/>
+      <c r="AA173">
+        <v>21.75</v>
+      </c>
+      <c r="AB173">
+        <v>5.8</v>
+      </c>
+      <c r="AC173">
+        <v>4.38</v>
+      </c>
+      <c r="AD173">
+        <v>13.23</v>
+      </c>
+      <c r="AE173">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:36">
+      <c r="A174" t="s">
+        <v>277</v>
+      </c>
+      <c r="B174" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="G174" s="38"/>
+      <c r="I174" s="36"/>
+    </row>
+    <row r="175" spans="1:36">
+      <c r="A175" t="s">
+        <v>277</v>
+      </c>
+      <c r="B175" t="s">
+        <v>270</v>
+      </c>
+      <c r="C175" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D175">
+        <v>52</v>
+      </c>
+      <c r="F175">
+        <v>1490</v>
+      </c>
+      <c r="G175" s="38"/>
+      <c r="I175" s="36"/>
+    </row>
+    <row r="176" spans="1:36">
+      <c r="A176" t="s">
+        <v>277</v>
+      </c>
+      <c r="B176" t="s">
+        <v>270</v>
+      </c>
+      <c r="C176" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D176">
+        <v>80</v>
+      </c>
+      <c r="E176">
+        <v>828</v>
+      </c>
+      <c r="F176">
+        <v>3217</v>
+      </c>
+      <c r="G176" s="38"/>
+      <c r="I176" s="36"/>
+      <c r="AE176">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31">
+      <c r="A177" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" t="s">
+        <v>271</v>
+      </c>
+      <c r="C177" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="G177" s="38"/>
+      <c r="I177" s="36"/>
+    </row>
+    <row r="178" spans="1:31">
+      <c r="A178" t="s">
+        <v>277</v>
+      </c>
+      <c r="B178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D178">
+        <v>52</v>
+      </c>
+      <c r="F178">
+        <v>1479</v>
+      </c>
+      <c r="G178" s="38"/>
+      <c r="I178" s="36"/>
+    </row>
+    <row r="179" spans="1:31">
+      <c r="A179" t="s">
+        <v>277</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D179">
+        <v>80</v>
+      </c>
+      <c r="E179">
+        <v>809</v>
+      </c>
+      <c r="F179">
+        <v>3410</v>
+      </c>
+      <c r="G179" s="38"/>
+      <c r="I179" s="36"/>
+      <c r="AA179">
+        <v>63.8</v>
+      </c>
+      <c r="AB179">
+        <v>5.8</v>
+      </c>
+      <c r="AC179">
+        <v>8.76</v>
+      </c>
+      <c r="AD179">
+        <v>13.23</v>
+      </c>
+      <c r="AE179">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31">
+      <c r="A180" t="s">
+        <v>277</v>
+      </c>
+      <c r="B180" t="s">
+        <v>272</v>
+      </c>
+      <c r="C180" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="G180" s="38"/>
+      <c r="I180" s="36"/>
+    </row>
+    <row r="181" spans="1:31">
+      <c r="A181" t="s">
+        <v>277</v>
+      </c>
+      <c r="B181" t="s">
+        <v>272</v>
+      </c>
+      <c r="C181" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D181">
+        <v>52</v>
+      </c>
+      <c r="F181">
+        <v>1530</v>
+      </c>
+      <c r="G181" s="38"/>
+      <c r="I181" s="36"/>
+    </row>
+    <row r="182" spans="1:31">
+      <c r="A182" t="s">
+        <v>277</v>
+      </c>
+      <c r="B182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C182" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D182">
+        <v>80</v>
+      </c>
+      <c r="E182">
+        <v>775</v>
+      </c>
+      <c r="F182">
+        <v>3593</v>
+      </c>
+      <c r="G182" s="36"/>
+      <c r="I182" s="36"/>
+      <c r="AA182">
+        <v>59.45</v>
+      </c>
+      <c r="AB182">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC182">
+        <v>8.76</v>
+      </c>
+      <c r="AD182">
+        <v>13.23</v>
+      </c>
+      <c r="AE182">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31">
+      <c r="A183" t="s">
+        <v>277</v>
+      </c>
+      <c r="B183" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="G183" s="36"/>
+      <c r="I183" s="36"/>
+    </row>
+    <row r="184" spans="1:31">
+      <c r="A184" t="s">
+        <v>277</v>
+      </c>
+      <c r="B184" t="s">
+        <v>273</v>
+      </c>
+      <c r="C184" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D184">
+        <v>52</v>
+      </c>
+      <c r="F184">
+        <v>1518</v>
+      </c>
+      <c r="G184" s="36"/>
+      <c r="I184" s="36"/>
+    </row>
+    <row r="185" spans="1:31">
+      <c r="A185" t="s">
+        <v>277</v>
+      </c>
+      <c r="B185" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D185">
+        <v>80</v>
+      </c>
+      <c r="E185">
+        <v>779</v>
+      </c>
+      <c r="F185">
+        <v>3575</v>
+      </c>
+      <c r="G185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="AA185">
+        <v>111.65</v>
+      </c>
+      <c r="AB185">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AC185">
+        <v>8.76</v>
+      </c>
+      <c r="AD185">
+        <v>13.23</v>
+      </c>
+      <c r="AE185">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31">
+      <c r="A186" t="s">
+        <v>277</v>
+      </c>
+      <c r="B186" t="s">
+        <v>274</v>
+      </c>
+      <c r="C186" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="G186" s="36"/>
+      <c r="I186" s="36"/>
+    </row>
+    <row r="187" spans="1:31">
+      <c r="A187" t="s">
+        <v>277</v>
+      </c>
+      <c r="B187" t="s">
+        <v>274</v>
+      </c>
+      <c r="C187" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D187">
+        <v>52</v>
+      </c>
+      <c r="F187">
+        <v>1463</v>
+      </c>
+      <c r="G187" s="36"/>
+      <c r="I187" s="36"/>
+    </row>
+    <row r="188" spans="1:31">
+      <c r="A188" t="s">
+        <v>277</v>
+      </c>
+      <c r="B188" t="s">
+        <v>274</v>
+      </c>
+      <c r="C188" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D188">
+        <v>80</v>
+      </c>
+      <c r="E188">
+        <v>769</v>
+      </c>
+      <c r="F188">
+        <v>3376</v>
+      </c>
+      <c r="G188" s="36"/>
+      <c r="I188" s="36"/>
+      <c r="AE188">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31">
+      <c r="A189" t="s">
+        <v>277</v>
+      </c>
+      <c r="B189" t="s">
+        <v>275</v>
+      </c>
+      <c r="C189" s="36">
+        <v>44118</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="G189" s="36"/>
+      <c r="I189" s="36"/>
+      <c r="AA189">
+        <v>134.85</v>
+      </c>
+      <c r="AB189">
+        <v>14.5</v>
+      </c>
+      <c r="AC189">
+        <v>8.76</v>
+      </c>
+      <c r="AD189">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31">
+      <c r="A190" t="s">
+        <v>277</v>
+      </c>
+      <c r="B190" t="s">
+        <v>275</v>
+      </c>
+      <c r="C190" s="36">
+        <v>44170</v>
+      </c>
+      <c r="D190">
+        <v>52</v>
+      </c>
+      <c r="F190">
+        <v>1570</v>
+      </c>
+      <c r="G190" s="36"/>
+      <c r="I190" s="36"/>
+    </row>
+    <row r="191" spans="1:31">
+      <c r="A191" t="s">
+        <v>277</v>
+      </c>
+      <c r="B191" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" s="36">
+        <v>44198</v>
+      </c>
+      <c r="D191">
+        <v>80</v>
+      </c>
+      <c r="E191">
+        <v>818</v>
+      </c>
+      <c r="F191">
+        <v>3539</v>
+      </c>
+      <c r="G191" s="36"/>
+      <c r="I191" s="36"/>
+      <c r="AE191">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31">
+      <c r="G192" s="36"/>
+      <c r="I192" s="36"/>
+    </row>
+    <row r="193" spans="7:9">
+      <c r="G193" s="36"/>
+      <c r="I193" s="36"/>
+    </row>
+    <row r="194" spans="7:9">
+      <c r="G194" s="36"/>
+      <c r="I194" s="36"/>
+    </row>
+    <row r="195" spans="7:9">
+      <c r="G195" s="36"/>
+      <c r="I195" s="36"/>
+    </row>
+    <row r="196" spans="7:9">
+      <c r="G196" s="36"/>
+      <c r="I196" s="36"/>
+    </row>
+    <row r="197" spans="7:9">
+      <c r="G197" s="36"/>
+      <c r="I197" s="36"/>
+    </row>
+    <row r="198" spans="7:9">
+      <c r="G198" s="36"/>
+      <c r="I198" s="36"/>
+    </row>
+    <row r="199" spans="7:9">
+      <c r="G199" s="36"/>
+      <c r="I199" s="36"/>
+    </row>
+    <row r="200" spans="7:9">
+      <c r="G200" s="36"/>
+      <c r="I200" s="36"/>
+    </row>
+    <row r="201" spans="7:9">
+      <c r="G201" s="36"/>
+      <c r="I201" s="36"/>
+    </row>
+    <row r="202" spans="7:9">
+      <c r="G202" s="36"/>
+      <c r="I202" s="36"/>
+    </row>
+    <row r="203" spans="7:9">
+      <c r="G203" s="36"/>
+      <c r="I203" s="36"/>
+    </row>
+    <row r="204" spans="7:9">
+      <c r="G204" s="36"/>
+      <c r="I204" s="36"/>
+    </row>
+    <row r="205" spans="7:9">
+      <c r="G205" s="36"/>
+      <c r="I205" s="36"/>
+    </row>
+    <row r="206" spans="7:9">
+      <c r="G206" s="36"/>
+      <c r="I206" s="36"/>
+    </row>
+    <row r="207" spans="7:9">
+      <c r="G207" s="36"/>
+      <c r="I207" s="36"/>
+    </row>
+    <row r="208" spans="7:9">
+      <c r="G208" s="36"/>
+      <c r="I208" s="36"/>
+    </row>
+    <row r="209" spans="7:9">
+      <c r="G209" s="36"/>
+      <c r="I209" s="36"/>
+    </row>
+    <row r="210" spans="7:9">
+      <c r="G210" s="36"/>
+      <c r="I210" s="36"/>
+    </row>
+    <row r="211" spans="7:9">
+      <c r="G211" s="36"/>
+      <c r="I211" s="36"/>
+    </row>
+    <row r="212" spans="7:9">
+      <c r="G212" s="36"/>
+      <c r="I212" s="36"/>
+    </row>
+    <row r="213" spans="7:9">
+      <c r="G213" s="36"/>
+      <c r="I213" s="36"/>
+    </row>
+    <row r="214" spans="7:9">
+      <c r="G214" s="36"/>
+      <c r="I214" s="36"/>
+    </row>
+    <row r="215" spans="7:9">
+      <c r="G215" s="36"/>
+      <c r="I215" s="36"/>
+    </row>
+    <row r="216" spans="7:9">
+      <c r="G216" s="36"/>
+      <c r="I216" s="36"/>
+    </row>
+    <row r="217" spans="7:9">
+      <c r="G217" s="36"/>
+      <c r="I217" s="36"/>
+    </row>
+    <row r="218" spans="7:9">
+      <c r="G218" s="36"/>
+      <c r="I218" s="36"/>
+    </row>
+    <row r="219" spans="7:9">
+      <c r="G219" s="36"/>
+      <c r="I219" s="36"/>
+    </row>
+    <row r="220" spans="7:9">
+      <c r="G220" s="36"/>
+      <c r="I220" s="36"/>
+    </row>
+    <row r="221" spans="7:9">
+      <c r="G221" s="36"/>
+      <c r="I221" s="36"/>
+    </row>
+    <row r="222" spans="7:9">
+      <c r="G222" s="36"/>
+      <c r="I222" s="36"/>
+    </row>
+    <row r="223" spans="7:9">
+      <c r="G223" s="36"/>
+      <c r="I223" s="36"/>
+    </row>
+    <row r="224" spans="7:9">
+      <c r="G224" s="36"/>
+      <c r="I224" s="36"/>
+    </row>
+    <row r="225" spans="7:9">
+      <c r="G225" s="36"/>
+      <c r="I225" s="36"/>
+    </row>
+    <row r="226" spans="7:9">
+      <c r="G226" s="36"/>
+      <c r="I226" s="36"/>
+    </row>
+    <row r="227" spans="7:9">
+      <c r="G227" s="36"/>
+      <c r="I227" s="36"/>
+    </row>
+    <row r="228" spans="7:9">
+      <c r="G228" s="36"/>
+      <c r="I228" s="36"/>
+    </row>
+    <row r="229" spans="7:9">
+      <c r="G229" s="36"/>
+      <c r="I229" s="36"/>
+    </row>
+    <row r="230" spans="7:9">
+      <c r="G230" s="36"/>
+      <c r="I230" s="36"/>
+    </row>
+    <row r="231" spans="7:9">
+      <c r="G231" s="36"/>
+      <c r="I231" s="36"/>
+    </row>
+    <row r="232" spans="7:9">
+      <c r="G232" s="36"/>
+      <c r="I232" s="36"/>
+    </row>
+    <row r="233" spans="7:9">
+      <c r="G233" s="36"/>
+      <c r="I233" s="36"/>
+    </row>
+    <row r="234" spans="7:9">
+      <c r="G234" s="36"/>
+      <c r="I234" s="36"/>
+    </row>
+    <row r="235" spans="7:9">
+      <c r="G235" s="36"/>
+      <c r="I235" s="36"/>
+    </row>
+    <row r="236" spans="7:9">
+      <c r="G236" s="36"/>
+      <c r="I236" s="36"/>
+    </row>
+    <row r="237" spans="7:9">
+      <c r="G237" s="36"/>
+      <c r="I237" s="36"/>
+    </row>
+    <row r="238" spans="7:9">
+      <c r="G238" s="36"/>
+      <c r="I238" s="36"/>
+    </row>
+    <row r="239" spans="7:9">
+      <c r="G239" s="36"/>
+      <c r="I239" s="36"/>
+    </row>
+    <row r="240" spans="7:9">
+      <c r="G240" s="36"/>
+      <c r="I240" s="36"/>
+    </row>
+    <row r="241" spans="7:9">
+      <c r="G241" s="36"/>
+      <c r="I241" s="36"/>
+    </row>
+    <row r="242" spans="7:9">
+      <c r="G242" s="36"/>
+      <c r="I242" s="36"/>
+    </row>
+    <row r="243" spans="7:9">
+      <c r="G243" s="36"/>
+      <c r="I243" s="36"/>
+    </row>
+    <row r="244" spans="7:9">
+      <c r="G244" s="36"/>
+      <c r="I244" s="36"/>
+    </row>
+    <row r="245" spans="7:9">
+      <c r="G245" s="36"/>
+      <c r="I245" s="36"/>
+    </row>
+    <row r="246" spans="7:9">
+      <c r="G246" s="36"/>
+      <c r="I246" s="36"/>
+    </row>
+    <row r="247" spans="7:9">
+      <c r="G247" s="36"/>
+      <c r="I247" s="36"/>
+    </row>
+    <row r="248" spans="7:9">
+      <c r="G248" s="36"/>
+      <c r="I248" s="36"/>
+    </row>
+    <row r="249" spans="7:9">
+      <c r="G249" s="36"/>
+      <c r="I249" s="36"/>
+    </row>
+    <row r="250" spans="7:9">
+      <c r="G250" s="36"/>
+      <c r="I250" s="36"/>
+    </row>
+    <row r="251" spans="7:9">
+      <c r="G251" s="36"/>
+      <c r="I251" s="36"/>
+    </row>
+    <row r="252" spans="7:9">
+      <c r="G252" s="36"/>
+      <c r="I252" s="36"/>
+    </row>
+    <row r="253" spans="7:9">
+      <c r="G253" s="36"/>
+      <c r="I253" s="36"/>
+    </row>
+    <row r="254" spans="7:9">
+      <c r="G254" s="36"/>
+      <c r="I254" s="36"/>
+    </row>
+    <row r="255" spans="7:9">
+      <c r="G255" s="36"/>
+      <c r="I255" s="36"/>
+    </row>
+    <row r="256" spans="7:9">
+      <c r="G256" s="36"/>
+      <c r="I256" s="36"/>
+    </row>
+    <row r="257" spans="7:9">
+      <c r="G257" s="36"/>
+      <c r="I257" s="36"/>
+    </row>
+    <row r="258" spans="7:9">
+      <c r="G258" s="36"/>
+      <c r="I258" s="36"/>
+    </row>
+    <row r="259" spans="7:9">
+      <c r="G259" s="36"/>
+      <c r="I259" s="36"/>
+    </row>
+    <row r="260" spans="7:9">
+      <c r="G260" s="36"/>
+      <c r="I260" s="36"/>
+    </row>
+    <row r="261" spans="7:9">
+      <c r="G261" s="36"/>
+      <c r="I261" s="36"/>
+    </row>
+    <row r="262" spans="7:9">
+      <c r="G262" s="36"/>
+      <c r="I262" s="36"/>
+    </row>
+    <row r="263" spans="7:9">
+      <c r="G263" s="36"/>
+      <c r="I263" s="36"/>
+    </row>
+    <row r="264" spans="7:9">
+      <c r="G264" s="36"/>
+      <c r="I264" s="36"/>
+    </row>
+    <row r="265" spans="7:9">
+      <c r="G265" s="36"/>
+      <c r="I265" s="36"/>
+    </row>
+    <row r="266" spans="7:9">
+      <c r="G266" s="36"/>
+      <c r="I266" s="36"/>
+    </row>
+    <row r="267" spans="7:9">
+      <c r="G267" s="36"/>
+      <c r="I267" s="36"/>
+    </row>
+    <row r="268" spans="7:9">
+      <c r="G268" s="36"/>
+      <c r="I268" s="36"/>
+    </row>
+    <row r="269" spans="7:9">
+      <c r="G269" s="36"/>
+      <c r="I269" s="36"/>
+    </row>
+    <row r="270" spans="7:9">
+      <c r="G270" s="36"/>
+      <c r="I270" s="36"/>
+    </row>
+    <row r="271" spans="7:9">
+      <c r="G271" s="36"/>
+      <c r="I271" s="36"/>
+    </row>
+    <row r="272" spans="7:9">
+      <c r="G272" s="36"/>
+      <c r="I272" s="36"/>
+    </row>
+    <row r="273" spans="7:9">
+      <c r="G273" s="36"/>
+      <c r="I273" s="36"/>
+    </row>
+    <row r="274" spans="7:9">
+      <c r="G274" s="36"/>
+      <c r="I274" s="36"/>
+    </row>
+    <row r="275" spans="7:9">
+      <c r="G275" s="36"/>
+      <c r="I275" s="36"/>
+    </row>
+    <row r="276" spans="7:9">
+      <c r="G276" s="36"/>
+      <c r="I276" s="36"/>
+    </row>
+    <row r="277" spans="7:9">
+      <c r="G277" s="36"/>
+      <c r="I277" s="36"/>
+    </row>
+    <row r="278" spans="7:9">
+      <c r="G278" s="36"/>
+      <c r="I278" s="36"/>
+    </row>
+    <row r="279" spans="7:9">
+      <c r="I279" s="36"/>
+    </row>
+    <row r="280" spans="7:9">
+      <c r="I280" s="36"/>
+    </row>
+    <row r="281" spans="7:9">
+      <c r="I281" s="36"/>
+    </row>
+    <row r="282" spans="7:9">
+      <c r="I282" s="36"/>
+    </row>
+    <row r="283" spans="7:9">
+      <c r="I283" s="36"/>
+    </row>
+    <row r="284" spans="7:9">
+      <c r="I284" s="36"/>
+    </row>
+    <row r="285" spans="7:9">
+      <c r="I285" s="36"/>
+    </row>
+    <row r="286" spans="7:9">
+      <c r="I286" s="36"/>
+    </row>
+    <row r="287" spans="7:9">
+      <c r="I287" s="36"/>
+    </row>
+    <row r="288" spans="7:9">
+      <c r="I288" s="36"/>
+    </row>
+    <row r="289" spans="9:9">
+      <c r="I289" s="36"/>
+    </row>
+    <row r="290" spans="9:9">
+      <c r="I290" s="36"/>
+    </row>
+    <row r="291" spans="9:9">
+      <c r="I291" s="36"/>
+    </row>
+    <row r="292" spans="9:9">
+      <c r="I292" s="36"/>
+    </row>
+    <row r="293" spans="9:9">
+      <c r="I293" s="36"/>
+    </row>
+    <row r="294" spans="9:9">
+      <c r="I294" s="36"/>
+    </row>
+    <row r="295" spans="9:9">
+      <c r="I295" s="36"/>
+    </row>
+    <row r="296" spans="9:9">
+      <c r="I296" s="36"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -9155,22 +14166,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9186,21 +14199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08C5B64-3BE3-4636-923E-95D3BDBB1EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BED26B-AE33-45C5-8BC6-FEE050BC7D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="308">
   <si>
     <t>SimulationName</t>
   </si>
@@ -895,6 +895,72 @@
   </si>
   <si>
     <t>SoilN_30_60cm</t>
+  </si>
+  <si>
+    <t>HoplandSummer</t>
+  </si>
+  <si>
+    <t>0N_inoc_opal_rf</t>
+  </si>
+  <si>
+    <t>0N_inoc_opal_irr</t>
+  </si>
+  <si>
+    <t>Breeza</t>
+  </si>
+  <si>
+    <t>0N</t>
+  </si>
+  <si>
+    <t>0N_inoc</t>
+  </si>
+  <si>
+    <t>FallowNshallow</t>
+  </si>
+  <si>
+    <t>FallowNshallow_inoc</t>
+  </si>
+  <si>
+    <t>FallowNdeep</t>
+  </si>
+  <si>
+    <t>FallowNdeep_inoc</t>
+  </si>
+  <si>
+    <t>SplitN</t>
+  </si>
+  <si>
+    <t>SplitN_inoc</t>
+  </si>
+  <si>
+    <t>PlantN</t>
+  </si>
+  <si>
+    <t>PlantN_inoc</t>
+  </si>
+  <si>
+    <t>Irvingdale</t>
+  </si>
+  <si>
+    <t>FallowPlantSplitN</t>
+  </si>
+  <si>
+    <t>FallowPlantSplitN_inoc</t>
+  </si>
+  <si>
+    <t>PlantSideSplitN</t>
+  </si>
+  <si>
+    <t>PlantSideSplitN_inoc</t>
+  </si>
+  <si>
+    <t>Soybean.Veg</t>
+  </si>
+  <si>
+    <t>FallowNDeepShallow</t>
+  </si>
+  <si>
+    <t>FallowNDeepShallow_inoc</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1152,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,6 +1200,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9126,24 +9194,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AFC0C-9ADA-4F34-AF6E-16A8777333E1}">
-  <dimension ref="A1:AM296"/>
+  <dimension ref="A1:AN397"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T382" sqref="T382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
+    <col min="27" max="31" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -9162,107 +9234,110 @@
       <c r="F1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AI1" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AK1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AL1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AM1" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -9281,20 +9356,20 @@
       <c r="F2">
         <v>5380</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>42.3</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>67</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>72.8</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>238</v>
       </c>
@@ -9304,14 +9379,14 @@
       <c r="C3" s="36">
         <v>43727</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>55</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -9324,14 +9399,14 @@
       <c r="D4">
         <v>7</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>55</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -9344,11 +9419,11 @@
       <c r="D5">
         <v>106</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -9367,20 +9442,20 @@
       <c r="F6">
         <v>5150</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>41.5</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>67.8</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>78.8</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>238</v>
       </c>
@@ -9393,11 +9468,11 @@
       <c r="D7">
         <v>106</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -9416,20 +9491,20 @@
       <c r="F8">
         <v>4910</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>41.3</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>67.5</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>79.2</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>238</v>
       </c>
@@ -9442,11 +9517,11 @@
       <c r="D9">
         <v>106</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -9465,20 +9540,20 @@
       <c r="F10">
         <v>5430</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>41.8</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>67.5</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>80.2</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>238</v>
       </c>
@@ -9491,11 +9566,11 @@
       <c r="D11">
         <v>106</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>238</v>
       </c>
@@ -9514,21 +9589,21 @@
       <c r="F12">
         <v>5500</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="X12">
+      <c r="J12" s="36"/>
+      <c r="Y12">
         <v>41.8</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>68</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>80.599999999999994</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>238</v>
       </c>
@@ -9541,12 +9616,12 @@
       <c r="D13">
         <v>106</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="AE13">
+      <c r="J13" s="36"/>
+      <c r="AF13">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>238</v>
       </c>
@@ -9565,21 +9640,21 @@
       <c r="F14">
         <v>5640</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="X14">
+      <c r="J14" s="36"/>
+      <c r="Y14">
         <v>41.8</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>67.8</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>81.400000000000006</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>238</v>
       </c>
@@ -9592,12 +9667,12 @@
       <c r="D15">
         <v>106</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="AE15">
+      <c r="J15" s="36"/>
+      <c r="AF15">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
         <v>238</v>
       </c>
@@ -9616,21 +9691,21 @@
       <c r="F16">
         <v>5540</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="X16">
+      <c r="J16" s="36"/>
+      <c r="Y16">
         <v>41</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>67.8</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>81.5</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -9643,12 +9718,12 @@
       <c r="D17">
         <v>106</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="AE17">
+      <c r="J17" s="36"/>
+      <c r="AF17">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -9667,21 +9742,21 @@
       <c r="F18">
         <v>5450</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="X18">
+      <c r="J18" s="36"/>
+      <c r="Y18">
         <v>41.8</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>67.5</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>81.5</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -9694,12 +9769,12 @@
       <c r="D19">
         <v>106</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="AE19">
+      <c r="J19" s="36"/>
+      <c r="AF19">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -9718,21 +9793,21 @@
       <c r="F20">
         <v>6570</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="X20">
+      <c r="J20" s="36"/>
+      <c r="Y20">
         <v>41.3</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>68.3</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>71.7</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
         <v>238</v>
       </c>
@@ -9745,12 +9820,12 @@
       <c r="D21">
         <v>106</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="AE21">
+      <c r="J21" s="36"/>
+      <c r="AF21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
         <v>238</v>
       </c>
@@ -9769,21 +9844,21 @@
       <c r="F22">
         <v>6710</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="X22">
+      <c r="J22" s="36"/>
+      <c r="Y22">
         <v>41.3</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>69.5</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>76</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
         <v>238</v>
       </c>
@@ -9796,12 +9871,12 @@
       <c r="D23">
         <v>106</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="AE23">
+      <c r="J23" s="36"/>
+      <c r="AF23">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -9820,21 +9895,21 @@
       <c r="F24">
         <v>6960</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="X24">
+      <c r="J24" s="36"/>
+      <c r="Y24">
         <v>41.8</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>69.8</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>74.599999999999994</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -9847,12 +9922,12 @@
       <c r="D25">
         <v>106</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="AE25">
+      <c r="J25" s="36"/>
+      <c r="AF25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -9871,21 +9946,21 @@
       <c r="F26">
         <v>7060</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="X26">
+      <c r="J26" s="36"/>
+      <c r="Y26">
         <v>41</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>69.5</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>77</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -9898,12 +9973,12 @@
       <c r="D27">
         <v>106</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="AE27">
+      <c r="J27" s="36"/>
+      <c r="AF27">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -9922,21 +9997,21 @@
       <c r="F28">
         <v>7030</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="X28">
+      <c r="J28" s="36"/>
+      <c r="Y28">
         <v>41.3</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>70</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>78.099999999999994</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -9949,13 +10024,13 @@
       <c r="D29">
         <v>106</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="AE29">
+      <c r="J29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="AF29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
         <v>238</v>
       </c>
@@ -9974,22 +10049,22 @@
       <c r="F30">
         <v>7140</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="X30">
+      <c r="J30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="Y30">
         <v>41.3</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>70</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>78.599999999999994</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
         <v>238</v>
       </c>
@@ -10002,13 +10077,13 @@
       <c r="D31">
         <v>106</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="AE31">
+      <c r="J31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="AF31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -10027,22 +10102,22 @@
       <c r="F32">
         <v>7350</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="X32">
+      <c r="J32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="Y32">
         <v>40.799999999999997</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>70</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>77.8</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -10055,13 +10130,13 @@
       <c r="D33">
         <v>106</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="AE33">
+      <c r="J33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="AF33">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:40">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -10080,22 +10155,22 @@
       <c r="F34">
         <v>7100</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="X34">
+      <c r="J34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="Y34">
         <v>41.5</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>69.5</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>78.900000000000006</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:40">
       <c r="A35" t="s">
         <v>238</v>
       </c>
@@ -10108,13 +10183,13 @@
       <c r="D35">
         <v>106</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="AE35">
+      <c r="J35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="AF35">
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -10124,24 +10199,30 @@
       <c r="C36" s="36">
         <v>43739</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="AE36">
+      <c r="O36" s="36"/>
+      <c r="AF36">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:40">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
       <c r="B37" t="s">
         <v>260</v>
       </c>
       <c r="C37" s="36">
         <v>43862</v>
       </c>
-      <c r="N37" s="36"/>
-      <c r="AE37">
+      <c r="O37" s="36"/>
+      <c r="AF37">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:40">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
       <c r="B38" t="s">
         <v>260</v>
       </c>
@@ -10151,12 +10232,15 @@
       <c r="D38">
         <v>27</v>
       </c>
-      <c r="G38">
+      <c r="H38" s="38">
         <v>0.48</v>
       </c>
-      <c r="N38" s="36"/>
-    </row>
-    <row r="39" spans="1:39">
+      <c r="O38" s="36"/>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
       <c r="B39" t="s">
         <v>260</v>
       </c>
@@ -10166,12 +10250,15 @@
       <c r="D39">
         <v>34</v>
       </c>
-      <c r="G39">
+      <c r="H39" s="38">
         <v>0.66</v>
       </c>
-      <c r="N39" s="36"/>
-    </row>
-    <row r="40" spans="1:39">
+      <c r="O39" s="36"/>
+    </row>
+    <row r="40" spans="1:40">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
       <c r="B40" t="s">
         <v>260</v>
       </c>
@@ -10184,16 +10271,19 @@
       <c r="F40">
         <v>2441</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="X40">
+      <c r="J40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="Y40">
         <v>39</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:40">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
       <c r="B41" t="s">
         <v>260</v>
       </c>
@@ -10203,13 +10293,16 @@
       <c r="D41">
         <v>41</v>
       </c>
-      <c r="G41">
+      <c r="H41" s="38">
         <v>0.78</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="N41" s="36"/>
-    </row>
-    <row r="42" spans="1:39">
+      <c r="J41" s="36"/>
+      <c r="O41" s="36"/>
+    </row>
+    <row r="42" spans="1:40">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
       <c r="B42" t="s">
         <v>260</v>
       </c>
@@ -10219,13 +10312,16 @@
       <c r="D42">
         <v>49</v>
       </c>
-      <c r="G42">
+      <c r="H42" s="38">
         <v>0.65500000000000003</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="N42" s="36"/>
-    </row>
-    <row r="43" spans="1:39">
+      <c r="J42" s="36"/>
+      <c r="O42" s="36"/>
+    </row>
+    <row r="43" spans="1:40">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
       <c r="B43" t="s">
         <v>260</v>
       </c>
@@ -10241,16 +10337,16 @@
       <c r="F43">
         <v>3006</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="K43">
+      <c r="J43" s="36"/>
+      <c r="L43">
         <v>0.33</v>
       </c>
-      <c r="N43" s="36"/>
-      <c r="AM43">
+      <c r="O43" s="36"/>
+      <c r="AN43">
         <v>390</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:40">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -10263,13 +10359,13 @@
       <c r="D44">
         <v>27</v>
       </c>
-      <c r="G44">
+      <c r="H44" s="38">
         <v>0.54</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="N44" s="36"/>
-    </row>
-    <row r="45" spans="1:39">
+      <c r="J44" s="36"/>
+      <c r="O44" s="36"/>
+    </row>
+    <row r="45" spans="1:40">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -10282,13 +10378,13 @@
       <c r="D45">
         <v>34</v>
       </c>
-      <c r="G45">
+      <c r="H45" s="38">
         <v>0.71</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="N45" s="36"/>
-    </row>
-    <row r="46" spans="1:39">
+      <c r="J45" s="36"/>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="1:40">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -10304,16 +10400,16 @@
       <c r="F46">
         <v>2458</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="X46">
+      <c r="J46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="Y46">
         <v>40</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -10326,13 +10422,13 @@
       <c r="D47">
         <v>41</v>
       </c>
-      <c r="G47">
+      <c r="H47" s="38">
         <v>0.78</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="N47" s="36"/>
-    </row>
-    <row r="48" spans="1:39">
+      <c r="J47" s="36"/>
+      <c r="O47" s="36"/>
+    </row>
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -10345,13 +10441,16 @@
       <c r="D48">
         <v>49</v>
       </c>
-      <c r="G48">
+      <c r="H48" s="38">
         <v>0.65</v>
       </c>
-      <c r="I48" s="36"/>
-      <c r="N48" s="36"/>
-    </row>
-    <row r="49" spans="1:39">
+      <c r="J48" s="36"/>
+      <c r="O48" s="36"/>
+    </row>
+    <row r="49" spans="1:40">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
       <c r="B49" t="s">
         <v>261</v>
       </c>
@@ -10367,16 +10466,16 @@
       <c r="F49">
         <v>2735</v>
       </c>
-      <c r="I49" s="36"/>
-      <c r="K49">
+      <c r="J49" s="36"/>
+      <c r="L49">
         <v>0.32</v>
       </c>
-      <c r="N49" s="36"/>
-      <c r="AM49">
+      <c r="O49" s="36"/>
+      <c r="AN49">
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -10389,13 +10488,13 @@
       <c r="D50">
         <v>27</v>
       </c>
-      <c r="G50">
+      <c r="H50" s="38">
         <v>0.5</v>
       </c>
-      <c r="I50" s="36"/>
-      <c r="N50" s="36"/>
-    </row>
-    <row r="51" spans="1:39">
+      <c r="J50" s="36"/>
+      <c r="O50" s="36"/>
+    </row>
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -10408,13 +10507,13 @@
       <c r="D51">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="H51" s="38">
         <v>0.69</v>
       </c>
-      <c r="I51" s="36"/>
-      <c r="N51" s="36"/>
-    </row>
-    <row r="52" spans="1:39">
+      <c r="J51" s="36"/>
+      <c r="O51" s="36"/>
+    </row>
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -10430,16 +10529,16 @@
       <c r="F52">
         <v>2748</v>
       </c>
-      <c r="I52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="X52">
+      <c r="J52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="Y52">
         <v>39</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -10452,13 +10551,13 @@
       <c r="D53">
         <v>41</v>
       </c>
-      <c r="G53">
+      <c r="H53" s="38">
         <v>0.75</v>
       </c>
-      <c r="I53" s="36"/>
-      <c r="N53" s="36"/>
-    </row>
-    <row r="54" spans="1:39">
+      <c r="J53" s="36"/>
+      <c r="O53" s="36"/>
+    </row>
+    <row r="54" spans="1:40">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -10471,13 +10570,13 @@
       <c r="D54">
         <v>49</v>
       </c>
-      <c r="G54">
+      <c r="H54" s="38">
         <v>0.64</v>
       </c>
-      <c r="I54" s="36"/>
-      <c r="N54" s="36"/>
-    </row>
-    <row r="55" spans="1:39">
+      <c r="J54" s="36"/>
+      <c r="O54" s="36"/>
+    </row>
+    <row r="55" spans="1:40">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -10496,16 +10595,16 @@
       <c r="F55">
         <v>3088</v>
       </c>
-      <c r="I55" s="36"/>
-      <c r="K55">
+      <c r="J55" s="36"/>
+      <c r="L55">
         <v>0.34</v>
       </c>
-      <c r="N55" s="36"/>
-      <c r="AM55">
+      <c r="O55" s="36"/>
+      <c r="AN55">
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:40">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -10518,13 +10617,13 @@
       <c r="D56">
         <v>27</v>
       </c>
-      <c r="G56">
+      <c r="H56" s="38">
         <v>0.42</v>
       </c>
-      <c r="I56" s="36"/>
-      <c r="N56" s="36"/>
-    </row>
-    <row r="57" spans="1:39">
+      <c r="J56" s="36"/>
+      <c r="O56" s="36"/>
+    </row>
+    <row r="57" spans="1:40">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -10537,13 +10636,13 @@
       <c r="D57">
         <v>34</v>
       </c>
-      <c r="G57">
+      <c r="H57" s="38">
         <v>0.65</v>
       </c>
-      <c r="I57" s="36"/>
-      <c r="N57" s="36"/>
-    </row>
-    <row r="58" spans="1:39">
+      <c r="J57" s="36"/>
+      <c r="O57" s="36"/>
+    </row>
+    <row r="58" spans="1:40">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -10559,16 +10658,16 @@
       <c r="F58">
         <v>2500</v>
       </c>
-      <c r="I58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="X58">
+      <c r="J58" s="36"/>
+      <c r="O58" s="36"/>
+      <c r="Y58">
         <v>39</v>
       </c>
-      <c r="Y58">
+      <c r="Z58">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:40">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -10581,11 +10680,11 @@
       <c r="D59">
         <v>41</v>
       </c>
-      <c r="G59">
+      <c r="H59" s="38">
         <v>0.68500000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:40">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -10598,13 +10697,13 @@
       <c r="D60">
         <v>49</v>
       </c>
-      <c r="G60">
+      <c r="H60" s="38">
         <v>0.69</v>
       </c>
-      <c r="I60" s="36"/>
-      <c r="N60" s="36"/>
-    </row>
-    <row r="61" spans="1:39">
+      <c r="J60" s="36"/>
+      <c r="O60" s="36"/>
+    </row>
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -10623,16 +10722,16 @@
       <c r="F61">
         <v>2732</v>
       </c>
-      <c r="I61" s="36"/>
-      <c r="K61">
+      <c r="J61" s="36"/>
+      <c r="L61">
         <v>0.32</v>
       </c>
-      <c r="N61" s="36"/>
-      <c r="AM61">
+      <c r="O61" s="36"/>
+      <c r="AN61">
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:40">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -10645,13 +10744,13 @@
       <c r="D62">
         <v>27</v>
       </c>
-      <c r="G62">
+      <c r="H62" s="38">
         <v>0.44</v>
       </c>
-      <c r="I62" s="36"/>
-      <c r="N62" s="36"/>
-    </row>
-    <row r="63" spans="1:39">
+      <c r="J62" s="36"/>
+      <c r="O62" s="36"/>
+    </row>
+    <row r="63" spans="1:40">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -10664,13 +10763,13 @@
       <c r="D63">
         <v>34</v>
       </c>
-      <c r="G63">
+      <c r="H63" s="38">
         <v>0.67</v>
       </c>
-      <c r="I63" s="36"/>
-      <c r="N63" s="36"/>
-    </row>
-    <row r="64" spans="1:39">
+      <c r="J63" s="36"/>
+      <c r="O63" s="36"/>
+    </row>
+    <row r="64" spans="1:40">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -10686,16 +10785,16 @@
       <c r="F64">
         <v>2638</v>
       </c>
-      <c r="I64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="X64">
+      <c r="J64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="Y64">
         <v>39</v>
       </c>
-      <c r="Y64">
+      <c r="Z64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:40">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -10708,13 +10807,13 @@
       <c r="D65">
         <v>41</v>
       </c>
-      <c r="G65">
+      <c r="H65" s="38">
         <v>0.72</v>
       </c>
-      <c r="I65" s="36"/>
-      <c r="N65" s="36"/>
-    </row>
-    <row r="66" spans="1:39">
+      <c r="J65" s="36"/>
+      <c r="O65" s="36"/>
+    </row>
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -10727,13 +10826,13 @@
       <c r="D66">
         <v>49</v>
       </c>
-      <c r="G66">
+      <c r="H66" s="38">
         <v>0.59499999999999997</v>
       </c>
-      <c r="I66" s="36"/>
-      <c r="N66" s="36"/>
-    </row>
-    <row r="67" spans="1:39">
+      <c r="J66" s="36"/>
+      <c r="O66" s="36"/>
+    </row>
+    <row r="67" spans="1:40">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -10752,16 +10851,16 @@
       <c r="F67">
         <v>3058</v>
       </c>
-      <c r="I67" s="36"/>
-      <c r="K67">
+      <c r="J67" s="36"/>
+      <c r="L67">
         <v>0.31</v>
       </c>
-      <c r="N67" s="36"/>
-      <c r="AM67">
+      <c r="O67" s="36"/>
+      <c r="AN67">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -10774,13 +10873,13 @@
       <c r="D68">
         <v>27</v>
       </c>
-      <c r="G68">
+      <c r="H68" s="38">
         <v>0.51</v>
       </c>
-      <c r="I68" s="36"/>
-      <c r="N68" s="36"/>
-    </row>
-    <row r="69" spans="1:39">
+      <c r="J68" s="36"/>
+      <c r="O68" s="36"/>
+    </row>
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -10793,13 +10892,13 @@
       <c r="D69">
         <v>34</v>
       </c>
-      <c r="G69">
+      <c r="H69" s="38">
         <v>0.69499999999999995</v>
       </c>
-      <c r="I69" s="36"/>
-      <c r="N69" s="36"/>
-    </row>
-    <row r="70" spans="1:39">
+      <c r="J69" s="36"/>
+      <c r="O69" s="36"/>
+    </row>
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -10815,16 +10914,16 @@
       <c r="F70">
         <v>2589</v>
       </c>
-      <c r="I70" s="36"/>
-      <c r="N70" s="36"/>
-      <c r="X70">
+      <c r="J70" s="36"/>
+      <c r="O70" s="36"/>
+      <c r="Y70">
         <v>39</v>
       </c>
-      <c r="Y70">
+      <c r="Z70">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:40">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -10837,11 +10936,11 @@
       <c r="D71">
         <v>41</v>
       </c>
-      <c r="G71">
+      <c r="H71" s="38">
         <v>0.73</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -10854,13 +10953,13 @@
       <c r="D72">
         <v>49</v>
       </c>
-      <c r="G72">
+      <c r="H72" s="38">
         <v>0.67</v>
       </c>
-      <c r="I72" s="36"/>
-      <c r="N72" s="36"/>
-    </row>
-    <row r="73" spans="1:39">
+      <c r="J72" s="36"/>
+      <c r="O72" s="36"/>
+    </row>
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -10879,16 +10978,16 @@
       <c r="F73">
         <v>3143</v>
       </c>
-      <c r="I73" s="36"/>
-      <c r="K73">
+      <c r="J73" s="36"/>
+      <c r="L73">
         <v>0.33</v>
       </c>
-      <c r="N73" s="36"/>
-      <c r="AM73">
+      <c r="O73" s="36"/>
+      <c r="AN73">
         <v>420</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -10901,13 +11000,13 @@
       <c r="D74">
         <v>27</v>
       </c>
-      <c r="G74">
+      <c r="H74" s="38">
         <v>0.495</v>
       </c>
-      <c r="I74" s="36"/>
-      <c r="N74" s="36"/>
-    </row>
-    <row r="75" spans="1:39">
+      <c r="J74" s="36"/>
+      <c r="O74" s="36"/>
+    </row>
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -10920,13 +11019,13 @@
       <c r="D75">
         <v>34</v>
       </c>
-      <c r="G75">
+      <c r="H75" s="38">
         <v>0.7</v>
       </c>
-      <c r="I75" s="36"/>
-      <c r="N75" s="36"/>
-    </row>
-    <row r="76" spans="1:39">
+      <c r="J75" s="36"/>
+      <c r="O75" s="36"/>
+    </row>
+    <row r="76" spans="1:40">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -10942,16 +11041,16 @@
       <c r="F76">
         <v>2663</v>
       </c>
-      <c r="I76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="X76">
+      <c r="J76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="Y76">
         <v>39</v>
       </c>
-      <c r="Y76">
+      <c r="Z76">
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:40">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -10964,13 +11063,13 @@
       <c r="D77">
         <v>41</v>
       </c>
-      <c r="G77">
+      <c r="H77" s="38">
         <v>0.78</v>
       </c>
-      <c r="I77" s="36"/>
-      <c r="N77" s="36"/>
-    </row>
-    <row r="78" spans="1:39">
+      <c r="J77" s="36"/>
+      <c r="O77" s="36"/>
+    </row>
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -10983,13 +11082,13 @@
       <c r="D78">
         <v>49</v>
       </c>
-      <c r="G78">
+      <c r="H78" s="38">
         <v>0.72</v>
       </c>
-      <c r="I78" s="36"/>
-      <c r="N78" s="36"/>
-    </row>
-    <row r="79" spans="1:39">
+      <c r="J78" s="36"/>
+      <c r="O78" s="36"/>
+    </row>
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -11008,16 +11107,16 @@
       <c r="F79">
         <v>3264</v>
       </c>
-      <c r="I79" s="36"/>
-      <c r="K79">
+      <c r="J79" s="36"/>
+      <c r="L79">
         <v>0.36</v>
       </c>
-      <c r="N79" s="36"/>
-      <c r="AM79">
+      <c r="O79" s="36"/>
+      <c r="AN79">
         <v>410</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:40">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -11030,13 +11129,13 @@
       <c r="D80">
         <v>27</v>
       </c>
-      <c r="G80">
+      <c r="H80" s="38">
         <v>0.46</v>
       </c>
-      <c r="I80" s="36"/>
-      <c r="N80" s="36"/>
-    </row>
-    <row r="81" spans="1:39">
+      <c r="J80" s="36"/>
+      <c r="O80" s="36"/>
+    </row>
+    <row r="81" spans="1:40">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -11049,13 +11148,13 @@
       <c r="D81">
         <v>34</v>
       </c>
-      <c r="G81">
+      <c r="H81" s="38">
         <v>0.68</v>
       </c>
-      <c r="I81" s="36"/>
-      <c r="N81" s="36"/>
-    </row>
-    <row r="82" spans="1:39">
+      <c r="J81" s="36"/>
+      <c r="O81" s="36"/>
+    </row>
+    <row r="82" spans="1:40">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -11071,16 +11170,16 @@
       <c r="F82">
         <v>2462</v>
       </c>
-      <c r="I82" s="36"/>
-      <c r="N82" s="36"/>
-      <c r="X82">
+      <c r="J82" s="36"/>
+      <c r="O82" s="36"/>
+      <c r="Y82">
         <v>40</v>
       </c>
-      <c r="Y82">
+      <c r="Z82">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:40">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -11093,13 +11192,13 @@
       <c r="D83">
         <v>41</v>
       </c>
-      <c r="G83">
+      <c r="H83" s="38">
         <v>0.72</v>
       </c>
-      <c r="I83" s="36"/>
-      <c r="N83" s="36"/>
-    </row>
-    <row r="84" spans="1:39">
+      <c r="J83" s="36"/>
+      <c r="O83" s="36"/>
+    </row>
+    <row r="84" spans="1:40">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -11112,13 +11211,13 @@
       <c r="D84">
         <v>49</v>
       </c>
-      <c r="G84">
+      <c r="H84" s="38">
         <v>0.69499999999999995</v>
       </c>
-      <c r="I84" s="36"/>
-      <c r="N84" s="36"/>
-    </row>
-    <row r="85" spans="1:39">
+      <c r="J84" s="36"/>
+      <c r="O84" s="36"/>
+    </row>
+    <row r="85" spans="1:40">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -11137,16 +11236,16 @@
       <c r="F85">
         <v>3092</v>
       </c>
-      <c r="I85" s="36"/>
-      <c r="K85">
+      <c r="J85" s="36"/>
+      <c r="L85">
         <v>0.3</v>
       </c>
-      <c r="N85" s="36"/>
-      <c r="AM85">
+      <c r="O85" s="36"/>
+      <c r="AN85">
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:40">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -11159,13 +11258,13 @@
       <c r="D86">
         <v>27</v>
       </c>
-      <c r="G86">
+      <c r="H86" s="38">
         <v>0.45</v>
       </c>
-      <c r="I86" s="36"/>
-      <c r="N86" s="36"/>
-    </row>
-    <row r="87" spans="1:39">
+      <c r="J86" s="36"/>
+      <c r="O86" s="36"/>
+    </row>
+    <row r="87" spans="1:40">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -11178,13 +11277,13 @@
       <c r="D87">
         <v>34</v>
       </c>
-      <c r="G87">
+      <c r="H87" s="38">
         <v>0.65</v>
       </c>
-      <c r="I87" s="36"/>
-      <c r="N87" s="36"/>
-    </row>
-    <row r="88" spans="1:39">
+      <c r="J87" s="36"/>
+      <c r="O87" s="36"/>
+    </row>
+    <row r="88" spans="1:40">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -11200,16 +11299,16 @@
       <c r="F88">
         <v>2395</v>
       </c>
-      <c r="I88" s="36"/>
-      <c r="N88" s="36"/>
-      <c r="X88">
+      <c r="J88" s="36"/>
+      <c r="O88" s="36"/>
+      <c r="Y88">
         <v>39</v>
       </c>
-      <c r="Y88">
+      <c r="Z88">
         <v>59</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:40">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -11222,13 +11321,13 @@
       <c r="D89">
         <v>41</v>
       </c>
-      <c r="G89">
+      <c r="H89" s="38">
         <v>0.78</v>
       </c>
-      <c r="I89" s="36"/>
-      <c r="N89" s="36"/>
-    </row>
-    <row r="90" spans="1:39">
+      <c r="J89" s="36"/>
+      <c r="O89" s="36"/>
+    </row>
+    <row r="90" spans="1:40">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -11241,13 +11340,13 @@
       <c r="D90">
         <v>49</v>
       </c>
-      <c r="G90">
+      <c r="H90" s="38">
         <v>0.83</v>
       </c>
-      <c r="I90" s="36"/>
-      <c r="N90" s="36"/>
-    </row>
-    <row r="91" spans="1:39">
+      <c r="J90" s="36"/>
+      <c r="O90" s="36"/>
+    </row>
+    <row r="91" spans="1:40">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -11266,16 +11365,16 @@
       <c r="F91">
         <v>3732</v>
       </c>
-      <c r="I91" s="36"/>
-      <c r="K91">
+      <c r="J91" s="36"/>
+      <c r="L91">
         <v>0.35</v>
       </c>
-      <c r="N91" s="36"/>
-      <c r="AM91">
+      <c r="O91" s="36"/>
+      <c r="AN91">
         <v>480</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:40">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -11288,13 +11387,13 @@
       <c r="D92">
         <v>27</v>
       </c>
-      <c r="G92">
+      <c r="H92" s="38">
         <v>0.48</v>
       </c>
-      <c r="I92" s="36"/>
-      <c r="N92" s="36"/>
-    </row>
-    <row r="93" spans="1:39">
+      <c r="J92" s="36"/>
+      <c r="O92" s="36"/>
+    </row>
+    <row r="93" spans="1:40">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -11307,13 +11406,13 @@
       <c r="D93">
         <v>34</v>
       </c>
-      <c r="G93">
+      <c r="H93" s="38">
         <v>0.68</v>
       </c>
-      <c r="I93" s="36"/>
-      <c r="N93" s="36"/>
-    </row>
-    <row r="94" spans="1:39">
+      <c r="J93" s="36"/>
+      <c r="O93" s="36"/>
+    </row>
+    <row r="94" spans="1:40">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -11329,16 +11428,16 @@
       <c r="F94">
         <v>2161</v>
       </c>
-      <c r="I94" s="36"/>
-      <c r="N94" s="36"/>
-      <c r="X94">
+      <c r="J94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="Y94">
         <v>40</v>
       </c>
-      <c r="Y94">
+      <c r="Z94">
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:40">
       <c r="A95" t="s">
         <v>109</v>
       </c>
@@ -11351,13 +11450,13 @@
       <c r="D95">
         <v>41</v>
       </c>
-      <c r="G95">
+      <c r="H95" s="38">
         <v>0.77</v>
       </c>
-      <c r="I95" s="36"/>
-      <c r="N95" s="36"/>
-    </row>
-    <row r="96" spans="1:39">
+      <c r="J95" s="36"/>
+      <c r="O95" s="36"/>
+    </row>
+    <row r="96" spans="1:40">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -11370,13 +11469,13 @@
       <c r="D96">
         <v>49</v>
       </c>
-      <c r="G96">
+      <c r="H96" s="38">
         <v>0.83</v>
       </c>
-      <c r="I96" s="36"/>
-      <c r="N96" s="36"/>
-    </row>
-    <row r="97" spans="1:39">
+      <c r="J96" s="36"/>
+      <c r="O96" s="36"/>
+    </row>
+    <row r="97" spans="1:40">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -11395,16 +11494,16 @@
       <c r="F97">
         <v>3920</v>
       </c>
-      <c r="I97" s="36"/>
-      <c r="K97">
+      <c r="J97" s="36"/>
+      <c r="L97">
         <v>0.3</v>
       </c>
-      <c r="N97" s="36"/>
-      <c r="AM97">
+      <c r="O97" s="36"/>
+      <c r="AN97">
         <v>480</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:40">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -11417,13 +11516,13 @@
       <c r="D98">
         <v>27</v>
       </c>
-      <c r="G98">
+      <c r="H98" s="38">
         <v>0.44</v>
       </c>
-      <c r="I98" s="36"/>
-      <c r="N98" s="36"/>
-    </row>
-    <row r="99" spans="1:39">
+      <c r="J98" s="36"/>
+      <c r="O98" s="36"/>
+    </row>
+    <row r="99" spans="1:40">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -11436,13 +11535,13 @@
       <c r="D99">
         <v>34</v>
       </c>
-      <c r="G99">
+      <c r="H99" s="38">
         <v>0.67</v>
       </c>
-      <c r="I99" s="36"/>
-      <c r="N99" s="36"/>
-    </row>
-    <row r="100" spans="1:39">
+      <c r="J99" s="36"/>
+      <c r="O99" s="36"/>
+    </row>
+    <row r="100" spans="1:40">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -11458,16 +11557,16 @@
       <c r="F100">
         <v>2203</v>
       </c>
-      <c r="I100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="X100">
+      <c r="J100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="Y100">
         <v>40</v>
       </c>
-      <c r="Y100">
+      <c r="Z100">
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:40">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -11480,13 +11579,13 @@
       <c r="D101">
         <v>41</v>
       </c>
-      <c r="G101">
+      <c r="H101" s="38">
         <v>0.77</v>
       </c>
-      <c r="I101" s="36"/>
-      <c r="N101" s="36"/>
-    </row>
-    <row r="102" spans="1:39">
+      <c r="J101" s="36"/>
+      <c r="O101" s="36"/>
+    </row>
+    <row r="102" spans="1:40">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -11499,13 +11598,13 @@
       <c r="D102">
         <v>49</v>
       </c>
-      <c r="G102">
+      <c r="H102" s="38">
         <v>0.81</v>
       </c>
-      <c r="I102" s="36"/>
-      <c r="N102" s="36"/>
-    </row>
-    <row r="103" spans="1:39">
+      <c r="J102" s="36"/>
+      <c r="O102" s="36"/>
+    </row>
+    <row r="103" spans="1:40">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -11524,16 +11623,16 @@
       <c r="F103">
         <v>4323</v>
       </c>
-      <c r="I103" s="36"/>
-      <c r="K103">
+      <c r="J103" s="36"/>
+      <c r="L103">
         <v>0.33</v>
       </c>
-      <c r="N103" s="36"/>
-      <c r="AM103">
+      <c r="O103" s="36"/>
+      <c r="AN103">
         <v>520</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:40">
       <c r="A104" t="s">
         <v>109</v>
       </c>
@@ -11546,13 +11645,13 @@
       <c r="D104">
         <v>27</v>
       </c>
-      <c r="G104">
+      <c r="H104" s="38">
         <v>0.48</v>
       </c>
-      <c r="I104" s="36"/>
-      <c r="N104" s="36"/>
-    </row>
-    <row r="105" spans="1:39">
+      <c r="J104" s="36"/>
+      <c r="O104" s="36"/>
+    </row>
+    <row r="105" spans="1:40">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -11565,13 +11664,13 @@
       <c r="D105">
         <v>34</v>
       </c>
-      <c r="G105">
+      <c r="H105" s="38">
         <v>0.65</v>
       </c>
-      <c r="I105" s="36"/>
-      <c r="N105" s="36"/>
-    </row>
-    <row r="106" spans="1:39">
+      <c r="J105" s="36"/>
+      <c r="O105" s="36"/>
+    </row>
+    <row r="106" spans="1:40">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -11587,16 +11686,16 @@
       <c r="F106">
         <v>2568</v>
       </c>
-      <c r="I106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="X106">
+      <c r="J106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="Y106">
         <v>39</v>
       </c>
-      <c r="Y106">
+      <c r="Z106">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:40">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -11609,13 +11708,13 @@
       <c r="D107">
         <v>41</v>
       </c>
-      <c r="G107">
+      <c r="H107" s="38">
         <v>0.81</v>
       </c>
-      <c r="I107" s="36"/>
-      <c r="N107" s="36"/>
-    </row>
-    <row r="108" spans="1:39">
+      <c r="J107" s="36"/>
+      <c r="O107" s="36"/>
+    </row>
+    <row r="108" spans="1:40">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -11628,13 +11727,13 @@
       <c r="D108">
         <v>49</v>
       </c>
-      <c r="G108">
+      <c r="H108" s="38">
         <v>0.83</v>
       </c>
-      <c r="I108" s="36"/>
-      <c r="N108" s="36"/>
-    </row>
-    <row r="109" spans="1:39">
+      <c r="J108" s="36"/>
+      <c r="O108" s="36"/>
+    </row>
+    <row r="109" spans="1:40">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -11653,16 +11752,16 @@
       <c r="F109">
         <v>4035</v>
       </c>
-      <c r="I109" s="36"/>
-      <c r="K109">
+      <c r="J109" s="36"/>
+      <c r="L109">
         <v>0.34</v>
       </c>
-      <c r="N109" s="36"/>
-      <c r="AM109">
+      <c r="O109" s="36"/>
+      <c r="AN109">
         <v>490</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:40">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -11675,13 +11774,13 @@
       <c r="D110">
         <v>27</v>
       </c>
-      <c r="G110">
+      <c r="H110" s="38">
         <v>0.42</v>
       </c>
-      <c r="I110" s="36"/>
-      <c r="N110" s="36"/>
-    </row>
-    <row r="111" spans="1:39">
+      <c r="J110" s="36"/>
+      <c r="O110" s="36"/>
+    </row>
+    <row r="111" spans="1:40">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -11694,13 +11793,13 @@
       <c r="D111">
         <v>34</v>
       </c>
-      <c r="G111">
+      <c r="H111" s="38">
         <v>0.63</v>
       </c>
-      <c r="I111" s="36"/>
-      <c r="N111" s="36"/>
-    </row>
-    <row r="112" spans="1:39">
+      <c r="J111" s="36"/>
+      <c r="O111" s="36"/>
+    </row>
+    <row r="112" spans="1:40">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -11716,16 +11815,16 @@
       <c r="F112">
         <v>2335</v>
       </c>
-      <c r="I112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="X112">
+      <c r="J112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="Y112">
         <v>40</v>
       </c>
-      <c r="Y112">
+      <c r="Z112">
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:40">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -11738,13 +11837,13 @@
       <c r="D113">
         <v>41</v>
       </c>
-      <c r="G113">
+      <c r="H113" s="38">
         <v>0.74</v>
       </c>
-      <c r="I113" s="36"/>
-      <c r="N113" s="36"/>
-    </row>
-    <row r="114" spans="1:39">
+      <c r="J113" s="36"/>
+      <c r="O113" s="36"/>
+    </row>
+    <row r="114" spans="1:40">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -11757,13 +11856,13 @@
       <c r="D114">
         <v>49</v>
       </c>
-      <c r="G114">
+      <c r="H114" s="38">
         <v>0.79</v>
       </c>
-      <c r="I114" s="36"/>
-      <c r="N114" s="36"/>
-    </row>
-    <row r="115" spans="1:39">
+      <c r="J114" s="36"/>
+      <c r="O114" s="36"/>
+    </row>
+    <row r="115" spans="1:40">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -11782,16 +11881,16 @@
       <c r="F115">
         <v>4197</v>
       </c>
-      <c r="I115" s="36"/>
-      <c r="K115">
+      <c r="J115" s="36"/>
+      <c r="L115">
         <v>0.37</v>
       </c>
-      <c r="N115" s="36"/>
-      <c r="AM115">
+      <c r="O115" s="36"/>
+      <c r="AN115">
         <v>480</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:40">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -11804,13 +11903,13 @@
       <c r="D116">
         <v>27</v>
       </c>
-      <c r="G116">
+      <c r="H116" s="38">
         <v>0.49</v>
       </c>
-      <c r="I116" s="36"/>
-      <c r="N116" s="36"/>
-    </row>
-    <row r="117" spans="1:39">
+      <c r="J116" s="36"/>
+      <c r="O116" s="36"/>
+    </row>
+    <row r="117" spans="1:40">
       <c r="A117" t="s">
         <v>109</v>
       </c>
@@ -11823,13 +11922,13 @@
       <c r="D117">
         <v>34</v>
       </c>
-      <c r="G117">
+      <c r="H117" s="38">
         <v>0.7</v>
       </c>
-      <c r="I117" s="36"/>
-      <c r="N117" s="36"/>
-    </row>
-    <row r="118" spans="1:39">
+      <c r="J117" s="36"/>
+      <c r="O117" s="36"/>
+    </row>
+    <row r="118" spans="1:40">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -11845,16 +11944,16 @@
       <c r="F118">
         <v>2403</v>
       </c>
-      <c r="I118" s="36"/>
-      <c r="N118" s="36"/>
-      <c r="X118">
+      <c r="J118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="Y118">
         <v>40</v>
       </c>
-      <c r="Y118">
+      <c r="Z118">
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:40">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -11867,13 +11966,13 @@
       <c r="D119">
         <v>41</v>
       </c>
-      <c r="G119">
+      <c r="H119" s="38">
         <v>0.77</v>
       </c>
-      <c r="I119" s="36"/>
-      <c r="N119" s="36"/>
-    </row>
-    <row r="120" spans="1:39">
+      <c r="J119" s="36"/>
+      <c r="O119" s="36"/>
+    </row>
+    <row r="120" spans="1:40">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -11886,13 +11985,13 @@
       <c r="D120">
         <v>49</v>
       </c>
-      <c r="G120">
+      <c r="H120" s="38">
         <v>0.82</v>
       </c>
-      <c r="I120" s="36"/>
-      <c r="N120" s="36"/>
-    </row>
-    <row r="121" spans="1:39">
+      <c r="J120" s="36"/>
+      <c r="O120" s="36"/>
+    </row>
+    <row r="121" spans="1:40">
       <c r="A121" t="s">
         <v>109</v>
       </c>
@@ -11911,16 +12010,16 @@
       <c r="F121">
         <v>4378</v>
       </c>
-      <c r="I121" s="36"/>
-      <c r="K121">
+      <c r="J121" s="36"/>
+      <c r="L121">
         <v>0.32</v>
       </c>
-      <c r="N121" s="36"/>
-      <c r="AM121">
+      <c r="O121" s="36"/>
+      <c r="AN121">
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:40">
       <c r="A122" t="s">
         <v>109</v>
       </c>
@@ -11933,13 +12032,13 @@
       <c r="D122">
         <v>27</v>
       </c>
-      <c r="G122">
+      <c r="H122" s="38">
         <v>0.42</v>
       </c>
-      <c r="I122" s="36"/>
-      <c r="N122" s="36"/>
-    </row>
-    <row r="123" spans="1:39">
+      <c r="J122" s="36"/>
+      <c r="O122" s="36"/>
+    </row>
+    <row r="123" spans="1:40">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -11952,13 +12051,13 @@
       <c r="D123">
         <v>34</v>
       </c>
-      <c r="G123">
+      <c r="H123" s="38">
         <v>0.61499999999999999</v>
       </c>
-      <c r="I123" s="36"/>
-      <c r="N123" s="36"/>
-    </row>
-    <row r="124" spans="1:39">
+      <c r="J123" s="36"/>
+      <c r="O123" s="36"/>
+    </row>
+    <row r="124" spans="1:40">
       <c r="A124" t="s">
         <v>109</v>
       </c>
@@ -11974,16 +12073,16 @@
       <c r="F124">
         <v>2597</v>
       </c>
-      <c r="I124" s="36"/>
-      <c r="N124" s="36"/>
-      <c r="X124">
+      <c r="J124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="Y124">
         <v>40</v>
       </c>
-      <c r="Y124">
+      <c r="Z124">
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:40">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -11996,13 +12095,13 @@
       <c r="D125">
         <v>41</v>
       </c>
-      <c r="G125">
+      <c r="H125" s="38">
         <v>0.72</v>
       </c>
-      <c r="I125" s="36"/>
-      <c r="N125" s="36"/>
-    </row>
-    <row r="126" spans="1:39">
+      <c r="J125" s="36"/>
+      <c r="O125" s="36"/>
+    </row>
+    <row r="126" spans="1:40">
       <c r="A126" t="s">
         <v>109</v>
       </c>
@@ -12015,13 +12114,13 @@
       <c r="D126">
         <v>49</v>
       </c>
-      <c r="G126">
+      <c r="H126" s="38">
         <v>0.82</v>
       </c>
-      <c r="I126" s="36"/>
-      <c r="N126" s="36"/>
-    </row>
-    <row r="127" spans="1:39">
+      <c r="J126" s="36"/>
+      <c r="O126" s="36"/>
+    </row>
+    <row r="127" spans="1:40">
       <c r="A127" t="s">
         <v>109</v>
       </c>
@@ -12040,16 +12139,16 @@
       <c r="F127">
         <v>4241</v>
       </c>
-      <c r="I127" s="36"/>
-      <c r="K127">
+      <c r="J127" s="36"/>
+      <c r="L127">
         <v>0.32</v>
       </c>
-      <c r="N127" s="36"/>
-      <c r="AM127">
+      <c r="O127" s="36"/>
+      <c r="AN127">
         <v>450</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:40">
       <c r="A128" t="s">
         <v>109</v>
       </c>
@@ -12062,13 +12161,13 @@
       <c r="D128">
         <v>27</v>
       </c>
-      <c r="G128">
+      <c r="H128" s="38">
         <v>0.46</v>
       </c>
-      <c r="I128" s="36"/>
-      <c r="N128" s="36"/>
-    </row>
-    <row r="129" spans="1:39">
+      <c r="J128" s="36"/>
+      <c r="O128" s="36"/>
+    </row>
+    <row r="129" spans="1:40">
       <c r="A129" t="s">
         <v>109</v>
       </c>
@@ -12081,13 +12180,13 @@
       <c r="D129">
         <v>34</v>
       </c>
-      <c r="G129">
+      <c r="H129" s="38">
         <v>0.63</v>
       </c>
-      <c r="I129" s="36"/>
-      <c r="N129" s="36"/>
-    </row>
-    <row r="130" spans="1:39">
+      <c r="J129" s="36"/>
+      <c r="O129" s="36"/>
+    </row>
+    <row r="130" spans="1:40">
       <c r="A130" t="s">
         <v>109</v>
       </c>
@@ -12103,16 +12202,16 @@
       <c r="F130">
         <v>2452</v>
       </c>
-      <c r="I130" s="36"/>
-      <c r="N130" s="36"/>
-      <c r="X130">
+      <c r="J130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="Y130">
         <v>39</v>
       </c>
-      <c r="Y130">
+      <c r="Z130">
         <v>60</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:40">
       <c r="A131" t="s">
         <v>109</v>
       </c>
@@ -12125,13 +12224,13 @@
       <c r="D131">
         <v>41</v>
       </c>
-      <c r="G131">
+      <c r="H131" s="38">
         <v>0.76</v>
       </c>
-      <c r="I131" s="36"/>
-      <c r="N131" s="36"/>
-    </row>
-    <row r="132" spans="1:39">
+      <c r="J131" s="36"/>
+      <c r="O131" s="36"/>
+    </row>
+    <row r="132" spans="1:40">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -12144,13 +12243,13 @@
       <c r="D132">
         <v>49</v>
       </c>
-      <c r="G132">
+      <c r="H132" s="38">
         <v>0.79</v>
       </c>
-      <c r="I132" s="36"/>
-      <c r="N132" s="36"/>
-    </row>
-    <row r="133" spans="1:39">
+      <c r="J132" s="36"/>
+      <c r="O132" s="36"/>
+    </row>
+    <row r="133" spans="1:40">
       <c r="A133" t="s">
         <v>109</v>
       </c>
@@ -12169,16 +12268,16 @@
       <c r="F133">
         <v>3779</v>
       </c>
-      <c r="I133" s="36"/>
-      <c r="K133">
+      <c r="J133" s="36"/>
+      <c r="L133">
         <v>0.32</v>
       </c>
-      <c r="N133" s="36"/>
-      <c r="AM133">
+      <c r="O133" s="36"/>
+      <c r="AN133">
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:40">
       <c r="A134" t="s">
         <v>277</v>
       </c>
@@ -12191,40 +12290,40 @@
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="I134" s="36"/>
-      <c r="N134" s="36"/>
-      <c r="X134">
+      <c r="J134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="Y134">
         <v>52</v>
       </c>
-      <c r="AA134">
+      <c r="AB134">
         <v>24.65</v>
       </c>
-      <c r="AB134">
+      <c r="AC134">
         <v>11.6</v>
       </c>
-      <c r="AC134">
+      <c r="AD134">
         <v>21.9</v>
       </c>
-      <c r="AD134">
+      <c r="AE134">
         <v>30.87</v>
       </c>
-      <c r="AE134">
+      <c r="AF134">
         <v>87</v>
       </c>
-      <c r="AG134">
+      <c r="AH134">
         <v>33</v>
       </c>
-      <c r="AH134">
+      <c r="AI134">
         <v>39.5</v>
       </c>
-      <c r="AI134">
+      <c r="AJ134">
         <v>24.5</v>
       </c>
-      <c r="AJ134">
+      <c r="AK134">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:40">
       <c r="A135" t="s">
         <v>277</v>
       </c>
@@ -12237,13 +12336,13 @@
       <c r="D135">
         <v>32</v>
       </c>
-      <c r="G135">
+      <c r="H135" s="38">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I135" s="36"/>
-      <c r="N135" s="36"/>
-    </row>
-    <row r="136" spans="1:39">
+      <c r="J135" s="36"/>
+      <c r="O135" s="36"/>
+    </row>
+    <row r="136" spans="1:40">
       <c r="A136" t="s">
         <v>277</v>
       </c>
@@ -12256,13 +12355,13 @@
       <c r="D136">
         <v>37</v>
       </c>
-      <c r="G136">
+      <c r="H136" s="38">
         <v>0.34</v>
       </c>
-      <c r="I136" s="36"/>
-      <c r="N136" s="36"/>
-    </row>
-    <row r="137" spans="1:39">
+      <c r="J136" s="36"/>
+      <c r="O136" s="36"/>
+    </row>
+    <row r="137" spans="1:40">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -12275,13 +12374,13 @@
       <c r="D137">
         <v>46</v>
       </c>
-      <c r="G137" s="38">
+      <c r="H137" s="38">
         <v>0.45</v>
       </c>
-      <c r="I137" s="36"/>
-      <c r="N137" s="36"/>
-    </row>
-    <row r="138" spans="1:39">
+      <c r="J137" s="36"/>
+      <c r="O137" s="36"/>
+    </row>
+    <row r="138" spans="1:40">
       <c r="A138" t="s">
         <v>277</v>
       </c>
@@ -12297,11 +12396,10 @@
       <c r="F138">
         <v>848</v>
       </c>
-      <c r="G138" s="38"/>
-      <c r="I138" s="36"/>
-      <c r="N138" s="36"/>
-    </row>
-    <row r="139" spans="1:39">
+      <c r="J138" s="36"/>
+      <c r="O138" s="36"/>
+    </row>
+    <row r="139" spans="1:40">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -12314,12 +12412,12 @@
       <c r="D139">
         <v>54</v>
       </c>
-      <c r="G139" s="38">
+      <c r="H139" s="38">
         <v>0.52</v>
       </c>
-      <c r="I139" s="36"/>
-    </row>
-    <row r="140" spans="1:39">
+      <c r="J139" s="36"/>
+    </row>
+    <row r="140" spans="1:40">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -12332,12 +12430,12 @@
       <c r="D140">
         <v>64</v>
       </c>
-      <c r="G140" s="38">
+      <c r="H140" s="38">
         <v>0.84</v>
       </c>
-      <c r="I140" s="36"/>
-    </row>
-    <row r="141" spans="1:39">
+      <c r="J140" s="36"/>
+    </row>
+    <row r="141" spans="1:40">
       <c r="A141" t="s">
         <v>277</v>
       </c>
@@ -12356,37 +12454,36 @@
       <c r="F141">
         <v>1701</v>
       </c>
-      <c r="G141" s="38"/>
-      <c r="I141" s="36"/>
-      <c r="AA141">
+      <c r="J141" s="36"/>
+      <c r="AB141">
         <v>21.75</v>
       </c>
-      <c r="AB141">
+      <c r="AC141">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC141">
+      <c r="AD141">
         <v>21.9</v>
       </c>
-      <c r="AD141">
+      <c r="AE141">
         <v>26.46</v>
       </c>
-      <c r="AE141">
+      <c r="AF141">
         <v>80</v>
       </c>
-      <c r="AG141">
+      <c r="AH141">
         <v>0</v>
       </c>
-      <c r="AH141">
+      <c r="AI141">
         <v>6</v>
       </c>
-      <c r="AI141">
+      <c r="AJ141">
         <v>1</v>
       </c>
-      <c r="AJ141">
+      <c r="AK141">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:40">
       <c r="A142" t="s">
         <v>277</v>
       </c>
@@ -12399,10 +12496,9 @@
       <c r="D142">
         <v>0</v>
       </c>
-      <c r="G142" s="36"/>
-      <c r="I142" s="36"/>
-    </row>
-    <row r="143" spans="1:39">
+      <c r="J142" s="36"/>
+    </row>
+    <row r="143" spans="1:40">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -12418,10 +12514,9 @@
       <c r="F143">
         <v>879</v>
       </c>
-      <c r="G143" s="36"/>
-      <c r="I143" s="36"/>
-    </row>
-    <row r="144" spans="1:39">
+      <c r="J143" s="36"/>
+    </row>
+    <row r="144" spans="1:40">
       <c r="A144" t="s">
         <v>277</v>
       </c>
@@ -12440,25 +12535,24 @@
       <c r="F144">
         <v>1762</v>
       </c>
-      <c r="G144" s="36"/>
-      <c r="I144" s="36"/>
-      <c r="AA144">
+      <c r="J144" s="36"/>
+      <c r="AB144">
         <v>24.65</v>
       </c>
-      <c r="AB144">
+      <c r="AC144">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC144">
+      <c r="AD144">
         <v>17.52</v>
       </c>
-      <c r="AD144">
+      <c r="AE144">
         <v>22.05</v>
       </c>
-      <c r="AE144">
+      <c r="AF144">
         <v>75</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:32">
       <c r="A145" t="s">
         <v>277</v>
       </c>
@@ -12471,10 +12565,9 @@
       <c r="D145">
         <v>0</v>
       </c>
-      <c r="G145" s="36"/>
-      <c r="I145" s="36"/>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="J145" s="36"/>
+    </row>
+    <row r="146" spans="1:32">
       <c r="A146" t="s">
         <v>277</v>
       </c>
@@ -12490,10 +12583,9 @@
       <c r="F146">
         <v>860</v>
       </c>
-      <c r="G146" s="36"/>
-      <c r="I146" s="36"/>
-    </row>
-    <row r="147" spans="1:31">
+      <c r="J146" s="36"/>
+    </row>
+    <row r="147" spans="1:32">
       <c r="A147" t="s">
         <v>277</v>
       </c>
@@ -12512,25 +12604,24 @@
       <c r="F147">
         <v>1663</v>
       </c>
-      <c r="G147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="AA147">
+      <c r="J147" s="36"/>
+      <c r="AB147">
         <v>18.850000000000001</v>
       </c>
-      <c r="AB147">
+      <c r="AC147">
         <v>5.8</v>
       </c>
-      <c r="AC147">
+      <c r="AD147">
         <v>21.9</v>
       </c>
-      <c r="AD147">
+      <c r="AE147">
         <v>26.46</v>
       </c>
-      <c r="AE147">
+      <c r="AF147">
         <v>75</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:32">
       <c r="A148" t="s">
         <v>277</v>
       </c>
@@ -12543,10 +12634,9 @@
       <c r="D148">
         <v>0</v>
       </c>
-      <c r="G148" s="36"/>
-      <c r="I148" s="36"/>
-    </row>
-    <row r="149" spans="1:31">
+      <c r="J148" s="36"/>
+    </row>
+    <row r="149" spans="1:32">
       <c r="A149" t="s">
         <v>277</v>
       </c>
@@ -12562,10 +12652,9 @@
       <c r="F149">
         <v>1012</v>
       </c>
-      <c r="G149" s="36"/>
-      <c r="I149" s="36"/>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="J149" s="36"/>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" t="s">
         <v>277</v>
       </c>
@@ -12584,25 +12673,24 @@
       <c r="F150">
         <v>1799</v>
       </c>
-      <c r="G150" s="36"/>
-      <c r="I150" s="36"/>
-      <c r="AA150">
+      <c r="J150" s="36"/>
+      <c r="AB150">
         <v>36.25</v>
       </c>
-      <c r="AB150">
+      <c r="AC150">
         <v>11.6</v>
       </c>
-      <c r="AC150">
+      <c r="AD150">
         <v>17.52</v>
       </c>
-      <c r="AD150">
+      <c r="AE150">
         <v>22.05</v>
       </c>
-      <c r="AE150">
+      <c r="AF150">
         <v>87</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:32">
       <c r="A151" t="s">
         <v>277</v>
       </c>
@@ -12615,10 +12703,9 @@
       <c r="D151">
         <v>0</v>
       </c>
-      <c r="G151" s="36"/>
-      <c r="I151" s="36"/>
-    </row>
-    <row r="152" spans="1:31">
+      <c r="J151" s="36"/>
+    </row>
+    <row r="152" spans="1:32">
       <c r="A152" t="s">
         <v>277</v>
       </c>
@@ -12634,10 +12721,9 @@
       <c r="F152">
         <v>1006</v>
       </c>
-      <c r="G152" s="36"/>
-      <c r="I152" s="36"/>
-    </row>
-    <row r="153" spans="1:31">
+      <c r="J152" s="36"/>
+    </row>
+    <row r="153" spans="1:32">
       <c r="A153" t="s">
         <v>277</v>
       </c>
@@ -12656,25 +12742,24 @@
       <c r="F153">
         <v>1813</v>
       </c>
-      <c r="G153" s="36"/>
-      <c r="I153" s="36"/>
-      <c r="AA153">
+      <c r="J153" s="36"/>
+      <c r="AB153">
         <v>63.8</v>
       </c>
-      <c r="AB153">
+      <c r="AC153">
         <v>29</v>
       </c>
-      <c r="AC153">
+      <c r="AD153">
         <v>26.28</v>
       </c>
-      <c r="AD153">
+      <c r="AE153">
         <v>17.64</v>
       </c>
-      <c r="AE153">
+      <c r="AF153">
         <v>130</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:32">
       <c r="A154" t="s">
         <v>277</v>
       </c>
@@ -12687,10 +12772,9 @@
       <c r="D154">
         <v>0</v>
       </c>
-      <c r="G154" s="36"/>
-      <c r="I154" s="36"/>
-    </row>
-    <row r="155" spans="1:31">
+      <c r="J154" s="36"/>
+    </row>
+    <row r="155" spans="1:32">
       <c r="A155" t="s">
         <v>277</v>
       </c>
@@ -12706,10 +12790,9 @@
       <c r="F155">
         <v>821</v>
       </c>
-      <c r="G155" s="36"/>
-      <c r="I155" s="36"/>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="J155" s="36"/>
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" t="s">
         <v>277</v>
       </c>
@@ -12728,25 +12811,24 @@
       <c r="F156">
         <v>1843</v>
       </c>
-      <c r="G156" s="36"/>
-      <c r="I156" s="36"/>
-      <c r="AA156">
+      <c r="J156" s="36"/>
+      <c r="AB156">
         <v>76.849999999999994</v>
       </c>
-      <c r="AB156">
+      <c r="AC156">
         <v>11.6</v>
       </c>
-      <c r="AC156">
+      <c r="AD156">
         <v>17.52</v>
       </c>
-      <c r="AD156">
+      <c r="AE156">
         <v>22.05</v>
       </c>
-      <c r="AE156">
+      <c r="AF156">
         <v>137</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:32">
       <c r="A157" t="s">
         <v>277</v>
       </c>
@@ -12759,10 +12841,9 @@
       <c r="D157">
         <v>0</v>
       </c>
-      <c r="G157" s="36"/>
-      <c r="I157" s="36"/>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="J157" s="36"/>
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" t="s">
         <v>277</v>
       </c>
@@ -12778,10 +12859,9 @@
       <c r="F158">
         <v>973</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="I158" s="36"/>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="J158" s="36"/>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" t="s">
         <v>277</v>
       </c>
@@ -12800,25 +12880,24 @@
       <c r="F159">
         <v>1790</v>
       </c>
-      <c r="G159" s="36"/>
-      <c r="I159" s="36"/>
-      <c r="AA159">
+      <c r="J159" s="36"/>
+      <c r="AB159">
         <v>100.05</v>
       </c>
-      <c r="AB159">
+      <c r="AC159">
         <v>17.399999999999999</v>
       </c>
-      <c r="AC159">
+      <c r="AD159">
         <v>21.9</v>
       </c>
-      <c r="AD159">
+      <c r="AE159">
         <v>26.46</v>
       </c>
-      <c r="AE159">
+      <c r="AF159">
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:32">
       <c r="A160" t="s">
         <v>277</v>
       </c>
@@ -12831,10 +12910,9 @@
       <c r="D160">
         <v>0</v>
       </c>
-      <c r="G160" s="38"/>
-      <c r="I160" s="36"/>
-    </row>
-    <row r="161" spans="1:36">
+      <c r="J160" s="36"/>
+    </row>
+    <row r="161" spans="1:37">
       <c r="A161" t="s">
         <v>277</v>
       </c>
@@ -12850,10 +12928,9 @@
       <c r="F161">
         <v>995</v>
       </c>
-      <c r="G161" s="38"/>
-      <c r="I161" s="36"/>
-    </row>
-    <row r="162" spans="1:36">
+      <c r="J161" s="36"/>
+    </row>
+    <row r="162" spans="1:37">
       <c r="A162" t="s">
         <v>277</v>
       </c>
@@ -12872,25 +12949,24 @@
       <c r="F162">
         <v>1770</v>
       </c>
-      <c r="G162" s="38"/>
-      <c r="I162" s="36"/>
-      <c r="AA162">
+      <c r="J162" s="36"/>
+      <c r="AB162">
         <v>153.69999999999999</v>
       </c>
-      <c r="AB162">
+      <c r="AC162">
         <v>23.2</v>
       </c>
-      <c r="AC162">
+      <c r="AD162">
         <v>35.04</v>
       </c>
-      <c r="AD162">
+      <c r="AE162">
         <v>35.28</v>
       </c>
-      <c r="AE162">
+      <c r="AF162">
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:36">
+    <row r="163" spans="1:37">
       <c r="A163" t="s">
         <v>277</v>
       </c>
@@ -12903,37 +12979,36 @@
       <c r="D163">
         <v>0</v>
       </c>
-      <c r="G163" s="38"/>
-      <c r="I163" s="36"/>
-      <c r="AA163">
+      <c r="J163" s="36"/>
+      <c r="AB163">
         <v>23.2</v>
       </c>
-      <c r="AB163">
+      <c r="AC163">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC163">
+      <c r="AD163">
         <v>8.76</v>
       </c>
-      <c r="AD163">
+      <c r="AE163">
         <v>17.64</v>
       </c>
-      <c r="AE163">
+      <c r="AF163">
         <v>55</v>
       </c>
-      <c r="AG163">
+      <c r="AH163">
         <v>33</v>
       </c>
-      <c r="AH163">
+      <c r="AI163">
         <v>39.5</v>
       </c>
-      <c r="AI163">
+      <c r="AJ163">
         <v>24.5</v>
       </c>
-      <c r="AJ163">
+      <c r="AK163">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:36">
+    <row r="164" spans="1:37">
       <c r="A164" t="s">
         <v>277</v>
       </c>
@@ -12946,12 +13021,12 @@
       <c r="D164">
         <v>32</v>
       </c>
-      <c r="G164" s="38">
+      <c r="H164" s="38">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I164" s="36"/>
-    </row>
-    <row r="165" spans="1:36">
+      <c r="J164" s="36"/>
+    </row>
+    <row r="165" spans="1:37">
       <c r="A165" t="s">
         <v>277</v>
       </c>
@@ -12964,12 +13039,12 @@
       <c r="D165">
         <v>37</v>
       </c>
-      <c r="G165" s="38">
+      <c r="H165" s="38">
         <v>0.34</v>
       </c>
-      <c r="I165" s="36"/>
-    </row>
-    <row r="166" spans="1:36">
+      <c r="J165" s="36"/>
+    </row>
+    <row r="166" spans="1:37">
       <c r="A166" t="s">
         <v>277</v>
       </c>
@@ -12982,12 +13057,12 @@
       <c r="D166">
         <v>46</v>
       </c>
-      <c r="G166" s="38">
+      <c r="H166" s="38">
         <v>1.65</v>
       </c>
-      <c r="I166" s="36"/>
-    </row>
-    <row r="167" spans="1:36">
+      <c r="J166" s="36"/>
+    </row>
+    <row r="167" spans="1:37">
       <c r="A167" t="s">
         <v>277</v>
       </c>
@@ -13003,10 +13078,9 @@
       <c r="F167">
         <v>1535</v>
       </c>
-      <c r="G167" s="38"/>
-      <c r="I167" s="36"/>
-    </row>
-    <row r="168" spans="1:36">
+      <c r="J167" s="36"/>
+    </row>
+    <row r="168" spans="1:37">
       <c r="A168" t="s">
         <v>277</v>
       </c>
@@ -13019,12 +13093,12 @@
       <c r="D168">
         <v>54</v>
       </c>
-      <c r="G168" s="38">
+      <c r="H168" s="38">
         <v>1.18</v>
       </c>
-      <c r="I168" s="36"/>
-    </row>
-    <row r="169" spans="1:36">
+      <c r="J168" s="36"/>
+    </row>
+    <row r="169" spans="1:37">
       <c r="A169" t="s">
         <v>277</v>
       </c>
@@ -13037,12 +13111,12 @@
       <c r="D169">
         <v>64</v>
       </c>
-      <c r="G169" s="38">
+      <c r="H169" s="38">
         <v>2.5099999999999998</v>
       </c>
-      <c r="I169" s="36"/>
-    </row>
-    <row r="170" spans="1:36">
+      <c r="J169" s="36"/>
+    </row>
+    <row r="170" spans="1:37">
       <c r="A170" t="s">
         <v>277</v>
       </c>
@@ -13061,37 +13135,36 @@
       <c r="F170">
         <v>3443</v>
       </c>
-      <c r="G170" s="38"/>
-      <c r="I170" s="36"/>
-      <c r="AA170">
+      <c r="J170" s="36"/>
+      <c r="AB170">
         <v>29</v>
       </c>
-      <c r="AB170">
+      <c r="AC170">
         <v>5.8</v>
       </c>
-      <c r="AC170">
+      <c r="AD170">
         <v>8.76</v>
       </c>
-      <c r="AD170">
+      <c r="AE170">
         <v>13.23</v>
       </c>
-      <c r="AE170">
+      <c r="AF170">
         <v>55</v>
       </c>
-      <c r="AG170">
+      <c r="AH170">
         <v>0.5</v>
       </c>
-      <c r="AH170">
+      <c r="AI170">
         <v>18</v>
       </c>
-      <c r="AI170">
+      <c r="AJ170">
         <v>8</v>
       </c>
-      <c r="AJ170">
+      <c r="AK170">
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:36">
+    <row r="171" spans="1:37">
       <c r="A171" t="s">
         <v>277</v>
       </c>
@@ -13104,10 +13177,9 @@
       <c r="D171">
         <v>0</v>
       </c>
-      <c r="G171" s="38"/>
-      <c r="I171" s="36"/>
-    </row>
-    <row r="172" spans="1:36">
+      <c r="J171" s="36"/>
+    </row>
+    <row r="172" spans="1:37">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -13123,10 +13195,9 @@
       <c r="F172">
         <v>1565</v>
       </c>
-      <c r="G172" s="38"/>
-      <c r="I172" s="36"/>
-    </row>
-    <row r="173" spans="1:36">
+      <c r="J172" s="36"/>
+    </row>
+    <row r="173" spans="1:37">
       <c r="A173" t="s">
         <v>277</v>
       </c>
@@ -13145,25 +13216,24 @@
       <c r="F173">
         <v>3568</v>
       </c>
-      <c r="G173" s="38"/>
-      <c r="I173" s="36"/>
-      <c r="AA173">
+      <c r="J173" s="36"/>
+      <c r="AB173">
         <v>21.75</v>
       </c>
-      <c r="AB173">
+      <c r="AC173">
         <v>5.8</v>
       </c>
-      <c r="AC173">
+      <c r="AD173">
         <v>4.38</v>
       </c>
-      <c r="AD173">
+      <c r="AE173">
         <v>13.23</v>
       </c>
-      <c r="AE173">
+      <c r="AF173">
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:36">
+    <row r="174" spans="1:37">
       <c r="A174" t="s">
         <v>277</v>
       </c>
@@ -13176,10 +13246,9 @@
       <c r="D174">
         <v>0</v>
       </c>
-      <c r="G174" s="38"/>
-      <c r="I174" s="36"/>
-    </row>
-    <row r="175" spans="1:36">
+      <c r="J174" s="36"/>
+    </row>
+    <row r="175" spans="1:37">
       <c r="A175" t="s">
         <v>277</v>
       </c>
@@ -13195,10 +13264,9 @@
       <c r="F175">
         <v>1490</v>
       </c>
-      <c r="G175" s="38"/>
-      <c r="I175" s="36"/>
-    </row>
-    <row r="176" spans="1:36">
+      <c r="J175" s="36"/>
+    </row>
+    <row r="176" spans="1:37">
       <c r="A176" t="s">
         <v>277</v>
       </c>
@@ -13217,13 +13285,12 @@
       <c r="F176">
         <v>3217</v>
       </c>
-      <c r="G176" s="38"/>
-      <c r="I176" s="36"/>
-      <c r="AE176">
+      <c r="J176" s="36"/>
+      <c r="AF176">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:31">
+    <row r="177" spans="1:32">
       <c r="A177" t="s">
         <v>277</v>
       </c>
@@ -13236,10 +13303,9 @@
       <c r="D177">
         <v>0</v>
       </c>
-      <c r="G177" s="38"/>
-      <c r="I177" s="36"/>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="J177" s="36"/>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" t="s">
         <v>277</v>
       </c>
@@ -13255,10 +13321,9 @@
       <c r="F178">
         <v>1479</v>
       </c>
-      <c r="G178" s="38"/>
-      <c r="I178" s="36"/>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="J178" s="36"/>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" t="s">
         <v>277</v>
       </c>
@@ -13277,25 +13342,24 @@
       <c r="F179">
         <v>3410</v>
       </c>
-      <c r="G179" s="38"/>
-      <c r="I179" s="36"/>
-      <c r="AA179">
+      <c r="J179" s="36"/>
+      <c r="AB179">
         <v>63.8</v>
       </c>
-      <c r="AB179">
+      <c r="AC179">
         <v>5.8</v>
       </c>
-      <c r="AC179">
+      <c r="AD179">
         <v>8.76</v>
       </c>
-      <c r="AD179">
+      <c r="AE179">
         <v>13.23</v>
       </c>
-      <c r="AE179">
+      <c r="AF179">
         <v>95</v>
       </c>
     </row>
-    <row r="180" spans="1:31">
+    <row r="180" spans="1:32">
       <c r="A180" t="s">
         <v>277</v>
       </c>
@@ -13308,10 +13372,9 @@
       <c r="D180">
         <v>0</v>
       </c>
-      <c r="G180" s="38"/>
-      <c r="I180" s="36"/>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="J180" s="36"/>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" t="s">
         <v>277</v>
       </c>
@@ -13327,10 +13390,9 @@
       <c r="F181">
         <v>1530</v>
       </c>
-      <c r="G181" s="38"/>
-      <c r="I181" s="36"/>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="J181" s="36"/>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" t="s">
         <v>277</v>
       </c>
@@ -13349,25 +13411,24 @@
       <c r="F182">
         <v>3593</v>
       </c>
-      <c r="G182" s="36"/>
-      <c r="I182" s="36"/>
-      <c r="AA182">
+      <c r="J182" s="36"/>
+      <c r="AB182">
         <v>59.45</v>
       </c>
-      <c r="AB182">
+      <c r="AC182">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC182">
+      <c r="AD182">
         <v>8.76</v>
       </c>
-      <c r="AD182">
+      <c r="AE182">
         <v>13.23</v>
       </c>
-      <c r="AE182">
+      <c r="AF182">
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:31">
+    <row r="183" spans="1:32">
       <c r="A183" t="s">
         <v>277</v>
       </c>
@@ -13380,10 +13441,9 @@
       <c r="D183">
         <v>0</v>
       </c>
-      <c r="G183" s="36"/>
-      <c r="I183" s="36"/>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="J183" s="36"/>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" t="s">
         <v>277</v>
       </c>
@@ -13399,10 +13459,9 @@
       <c r="F184">
         <v>1518</v>
       </c>
-      <c r="G184" s="36"/>
-      <c r="I184" s="36"/>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="J184" s="36"/>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" t="s">
         <v>277</v>
       </c>
@@ -13421,25 +13480,24 @@
       <c r="F185">
         <v>3575</v>
       </c>
-      <c r="G185" s="36"/>
-      <c r="I185" s="36"/>
-      <c r="AA185">
+      <c r="J185" s="36"/>
+      <c r="AB185">
         <v>111.65</v>
       </c>
-      <c r="AB185">
+      <c r="AC185">
         <v>8.6999999999999993</v>
       </c>
-      <c r="AC185">
+      <c r="AD185">
         <v>8.76</v>
       </c>
-      <c r="AD185">
+      <c r="AE185">
         <v>13.23</v>
       </c>
-      <c r="AE185">
+      <c r="AF185">
         <v>90</v>
       </c>
     </row>
-    <row r="186" spans="1:31">
+    <row r="186" spans="1:32">
       <c r="A186" t="s">
         <v>277</v>
       </c>
@@ -13452,10 +13510,9 @@
       <c r="D186">
         <v>0</v>
       </c>
-      <c r="G186" s="36"/>
-      <c r="I186" s="36"/>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="J186" s="36"/>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" t="s">
         <v>277</v>
       </c>
@@ -13471,10 +13528,9 @@
       <c r="F187">
         <v>1463</v>
       </c>
-      <c r="G187" s="36"/>
-      <c r="I187" s="36"/>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="J187" s="36"/>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" t="s">
         <v>277</v>
       </c>
@@ -13493,13 +13549,12 @@
       <c r="F188">
         <v>3376</v>
       </c>
-      <c r="G188" s="36"/>
-      <c r="I188" s="36"/>
-      <c r="AE188">
+      <c r="J188" s="36"/>
+      <c r="AF188">
         <v>180</v>
       </c>
     </row>
-    <row r="189" spans="1:31">
+    <row r="189" spans="1:32">
       <c r="A189" t="s">
         <v>277</v>
       </c>
@@ -13512,22 +13567,21 @@
       <c r="D189">
         <v>0</v>
       </c>
-      <c r="G189" s="36"/>
-      <c r="I189" s="36"/>
-      <c r="AA189">
+      <c r="J189" s="36"/>
+      <c r="AB189">
         <v>134.85</v>
       </c>
-      <c r="AB189">
+      <c r="AC189">
         <v>14.5</v>
       </c>
-      <c r="AC189">
+      <c r="AD189">
         <v>8.76</v>
       </c>
-      <c r="AD189">
+      <c r="AE189">
         <v>13.23</v>
       </c>
     </row>
-    <row r="190" spans="1:31">
+    <row r="190" spans="1:32">
       <c r="A190" t="s">
         <v>277</v>
       </c>
@@ -13543,10 +13597,9 @@
       <c r="F190">
         <v>1570</v>
       </c>
-      <c r="G190" s="36"/>
-      <c r="I190" s="36"/>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="J190" s="36"/>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" t="s">
         <v>277</v>
       </c>
@@ -13565,413 +13618,4696 @@
       <c r="F191">
         <v>3539</v>
       </c>
-      <c r="G191" s="36"/>
-      <c r="I191" s="36"/>
-      <c r="AE191">
+      <c r="J191" s="36"/>
+      <c r="K191" s="36"/>
+      <c r="L191" s="39"/>
+      <c r="AF191">
         <v>170</v>
       </c>
     </row>
-    <row r="192" spans="1:31">
-      <c r="G192" s="36"/>
-      <c r="I192" s="36"/>
-    </row>
-    <row r="193" spans="7:9">
-      <c r="G193" s="36"/>
-      <c r="I193" s="36"/>
-    </row>
-    <row r="194" spans="7:9">
-      <c r="G194" s="36"/>
-      <c r="I194" s="36"/>
-    </row>
-    <row r="195" spans="7:9">
-      <c r="G195" s="36"/>
-      <c r="I195" s="36"/>
-    </row>
-    <row r="196" spans="7:9">
-      <c r="G196" s="36"/>
-      <c r="I196" s="36"/>
-    </row>
-    <row r="197" spans="7:9">
-      <c r="G197" s="36"/>
-      <c r="I197" s="36"/>
-    </row>
-    <row r="198" spans="7:9">
-      <c r="G198" s="36"/>
-      <c r="I198" s="36"/>
-    </row>
-    <row r="199" spans="7:9">
-      <c r="G199" s="36"/>
-      <c r="I199" s="36"/>
-    </row>
-    <row r="200" spans="7:9">
-      <c r="G200" s="36"/>
-      <c r="I200" s="36"/>
-    </row>
-    <row r="201" spans="7:9">
-      <c r="G201" s="36"/>
-      <c r="I201" s="36"/>
-    </row>
-    <row r="202" spans="7:9">
-      <c r="G202" s="36"/>
-      <c r="I202" s="36"/>
-    </row>
-    <row r="203" spans="7:9">
-      <c r="G203" s="36"/>
-      <c r="I203" s="36"/>
-    </row>
-    <row r="204" spans="7:9">
-      <c r="G204" s="36"/>
-      <c r="I204" s="36"/>
-    </row>
-    <row r="205" spans="7:9">
-      <c r="G205" s="36"/>
-      <c r="I205" s="36"/>
-    </row>
-    <row r="206" spans="7:9">
-      <c r="G206" s="36"/>
-      <c r="I206" s="36"/>
-    </row>
-    <row r="207" spans="7:9">
-      <c r="G207" s="36"/>
-      <c r="I207" s="36"/>
-    </row>
-    <row r="208" spans="7:9">
-      <c r="G208" s="36"/>
-      <c r="I208" s="36"/>
-    </row>
-    <row r="209" spans="7:9">
-      <c r="G209" s="36"/>
-      <c r="I209" s="36"/>
-    </row>
-    <row r="210" spans="7:9">
-      <c r="G210" s="36"/>
-      <c r="I210" s="36"/>
-    </row>
-    <row r="211" spans="7:9">
-      <c r="G211" s="36"/>
-      <c r="I211" s="36"/>
-    </row>
-    <row r="212" spans="7:9">
-      <c r="G212" s="36"/>
-      <c r="I212" s="36"/>
-    </row>
-    <row r="213" spans="7:9">
-      <c r="G213" s="36"/>
-      <c r="I213" s="36"/>
-    </row>
-    <row r="214" spans="7:9">
-      <c r="G214" s="36"/>
-      <c r="I214" s="36"/>
-    </row>
-    <row r="215" spans="7:9">
-      <c r="G215" s="36"/>
-      <c r="I215" s="36"/>
-    </row>
-    <row r="216" spans="7:9">
-      <c r="G216" s="36"/>
-      <c r="I216" s="36"/>
-    </row>
-    <row r="217" spans="7:9">
-      <c r="G217" s="36"/>
-      <c r="I217" s="36"/>
-    </row>
-    <row r="218" spans="7:9">
-      <c r="G218" s="36"/>
-      <c r="I218" s="36"/>
-    </row>
-    <row r="219" spans="7:9">
-      <c r="G219" s="36"/>
-      <c r="I219" s="36"/>
-    </row>
-    <row r="220" spans="7:9">
-      <c r="G220" s="36"/>
-      <c r="I220" s="36"/>
-    </row>
-    <row r="221" spans="7:9">
-      <c r="G221" s="36"/>
-      <c r="I221" s="36"/>
-    </row>
-    <row r="222" spans="7:9">
-      <c r="G222" s="36"/>
-      <c r="I222" s="36"/>
-    </row>
-    <row r="223" spans="7:9">
-      <c r="G223" s="36"/>
-      <c r="I223" s="36"/>
-    </row>
-    <row r="224" spans="7:9">
-      <c r="G224" s="36"/>
-      <c r="I224" s="36"/>
-    </row>
-    <row r="225" spans="7:9">
-      <c r="G225" s="36"/>
-      <c r="I225" s="36"/>
-    </row>
-    <row r="226" spans="7:9">
-      <c r="G226" s="36"/>
-      <c r="I226" s="36"/>
-    </row>
-    <row r="227" spans="7:9">
-      <c r="G227" s="36"/>
-      <c r="I227" s="36"/>
-    </row>
-    <row r="228" spans="7:9">
-      <c r="G228" s="36"/>
-      <c r="I228" s="36"/>
-    </row>
-    <row r="229" spans="7:9">
-      <c r="G229" s="36"/>
-      <c r="I229" s="36"/>
-    </row>
-    <row r="230" spans="7:9">
-      <c r="G230" s="36"/>
-      <c r="I230" s="36"/>
-    </row>
-    <row r="231" spans="7:9">
-      <c r="G231" s="36"/>
-      <c r="I231" s="36"/>
-    </row>
-    <row r="232" spans="7:9">
-      <c r="G232" s="36"/>
-      <c r="I232" s="36"/>
-    </row>
-    <row r="233" spans="7:9">
-      <c r="G233" s="36"/>
-      <c r="I233" s="36"/>
-    </row>
-    <row r="234" spans="7:9">
-      <c r="G234" s="36"/>
-      <c r="I234" s="36"/>
-    </row>
-    <row r="235" spans="7:9">
-      <c r="G235" s="36"/>
-      <c r="I235" s="36"/>
-    </row>
-    <row r="236" spans="7:9">
-      <c r="G236" s="36"/>
-      <c r="I236" s="36"/>
-    </row>
-    <row r="237" spans="7:9">
-      <c r="G237" s="36"/>
-      <c r="I237" s="36"/>
-    </row>
-    <row r="238" spans="7:9">
-      <c r="G238" s="36"/>
-      <c r="I238" s="36"/>
-    </row>
-    <row r="239" spans="7:9">
-      <c r="G239" s="36"/>
-      <c r="I239" s="36"/>
-    </row>
-    <row r="240" spans="7:9">
-      <c r="G240" s="36"/>
-      <c r="I240" s="36"/>
-    </row>
-    <row r="241" spans="7:9">
-      <c r="G241" s="36"/>
-      <c r="I241" s="36"/>
-    </row>
-    <row r="242" spans="7:9">
-      <c r="G242" s="36"/>
-      <c r="I242" s="36"/>
-    </row>
-    <row r="243" spans="7:9">
-      <c r="G243" s="36"/>
-      <c r="I243" s="36"/>
-    </row>
-    <row r="244" spans="7:9">
-      <c r="G244" s="36"/>
-      <c r="I244" s="36"/>
-    </row>
-    <row r="245" spans="7:9">
-      <c r="G245" s="36"/>
-      <c r="I245" s="36"/>
-    </row>
-    <row r="246" spans="7:9">
-      <c r="G246" s="36"/>
-      <c r="I246" s="36"/>
-    </row>
-    <row r="247" spans="7:9">
-      <c r="G247" s="36"/>
-      <c r="I247" s="36"/>
-    </row>
-    <row r="248" spans="7:9">
-      <c r="G248" s="36"/>
-      <c r="I248" s="36"/>
-    </row>
-    <row r="249" spans="7:9">
-      <c r="G249" s="36"/>
-      <c r="I249" s="36"/>
-    </row>
-    <row r="250" spans="7:9">
-      <c r="G250" s="36"/>
-      <c r="I250" s="36"/>
-    </row>
-    <row r="251" spans="7:9">
-      <c r="G251" s="36"/>
-      <c r="I251" s="36"/>
-    </row>
-    <row r="252" spans="7:9">
-      <c r="G252" s="36"/>
-      <c r="I252" s="36"/>
-    </row>
-    <row r="253" spans="7:9">
-      <c r="G253" s="36"/>
-      <c r="I253" s="36"/>
-    </row>
-    <row r="254" spans="7:9">
-      <c r="G254" s="36"/>
-      <c r="I254" s="36"/>
-    </row>
-    <row r="255" spans="7:9">
-      <c r="G255" s="36"/>
-      <c r="I255" s="36"/>
-    </row>
-    <row r="256" spans="7:9">
-      <c r="G256" s="36"/>
-      <c r="I256" s="36"/>
-    </row>
-    <row r="257" spans="7:9">
-      <c r="G257" s="36"/>
-      <c r="I257" s="36"/>
-    </row>
-    <row r="258" spans="7:9">
-      <c r="G258" s="36"/>
-      <c r="I258" s="36"/>
-    </row>
-    <row r="259" spans="7:9">
-      <c r="G259" s="36"/>
-      <c r="I259" s="36"/>
-    </row>
-    <row r="260" spans="7:9">
-      <c r="G260" s="36"/>
-      <c r="I260" s="36"/>
-    </row>
-    <row r="261" spans="7:9">
-      <c r="G261" s="36"/>
-      <c r="I261" s="36"/>
-    </row>
-    <row r="262" spans="7:9">
-      <c r="G262" s="36"/>
-      <c r="I262" s="36"/>
-    </row>
-    <row r="263" spans="7:9">
-      <c r="G263" s="36"/>
-      <c r="I263" s="36"/>
-    </row>
-    <row r="264" spans="7:9">
-      <c r="G264" s="36"/>
-      <c r="I264" s="36"/>
-    </row>
-    <row r="265" spans="7:9">
-      <c r="G265" s="36"/>
-      <c r="I265" s="36"/>
-    </row>
-    <row r="266" spans="7:9">
-      <c r="G266" s="36"/>
-      <c r="I266" s="36"/>
-    </row>
-    <row r="267" spans="7:9">
-      <c r="G267" s="36"/>
-      <c r="I267" s="36"/>
-    </row>
-    <row r="268" spans="7:9">
-      <c r="G268" s="36"/>
-      <c r="I268" s="36"/>
-    </row>
-    <row r="269" spans="7:9">
-      <c r="G269" s="36"/>
-      <c r="I269" s="36"/>
-    </row>
-    <row r="270" spans="7:9">
-      <c r="G270" s="36"/>
-      <c r="I270" s="36"/>
-    </row>
-    <row r="271" spans="7:9">
-      <c r="G271" s="36"/>
-      <c r="I271" s="36"/>
-    </row>
-    <row r="272" spans="7:9">
-      <c r="G272" s="36"/>
-      <c r="I272" s="36"/>
-    </row>
-    <row r="273" spans="7:9">
-      <c r="G273" s="36"/>
-      <c r="I273" s="36"/>
-    </row>
-    <row r="274" spans="7:9">
-      <c r="G274" s="36"/>
-      <c r="I274" s="36"/>
-    </row>
-    <row r="275" spans="7:9">
-      <c r="G275" s="36"/>
-      <c r="I275" s="36"/>
-    </row>
-    <row r="276" spans="7:9">
-      <c r="G276" s="36"/>
-      <c r="I276" s="36"/>
-    </row>
-    <row r="277" spans="7:9">
-      <c r="G277" s="36"/>
-      <c r="I277" s="36"/>
-    </row>
-    <row r="278" spans="7:9">
-      <c r="G278" s="36"/>
-      <c r="I278" s="36"/>
-    </row>
-    <row r="279" spans="7:9">
-      <c r="I279" s="36"/>
-    </row>
-    <row r="280" spans="7:9">
-      <c r="I280" s="36"/>
-    </row>
-    <row r="281" spans="7:9">
-      <c r="I281" s="36"/>
-    </row>
-    <row r="282" spans="7:9">
-      <c r="I282" s="36"/>
-    </row>
-    <row r="283" spans="7:9">
-      <c r="I283" s="36"/>
-    </row>
-    <row r="284" spans="7:9">
-      <c r="I284" s="36"/>
-    </row>
-    <row r="285" spans="7:9">
-      <c r="I285" s="36"/>
-    </row>
-    <row r="286" spans="7:9">
-      <c r="I286" s="36"/>
-    </row>
-    <row r="287" spans="7:9">
-      <c r="I287" s="36"/>
-    </row>
-    <row r="288" spans="7:9">
-      <c r="I288" s="36"/>
-    </row>
-    <row r="289" spans="9:9">
-      <c r="I289" s="36"/>
-    </row>
-    <row r="290" spans="9:9">
-      <c r="I290" s="36"/>
-    </row>
-    <row r="291" spans="9:9">
-      <c r="I291" s="36"/>
-    </row>
-    <row r="292" spans="9:9">
-      <c r="I292" s="36"/>
-    </row>
-    <row r="293" spans="9:9">
-      <c r="I293" s="36"/>
-    </row>
-    <row r="294" spans="9:9">
-      <c r="I294" s="36"/>
-    </row>
-    <row r="295" spans="9:9">
-      <c r="I295" s="36"/>
-    </row>
-    <row r="296" spans="9:9">
-      <c r="I296" s="36"/>
+    <row r="192" spans="1:32">
+      <c r="A192" t="s">
+        <v>286</v>
+      </c>
+      <c r="B192" t="s">
+        <v>260</v>
+      </c>
+      <c r="C192" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D192">
+        <v>49</v>
+      </c>
+      <c r="F192">
+        <v>946</v>
+      </c>
+      <c r="J192" s="36"/>
+      <c r="K192" s="36"/>
+      <c r="L192" s="39"/>
+    </row>
+    <row r="193" spans="1:39">
+      <c r="A193" t="s">
+        <v>286</v>
+      </c>
+      <c r="B193" t="s">
+        <v>260</v>
+      </c>
+      <c r="C193" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D193">
+        <v>91</v>
+      </c>
+      <c r="E193">
+        <v>1128</v>
+      </c>
+      <c r="F193">
+        <v>4827</v>
+      </c>
+      <c r="J193" s="36"/>
+      <c r="K193" s="36"/>
+      <c r="L193" s="39"/>
+      <c r="Y193">
+        <v>49</v>
+      </c>
+      <c r="AB193">
+        <v>2.54</v>
+      </c>
+      <c r="AC193">
+        <v>9.65</v>
+      </c>
+      <c r="AD193">
+        <v>4.38</v>
+      </c>
+      <c r="AE193">
+        <v>20.64</v>
+      </c>
+      <c r="AM193">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:39">
+      <c r="A194" t="s">
+        <v>286</v>
+      </c>
+      <c r="B194" t="s">
+        <v>261</v>
+      </c>
+      <c r="C194" s="36">
+        <v>43859</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="H194" s="38">
+        <v>0.52</v>
+      </c>
+      <c r="J194" s="36"/>
+      <c r="K194" s="36"/>
+      <c r="L194" s="39"/>
+      <c r="Y194">
+        <v>49</v>
+      </c>
+      <c r="AB194">
+        <v>30.45</v>
+      </c>
+      <c r="AC194">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD194">
+        <v>13.14</v>
+      </c>
+      <c r="AE194">
+        <v>30.87</v>
+      </c>
+      <c r="AH194">
+        <v>12.2</v>
+      </c>
+      <c r="AI194">
+        <v>12.7</v>
+      </c>
+      <c r="AJ194">
+        <v>7.6</v>
+      </c>
+      <c r="AK194">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="195" spans="1:39">
+      <c r="A195" t="s">
+        <v>286</v>
+      </c>
+      <c r="B195" t="s">
+        <v>261</v>
+      </c>
+      <c r="C195" s="36">
+        <v>43887</v>
+      </c>
+      <c r="D195">
+        <v>28</v>
+      </c>
+      <c r="H195" s="38">
+        <v>1.31</v>
+      </c>
+      <c r="J195" s="36"/>
+      <c r="K195" s="36"/>
+      <c r="L195" s="39"/>
+    </row>
+    <row r="196" spans="1:39">
+      <c r="A196" t="s">
+        <v>286</v>
+      </c>
+      <c r="B196" t="s">
+        <v>261</v>
+      </c>
+      <c r="C196" s="36">
+        <v>43893</v>
+      </c>
+      <c r="D196">
+        <v>34</v>
+      </c>
+      <c r="H196" s="38">
+        <v>2.66</v>
+      </c>
+      <c r="J196" s="36"/>
+      <c r="K196" s="36"/>
+      <c r="L196" s="39"/>
+    </row>
+    <row r="197" spans="1:39">
+      <c r="A197" t="s">
+        <v>286</v>
+      </c>
+      <c r="B197" t="s">
+        <v>261</v>
+      </c>
+      <c r="C197" s="36">
+        <v>43903</v>
+      </c>
+      <c r="D197">
+        <v>44</v>
+      </c>
+      <c r="H197" s="38">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J197" s="36"/>
+      <c r="K197" s="36"/>
+      <c r="L197" s="39"/>
+    </row>
+    <row r="198" spans="1:39">
+      <c r="A198" t="s">
+        <v>286</v>
+      </c>
+      <c r="B198" t="s">
+        <v>261</v>
+      </c>
+      <c r="C198" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D198">
+        <v>49</v>
+      </c>
+      <c r="F198">
+        <v>1046.25</v>
+      </c>
+      <c r="H198" s="38">
+        <v>2.02</v>
+      </c>
+      <c r="J198" s="36"/>
+      <c r="K198" s="36"/>
+      <c r="L198" s="39"/>
+    </row>
+    <row r="199" spans="1:39">
+      <c r="A199" t="s">
+        <v>286</v>
+      </c>
+      <c r="B199" t="s">
+        <v>261</v>
+      </c>
+      <c r="C199" s="36">
+        <v>43910</v>
+      </c>
+      <c r="D199">
+        <v>51</v>
+      </c>
+      <c r="H199" s="38">
+        <v>1.67</v>
+      </c>
+      <c r="J199" s="36"/>
+      <c r="K199" s="36"/>
+      <c r="L199" s="39"/>
+    </row>
+    <row r="200" spans="1:39">
+      <c r="A200" t="s">
+        <v>286</v>
+      </c>
+      <c r="B200" t="s">
+        <v>261</v>
+      </c>
+      <c r="C200" s="36">
+        <v>43916</v>
+      </c>
+      <c r="D200">
+        <v>57</v>
+      </c>
+      <c r="H200" s="38">
+        <v>1.28</v>
+      </c>
+      <c r="J200" s="36"/>
+      <c r="K200" s="36"/>
+      <c r="L200" s="39"/>
+    </row>
+    <row r="201" spans="1:39">
+      <c r="A201" t="s">
+        <v>286</v>
+      </c>
+      <c r="B201" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" s="36">
+        <v>43923</v>
+      </c>
+      <c r="D201">
+        <v>64</v>
+      </c>
+      <c r="J201" s="36"/>
+      <c r="K201" s="36"/>
+      <c r="L201" s="39"/>
+    </row>
+    <row r="202" spans="1:39">
+      <c r="A202" t="s">
+        <v>286</v>
+      </c>
+      <c r="B202" t="s">
+        <v>261</v>
+      </c>
+      <c r="C202" s="36">
+        <v>43930</v>
+      </c>
+      <c r="D202">
+        <v>71</v>
+      </c>
+      <c r="J202" s="36"/>
+      <c r="K202" s="36"/>
+      <c r="L202" s="39"/>
+    </row>
+    <row r="203" spans="1:39">
+      <c r="A203" t="s">
+        <v>286</v>
+      </c>
+      <c r="B203" t="s">
+        <v>261</v>
+      </c>
+      <c r="C203" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D203">
+        <v>91</v>
+      </c>
+      <c r="E203">
+        <v>1157</v>
+      </c>
+      <c r="F203">
+        <v>4710.75</v>
+      </c>
+      <c r="J203" s="36"/>
+      <c r="K203" s="36"/>
+      <c r="L203" s="39"/>
+      <c r="Y203">
+        <v>49</v>
+      </c>
+      <c r="AB203">
+        <v>4.71</v>
+      </c>
+      <c r="AC203">
+        <v>18.13</v>
+      </c>
+      <c r="AD203">
+        <v>5.83</v>
+      </c>
+      <c r="AE203">
+        <v>20.77</v>
+      </c>
+      <c r="AH203">
+        <v>0</v>
+      </c>
+      <c r="AI203">
+        <v>9.4</v>
+      </c>
+      <c r="AJ203">
+        <v>1.5</v>
+      </c>
+      <c r="AK203">
+        <v>3.3</v>
+      </c>
+      <c r="AM203">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:39">
+      <c r="A204" t="s">
+        <v>286</v>
+      </c>
+      <c r="B204" t="s">
+        <v>287</v>
+      </c>
+      <c r="C204" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D204">
+        <v>49</v>
+      </c>
+      <c r="F204">
+        <v>1152.8800000000001</v>
+      </c>
+      <c r="J204" s="36"/>
+      <c r="K204" s="36"/>
+      <c r="L204" s="39"/>
+    </row>
+    <row r="205" spans="1:39">
+      <c r="A205" t="s">
+        <v>286</v>
+      </c>
+      <c r="B205" t="s">
+        <v>287</v>
+      </c>
+      <c r="C205" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D205">
+        <v>91</v>
+      </c>
+      <c r="E205">
+        <v>1241</v>
+      </c>
+      <c r="F205">
+        <v>5072.75</v>
+      </c>
+      <c r="J205" s="36"/>
+      <c r="K205" s="36"/>
+      <c r="L205" s="39"/>
+      <c r="Y205">
+        <v>49</v>
+      </c>
+      <c r="AC205">
+        <v>18.13</v>
+      </c>
+      <c r="AD205">
+        <v>5.83</v>
+      </c>
+      <c r="AE205">
+        <v>20.77</v>
+      </c>
+      <c r="AM205">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:39">
+      <c r="A206" t="s">
+        <v>286</v>
+      </c>
+      <c r="B206" t="s">
+        <v>263</v>
+      </c>
+      <c r="C206" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D206">
+        <v>49</v>
+      </c>
+      <c r="F206">
+        <v>1123</v>
+      </c>
+      <c r="J206" s="36"/>
+      <c r="K206" s="36"/>
+      <c r="L206" s="39"/>
+    </row>
+    <row r="207" spans="1:39">
+      <c r="A207" t="s">
+        <v>286</v>
+      </c>
+      <c r="B207" t="s">
+        <v>263</v>
+      </c>
+      <c r="C207" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D207">
+        <v>91</v>
+      </c>
+      <c r="E207">
+        <v>1250</v>
+      </c>
+      <c r="F207">
+        <v>4978.88</v>
+      </c>
+      <c r="J207" s="36"/>
+      <c r="K207" s="36"/>
+      <c r="L207" s="39"/>
+      <c r="Y207">
+        <v>49</v>
+      </c>
+      <c r="AB207">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AC207">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD207">
+        <v>5.83</v>
+      </c>
+      <c r="AE207">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:39">
+      <c r="A208" t="s">
+        <v>286</v>
+      </c>
+      <c r="B208" t="s">
+        <v>264</v>
+      </c>
+      <c r="C208" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D208">
+        <v>49</v>
+      </c>
+      <c r="F208">
+        <v>1065.5</v>
+      </c>
+      <c r="J208" s="36"/>
+      <c r="K208" s="36"/>
+      <c r="L208" s="39"/>
+    </row>
+    <row r="209" spans="1:39">
+      <c r="A209" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" t="s">
+        <v>264</v>
+      </c>
+      <c r="C209" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D209">
+        <v>91</v>
+      </c>
+      <c r="E209">
+        <v>1342</v>
+      </c>
+      <c r="F209">
+        <v>4926.63</v>
+      </c>
+      <c r="J209" s="36"/>
+      <c r="K209" s="36"/>
+      <c r="L209" s="39"/>
+      <c r="Y209">
+        <v>49</v>
+      </c>
+      <c r="AB209">
+        <v>6.16</v>
+      </c>
+      <c r="AC209">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD209">
+        <v>4.38</v>
+      </c>
+      <c r="AE209">
+        <v>27.92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:39">
+      <c r="A210" t="s">
+        <v>286</v>
+      </c>
+      <c r="B210" t="s">
+        <v>265</v>
+      </c>
+      <c r="C210" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D210">
+        <v>49</v>
+      </c>
+      <c r="F210">
+        <v>997.25</v>
+      </c>
+      <c r="J210" s="36"/>
+      <c r="K210" s="36"/>
+      <c r="L210" s="39"/>
+    </row>
+    <row r="211" spans="1:39">
+      <c r="A211" t="s">
+        <v>286</v>
+      </c>
+      <c r="B211" t="s">
+        <v>265</v>
+      </c>
+      <c r="C211" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D211">
+        <v>91</v>
+      </c>
+      <c r="E211">
+        <v>1321</v>
+      </c>
+      <c r="F211">
+        <v>4833.63</v>
+      </c>
+      <c r="J211" s="36"/>
+      <c r="K211" s="36"/>
+      <c r="L211" s="39"/>
+      <c r="Y211">
+        <v>49</v>
+      </c>
+      <c r="AB211">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="AC211">
+        <v>15.23</v>
+      </c>
+      <c r="AD211">
+        <v>4.38</v>
+      </c>
+      <c r="AE211">
+        <v>36.74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:39">
+      <c r="A212" t="s">
+        <v>286</v>
+      </c>
+      <c r="B212" t="s">
+        <v>266</v>
+      </c>
+      <c r="C212" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D212">
+        <v>49</v>
+      </c>
+      <c r="F212">
+        <v>1080.25</v>
+      </c>
+      <c r="J212" s="36"/>
+      <c r="K212" s="36"/>
+      <c r="L212" s="39"/>
+    </row>
+    <row r="213" spans="1:39">
+      <c r="A213" t="s">
+        <v>286</v>
+      </c>
+      <c r="B213" t="s">
+        <v>266</v>
+      </c>
+      <c r="C213" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D213">
+        <v>91</v>
+      </c>
+      <c r="E213">
+        <v>1272</v>
+      </c>
+      <c r="F213">
+        <v>5176.38</v>
+      </c>
+      <c r="J213" s="36"/>
+      <c r="K213" s="36"/>
+      <c r="L213" s="39"/>
+      <c r="Y213">
+        <v>49</v>
+      </c>
+      <c r="AB213">
+        <v>3.26</v>
+      </c>
+      <c r="AC213">
+        <v>18.13</v>
+      </c>
+      <c r="AD213">
+        <v>5.83</v>
+      </c>
+      <c r="AE213">
+        <v>17.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:39">
+      <c r="A214" t="s">
+        <v>286</v>
+      </c>
+      <c r="B214" t="s">
+        <v>267</v>
+      </c>
+      <c r="C214" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D214">
+        <v>49</v>
+      </c>
+      <c r="F214">
+        <v>894.88</v>
+      </c>
+      <c r="J214" s="36"/>
+      <c r="K214" s="36"/>
+      <c r="L214" s="39"/>
+    </row>
+    <row r="215" spans="1:39">
+      <c r="A215" t="s">
+        <v>286</v>
+      </c>
+      <c r="B215" t="s">
+        <v>268</v>
+      </c>
+      <c r="C215" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D215">
+        <v>91</v>
+      </c>
+      <c r="E215">
+        <v>1296</v>
+      </c>
+      <c r="F215">
+        <v>4948.13</v>
+      </c>
+      <c r="J215" s="36"/>
+      <c r="K215" s="36"/>
+      <c r="L215" s="39"/>
+      <c r="Y215">
+        <v>49</v>
+      </c>
+      <c r="AB215">
+        <v>1.81</v>
+      </c>
+      <c r="AC215">
+        <v>18.13</v>
+      </c>
+      <c r="AD215">
+        <v>4.38</v>
+      </c>
+      <c r="AE215">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:39">
+      <c r="A216" t="s">
+        <v>286</v>
+      </c>
+      <c r="B216" t="s">
+        <v>268</v>
+      </c>
+      <c r="C216" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D216">
+        <v>49</v>
+      </c>
+      <c r="F216">
+        <v>776.25</v>
+      </c>
+      <c r="J216" s="36"/>
+      <c r="K216" s="36"/>
+      <c r="L216" s="39"/>
+    </row>
+    <row r="217" spans="1:39">
+      <c r="A217" t="s">
+        <v>286</v>
+      </c>
+      <c r="B217" t="s">
+        <v>268</v>
+      </c>
+      <c r="C217" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D217">
+        <v>91</v>
+      </c>
+      <c r="E217">
+        <v>1992</v>
+      </c>
+      <c r="F217">
+        <v>6353</v>
+      </c>
+      <c r="J217" s="36"/>
+      <c r="K217" s="36"/>
+      <c r="L217" s="39"/>
+      <c r="O217" s="36"/>
+      <c r="Y217">
+        <v>49</v>
+      </c>
+      <c r="AB217">
+        <v>1.81</v>
+      </c>
+      <c r="AC217">
+        <v>5.8</v>
+      </c>
+      <c r="AD217">
+        <v>7.67</v>
+      </c>
+      <c r="AE217">
+        <v>16.54</v>
+      </c>
+      <c r="AM217">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:39">
+      <c r="A218" t="s">
+        <v>286</v>
+      </c>
+      <c r="B218" t="s">
+        <v>269</v>
+      </c>
+      <c r="C218" s="36">
+        <v>43859</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="J218" s="36"/>
+      <c r="K218" s="36"/>
+      <c r="L218" s="39"/>
+      <c r="O218" s="36"/>
+      <c r="Y218">
+        <v>49</v>
+      </c>
+      <c r="AB218">
+        <v>13.05</v>
+      </c>
+      <c r="AC218">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AD218">
+        <v>4.38</v>
+      </c>
+      <c r="AE218">
+        <v>17.64</v>
+      </c>
+      <c r="AH218">
+        <v>12.2</v>
+      </c>
+      <c r="AI218">
+        <v>12.7</v>
+      </c>
+      <c r="AJ218">
+        <v>7.6</v>
+      </c>
+      <c r="AK218">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="219" spans="1:39">
+      <c r="A219" t="s">
+        <v>286</v>
+      </c>
+      <c r="B219" t="s">
+        <v>269</v>
+      </c>
+      <c r="C219" s="36">
+        <v>43887</v>
+      </c>
+      <c r="D219">
+        <v>28</v>
+      </c>
+      <c r="H219" s="38">
+        <v>0.39</v>
+      </c>
+      <c r="J219" s="36"/>
+      <c r="K219" s="36"/>
+      <c r="L219" s="39"/>
+      <c r="O219" s="36"/>
+    </row>
+    <row r="220" spans="1:39">
+      <c r="A220" t="s">
+        <v>286</v>
+      </c>
+      <c r="B220" t="s">
+        <v>269</v>
+      </c>
+      <c r="C220" s="36">
+        <v>43893</v>
+      </c>
+      <c r="D220">
+        <v>34</v>
+      </c>
+      <c r="H220" s="38">
+        <v>0.99</v>
+      </c>
+      <c r="J220" s="36"/>
+      <c r="K220" s="36"/>
+      <c r="L220" s="39"/>
+      <c r="O220" s="36"/>
+    </row>
+    <row r="221" spans="1:39">
+      <c r="A221" t="s">
+        <v>286</v>
+      </c>
+      <c r="B221" t="s">
+        <v>269</v>
+      </c>
+      <c r="C221" s="36">
+        <v>43903</v>
+      </c>
+      <c r="D221">
+        <v>44</v>
+      </c>
+      <c r="H221" s="38">
+        <v>2.75</v>
+      </c>
+      <c r="J221" s="36"/>
+      <c r="K221" s="36"/>
+      <c r="L221" s="39"/>
+      <c r="O221" s="36"/>
+    </row>
+    <row r="222" spans="1:39">
+      <c r="A222" t="s">
+        <v>286</v>
+      </c>
+      <c r="B222" t="s">
+        <v>269</v>
+      </c>
+      <c r="C222" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D222">
+        <v>49</v>
+      </c>
+      <c r="F222">
+        <v>987.88</v>
+      </c>
+      <c r="H222" s="38">
+        <v>2.04</v>
+      </c>
+      <c r="J222" s="36"/>
+      <c r="K222" s="36"/>
+      <c r="L222" s="39"/>
+      <c r="O222" s="36"/>
+    </row>
+    <row r="223" spans="1:39">
+      <c r="A223" t="s">
+        <v>286</v>
+      </c>
+      <c r="B223" t="s">
+        <v>269</v>
+      </c>
+      <c r="C223" s="36">
+        <v>43910</v>
+      </c>
+      <c r="D223">
+        <v>51</v>
+      </c>
+      <c r="H223" s="38">
+        <v>3.77</v>
+      </c>
+      <c r="J223" s="36"/>
+      <c r="K223" s="36"/>
+      <c r="L223" s="39"/>
+      <c r="O223" s="36"/>
+    </row>
+    <row r="224" spans="1:39">
+      <c r="A224" t="s">
+        <v>286</v>
+      </c>
+      <c r="B224" t="s">
+        <v>269</v>
+      </c>
+      <c r="C224" s="36">
+        <v>43916</v>
+      </c>
+      <c r="D224">
+        <v>57</v>
+      </c>
+      <c r="H224" s="38">
+        <v>3.88</v>
+      </c>
+      <c r="J224" s="36"/>
+      <c r="K224" s="36"/>
+      <c r="L224" s="39"/>
+      <c r="O224" s="36"/>
+    </row>
+    <row r="225" spans="1:39">
+      <c r="A225" t="s">
+        <v>286</v>
+      </c>
+      <c r="B225" t="s">
+        <v>269</v>
+      </c>
+      <c r="C225" s="36">
+        <v>43923</v>
+      </c>
+      <c r="D225">
+        <v>64</v>
+      </c>
+      <c r="H225" s="38">
+        <v>3.23</v>
+      </c>
+      <c r="J225" s="36"/>
+      <c r="K225" s="36"/>
+      <c r="L225" s="39"/>
+      <c r="O225" s="36"/>
+    </row>
+    <row r="226" spans="1:39">
+      <c r="A226" t="s">
+        <v>286</v>
+      </c>
+      <c r="B226" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" s="36">
+        <v>43930</v>
+      </c>
+      <c r="D226">
+        <v>71</v>
+      </c>
+      <c r="H226" s="38">
+        <v>2.62</v>
+      </c>
+      <c r="J226" s="36"/>
+      <c r="K226" s="36"/>
+      <c r="L226" s="39"/>
+      <c r="O226" s="36"/>
+    </row>
+    <row r="227" spans="1:39">
+      <c r="A227" t="s">
+        <v>286</v>
+      </c>
+      <c r="B227" t="s">
+        <v>269</v>
+      </c>
+      <c r="C227" s="36">
+        <v>43936</v>
+      </c>
+      <c r="D227">
+        <v>77</v>
+      </c>
+      <c r="J227" s="36"/>
+      <c r="K227" s="36"/>
+      <c r="L227" s="39"/>
+      <c r="O227" s="36"/>
+    </row>
+    <row r="228" spans="1:39">
+      <c r="A228" t="s">
+        <v>286</v>
+      </c>
+      <c r="B228" t="s">
+        <v>269</v>
+      </c>
+      <c r="C228" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D228">
+        <v>91</v>
+      </c>
+      <c r="E228">
+        <v>2083</v>
+      </c>
+      <c r="F228">
+        <v>6170.75</v>
+      </c>
+      <c r="J228" s="36"/>
+      <c r="K228" s="36"/>
+      <c r="L228" s="39"/>
+      <c r="O228" s="36"/>
+      <c r="Y228">
+        <v>49</v>
+      </c>
+      <c r="AB228">
+        <v>1.81</v>
+      </c>
+      <c r="AC228">
+        <v>6.53</v>
+      </c>
+      <c r="AD228">
+        <v>4.38</v>
+      </c>
+      <c r="AE228">
+        <v>5.51</v>
+      </c>
+      <c r="AH228">
+        <v>0.75</v>
+      </c>
+      <c r="AI228">
+        <v>14.8</v>
+      </c>
+      <c r="AJ228">
+        <v>10.6</v>
+      </c>
+      <c r="AK228">
+        <v>13.1</v>
+      </c>
+      <c r="AM228">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:39">
+      <c r="A229" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229" t="s">
+        <v>288</v>
+      </c>
+      <c r="C229" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D229">
+        <v>49</v>
+      </c>
+      <c r="F229">
+        <v>1103.25</v>
+      </c>
+      <c r="J229" s="36"/>
+      <c r="K229" s="36"/>
+      <c r="L229" s="39"/>
+      <c r="O229" s="36"/>
+    </row>
+    <row r="230" spans="1:39">
+      <c r="A230" t="s">
+        <v>286</v>
+      </c>
+      <c r="B230" t="s">
+        <v>288</v>
+      </c>
+      <c r="C230" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D230">
+        <v>91</v>
+      </c>
+      <c r="E230">
+        <v>1998</v>
+      </c>
+      <c r="F230">
+        <v>6696</v>
+      </c>
+      <c r="J230" s="36"/>
+      <c r="K230" s="36"/>
+      <c r="L230" s="39"/>
+      <c r="O230" s="36"/>
+      <c r="Y230">
+        <v>49</v>
+      </c>
+      <c r="AB230">
+        <v>2.54</v>
+      </c>
+      <c r="AC230">
+        <v>10.88</v>
+      </c>
+      <c r="AD230">
+        <v>27.38</v>
+      </c>
+      <c r="AE230">
+        <v>41.47</v>
+      </c>
+      <c r="AM230">
+        <v>151.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:39">
+      <c r="A231" t="s">
+        <v>286</v>
+      </c>
+      <c r="B231" t="s">
+        <v>271</v>
+      </c>
+      <c r="C231" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D231">
+        <v>49</v>
+      </c>
+      <c r="F231">
+        <v>851</v>
+      </c>
+      <c r="J231" s="36"/>
+      <c r="K231" s="36"/>
+      <c r="L231" s="39"/>
+      <c r="O231" s="36"/>
+    </row>
+    <row r="232" spans="1:39">
+      <c r="A232" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232" t="s">
+        <v>271</v>
+      </c>
+      <c r="C232" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D232">
+        <v>91</v>
+      </c>
+      <c r="E232">
+        <v>2124</v>
+      </c>
+      <c r="F232">
+        <v>6212.13</v>
+      </c>
+      <c r="J232" s="36"/>
+      <c r="K232" s="36"/>
+      <c r="L232" s="39"/>
+      <c r="O232" s="36"/>
+      <c r="Y232">
+        <v>49</v>
+      </c>
+      <c r="AB232">
+        <v>3.26</v>
+      </c>
+      <c r="AC232">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD232">
+        <v>8.75</v>
+      </c>
+      <c r="AE232">
+        <v>12.13</v>
+      </c>
+      <c r="AM232">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="233" spans="1:39">
+      <c r="A233" t="s">
+        <v>286</v>
+      </c>
+      <c r="B233" t="s">
+        <v>272</v>
+      </c>
+      <c r="C233" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D233">
+        <v>49</v>
+      </c>
+      <c r="F233">
+        <v>854.13</v>
+      </c>
+      <c r="J233" s="36"/>
+      <c r="K233" s="36"/>
+      <c r="L233" s="39"/>
+      <c r="M233" s="36"/>
+      <c r="O233" s="36"/>
+    </row>
+    <row r="234" spans="1:39">
+      <c r="A234" t="s">
+        <v>286</v>
+      </c>
+      <c r="B234" t="s">
+        <v>272</v>
+      </c>
+      <c r="C234" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D234">
+        <v>91</v>
+      </c>
+      <c r="E234">
+        <v>2109</v>
+      </c>
+      <c r="F234">
+        <v>6574.38</v>
+      </c>
+      <c r="J234" s="36"/>
+      <c r="K234" s="36"/>
+      <c r="L234" s="39"/>
+      <c r="M234" s="36"/>
+      <c r="O234" s="36"/>
+      <c r="Y234">
+        <v>49</v>
+      </c>
+      <c r="AB234">
+        <v>1.81</v>
+      </c>
+      <c r="AC234">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AD234">
+        <v>16.43</v>
+      </c>
+      <c r="AE234">
+        <v>44.1</v>
+      </c>
+      <c r="AM234">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:39">
+      <c r="A235" t="s">
+        <v>286</v>
+      </c>
+      <c r="B235" t="s">
+        <v>273</v>
+      </c>
+      <c r="C235" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D235">
+        <v>49</v>
+      </c>
+      <c r="F235">
+        <v>965.38</v>
+      </c>
+      <c r="J235" s="36"/>
+      <c r="K235" s="36"/>
+      <c r="L235" s="39"/>
+      <c r="M235" s="36"/>
+      <c r="O235" s="36"/>
+    </row>
+    <row r="236" spans="1:39">
+      <c r="A236" t="s">
+        <v>286</v>
+      </c>
+      <c r="B236" t="s">
+        <v>273</v>
+      </c>
+      <c r="C236" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D236">
+        <v>91</v>
+      </c>
+      <c r="E236">
+        <v>2221</v>
+      </c>
+      <c r="F236">
+        <v>6716.25</v>
+      </c>
+      <c r="J236" s="36"/>
+      <c r="K236" s="36"/>
+      <c r="L236" s="39"/>
+      <c r="M236" s="36"/>
+      <c r="O236" s="36"/>
+      <c r="Y236">
+        <v>49</v>
+      </c>
+      <c r="AB236">
+        <v>4.34</v>
+      </c>
+      <c r="AC236">
+        <v>26.1</v>
+      </c>
+      <c r="AD236">
+        <v>36.5</v>
+      </c>
+      <c r="AE236">
+        <v>33.81</v>
+      </c>
+      <c r="AM236">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:39">
+      <c r="A237" t="s">
+        <v>286</v>
+      </c>
+      <c r="B237" t="s">
+        <v>274</v>
+      </c>
+      <c r="C237" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D237">
+        <v>49</v>
+      </c>
+      <c r="F237">
+        <v>1082.1300000000001</v>
+      </c>
+      <c r="J237" s="36"/>
+      <c r="K237" s="36"/>
+      <c r="L237" s="39"/>
+      <c r="M237" s="36"/>
+      <c r="O237" s="36"/>
+    </row>
+    <row r="238" spans="1:39">
+      <c r="A238" t="s">
+        <v>286</v>
+      </c>
+      <c r="B238" t="s">
+        <v>274</v>
+      </c>
+      <c r="C238" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D238">
+        <v>91</v>
+      </c>
+      <c r="E238">
+        <v>2229</v>
+      </c>
+      <c r="F238">
+        <v>7470.25</v>
+      </c>
+      <c r="J238" s="36"/>
+      <c r="K238" s="36"/>
+      <c r="L238" s="39"/>
+      <c r="M238" s="36"/>
+      <c r="O238" s="36"/>
+      <c r="Y238">
+        <v>49</v>
+      </c>
+      <c r="AB238">
+        <v>4.83</v>
+      </c>
+      <c r="AC238">
+        <v>4.83</v>
+      </c>
+      <c r="AD238">
+        <v>13.13</v>
+      </c>
+      <c r="AE238">
+        <v>26.42</v>
+      </c>
+      <c r="AM238">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:39">
+      <c r="A239" t="s">
+        <v>286</v>
+      </c>
+      <c r="B239" t="s">
+        <v>275</v>
+      </c>
+      <c r="C239" s="36">
+        <v>43908</v>
+      </c>
+      <c r="D239">
+        <v>49</v>
+      </c>
+      <c r="F239">
+        <v>864.38</v>
+      </c>
+      <c r="J239" s="36"/>
+      <c r="K239" s="36"/>
+      <c r="L239" s="39"/>
+      <c r="M239" s="36"/>
+      <c r="O239" s="36"/>
+    </row>
+    <row r="240" spans="1:39">
+      <c r="A240" t="s">
+        <v>286</v>
+      </c>
+      <c r="B240" t="s">
+        <v>275</v>
+      </c>
+      <c r="C240" s="36">
+        <v>43945</v>
+      </c>
+      <c r="D240">
+        <v>91</v>
+      </c>
+      <c r="E240">
+        <v>2343</v>
+      </c>
+      <c r="F240">
+        <v>6890.63</v>
+      </c>
+      <c r="J240" s="36"/>
+      <c r="K240" s="36"/>
+      <c r="L240" s="39"/>
+      <c r="M240" s="36"/>
+      <c r="O240" s="36"/>
+      <c r="Y240">
+        <v>49</v>
+      </c>
+      <c r="AB240">
+        <v>3.63</v>
+      </c>
+      <c r="AC240">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AD240">
+        <v>7.67</v>
+      </c>
+      <c r="AE240">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="241" spans="1:33">
+      <c r="A241" t="s">
+        <v>289</v>
+      </c>
+      <c r="B241" t="s">
+        <v>290</v>
+      </c>
+      <c r="C241" s="36">
+        <v>43363</v>
+      </c>
+      <c r="J241" s="36"/>
+      <c r="K241" s="36"/>
+      <c r="L241" s="39"/>
+      <c r="M241" s="36"/>
+      <c r="O241" s="36"/>
+      <c r="Y241">
+        <v>41</v>
+      </c>
+      <c r="Z241">
+        <v>71</v>
+      </c>
+      <c r="AF241">
+        <v>40</v>
+      </c>
+      <c r="AG241">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="242" spans="1:33">
+      <c r="A242" t="s">
+        <v>289</v>
+      </c>
+      <c r="B242" t="s">
+        <v>290</v>
+      </c>
+      <c r="C242" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="J242" s="36"/>
+      <c r="K242" s="36"/>
+      <c r="L242" s="39"/>
+      <c r="M242" s="36"/>
+      <c r="O242" s="36"/>
+    </row>
+    <row r="243" spans="1:33">
+      <c r="A243" t="s">
+        <v>289</v>
+      </c>
+      <c r="B243" t="s">
+        <v>290</v>
+      </c>
+      <c r="C243" s="36">
+        <v>43480</v>
+      </c>
+      <c r="J243" s="36"/>
+      <c r="K243" s="36"/>
+      <c r="L243" s="39"/>
+      <c r="M243" s="36"/>
+      <c r="O243" s="36"/>
+      <c r="AF243">
+        <v>123</v>
+      </c>
+      <c r="AG243">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="244" spans="1:33">
+      <c r="A244" t="s">
+        <v>289</v>
+      </c>
+      <c r="B244" t="s">
+        <v>290</v>
+      </c>
+      <c r="C244" s="36">
+        <v>43516</v>
+      </c>
+      <c r="D244">
+        <v>41</v>
+      </c>
+      <c r="F244">
+        <v>1000</v>
+      </c>
+      <c r="J244" s="36"/>
+      <c r="K244" s="36"/>
+      <c r="L244" s="39"/>
+      <c r="M244" s="36"/>
+      <c r="O244" s="36"/>
+    </row>
+    <row r="245" spans="1:33">
+      <c r="A245" t="s">
+        <v>289</v>
+      </c>
+      <c r="B245" t="s">
+        <v>290</v>
+      </c>
+      <c r="C245" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D245" s="39">
+        <v>97</v>
+      </c>
+      <c r="E245">
+        <v>1550</v>
+      </c>
+      <c r="F245">
+        <v>3700</v>
+      </c>
+      <c r="J245" s="36"/>
+      <c r="K245" s="36"/>
+      <c r="L245" s="39"/>
+      <c r="M245" s="36"/>
+      <c r="O245" s="36"/>
+      <c r="AF245">
+        <v>118</v>
+      </c>
+      <c r="AG245">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="246" spans="1:33">
+      <c r="A246" t="s">
+        <v>289</v>
+      </c>
+      <c r="B246" t="s">
+        <v>291</v>
+      </c>
+      <c r="C246" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="J246" s="36"/>
+      <c r="K246" s="36"/>
+      <c r="L246" s="39"/>
+      <c r="M246" s="36"/>
+      <c r="O246" s="36"/>
+    </row>
+    <row r="247" spans="1:33">
+      <c r="A247" t="s">
+        <v>289</v>
+      </c>
+      <c r="B247" t="s">
+        <v>291</v>
+      </c>
+      <c r="C247" s="36">
+        <v>43516</v>
+      </c>
+      <c r="D247">
+        <v>41</v>
+      </c>
+      <c r="F247">
+        <v>1000</v>
+      </c>
+      <c r="J247" s="36"/>
+      <c r="K247" s="36"/>
+      <c r="L247" s="39"/>
+      <c r="M247" s="36"/>
+      <c r="O247" s="36"/>
+    </row>
+    <row r="248" spans="1:33">
+      <c r="A248" t="s">
+        <v>289</v>
+      </c>
+      <c r="B248" t="s">
+        <v>291</v>
+      </c>
+      <c r="C248" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D248" s="39">
+        <v>97</v>
+      </c>
+      <c r="E248">
+        <v>1530</v>
+      </c>
+      <c r="F248">
+        <v>3700</v>
+      </c>
+      <c r="J248" s="36"/>
+      <c r="K248" s="36"/>
+      <c r="L248" s="39"/>
+      <c r="M248" s="36"/>
+      <c r="O248" s="36"/>
+      <c r="AF248">
+        <v>118</v>
+      </c>
+      <c r="AG248">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="249" spans="1:33">
+      <c r="A249" t="s">
+        <v>289</v>
+      </c>
+      <c r="B249" t="s">
+        <v>292</v>
+      </c>
+      <c r="C249" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="J249" s="36"/>
+      <c r="K249" s="36"/>
+      <c r="L249" s="39"/>
+      <c r="M249" s="36"/>
+      <c r="O249" s="36"/>
+      <c r="Y249">
+        <v>41</v>
+      </c>
+      <c r="Z249">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="250" spans="1:33">
+      <c r="A250" t="s">
+        <v>289</v>
+      </c>
+      <c r="B250" t="s">
+        <v>292</v>
+      </c>
+      <c r="C250" s="36">
+        <v>43516</v>
+      </c>
+      <c r="D250">
+        <v>41</v>
+      </c>
+      <c r="F250">
+        <v>900</v>
+      </c>
+      <c r="J250" s="36"/>
+      <c r="K250" s="36"/>
+      <c r="L250" s="39"/>
+      <c r="M250" s="36"/>
+      <c r="O250" s="36"/>
+    </row>
+    <row r="251" spans="1:33">
+      <c r="A251" t="s">
+        <v>289</v>
+      </c>
+      <c r="B251" t="s">
+        <v>292</v>
+      </c>
+      <c r="C251" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D251" s="39">
+        <v>97</v>
+      </c>
+      <c r="E251">
+        <v>1720</v>
+      </c>
+      <c r="F251">
+        <v>4000</v>
+      </c>
+      <c r="J251" s="36"/>
+      <c r="K251" s="36"/>
+      <c r="L251" s="39"/>
+      <c r="M251" s="36"/>
+      <c r="O251" s="36"/>
+      <c r="AF251">
+        <v>224</v>
+      </c>
+      <c r="AG251">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="252" spans="1:33">
+      <c r="A252" t="s">
+        <v>289</v>
+      </c>
+      <c r="B252" t="s">
+        <v>293</v>
+      </c>
+      <c r="C252" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="J252" s="36"/>
+      <c r="K252" s="36"/>
+      <c r="L252" s="39"/>
+      <c r="M252" s="36"/>
+      <c r="O252" s="36"/>
+      <c r="Y252">
+        <v>42</v>
+      </c>
+      <c r="Z252">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="1:33">
+      <c r="A253" t="s">
+        <v>289</v>
+      </c>
+      <c r="B253" t="s">
+        <v>293</v>
+      </c>
+      <c r="C253" s="36">
+        <v>43517</v>
+      </c>
+      <c r="D253">
+        <v>42</v>
+      </c>
+      <c r="F253">
+        <v>800</v>
+      </c>
+      <c r="J253" s="36"/>
+      <c r="K253" s="36"/>
+      <c r="L253" s="39"/>
+      <c r="M253" s="36"/>
+      <c r="O253" s="36"/>
+    </row>
+    <row r="254" spans="1:33">
+      <c r="A254" t="s">
+        <v>289</v>
+      </c>
+      <c r="B254" t="s">
+        <v>293</v>
+      </c>
+      <c r="C254" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D254" s="39">
+        <v>97</v>
+      </c>
+      <c r="E254">
+        <v>1540</v>
+      </c>
+      <c r="F254">
+        <v>3700</v>
+      </c>
+      <c r="J254" s="36"/>
+      <c r="K254" s="36"/>
+      <c r="L254" s="39"/>
+      <c r="M254" s="36"/>
+      <c r="O254" s="36"/>
+      <c r="AF254">
+        <v>224</v>
+      </c>
+      <c r="AG254">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="255" spans="1:33">
+      <c r="A255" t="s">
+        <v>289</v>
+      </c>
+      <c r="B255" t="s">
+        <v>294</v>
+      </c>
+      <c r="C255" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="J255" s="36"/>
+      <c r="K255" s="36"/>
+      <c r="L255" s="39"/>
+      <c r="M255" s="36"/>
+      <c r="O255" s="36"/>
+      <c r="Y255">
+        <v>42</v>
+      </c>
+      <c r="Z255">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="256" spans="1:33">
+      <c r="A256" t="s">
+        <v>289</v>
+      </c>
+      <c r="B256" t="s">
+        <v>294</v>
+      </c>
+      <c r="C256" s="36">
+        <v>43517</v>
+      </c>
+      <c r="D256">
+        <v>42</v>
+      </c>
+      <c r="F256">
+        <v>900</v>
+      </c>
+      <c r="J256" s="36"/>
+      <c r="K256" s="36"/>
+      <c r="L256" s="39"/>
+      <c r="M256" s="36"/>
+      <c r="O256" s="36"/>
+    </row>
+    <row r="257" spans="1:33">
+      <c r="A257" t="s">
+        <v>289</v>
+      </c>
+      <c r="B257" t="s">
+        <v>294</v>
+      </c>
+      <c r="C257" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D257" s="39">
+        <v>97</v>
+      </c>
+      <c r="E257">
+        <v>1700</v>
+      </c>
+      <c r="F257">
+        <v>3900</v>
+      </c>
+      <c r="J257" s="36"/>
+      <c r="K257" s="36"/>
+      <c r="L257" s="39"/>
+      <c r="M257" s="36"/>
+      <c r="O257" s="36"/>
+      <c r="AF257">
+        <v>279</v>
+      </c>
+      <c r="AG257">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="258" spans="1:33">
+      <c r="A258" t="s">
+        <v>289</v>
+      </c>
+      <c r="B258" t="s">
+        <v>295</v>
+      </c>
+      <c r="C258" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="J258" s="36"/>
+      <c r="K258" s="36"/>
+      <c r="L258" s="39"/>
+      <c r="M258" s="36"/>
+      <c r="O258" s="36"/>
+      <c r="Y258">
+        <v>42</v>
+      </c>
+      <c r="Z258">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:33">
+      <c r="A259" t="s">
+        <v>289</v>
+      </c>
+      <c r="B259" t="s">
+        <v>295</v>
+      </c>
+      <c r="C259" s="36">
+        <v>43517</v>
+      </c>
+      <c r="D259">
+        <v>42</v>
+      </c>
+      <c r="F259">
+        <v>900</v>
+      </c>
+      <c r="J259" s="36"/>
+      <c r="K259" s="36"/>
+      <c r="L259" s="39"/>
+      <c r="M259" s="36"/>
+      <c r="O259" s="36"/>
+    </row>
+    <row r="260" spans="1:33">
+      <c r="A260" t="s">
+        <v>289</v>
+      </c>
+      <c r="B260" t="s">
+        <v>295</v>
+      </c>
+      <c r="C260" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D260" s="39">
+        <v>97</v>
+      </c>
+      <c r="E260">
+        <v>1570</v>
+      </c>
+      <c r="F260">
+        <v>3600</v>
+      </c>
+      <c r="J260" s="36"/>
+      <c r="K260" s="36"/>
+      <c r="L260" s="39"/>
+      <c r="M260" s="36"/>
+      <c r="O260" s="36"/>
+      <c r="AF260">
+        <v>279</v>
+      </c>
+      <c r="AG260">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="261" spans="1:33">
+      <c r="A261" t="s">
+        <v>289</v>
+      </c>
+      <c r="B261" t="s">
+        <v>296</v>
+      </c>
+      <c r="C261" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="J261" s="36"/>
+      <c r="K261" s="36"/>
+      <c r="L261" s="39"/>
+      <c r="M261" s="36"/>
+      <c r="O261" s="36"/>
+      <c r="Y261">
+        <v>41</v>
+      </c>
+      <c r="Z261">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="262" spans="1:33">
+      <c r="A262" t="s">
+        <v>289</v>
+      </c>
+      <c r="B262" t="s">
+        <v>296</v>
+      </c>
+      <c r="C262" s="36">
+        <v>43516</v>
+      </c>
+      <c r="D262">
+        <v>41</v>
+      </c>
+      <c r="F262">
+        <v>1000</v>
+      </c>
+      <c r="J262" s="36"/>
+      <c r="K262" s="36"/>
+      <c r="L262" s="39"/>
+      <c r="M262" s="36"/>
+      <c r="O262" s="36"/>
+    </row>
+    <row r="263" spans="1:33">
+      <c r="A263" t="s">
+        <v>289</v>
+      </c>
+      <c r="B263" t="s">
+        <v>296</v>
+      </c>
+      <c r="C263" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D263" s="39">
+        <v>97</v>
+      </c>
+      <c r="E263">
+        <v>1640</v>
+      </c>
+      <c r="F263">
+        <v>3800</v>
+      </c>
+      <c r="J263" s="36"/>
+      <c r="K263" s="36"/>
+      <c r="L263" s="39"/>
+      <c r="M263" s="36"/>
+      <c r="O263" s="36"/>
+      <c r="AF263">
+        <v>354</v>
+      </c>
+      <c r="AG263">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="264" spans="1:33">
+      <c r="A264" t="s">
+        <v>289</v>
+      </c>
+      <c r="B264" t="s">
+        <v>297</v>
+      </c>
+      <c r="C264" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="J264" s="36"/>
+      <c r="K264" s="36"/>
+      <c r="L264" s="39"/>
+      <c r="M264" s="36"/>
+      <c r="O264" s="36"/>
+      <c r="Y264">
+        <v>43</v>
+      </c>
+      <c r="Z264">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="265" spans="1:33">
+      <c r="A265" t="s">
+        <v>289</v>
+      </c>
+      <c r="B265" t="s">
+        <v>297</v>
+      </c>
+      <c r="C265" s="36">
+        <v>43518</v>
+      </c>
+      <c r="D265">
+        <v>43</v>
+      </c>
+      <c r="F265">
+        <v>1000</v>
+      </c>
+      <c r="J265" s="36"/>
+      <c r="K265" s="36"/>
+      <c r="L265" s="39"/>
+      <c r="M265" s="36"/>
+      <c r="O265" s="36"/>
+    </row>
+    <row r="266" spans="1:33">
+      <c r="A266" t="s">
+        <v>289</v>
+      </c>
+      <c r="B266" t="s">
+        <v>297</v>
+      </c>
+      <c r="C266" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D266" s="39">
+        <v>97</v>
+      </c>
+      <c r="E266">
+        <v>1660</v>
+      </c>
+      <c r="F266">
+        <v>3900</v>
+      </c>
+      <c r="J266" s="36"/>
+      <c r="K266" s="36"/>
+      <c r="L266" s="39"/>
+      <c r="M266" s="36"/>
+      <c r="O266" s="36"/>
+      <c r="AF266">
+        <v>354</v>
+      </c>
+      <c r="AG266">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="267" spans="1:33">
+      <c r="A267" t="s">
+        <v>289</v>
+      </c>
+      <c r="B267" t="s">
+        <v>298</v>
+      </c>
+      <c r="C267" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="J267" s="36"/>
+      <c r="K267" s="36"/>
+      <c r="L267" s="39"/>
+      <c r="M267" s="36"/>
+      <c r="O267" s="36"/>
+      <c r="Y267">
+        <v>42</v>
+      </c>
+      <c r="Z267">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:33">
+      <c r="A268" t="s">
+        <v>289</v>
+      </c>
+      <c r="B268" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" s="36">
+        <v>43517</v>
+      </c>
+      <c r="D268">
+        <v>42</v>
+      </c>
+      <c r="F268">
+        <v>1000</v>
+      </c>
+      <c r="J268" s="36"/>
+      <c r="K268" s="36"/>
+      <c r="L268" s="39"/>
+      <c r="M268" s="36"/>
+      <c r="O268" s="36"/>
+    </row>
+    <row r="269" spans="1:33">
+      <c r="A269" t="s">
+        <v>289</v>
+      </c>
+      <c r="B269" t="s">
+        <v>298</v>
+      </c>
+      <c r="C269" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D269" s="39">
+        <v>97</v>
+      </c>
+      <c r="E269">
+        <v>1600</v>
+      </c>
+      <c r="F269">
+        <v>3700</v>
+      </c>
+      <c r="J269" s="36"/>
+      <c r="K269" s="36"/>
+      <c r="L269" s="39"/>
+      <c r="M269" s="36"/>
+      <c r="O269" s="36"/>
+      <c r="AF269">
+        <v>295</v>
+      </c>
+      <c r="AG269">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="270" spans="1:33">
+      <c r="A270" t="s">
+        <v>289</v>
+      </c>
+      <c r="B270" t="s">
+        <v>299</v>
+      </c>
+      <c r="C270" s="36">
+        <v>43475</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="J270" s="36"/>
+      <c r="K270" s="36"/>
+      <c r="L270" s="39"/>
+      <c r="M270" s="36"/>
+      <c r="O270" s="36"/>
+      <c r="Y270">
+        <v>41</v>
+      </c>
+      <c r="Z270">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="271" spans="1:33">
+      <c r="A271" t="s">
+        <v>289</v>
+      </c>
+      <c r="B271" t="s">
+        <v>299</v>
+      </c>
+      <c r="C271" s="36">
+        <v>43516</v>
+      </c>
+      <c r="D271">
+        <v>41</v>
+      </c>
+      <c r="F271">
+        <v>1000</v>
+      </c>
+      <c r="J271" s="36"/>
+      <c r="K271" s="36"/>
+      <c r="L271" s="39"/>
+      <c r="M271" s="36"/>
+      <c r="O271" s="36"/>
+    </row>
+    <row r="272" spans="1:33">
+      <c r="A272" t="s">
+        <v>289</v>
+      </c>
+      <c r="B272" t="s">
+        <v>299</v>
+      </c>
+      <c r="C272" s="36">
+        <v>43571</v>
+      </c>
+      <c r="D272" s="39">
+        <v>97</v>
+      </c>
+      <c r="E272">
+        <v>1570</v>
+      </c>
+      <c r="F272">
+        <v>3700</v>
+      </c>
+      <c r="J272" s="36"/>
+      <c r="K272" s="36"/>
+      <c r="L272" s="39"/>
+      <c r="M272" s="36"/>
+      <c r="O272" s="36"/>
+      <c r="AF272">
+        <v>295</v>
+      </c>
+      <c r="AG272">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="273" spans="1:37">
+      <c r="A273" t="s">
+        <v>300</v>
+      </c>
+      <c r="B273" t="s">
+        <v>290</v>
+      </c>
+      <c r="C273" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="J273" s="36"/>
+      <c r="K273" s="36"/>
+      <c r="L273" s="39"/>
+      <c r="M273" s="36"/>
+      <c r="O273" s="36"/>
+      <c r="Y273">
+        <v>37</v>
+      </c>
+      <c r="Z273">
+        <v>75</v>
+      </c>
+      <c r="AH273">
+        <v>21</v>
+      </c>
+      <c r="AI273">
+        <v>27</v>
+      </c>
+      <c r="AJ273">
+        <v>22</v>
+      </c>
+      <c r="AK273">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:37">
+      <c r="A274" t="s">
+        <v>300</v>
+      </c>
+      <c r="B274" t="s">
+        <v>290</v>
+      </c>
+      <c r="C274" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D274">
+        <v>33</v>
+      </c>
+      <c r="H274" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J274" s="36"/>
+      <c r="K274" s="36"/>
+      <c r="L274" s="39"/>
+      <c r="M274" s="36"/>
+      <c r="O274" s="36"/>
+    </row>
+    <row r="275" spans="1:37">
+      <c r="A275" t="s">
+        <v>300</v>
+      </c>
+      <c r="B275" t="s">
+        <v>290</v>
+      </c>
+      <c r="C275" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D275">
+        <v>46</v>
+      </c>
+      <c r="H275" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="J275" s="36"/>
+      <c r="K275" s="36"/>
+      <c r="L275" s="39"/>
+      <c r="M275" s="36"/>
+      <c r="O275" s="36"/>
+    </row>
+    <row r="276" spans="1:37">
+      <c r="A276" t="s">
+        <v>300</v>
+      </c>
+      <c r="B276" t="s">
+        <v>290</v>
+      </c>
+      <c r="C276" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D276">
+        <v>54</v>
+      </c>
+      <c r="H276" s="38">
+        <v>1</v>
+      </c>
+      <c r="J276" s="36"/>
+      <c r="K276" s="36"/>
+      <c r="L276" s="39"/>
+      <c r="M276" s="36"/>
+      <c r="O276" s="36"/>
+    </row>
+    <row r="277" spans="1:37">
+      <c r="A277" t="s">
+        <v>300</v>
+      </c>
+      <c r="B277" t="s">
+        <v>290</v>
+      </c>
+      <c r="C277" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D277" s="39">
+        <v>57</v>
+      </c>
+      <c r="F277">
+        <v>2000</v>
+      </c>
+      <c r="J277" s="36"/>
+      <c r="K277" s="36"/>
+      <c r="L277" s="39"/>
+      <c r="M277" s="36"/>
+      <c r="O277" s="36"/>
+    </row>
+    <row r="278" spans="1:37">
+      <c r="A278" t="s">
+        <v>300</v>
+      </c>
+      <c r="B278" t="s">
+        <v>290</v>
+      </c>
+      <c r="C278" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D278">
+        <v>62</v>
+      </c>
+      <c r="H278" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J278" s="36"/>
+      <c r="K278" s="36"/>
+      <c r="L278" s="39"/>
+      <c r="M278" s="36"/>
+      <c r="O278" s="36"/>
+    </row>
+    <row r="279" spans="1:37">
+      <c r="A279" t="s">
+        <v>300</v>
+      </c>
+      <c r="B279" t="s">
+        <v>290</v>
+      </c>
+      <c r="C279" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D279">
+        <v>70</v>
+      </c>
+      <c r="H279" s="38">
+        <v>0.72</v>
+      </c>
+      <c r="J279" s="36"/>
+      <c r="K279" s="36"/>
+      <c r="L279" s="39"/>
+      <c r="M279" s="36"/>
+      <c r="O279" s="36"/>
+    </row>
+    <row r="280" spans="1:37">
+      <c r="A280" t="s">
+        <v>300</v>
+      </c>
+      <c r="B280" t="s">
+        <v>290</v>
+      </c>
+      <c r="C280" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D280">
+        <v>88</v>
+      </c>
+      <c r="E280">
+        <v>900</v>
+      </c>
+      <c r="F280">
+        <v>2550</v>
+      </c>
+      <c r="J280" s="36"/>
+      <c r="K280" s="36"/>
+      <c r="L280" s="39"/>
+      <c r="M280" s="36"/>
+      <c r="O280" s="36"/>
+      <c r="AG280">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" spans="1:37">
+      <c r="A281" t="s">
+        <v>300</v>
+      </c>
+      <c r="B281" t="s">
+        <v>291</v>
+      </c>
+      <c r="C281" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="J281" s="36"/>
+      <c r="K281" s="36"/>
+      <c r="L281" s="39"/>
+      <c r="M281" s="36"/>
+      <c r="O281" s="36"/>
+      <c r="AH281">
+        <v>20</v>
+      </c>
+      <c r="AI281">
+        <v>27</v>
+      </c>
+      <c r="AJ281">
+        <v>23</v>
+      </c>
+      <c r="AK281">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:37">
+      <c r="A282" t="s">
+        <v>300</v>
+      </c>
+      <c r="B282" t="s">
+        <v>291</v>
+      </c>
+      <c r="C282" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D282">
+        <v>33</v>
+      </c>
+      <c r="H282" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="J282" s="36"/>
+      <c r="K282" s="36"/>
+      <c r="L282" s="39"/>
+      <c r="M282" s="36"/>
+      <c r="O282" s="36"/>
+    </row>
+    <row r="283" spans="1:37">
+      <c r="A283" t="s">
+        <v>300</v>
+      </c>
+      <c r="B283" t="s">
+        <v>291</v>
+      </c>
+      <c r="C283" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D283">
+        <v>46</v>
+      </c>
+      <c r="H283" s="38">
+        <v>1.55</v>
+      </c>
+      <c r="J283" s="36"/>
+      <c r="K283" s="36"/>
+      <c r="L283" s="39"/>
+      <c r="M283" s="36"/>
+      <c r="O283" s="36"/>
+    </row>
+    <row r="284" spans="1:37">
+      <c r="A284" t="s">
+        <v>300</v>
+      </c>
+      <c r="B284" t="s">
+        <v>291</v>
+      </c>
+      <c r="C284" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D284">
+        <v>54</v>
+      </c>
+      <c r="H284" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="J284" s="36"/>
+      <c r="K284" s="36"/>
+      <c r="L284" s="39"/>
+      <c r="M284" s="36"/>
+      <c r="O284" s="36"/>
+    </row>
+    <row r="285" spans="1:37">
+      <c r="A285" t="s">
+        <v>300</v>
+      </c>
+      <c r="B285" t="s">
+        <v>291</v>
+      </c>
+      <c r="C285" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D285" s="39">
+        <v>57</v>
+      </c>
+      <c r="F285">
+        <v>1750</v>
+      </c>
+      <c r="J285" s="36"/>
+      <c r="K285" s="36"/>
+      <c r="L285" s="39"/>
+      <c r="M285" s="36"/>
+      <c r="O285" s="36"/>
+    </row>
+    <row r="286" spans="1:37">
+      <c r="A286" t="s">
+        <v>300</v>
+      </c>
+      <c r="B286" t="s">
+        <v>291</v>
+      </c>
+      <c r="C286" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D286">
+        <v>62</v>
+      </c>
+      <c r="H286" s="38">
+        <v>1.28</v>
+      </c>
+      <c r="J286" s="36"/>
+      <c r="K286" s="36"/>
+      <c r="L286" s="39"/>
+      <c r="M286" s="36"/>
+      <c r="O286" s="36"/>
+    </row>
+    <row r="287" spans="1:37">
+      <c r="A287" t="s">
+        <v>300</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D287">
+        <v>70</v>
+      </c>
+      <c r="H287" s="38">
+        <v>1</v>
+      </c>
+      <c r="J287" s="36"/>
+      <c r="K287" s="36"/>
+      <c r="L287" s="39"/>
+      <c r="M287" s="36"/>
+      <c r="O287" s="36"/>
+    </row>
+    <row r="288" spans="1:37">
+      <c r="A288" t="s">
+        <v>300</v>
+      </c>
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D288">
+        <v>88</v>
+      </c>
+      <c r="E288">
+        <v>1150</v>
+      </c>
+      <c r="F288">
+        <v>3000</v>
+      </c>
+      <c r="J288" s="36"/>
+      <c r="K288" s="36"/>
+      <c r="L288" s="39"/>
+      <c r="M288" s="36"/>
+      <c r="O288" s="36"/>
+      <c r="AG288">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="289" spans="1:37">
+      <c r="A289" t="s">
+        <v>300</v>
+      </c>
+      <c r="B289" t="s">
+        <v>292</v>
+      </c>
+      <c r="C289" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="J289" s="36"/>
+      <c r="K289" s="36"/>
+      <c r="L289" s="39"/>
+      <c r="M289" s="36"/>
+      <c r="O289" s="36"/>
+      <c r="AH289">
+        <v>21</v>
+      </c>
+      <c r="AI289">
+        <v>26</v>
+      </c>
+      <c r="AJ289">
+        <v>19.5</v>
+      </c>
+      <c r="AK289">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:37">
+      <c r="A290" t="s">
+        <v>300</v>
+      </c>
+      <c r="B290" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D290">
+        <v>33</v>
+      </c>
+      <c r="H290" s="38">
+        <v>1.25</v>
+      </c>
+      <c r="J290" s="36"/>
+      <c r="K290" s="36"/>
+      <c r="L290" s="39"/>
+      <c r="M290" s="36"/>
+      <c r="O290" s="36"/>
+    </row>
+    <row r="291" spans="1:37">
+      <c r="A291" t="s">
+        <v>300</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D291">
+        <v>46</v>
+      </c>
+      <c r="H291" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="J291" s="36"/>
+      <c r="K291" s="36"/>
+      <c r="L291" s="39"/>
+      <c r="M291" s="36"/>
+      <c r="O291" s="36"/>
+    </row>
+    <row r="292" spans="1:37">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292" t="s">
+        <v>292</v>
+      </c>
+      <c r="C292" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D292">
+        <v>54</v>
+      </c>
+      <c r="H292" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J292" s="36"/>
+      <c r="K292" s="36"/>
+      <c r="L292" s="39"/>
+      <c r="M292" s="36"/>
+      <c r="O292" s="36"/>
+    </row>
+    <row r="293" spans="1:37">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" t="s">
+        <v>292</v>
+      </c>
+      <c r="C293" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D293" s="39">
+        <v>57</v>
+      </c>
+      <c r="F293">
+        <v>1500</v>
+      </c>
+      <c r="J293" s="36"/>
+      <c r="K293" s="36"/>
+      <c r="L293" s="39"/>
+      <c r="M293" s="36"/>
+      <c r="O293" s="36"/>
+    </row>
+    <row r="294" spans="1:37">
+      <c r="A294" t="s">
+        <v>300</v>
+      </c>
+      <c r="B294" t="s">
+        <v>292</v>
+      </c>
+      <c r="C294" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D294">
+        <v>62</v>
+      </c>
+      <c r="H294" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="J294" s="36"/>
+      <c r="K294" s="36"/>
+      <c r="L294" s="39"/>
+      <c r="M294" s="36"/>
+      <c r="O294" s="36"/>
+    </row>
+    <row r="295" spans="1:37">
+      <c r="A295" t="s">
+        <v>300</v>
+      </c>
+      <c r="B295" t="s">
+        <v>292</v>
+      </c>
+      <c r="C295" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D295">
+        <v>70</v>
+      </c>
+      <c r="H295" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="J295" s="36"/>
+      <c r="K295" s="36"/>
+      <c r="L295" s="39"/>
+      <c r="M295" s="36"/>
+      <c r="O295" s="36"/>
+    </row>
+    <row r="296" spans="1:37">
+      <c r="A296" t="s">
+        <v>300</v>
+      </c>
+      <c r="B296" t="s">
+        <v>292</v>
+      </c>
+      <c r="C296" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D296">
+        <v>88</v>
+      </c>
+      <c r="E296">
+        <v>800</v>
+      </c>
+      <c r="F296">
+        <v>2250</v>
+      </c>
+      <c r="J296" s="36"/>
+      <c r="K296" s="36"/>
+      <c r="L296" s="39"/>
+      <c r="M296" s="36"/>
+      <c r="O296" s="36"/>
+      <c r="AG296">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="297" spans="1:37">
+      <c r="A297" t="s">
+        <v>300</v>
+      </c>
+      <c r="B297" t="s">
+        <v>293</v>
+      </c>
+      <c r="C297" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="J297" s="36"/>
+      <c r="K297" s="36"/>
+      <c r="L297" s="39"/>
+      <c r="M297" s="36"/>
+      <c r="O297" s="36"/>
+      <c r="AH297">
+        <v>22</v>
+      </c>
+      <c r="AI297">
+        <v>30</v>
+      </c>
+      <c r="AJ297">
+        <v>23</v>
+      </c>
+      <c r="AK297">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:37">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D298">
+        <v>33</v>
+      </c>
+      <c r="H298" s="38">
+        <v>1</v>
+      </c>
+      <c r="J298" s="36"/>
+      <c r="K298" s="36"/>
+      <c r="L298" s="39"/>
+      <c r="M298" s="36"/>
+      <c r="O298" s="36"/>
+    </row>
+    <row r="299" spans="1:37">
+      <c r="A299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="s">
+        <v>293</v>
+      </c>
+      <c r="C299" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D299">
+        <v>46</v>
+      </c>
+      <c r="H299" s="38">
+        <v>1.35</v>
+      </c>
+      <c r="J299" s="36"/>
+      <c r="K299" s="36"/>
+      <c r="L299" s="39"/>
+      <c r="M299" s="36"/>
+      <c r="O299" s="36"/>
+    </row>
+    <row r="300" spans="1:37">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>293</v>
+      </c>
+      <c r="C300" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D300">
+        <v>54</v>
+      </c>
+      <c r="H300" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J300" s="36"/>
+      <c r="K300" s="36"/>
+      <c r="L300" s="39"/>
+      <c r="M300" s="36"/>
+      <c r="O300" s="36"/>
+    </row>
+    <row r="301" spans="1:37">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>293</v>
+      </c>
+      <c r="C301" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D301" s="39">
+        <v>57</v>
+      </c>
+      <c r="F301">
+        <v>1800</v>
+      </c>
+      <c r="J301" s="36"/>
+      <c r="K301" s="36"/>
+      <c r="L301" s="39"/>
+      <c r="M301" s="36"/>
+      <c r="O301" s="36"/>
+    </row>
+    <row r="302" spans="1:37">
+      <c r="A302" t="s">
+        <v>300</v>
+      </c>
+      <c r="B302" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D302">
+        <v>62</v>
+      </c>
+      <c r="H302" s="38">
+        <v>1</v>
+      </c>
+      <c r="J302" s="36"/>
+      <c r="K302" s="36"/>
+      <c r="L302" s="39"/>
+      <c r="M302" s="36"/>
+      <c r="O302" s="36"/>
+    </row>
+    <row r="303" spans="1:37">
+      <c r="A303" t="s">
+        <v>300</v>
+      </c>
+      <c r="B303" t="s">
+        <v>293</v>
+      </c>
+      <c r="C303" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D303">
+        <v>70</v>
+      </c>
+      <c r="H303" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="J303" s="36"/>
+      <c r="K303" s="36"/>
+      <c r="L303" s="39"/>
+      <c r="M303" s="36"/>
+      <c r="O303" s="36"/>
+    </row>
+    <row r="304" spans="1:37">
+      <c r="A304" t="s">
+        <v>300</v>
+      </c>
+      <c r="B304" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D304">
+        <v>88</v>
+      </c>
+      <c r="E304">
+        <v>990</v>
+      </c>
+      <c r="F304">
+        <v>2750</v>
+      </c>
+      <c r="J304" s="36"/>
+      <c r="K304" s="36"/>
+      <c r="L304" s="39"/>
+      <c r="M304" s="36"/>
+      <c r="O304" s="36"/>
+      <c r="AG304">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="305" spans="1:37">
+      <c r="A305" t="s">
+        <v>300</v>
+      </c>
+      <c r="B305" t="s">
+        <v>294</v>
+      </c>
+      <c r="C305" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="J305" s="36"/>
+      <c r="K305" s="36"/>
+      <c r="L305" s="39"/>
+      <c r="M305" s="36"/>
+      <c r="O305" s="36"/>
+      <c r="AH305">
+        <v>22.5</v>
+      </c>
+      <c r="AI305">
+        <v>30</v>
+      </c>
+      <c r="AJ305">
+        <v>23.5</v>
+      </c>
+      <c r="AK305">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:37">
+      <c r="A306" t="s">
+        <v>300</v>
+      </c>
+      <c r="B306" t="s">
+        <v>294</v>
+      </c>
+      <c r="C306" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D306">
+        <v>33</v>
+      </c>
+      <c r="H306" s="38">
+        <v>1.38</v>
+      </c>
+      <c r="J306" s="36"/>
+      <c r="K306" s="36"/>
+      <c r="L306" s="39"/>
+      <c r="M306" s="36"/>
+      <c r="O306" s="36"/>
+    </row>
+    <row r="307" spans="1:37">
+      <c r="A307" t="s">
+        <v>300</v>
+      </c>
+      <c r="B307" t="s">
+        <v>294</v>
+      </c>
+      <c r="C307" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D307">
+        <v>46</v>
+      </c>
+      <c r="H307" s="38">
+        <v>1.72</v>
+      </c>
+      <c r="J307" s="36"/>
+      <c r="K307" s="36"/>
+      <c r="L307" s="39"/>
+      <c r="M307" s="36"/>
+      <c r="O307" s="36"/>
+    </row>
+    <row r="308" spans="1:37">
+      <c r="A308" t="s">
+        <v>300</v>
+      </c>
+      <c r="B308" t="s">
+        <v>294</v>
+      </c>
+      <c r="C308" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D308">
+        <v>54</v>
+      </c>
+      <c r="J308" s="36"/>
+      <c r="K308" s="36"/>
+      <c r="L308" s="39"/>
+      <c r="M308" s="36"/>
+      <c r="O308" s="36"/>
+    </row>
+    <row r="309" spans="1:37">
+      <c r="A309" t="s">
+        <v>300</v>
+      </c>
+      <c r="B309" t="s">
+        <v>294</v>
+      </c>
+      <c r="C309" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D309" s="39">
+        <v>57</v>
+      </c>
+      <c r="F309">
+        <v>1750</v>
+      </c>
+      <c r="J309" s="36"/>
+      <c r="K309" s="36"/>
+      <c r="L309" s="39"/>
+      <c r="M309" s="36"/>
+      <c r="O309" s="36"/>
+    </row>
+    <row r="310" spans="1:37">
+      <c r="A310" t="s">
+        <v>300</v>
+      </c>
+      <c r="B310" t="s">
+        <v>294</v>
+      </c>
+      <c r="C310" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D310">
+        <v>62</v>
+      </c>
+      <c r="J310" s="36"/>
+      <c r="K310" s="36"/>
+      <c r="L310" s="39"/>
+      <c r="M310" s="36"/>
+      <c r="O310" s="36"/>
+    </row>
+    <row r="311" spans="1:37">
+      <c r="A311" t="s">
+        <v>300</v>
+      </c>
+      <c r="B311" t="s">
+        <v>294</v>
+      </c>
+      <c r="C311" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D311">
+        <v>70</v>
+      </c>
+      <c r="H311" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J311" s="36"/>
+      <c r="K311" s="36"/>
+      <c r="L311" s="39"/>
+      <c r="M311" s="36"/>
+      <c r="O311" s="36"/>
+    </row>
+    <row r="312" spans="1:37">
+      <c r="A312" t="s">
+        <v>300</v>
+      </c>
+      <c r="B312" t="s">
+        <v>294</v>
+      </c>
+      <c r="C312" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D312">
+        <v>88</v>
+      </c>
+      <c r="E312">
+        <v>1100</v>
+      </c>
+      <c r="F312">
+        <v>2800</v>
+      </c>
+      <c r="J312" s="36"/>
+      <c r="K312" s="36"/>
+      <c r="L312" s="39"/>
+      <c r="M312" s="36"/>
+      <c r="O312" s="36"/>
+      <c r="AG312">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="313" spans="1:37">
+      <c r="A313" t="s">
+        <v>300</v>
+      </c>
+      <c r="B313" t="s">
+        <v>295</v>
+      </c>
+      <c r="C313" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="J313" s="36"/>
+      <c r="K313" s="36"/>
+      <c r="L313" s="39"/>
+      <c r="M313" s="36"/>
+      <c r="O313" s="36"/>
+      <c r="AH313">
+        <v>26</v>
+      </c>
+      <c r="AI313">
+        <v>25</v>
+      </c>
+      <c r="AJ313">
+        <v>20.5</v>
+      </c>
+      <c r="AK313">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:37">
+      <c r="A314" t="s">
+        <v>300</v>
+      </c>
+      <c r="B314" t="s">
+        <v>295</v>
+      </c>
+      <c r="C314" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D314">
+        <v>33</v>
+      </c>
+      <c r="H314" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="J314" s="36"/>
+      <c r="K314" s="36"/>
+      <c r="L314" s="39"/>
+      <c r="M314" s="36"/>
+      <c r="O314" s="36"/>
+    </row>
+    <row r="315" spans="1:37">
+      <c r="A315" t="s">
+        <v>300</v>
+      </c>
+      <c r="B315" t="s">
+        <v>295</v>
+      </c>
+      <c r="C315" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D315">
+        <v>46</v>
+      </c>
+      <c r="H315" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="J315" s="36"/>
+      <c r="K315" s="36"/>
+      <c r="L315" s="39"/>
+      <c r="M315" s="36"/>
+      <c r="O315" s="36"/>
+    </row>
+    <row r="316" spans="1:37">
+      <c r="A316" t="s">
+        <v>300</v>
+      </c>
+      <c r="B316" t="s">
+        <v>295</v>
+      </c>
+      <c r="C316" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D316">
+        <v>54</v>
+      </c>
+      <c r="H316" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J316" s="36"/>
+      <c r="K316" s="36"/>
+      <c r="L316" s="39"/>
+      <c r="M316" s="36"/>
+      <c r="O316" s="36"/>
+    </row>
+    <row r="317" spans="1:37">
+      <c r="A317" t="s">
+        <v>300</v>
+      </c>
+      <c r="B317" t="s">
+        <v>295</v>
+      </c>
+      <c r="C317" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D317" s="39">
+        <v>57</v>
+      </c>
+      <c r="F317">
+        <v>1750</v>
+      </c>
+      <c r="J317" s="36"/>
+      <c r="K317" s="36"/>
+      <c r="L317" s="39"/>
+      <c r="M317" s="36"/>
+      <c r="O317" s="36"/>
+    </row>
+    <row r="318" spans="1:37">
+      <c r="A318" t="s">
+        <v>300</v>
+      </c>
+      <c r="B318" t="s">
+        <v>295</v>
+      </c>
+      <c r="C318" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D318">
+        <v>62</v>
+      </c>
+      <c r="H318" s="38">
+        <v>1</v>
+      </c>
+      <c r="J318" s="36"/>
+      <c r="K318" s="36"/>
+      <c r="L318" s="39"/>
+      <c r="M318" s="36"/>
+      <c r="O318" s="36"/>
+    </row>
+    <row r="319" spans="1:37">
+      <c r="A319" t="s">
+        <v>300</v>
+      </c>
+      <c r="B319" t="s">
+        <v>295</v>
+      </c>
+      <c r="C319" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D319">
+        <v>70</v>
+      </c>
+      <c r="H319" s="38">
+        <v>0.97</v>
+      </c>
+      <c r="J319" s="36"/>
+      <c r="K319" s="36"/>
+      <c r="L319" s="39"/>
+      <c r="M319" s="36"/>
+      <c r="O319" s="36"/>
+    </row>
+    <row r="320" spans="1:37">
+      <c r="A320" t="s">
+        <v>300</v>
+      </c>
+      <c r="B320" t="s">
+        <v>295</v>
+      </c>
+      <c r="C320" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D320">
+        <v>88</v>
+      </c>
+      <c r="E320">
+        <v>990</v>
+      </c>
+      <c r="F320">
+        <v>2650</v>
+      </c>
+      <c r="J320" s="36"/>
+      <c r="K320" s="36"/>
+      <c r="L320" s="39"/>
+      <c r="M320" s="36"/>
+      <c r="O320" s="36"/>
+      <c r="AG320">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:37">
+      <c r="A321" t="s">
+        <v>300</v>
+      </c>
+      <c r="B321" t="s">
+        <v>301</v>
+      </c>
+      <c r="C321" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="J321" s="36"/>
+      <c r="K321" s="36"/>
+      <c r="L321" s="39"/>
+      <c r="M321" s="36"/>
+      <c r="O321" s="36"/>
+      <c r="AH321">
+        <v>17.5</v>
+      </c>
+      <c r="AI321">
+        <v>27.5</v>
+      </c>
+      <c r="AJ321">
+        <v>23</v>
+      </c>
+      <c r="AK321">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:37">
+      <c r="A322" t="s">
+        <v>300</v>
+      </c>
+      <c r="B322" t="s">
+        <v>301</v>
+      </c>
+      <c r="C322" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D322">
+        <v>33</v>
+      </c>
+      <c r="H322" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="J322" s="36"/>
+      <c r="K322" s="36"/>
+      <c r="L322" s="39"/>
+      <c r="M322" s="36"/>
+      <c r="O322" s="36"/>
+    </row>
+    <row r="323" spans="1:37">
+      <c r="A323" t="s">
+        <v>300</v>
+      </c>
+      <c r="B323" t="s">
+        <v>301</v>
+      </c>
+      <c r="C323" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D323">
+        <v>46</v>
+      </c>
+      <c r="H323" s="38">
+        <v>1.32</v>
+      </c>
+      <c r="J323" s="36"/>
+      <c r="K323" s="36"/>
+      <c r="L323" s="39"/>
+      <c r="M323" s="36"/>
+      <c r="O323" s="36"/>
+    </row>
+    <row r="324" spans="1:37">
+      <c r="A324" t="s">
+        <v>300</v>
+      </c>
+      <c r="B324" t="s">
+        <v>301</v>
+      </c>
+      <c r="C324" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D324">
+        <v>54</v>
+      </c>
+      <c r="J324" s="36"/>
+      <c r="K324" s="36"/>
+      <c r="L324" s="39"/>
+      <c r="M324" s="36"/>
+      <c r="O324" s="36"/>
+    </row>
+    <row r="325" spans="1:37">
+      <c r="A325" t="s">
+        <v>300</v>
+      </c>
+      <c r="B325" t="s">
+        <v>301</v>
+      </c>
+      <c r="C325" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D325" s="39">
+        <v>57</v>
+      </c>
+      <c r="F325">
+        <v>2150</v>
+      </c>
+      <c r="J325" s="36"/>
+      <c r="K325" s="36"/>
+      <c r="L325" s="39"/>
+      <c r="M325" s="36"/>
+      <c r="O325" s="36"/>
+    </row>
+    <row r="326" spans="1:37">
+      <c r="A326" t="s">
+        <v>300</v>
+      </c>
+      <c r="B326" t="s">
+        <v>301</v>
+      </c>
+      <c r="C326" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D326">
+        <v>62</v>
+      </c>
+      <c r="H326" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J326" s="36"/>
+      <c r="K326" s="36"/>
+      <c r="L326" s="39"/>
+      <c r="M326" s="36"/>
+      <c r="O326" s="36"/>
+    </row>
+    <row r="327" spans="1:37">
+      <c r="A327" t="s">
+        <v>300</v>
+      </c>
+      <c r="B327" t="s">
+        <v>301</v>
+      </c>
+      <c r="C327" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D327">
+        <v>70</v>
+      </c>
+      <c r="H327" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J327" s="36"/>
+      <c r="K327" s="36"/>
+      <c r="L327" s="39"/>
+      <c r="M327" s="36"/>
+      <c r="O327" s="36"/>
+    </row>
+    <row r="328" spans="1:37">
+      <c r="A328" t="s">
+        <v>300</v>
+      </c>
+      <c r="B328" t="s">
+        <v>301</v>
+      </c>
+      <c r="C328" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D328">
+        <v>88</v>
+      </c>
+      <c r="E328">
+        <v>1110</v>
+      </c>
+      <c r="F328">
+        <v>3000</v>
+      </c>
+      <c r="J328" s="36"/>
+      <c r="K328" s="36"/>
+      <c r="L328" s="39"/>
+      <c r="M328" s="36"/>
+      <c r="O328" s="36"/>
+      <c r="AG328">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="329" spans="1:37">
+      <c r="A329" t="s">
+        <v>300</v>
+      </c>
+      <c r="B329" t="s">
+        <v>302</v>
+      </c>
+      <c r="C329" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="J329" s="36"/>
+      <c r="K329" s="36"/>
+      <c r="L329" s="39"/>
+      <c r="M329" s="36"/>
+      <c r="O329" s="36"/>
+      <c r="AH329">
+        <v>21</v>
+      </c>
+      <c r="AI329">
+        <v>30</v>
+      </c>
+      <c r="AJ329">
+        <v>22.5</v>
+      </c>
+      <c r="AK329">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:37">
+      <c r="A330" t="s">
+        <v>300</v>
+      </c>
+      <c r="B330" t="s">
+        <v>302</v>
+      </c>
+      <c r="C330" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D330">
+        <v>33</v>
+      </c>
+      <c r="H330" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="J330" s="36"/>
+      <c r="K330" s="36"/>
+      <c r="L330" s="39"/>
+      <c r="M330" s="36"/>
+      <c r="O330" s="36"/>
+    </row>
+    <row r="331" spans="1:37">
+      <c r="A331" t="s">
+        <v>300</v>
+      </c>
+      <c r="B331" t="s">
+        <v>302</v>
+      </c>
+      <c r="C331" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D331">
+        <v>46</v>
+      </c>
+      <c r="H331" s="38">
+        <v>1.32</v>
+      </c>
+      <c r="J331" s="36"/>
+      <c r="K331" s="36"/>
+      <c r="L331" s="39"/>
+      <c r="M331" s="36"/>
+      <c r="O331" s="36"/>
+    </row>
+    <row r="332" spans="1:37">
+      <c r="A332" t="s">
+        <v>300</v>
+      </c>
+      <c r="B332" t="s">
+        <v>302</v>
+      </c>
+      <c r="C332" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D332">
+        <v>54</v>
+      </c>
+      <c r="J332" s="36"/>
+      <c r="K332" s="36"/>
+      <c r="L332" s="39"/>
+      <c r="M332" s="36"/>
+      <c r="O332" s="36"/>
+    </row>
+    <row r="333" spans="1:37">
+      <c r="A333" t="s">
+        <v>300</v>
+      </c>
+      <c r="B333" t="s">
+        <v>302</v>
+      </c>
+      <c r="C333" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D333" s="39">
+        <v>57</v>
+      </c>
+      <c r="F333">
+        <v>2100</v>
+      </c>
+      <c r="J333" s="36"/>
+      <c r="K333" s="36"/>
+      <c r="L333" s="39"/>
+      <c r="M333" s="36"/>
+      <c r="O333" s="36"/>
+    </row>
+    <row r="334" spans="1:37">
+      <c r="A334" t="s">
+        <v>300</v>
+      </c>
+      <c r="B334" t="s">
+        <v>302</v>
+      </c>
+      <c r="C334" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D334">
+        <v>62</v>
+      </c>
+      <c r="H334" s="38">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J334" s="36"/>
+      <c r="K334" s="36"/>
+      <c r="L334" s="39"/>
+      <c r="M334" s="36"/>
+      <c r="O334" s="36"/>
+    </row>
+    <row r="335" spans="1:37">
+      <c r="A335" t="s">
+        <v>300</v>
+      </c>
+      <c r="B335" t="s">
+        <v>302</v>
+      </c>
+      <c r="C335" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D335">
+        <v>70</v>
+      </c>
+      <c r="H335" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J335" s="36"/>
+      <c r="K335" s="36"/>
+      <c r="L335" s="39"/>
+      <c r="M335" s="36"/>
+      <c r="O335" s="36"/>
+    </row>
+    <row r="336" spans="1:37">
+      <c r="A336" t="s">
+        <v>300</v>
+      </c>
+      <c r="B336" t="s">
+        <v>302</v>
+      </c>
+      <c r="C336" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D336">
+        <v>88</v>
+      </c>
+      <c r="E336">
+        <v>980</v>
+      </c>
+      <c r="F336">
+        <v>2700</v>
+      </c>
+      <c r="J336" s="36"/>
+      <c r="K336" s="36"/>
+      <c r="L336" s="39"/>
+      <c r="M336" s="36"/>
+      <c r="O336" s="36"/>
+      <c r="AG336">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="337" spans="1:37">
+      <c r="A337" t="s">
+        <v>300</v>
+      </c>
+      <c r="B337" t="s">
+        <v>298</v>
+      </c>
+      <c r="C337" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="K337" s="36"/>
+      <c r="L337" s="39"/>
+      <c r="M337" s="36"/>
+      <c r="O337" s="36"/>
+      <c r="AH337">
+        <v>25</v>
+      </c>
+      <c r="AI337">
+        <v>23.5</v>
+      </c>
+      <c r="AJ337">
+        <v>25</v>
+      </c>
+      <c r="AK337">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:37">
+      <c r="A338" t="s">
+        <v>300</v>
+      </c>
+      <c r="B338" t="s">
+        <v>298</v>
+      </c>
+      <c r="C338" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D338">
+        <v>33</v>
+      </c>
+      <c r="H338" s="38">
+        <v>1.05</v>
+      </c>
+      <c r="J338" s="36"/>
+      <c r="K338" s="36"/>
+      <c r="L338" s="39"/>
+      <c r="M338" s="36"/>
+      <c r="O338" s="36"/>
+    </row>
+    <row r="339" spans="1:37">
+      <c r="A339" t="s">
+        <v>300</v>
+      </c>
+      <c r="B339" t="s">
+        <v>298</v>
+      </c>
+      <c r="C339" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D339">
+        <v>46</v>
+      </c>
+      <c r="H339" s="38">
+        <v>1.32</v>
+      </c>
+      <c r="J339" s="36"/>
+      <c r="K339" s="36"/>
+      <c r="L339" s="39"/>
+      <c r="M339" s="36"/>
+      <c r="O339" s="36"/>
+    </row>
+    <row r="340" spans="1:37">
+      <c r="A340" t="s">
+        <v>300</v>
+      </c>
+      <c r="B340" t="s">
+        <v>298</v>
+      </c>
+      <c r="C340" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D340">
+        <v>54</v>
+      </c>
+      <c r="J340" s="36"/>
+      <c r="K340" s="36"/>
+      <c r="L340" s="39"/>
+      <c r="M340" s="36"/>
+      <c r="O340" s="36"/>
+    </row>
+    <row r="341" spans="1:37">
+      <c r="A341" t="s">
+        <v>300</v>
+      </c>
+      <c r="B341" t="s">
+        <v>298</v>
+      </c>
+      <c r="C341" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D341" s="39">
+        <v>57</v>
+      </c>
+      <c r="F341">
+        <v>1850</v>
+      </c>
+      <c r="J341" s="36"/>
+      <c r="K341" s="36"/>
+      <c r="L341" s="39"/>
+      <c r="M341" s="36"/>
+      <c r="O341" s="36"/>
+    </row>
+    <row r="342" spans="1:37">
+      <c r="A342" t="s">
+        <v>300</v>
+      </c>
+      <c r="B342" t="s">
+        <v>298</v>
+      </c>
+      <c r="C342" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D342">
+        <v>62</v>
+      </c>
+      <c r="H342" s="38">
+        <v>1.35</v>
+      </c>
+      <c r="J342" s="36"/>
+      <c r="K342" s="36"/>
+      <c r="L342" s="39"/>
+      <c r="M342" s="36"/>
+      <c r="O342" s="36"/>
+    </row>
+    <row r="343" spans="1:37">
+      <c r="A343" t="s">
+        <v>300</v>
+      </c>
+      <c r="B343" t="s">
+        <v>298</v>
+      </c>
+      <c r="C343" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D343">
+        <v>70</v>
+      </c>
+      <c r="H343" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J343" s="36"/>
+      <c r="K343" s="36"/>
+      <c r="L343" s="39"/>
+      <c r="M343" s="36"/>
+      <c r="O343" s="36"/>
+    </row>
+    <row r="344" spans="1:37">
+      <c r="A344" t="s">
+        <v>300</v>
+      </c>
+      <c r="B344" t="s">
+        <v>298</v>
+      </c>
+      <c r="C344" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D344">
+        <v>88</v>
+      </c>
+      <c r="E344">
+        <v>1110</v>
+      </c>
+      <c r="F344">
+        <v>3000</v>
+      </c>
+      <c r="K344" s="36"/>
+      <c r="L344" s="39"/>
+      <c r="M344" s="36"/>
+      <c r="O344" s="36"/>
+      <c r="AG344">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="345" spans="1:37">
+      <c r="A345" t="s">
+        <v>300</v>
+      </c>
+      <c r="B345" t="s">
+        <v>299</v>
+      </c>
+      <c r="C345" s="36">
+        <v>43462</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="K345" s="39"/>
+      <c r="L345" s="36"/>
+      <c r="M345" s="36"/>
+      <c r="O345" s="36"/>
+      <c r="AH345">
+        <v>16</v>
+      </c>
+      <c r="AI345">
+        <v>29</v>
+      </c>
+      <c r="AJ345">
+        <v>22</v>
+      </c>
+      <c r="AK345">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:37">
+      <c r="A346" t="s">
+        <v>300</v>
+      </c>
+      <c r="B346" t="s">
+        <v>299</v>
+      </c>
+      <c r="C346" s="36">
+        <v>43494</v>
+      </c>
+      <c r="D346">
+        <v>33</v>
+      </c>
+      <c r="H346" s="38">
+        <v>1.19</v>
+      </c>
+      <c r="J346" s="36"/>
+      <c r="K346" s="39"/>
+      <c r="L346" s="36"/>
+      <c r="M346" s="36"/>
+      <c r="O346" s="36"/>
+    </row>
+    <row r="347" spans="1:37">
+      <c r="A347" t="s">
+        <v>300</v>
+      </c>
+      <c r="B347" t="s">
+        <v>299</v>
+      </c>
+      <c r="C347" s="36">
+        <v>43507</v>
+      </c>
+      <c r="D347">
+        <v>46</v>
+      </c>
+      <c r="H347" s="38">
+        <v>1.4</v>
+      </c>
+      <c r="J347" s="36"/>
+      <c r="K347" s="39"/>
+      <c r="L347" s="36"/>
+      <c r="M347" s="36"/>
+      <c r="O347" s="36"/>
+    </row>
+    <row r="348" spans="1:37">
+      <c r="A348" t="s">
+        <v>300</v>
+      </c>
+      <c r="B348" t="s">
+        <v>299</v>
+      </c>
+      <c r="C348" s="36">
+        <v>43515</v>
+      </c>
+      <c r="D348">
+        <v>54</v>
+      </c>
+      <c r="H348" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J348" s="36"/>
+      <c r="K348" s="39"/>
+      <c r="L348" s="36"/>
+      <c r="M348" s="36"/>
+      <c r="O348" s="36"/>
+    </row>
+    <row r="349" spans="1:37">
+      <c r="A349" t="s">
+        <v>300</v>
+      </c>
+      <c r="B349" t="s">
+        <v>299</v>
+      </c>
+      <c r="C349" s="36">
+        <v>43509</v>
+      </c>
+      <c r="D349" s="39">
+        <v>57</v>
+      </c>
+      <c r="F349">
+        <v>1900</v>
+      </c>
+      <c r="K349" s="39"/>
+      <c r="L349" s="36"/>
+      <c r="M349" s="36"/>
+      <c r="O349" s="36"/>
+    </row>
+    <row r="350" spans="1:37">
+      <c r="A350" t="s">
+        <v>300</v>
+      </c>
+      <c r="B350" t="s">
+        <v>299</v>
+      </c>
+      <c r="C350" s="36">
+        <v>43523</v>
+      </c>
+      <c r="D350">
+        <v>62</v>
+      </c>
+      <c r="H350" s="38">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J350" s="36"/>
+      <c r="K350" s="39"/>
+      <c r="L350" s="36"/>
+      <c r="M350" s="36"/>
+      <c r="O350" s="36"/>
+    </row>
+    <row r="351" spans="1:37">
+      <c r="A351" t="s">
+        <v>300</v>
+      </c>
+      <c r="B351" t="s">
+        <v>299</v>
+      </c>
+      <c r="C351" s="36">
+        <v>43531</v>
+      </c>
+      <c r="D351">
+        <v>70</v>
+      </c>
+      <c r="H351" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="J351" s="36"/>
+      <c r="K351" s="39"/>
+      <c r="L351" s="36"/>
+      <c r="M351" s="36"/>
+      <c r="O351" s="36"/>
+    </row>
+    <row r="352" spans="1:37">
+      <c r="A352" t="s">
+        <v>300</v>
+      </c>
+      <c r="B352" t="s">
+        <v>299</v>
+      </c>
+      <c r="C352" s="36">
+        <v>43549</v>
+      </c>
+      <c r="D352">
+        <v>88</v>
+      </c>
+      <c r="E352">
+        <v>1180</v>
+      </c>
+      <c r="F352">
+        <v>3200</v>
+      </c>
+      <c r="K352" s="39"/>
+      <c r="L352" s="36"/>
+      <c r="M352" s="36"/>
+      <c r="O352" s="36"/>
+      <c r="AG352">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15">
+      <c r="A353" t="s">
+        <v>109</v>
+      </c>
+      <c r="B353" t="s">
+        <v>290</v>
+      </c>
+      <c r="C353" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="K353" s="39"/>
+      <c r="L353" s="36"/>
+      <c r="M353" s="36"/>
+      <c r="O353" s="36"/>
+    </row>
+    <row r="354" spans="1:15">
+      <c r="B354" t="s">
+        <v>290</v>
+      </c>
+      <c r="C354" s="36">
+        <v>43566</v>
+      </c>
+      <c r="D354">
+        <v>44.5</v>
+      </c>
+      <c r="F354">
+        <v>1900</v>
+      </c>
+      <c r="K354" s="39"/>
+      <c r="L354" s="36"/>
+      <c r="M354" s="36"/>
+      <c r="O354" s="36"/>
+    </row>
+    <row r="355" spans="1:15">
+      <c r="B355" t="s">
+        <v>290</v>
+      </c>
+      <c r="C355" s="36">
+        <v>43607</v>
+      </c>
+      <c r="D355">
+        <v>86</v>
+      </c>
+      <c r="G355">
+        <v>2300</v>
+      </c>
+      <c r="K355" s="39"/>
+      <c r="L355" s="36"/>
+      <c r="M355" s="36"/>
+      <c r="O355" s="36"/>
+    </row>
+    <row r="356" spans="1:15">
+      <c r="B356" t="s">
+        <v>291</v>
+      </c>
+      <c r="C356" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="K356" s="39"/>
+      <c r="L356" s="36"/>
+      <c r="M356" s="36"/>
+      <c r="O356" s="36"/>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="B357" t="s">
+        <v>291</v>
+      </c>
+      <c r="C357" s="36">
+        <v>43566</v>
+      </c>
+      <c r="D357">
+        <v>44.5</v>
+      </c>
+      <c r="K357" s="39"/>
+      <c r="L357" s="36"/>
+      <c r="M357" s="36"/>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="B358" t="s">
+        <v>291</v>
+      </c>
+      <c r="C358" s="36">
+        <v>43607</v>
+      </c>
+      <c r="D358">
+        <v>86</v>
+      </c>
+      <c r="K358" s="39"/>
+      <c r="L358" s="36"/>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="B359" t="s">
+        <v>292</v>
+      </c>
+      <c r="C359" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="K359" s="39"/>
+      <c r="L359" s="36"/>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="B360" t="s">
+        <v>292</v>
+      </c>
+      <c r="C360" s="36">
+        <v>43567</v>
+      </c>
+      <c r="D360">
+        <v>46</v>
+      </c>
+      <c r="F360">
+        <v>1750</v>
+      </c>
+      <c r="K360" s="39"/>
+      <c r="L360" s="36"/>
+    </row>
+    <row r="361" spans="1:15">
+      <c r="B361" t="s">
+        <v>292</v>
+      </c>
+      <c r="C361" s="36">
+        <v>43613</v>
+      </c>
+      <c r="D361">
+        <v>91.5</v>
+      </c>
+      <c r="G361">
+        <v>2300</v>
+      </c>
+      <c r="K361" s="39"/>
+      <c r="L361" s="36"/>
+    </row>
+    <row r="362" spans="1:15">
+      <c r="B362" t="s">
+        <v>293</v>
+      </c>
+      <c r="C362" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="K362" s="39"/>
+      <c r="L362" s="36"/>
+    </row>
+    <row r="363" spans="1:15">
+      <c r="B363" t="s">
+        <v>293</v>
+      </c>
+      <c r="C363" s="36">
+        <v>43567</v>
+      </c>
+      <c r="D363">
+        <v>46</v>
+      </c>
+      <c r="K363" s="39"/>
+      <c r="L363" s="36"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="B364" t="s">
+        <v>293</v>
+      </c>
+      <c r="C364" s="36">
+        <v>43613</v>
+      </c>
+      <c r="D364">
+        <v>91.5</v>
+      </c>
+      <c r="K364" s="39"/>
+      <c r="L364" s="36"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="B365" t="s">
+        <v>294</v>
+      </c>
+      <c r="C365" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="K365" s="39"/>
+      <c r="L365" s="36"/>
+    </row>
+    <row r="366" spans="1:15">
+      <c r="B366" t="s">
+        <v>294</v>
+      </c>
+      <c r="C366" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D366">
+        <v>47</v>
+      </c>
+      <c r="F366">
+        <v>1900</v>
+      </c>
+      <c r="K366" s="39"/>
+      <c r="L366" s="36"/>
+    </row>
+    <row r="367" spans="1:15">
+      <c r="B367" t="s">
+        <v>294</v>
+      </c>
+      <c r="C367" s="36">
+        <v>43613</v>
+      </c>
+      <c r="D367">
+        <v>91.5</v>
+      </c>
+      <c r="G367">
+        <v>2150</v>
+      </c>
+      <c r="K367" s="39"/>
+      <c r="L367" s="36"/>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="B368" t="s">
+        <v>295</v>
+      </c>
+      <c r="C368" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="K368" s="39"/>
+      <c r="L368" s="36"/>
+    </row>
+    <row r="369" spans="2:12">
+      <c r="B369" t="s">
+        <v>295</v>
+      </c>
+      <c r="C369" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D369">
+        <v>47</v>
+      </c>
+      <c r="K369" s="39"/>
+      <c r="L369" s="36"/>
+    </row>
+    <row r="370" spans="2:12">
+      <c r="B370" t="s">
+        <v>295</v>
+      </c>
+      <c r="C370" s="36">
+        <v>43613</v>
+      </c>
+      <c r="D370">
+        <v>91.5</v>
+      </c>
+      <c r="K370" s="39"/>
+      <c r="L370" s="36"/>
+    </row>
+    <row r="371" spans="2:12">
+      <c r="B371" t="s">
+        <v>306</v>
+      </c>
+      <c r="C371" s="36"/>
+      <c r="K371" s="39"/>
+      <c r="L371" s="36"/>
+    </row>
+    <row r="372" spans="2:12">
+      <c r="B372" t="s">
+        <v>306</v>
+      </c>
+      <c r="K372" s="39"/>
+      <c r="L372" s="36"/>
+    </row>
+    <row r="373" spans="2:12">
+      <c r="B373" t="s">
+        <v>306</v>
+      </c>
+      <c r="K373" s="39"/>
+      <c r="L373" s="36"/>
+    </row>
+    <row r="374" spans="2:12">
+      <c r="B374" t="s">
+        <v>307</v>
+      </c>
+      <c r="K374" s="39"/>
+      <c r="L374" s="36"/>
+    </row>
+    <row r="375" spans="2:12">
+      <c r="B375" t="s">
+        <v>307</v>
+      </c>
+      <c r="K375" s="39"/>
+      <c r="L375" s="36"/>
+    </row>
+    <row r="376" spans="2:12">
+      <c r="B376" t="s">
+        <v>307</v>
+      </c>
+      <c r="K376" s="39"/>
+      <c r="L376" s="36"/>
+    </row>
+    <row r="377" spans="2:12">
+      <c r="B377" t="s">
+        <v>301</v>
+      </c>
+      <c r="C377" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="K377" s="39"/>
+      <c r="L377" s="36"/>
+    </row>
+    <row r="378" spans="2:12">
+      <c r="B378" t="s">
+        <v>301</v>
+      </c>
+      <c r="C378" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D378">
+        <v>46.5</v>
+      </c>
+      <c r="F378">
+        <v>1950</v>
+      </c>
+      <c r="K378" s="39"/>
+      <c r="L378" s="36"/>
+    </row>
+    <row r="379" spans="2:12">
+      <c r="B379" t="s">
+        <v>301</v>
+      </c>
+      <c r="C379" s="36">
+        <v>43604</v>
+      </c>
+      <c r="D379">
+        <v>82.5</v>
+      </c>
+      <c r="G379">
+        <v>2200</v>
+      </c>
+      <c r="K379" s="39"/>
+      <c r="L379" s="36"/>
+    </row>
+    <row r="380" spans="2:12">
+      <c r="B380" t="s">
+        <v>302</v>
+      </c>
+      <c r="C380" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="K380" s="39"/>
+      <c r="L380" s="36"/>
+    </row>
+    <row r="381" spans="2:12">
+      <c r="B381" t="s">
+        <v>302</v>
+      </c>
+      <c r="C381" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D381">
+        <v>46.5</v>
+      </c>
+      <c r="K381" s="39"/>
+      <c r="L381" s="36"/>
+    </row>
+    <row r="382" spans="2:12">
+      <c r="B382" t="s">
+        <v>302</v>
+      </c>
+      <c r="C382" s="36">
+        <v>43604</v>
+      </c>
+      <c r="D382">
+        <v>82.5</v>
+      </c>
+      <c r="K382" s="39"/>
+      <c r="L382" s="36"/>
+    </row>
+    <row r="383" spans="2:12">
+      <c r="B383" t="s">
+        <v>298</v>
+      </c>
+      <c r="C383" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="K383" s="39"/>
+      <c r="L383" s="36"/>
+    </row>
+    <row r="384" spans="2:12">
+      <c r="B384" t="s">
+        <v>298</v>
+      </c>
+      <c r="C384" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D384">
+        <v>46.5</v>
+      </c>
+      <c r="F384">
+        <v>1750</v>
+      </c>
+      <c r="K384" s="39"/>
+      <c r="L384" s="36"/>
+    </row>
+    <row r="385" spans="2:12">
+      <c r="B385" t="s">
+        <v>298</v>
+      </c>
+      <c r="C385" s="36">
+        <v>43609</v>
+      </c>
+      <c r="D385">
+        <v>88</v>
+      </c>
+      <c r="G385">
+        <v>2200</v>
+      </c>
+      <c r="K385" s="39"/>
+      <c r="L385" s="36"/>
+    </row>
+    <row r="386" spans="2:12">
+      <c r="B386" t="s">
+        <v>299</v>
+      </c>
+      <c r="C386" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="K386" s="39"/>
+      <c r="L386" s="36"/>
+    </row>
+    <row r="387" spans="2:12">
+      <c r="B387" t="s">
+        <v>299</v>
+      </c>
+      <c r="C387" s="36">
+        <v>43568</v>
+      </c>
+      <c r="D387">
+        <v>46.5</v>
+      </c>
+      <c r="K387" s="39"/>
+      <c r="L387" s="36"/>
+    </row>
+    <row r="388" spans="2:12">
+      <c r="B388" t="s">
+        <v>299</v>
+      </c>
+      <c r="C388" s="36">
+        <v>43609</v>
+      </c>
+      <c r="D388">
+        <v>88</v>
+      </c>
+      <c r="K388" s="39"/>
+      <c r="L388" s="36"/>
+    </row>
+    <row r="389" spans="2:12">
+      <c r="B389" t="s">
+        <v>303</v>
+      </c>
+      <c r="C389" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="K389" s="39"/>
+      <c r="L389" s="36"/>
+    </row>
+    <row r="390" spans="2:12">
+      <c r="B390" t="s">
+        <v>303</v>
+      </c>
+      <c r="C390" s="36">
+        <v>43566</v>
+      </c>
+      <c r="D390">
+        <v>44.5</v>
+      </c>
+      <c r="F390">
+        <v>2000</v>
+      </c>
+      <c r="K390" s="39"/>
+      <c r="L390" s="36"/>
+    </row>
+    <row r="391" spans="2:12">
+      <c r="B391" t="s">
+        <v>303</v>
+      </c>
+      <c r="C391" s="36">
+        <v>43616</v>
+      </c>
+      <c r="D391">
+        <v>94.5</v>
+      </c>
+      <c r="G391">
+        <v>2450</v>
+      </c>
+      <c r="K391" s="39"/>
+      <c r="L391" s="36"/>
+    </row>
+    <row r="392" spans="2:12">
+      <c r="B392" t="s">
+        <v>304</v>
+      </c>
+      <c r="C392" s="36">
+        <v>43521</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="K392" s="39"/>
+      <c r="L392" s="36"/>
+    </row>
+    <row r="393" spans="2:12">
+      <c r="B393" t="s">
+        <v>304</v>
+      </c>
+      <c r="C393" s="36">
+        <v>43566</v>
+      </c>
+      <c r="D393">
+        <v>44.5</v>
+      </c>
+      <c r="K393" s="39"/>
+      <c r="L393" s="36"/>
+    </row>
+    <row r="394" spans="2:12">
+      <c r="B394" t="s">
+        <v>304</v>
+      </c>
+      <c r="C394" s="36">
+        <v>43616</v>
+      </c>
+      <c r="D394">
+        <v>94.5</v>
+      </c>
+      <c r="K394" s="39"/>
+      <c r="L394" s="36"/>
+    </row>
+    <row r="395" spans="2:12">
+      <c r="K395" s="39"/>
+      <c r="L395" s="36"/>
+    </row>
+    <row r="396" spans="2:12">
+      <c r="K396" s="39"/>
+      <c r="L396" s="36"/>
+    </row>
+    <row r="397" spans="2:12">
+      <c r="K397" s="39"/>
+      <c r="L397" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13989,12 +18325,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -14166,6 +18496,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
   <ds:schemaRefs>
@@ -14175,15 +18511,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14199,4 +18526,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678A2A3E-E262-4B87-886B-8B0316FCB142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C1A03-0CF8-47F9-9068-6C2F76322F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="GenLit for Validation" sheetId="3" r:id="rId3"/>
-    <sheet name="Old Validation" sheetId="4" r:id="rId4"/>
-    <sheet name="DAF for Validation" sheetId="5" r:id="rId5"/>
+    <sheet name="OldValidation" sheetId="4" r:id="rId4"/>
+    <sheet name="DAF" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="357">
   <si>
     <t>SimulationName</t>
   </si>
@@ -726,33 +726,6 @@
     <t>Soybean.Phenology.MaturityDAS</t>
   </si>
   <si>
-    <t>Irr_Dec4Emerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec4Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>RF_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec31Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec18Emerald</t>
-  </si>
-  <si>
-    <t>RO_Dec4Emerald</t>
-  </si>
-  <si>
     <t>ACRI</t>
   </si>
   <si>
@@ -771,102 +744,6 @@
     <t>Soybean.Nodule.Nfixed</t>
   </si>
   <si>
-    <t>0N_inoc_Opal_rf</t>
-  </si>
-  <si>
-    <t>0N_Jade_rf</t>
-  </si>
-  <si>
-    <t>0N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>30N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>60N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>90N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>120N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>150N_inoc_Jade_rf</t>
-  </si>
-  <si>
-    <t>0N_inoc_Opal_irr</t>
-  </si>
-  <si>
-    <t>0N_Jade_irr</t>
-  </si>
-  <si>
-    <t>0N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>30N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>60N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>90N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>120N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>150N_inoc_Jade_irr</t>
-  </si>
-  <si>
-    <t>0N_rf</t>
-  </si>
-  <si>
-    <t>0N_inoc_rf</t>
-  </si>
-  <si>
-    <t>0N_doubstarter_rf</t>
-  </si>
-  <si>
-    <t>30N_rf</t>
-  </si>
-  <si>
-    <t>60N_rf</t>
-  </si>
-  <si>
-    <t>90N_rf</t>
-  </si>
-  <si>
-    <t>120N_rf</t>
-  </si>
-  <si>
-    <t>150N_rf</t>
-  </si>
-  <si>
-    <t>0N_irr</t>
-  </si>
-  <si>
-    <t>0N_inoc_irr</t>
-  </si>
-  <si>
-    <t>0N_doubstarter_irr</t>
-  </si>
-  <si>
-    <t>30N_irr</t>
-  </si>
-  <si>
-    <t>60N_irr</t>
-  </si>
-  <si>
-    <t>90N_irr</t>
-  </si>
-  <si>
-    <t>120N_irr</t>
-  </si>
-  <si>
-    <t>150N_irr</t>
-  </si>
-  <si>
     <t>Soybean.Leaf.Height</t>
   </si>
   <si>
@@ -900,70 +777,337 @@
     <t>HoplandSummer</t>
   </si>
   <si>
-    <t>0N_inoc_opal_rf</t>
-  </si>
-  <si>
-    <t>0N_inoc_opal_irr</t>
-  </si>
-  <si>
     <t>Breeza</t>
   </si>
   <si>
-    <t>0N</t>
-  </si>
-  <si>
-    <t>0N_inoc</t>
-  </si>
-  <si>
-    <t>FallowNshallow</t>
-  </si>
-  <si>
-    <t>FallowNshallow_inoc</t>
-  </si>
-  <si>
-    <t>FallowNdeep</t>
-  </si>
-  <si>
-    <t>FallowNdeep_inoc</t>
-  </si>
-  <si>
-    <t>SplitN</t>
-  </si>
-  <si>
-    <t>SplitN_inoc</t>
-  </si>
-  <si>
-    <t>PlantN</t>
-  </si>
-  <si>
-    <t>PlantN_inoc</t>
-  </si>
-  <si>
     <t>Irvingdale</t>
   </si>
   <si>
-    <t>FallowPlantSplitN</t>
-  </si>
-  <si>
-    <t>FallowPlantSplitN_inoc</t>
-  </si>
-  <si>
-    <t>PlantSideSplitN</t>
-  </si>
-  <si>
-    <t>PlantSideSplitN_inoc</t>
-  </si>
-  <si>
     <t>Soybean.Veg</t>
   </si>
   <si>
-    <t>FallowNDeepShallow</t>
-  </si>
-  <si>
-    <t>FallowNDeepShallow_inoc</t>
-  </si>
-  <si>
     <t>SoilN_90_120cm</t>
+  </si>
+  <si>
+    <t>Soybean.Leaf.SpecificArea</t>
+  </si>
+  <si>
+    <t>Irr_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>Irr_Dec31SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>RF_Dec31SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec4SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec18SowEmerald</t>
+  </si>
+  <si>
+    <t>RO_Dec31SowEmerald</t>
+  </si>
+  <si>
+    <t>ACRIN0N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN0N_Jade_irr</t>
+  </si>
+  <si>
+    <t>ACRIN0N_Opal_rf</t>
+  </si>
+  <si>
+    <t>ACRIN30N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN60N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN90N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN120N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN150N_Jade_rf</t>
+  </si>
+  <si>
+    <t>ACRIN0N_Opal_irr</t>
+  </si>
+  <si>
+    <t>ACRIN30N_Jade_irr</t>
+  </si>
+  <si>
+    <t>ACRIN60N_Jade_irr</t>
+  </si>
+  <si>
+    <t>ACRIN90N_Jade_irr</t>
+  </si>
+  <si>
+    <t>ACRIN120N_Jade_irr</t>
+  </si>
+  <si>
+    <t>ACRIN150N_Jade_irr</t>
+  </si>
+  <si>
+    <t>BreezaN0N</t>
+  </si>
+  <si>
+    <t>BreezaN0N_inoc</t>
+  </si>
+  <si>
+    <t>BreezaNFallowNshallow</t>
+  </si>
+  <si>
+    <t>BreezaNFallowNshallow_inoc</t>
+  </si>
+  <si>
+    <t>BreezaNFallowNdeep</t>
+  </si>
+  <si>
+    <t>BreezaNFallowNdeep_inoc</t>
+  </si>
+  <si>
+    <t>BreezaNSplitN</t>
+  </si>
+  <si>
+    <t>BreezaNSplitN_inoc</t>
+  </si>
+  <si>
+    <t>BreezaNPlantN</t>
+  </si>
+  <si>
+    <t>BreezaNPlantN_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_inoc_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_doubstarter_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N120N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N150N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N30N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N60N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N90N_rf</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_inoc_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N0N_doubstarter_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N30N_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N60N_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N90N_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N120N_irr</t>
+  </si>
+  <si>
+    <t>Emerald2020N150N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_inoc_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_doubstarter_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN30N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN60N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN90N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN120N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN150N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_inoc_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN0N_doubstarter_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN30N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN60N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN90N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN120N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSpringN150N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_inoc_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_inoc_opal_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN30N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN60N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN90N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN120N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN150N_rf</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_inoc_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN0N_inoc_opal_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN30N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN60N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN90N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN120N_irr</t>
+  </si>
+  <si>
+    <t>HopelandSummerN150N_irr</t>
+  </si>
+  <si>
+    <t>IrvingdaleN0N</t>
+  </si>
+  <si>
+    <t>IrvingdaleN0N_inoc</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowNshallow</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowNshallow_inoc</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowNdeep</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowNdeep_inoc</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowPlantSplitN</t>
+  </si>
+  <si>
+    <t>IrvingdaleNFallowPlantSplitN_inoc</t>
+  </si>
+  <si>
+    <t>IrvingdaleNPlantN</t>
+  </si>
+  <si>
+    <t>IrvingdaleNPlantN_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019N0N</t>
+  </si>
+  <si>
+    <t>Emerald2019N0N_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNshallow</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNshallow_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNdeep</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNdeep_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNDeepShallow</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowNDeepShallow_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowPlantSplitN</t>
+  </si>
+  <si>
+    <t>Emerald2019NFallowPlantSplitN_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NPlantN</t>
+  </si>
+  <si>
+    <t>Emerald2019NPlantN_inoc</t>
+  </si>
+  <si>
+    <t>Emerald2019NPlantSideSEmerald2019NPlitN</t>
+  </si>
+  <si>
+    <t>Emerald2019NPlantSideSEmerald2019NPlitN_inoc</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.HarvestIndex</t>
   </si>
 </sst>
 </file>
@@ -4652,14 +4796,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="27" style="22" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="22" customWidth="1"/>
+    <col min="2" max="3" width="27" style="22" customWidth="1"/>
     <col min="4" max="25" width="9.140625" style="22"/>
     <col min="26" max="26" width="15.7109375" style="22" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="22"/>
@@ -4700,7 +4845,7 @@
         <v>217</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>218</v>
@@ -4778,8 +4923,8 @@
         <v>0.46687582228519381</v>
       </c>
       <c r="L2" s="21">
-        <f>G2/H2*10000</f>
-        <v>153.94282123782594</v>
+        <f>G2/H2</f>
+        <v>1.5394282123782594E-2</v>
       </c>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
@@ -4834,8 +4979,9 @@
         <f t="shared" si="0"/>
         <v>0.50987730821663158</v>
       </c>
-      <c r="L3" s="19">
-        <v>158.73015873015873</v>
+      <c r="L3" s="21">
+        <f>G3/H3</f>
+        <v>1.5873015873015872E-2</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19"/>
@@ -4859,12 +5005,10 @@
       <c r="A4" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="23">
-        <v>34288</v>
-      </c>
-      <c r="C4" s="26">
-        <v>20</v>
-      </c>
+      <c r="B4" s="36">
+        <v>34354</v>
+      </c>
+      <c r="C4" s="26"/>
       <c r="D4" s="21">
         <v>77</v>
       </c>
@@ -4907,12 +5051,10 @@
       <c r="A5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="23">
-        <v>34307</v>
-      </c>
-      <c r="C5" s="26">
-        <v>39</v>
-      </c>
+      <c r="B5" s="36">
+        <v>34373</v>
+      </c>
+      <c r="C5" s="26"/>
       <c r="D5" s="21">
         <v>82</v>
       </c>
@@ -4955,12 +5097,10 @@
       <c r="A6" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="23">
-        <v>34324</v>
-      </c>
-      <c r="C6" s="26">
-        <v>56</v>
-      </c>
+      <c r="B6" s="36">
+        <v>34390</v>
+      </c>
+      <c r="C6" s="26"/>
       <c r="D6" s="21">
         <v>73</v>
       </c>
@@ -5003,12 +5143,10 @@
       <c r="A7" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="23">
-        <v>34348</v>
-      </c>
-      <c r="C7" s="26">
-        <v>80</v>
-      </c>
+      <c r="B7" s="36">
+        <v>34414</v>
+      </c>
+      <c r="C7" s="26"/>
       <c r="D7" s="21">
         <v>76</v>
       </c>
@@ -5051,12 +5189,10 @@
       <c r="A8" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="23">
-        <v>34288</v>
-      </c>
-      <c r="C8" s="26">
-        <v>20</v>
-      </c>
+      <c r="B8" s="36">
+        <v>34354</v>
+      </c>
+      <c r="C8" s="26"/>
       <c r="D8" s="21">
         <v>77</v>
       </c>
@@ -5099,12 +5235,10 @@
       <c r="A9" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="23">
-        <v>34307</v>
-      </c>
-      <c r="C9" s="26">
-        <v>39</v>
-      </c>
+      <c r="B9" s="36">
+        <v>34373</v>
+      </c>
+      <c r="C9" s="26"/>
       <c r="D9" s="21">
         <v>82</v>
       </c>
@@ -5147,12 +5281,10 @@
       <c r="A10" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="23">
-        <v>34324</v>
-      </c>
-      <c r="C10" s="26">
-        <v>56</v>
-      </c>
+      <c r="B10" s="36">
+        <v>34390</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="21">
         <v>73</v>
       </c>
@@ -5195,12 +5327,10 @@
       <c r="A11" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="23">
-        <v>34348</v>
-      </c>
-      <c r="C11" s="26">
-        <v>80</v>
-      </c>
+      <c r="B11" s="36">
+        <v>34414</v>
+      </c>
+      <c r="C11" s="26"/>
       <c r="D11" s="21">
         <v>76</v>
       </c>
@@ -5243,12 +5373,10 @@
       <c r="A12" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="23">
-        <v>34358</v>
-      </c>
-      <c r="C12" s="26">
-        <v>90</v>
-      </c>
+      <c r="B12" s="36">
+        <v>34424</v>
+      </c>
+      <c r="C12" s="26"/>
       <c r="D12" s="21">
         <v>73</v>
       </c>
@@ -5291,12 +5419,10 @@
       <c r="A13" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="23">
-        <v>34384</v>
-      </c>
-      <c r="C13" s="26">
-        <v>116</v>
-      </c>
+      <c r="B13" s="36">
+        <v>34450</v>
+      </c>
+      <c r="C13" s="26"/>
       <c r="D13" s="21">
         <v>84</v>
       </c>
@@ -5736,7 +5862,7 @@
         <v>171</v>
       </c>
       <c r="B23" s="23">
-        <v>34407</v>
+        <v>32946</v>
       </c>
       <c r="C23" s="17">
         <v>89</v>
@@ -5780,7 +5906,7 @@
         <v>172</v>
       </c>
       <c r="B24" s="23">
-        <v>34420</v>
+        <v>33324</v>
       </c>
       <c r="C24" s="30">
         <v>102</v>
@@ -5819,7 +5945,7 @@
         <v>173</v>
       </c>
       <c r="B25" s="23">
-        <v>34425</v>
+        <v>33329</v>
       </c>
       <c r="C25" s="30">
         <v>107</v>
@@ -7459,19 +7585,19 @@
         <v>0.30922592748975058</v>
       </c>
       <c r="L69" s="19">
-        <v>43.793369997180861</v>
+        <v>4.3793369997180899E-2</v>
       </c>
       <c r="M69" s="19">
-        <v>2.2275</v>
+        <v>2.2275E-2</v>
       </c>
       <c r="N69" s="19">
-        <v>0.77</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="O69" s="19">
-        <v>4.5225</v>
+        <v>4.5225000000000001E-2</v>
       </c>
       <c r="P69" s="19">
-        <v>0.60250000000000004</v>
+        <v>6.025E-3</v>
       </c>
       <c r="Q69" s="19">
         <v>3.6016558180705838</v>
@@ -7499,7 +7625,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B70" s="35">
         <v>35817</v>
@@ -7530,7 +7656,7 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B71" s="35">
         <v>35845</v>
@@ -7563,7 +7689,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B72" s="35">
         <v>35859</v>
@@ -7596,7 +7722,7 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B73" s="35">
         <v>35873</v>
@@ -7629,7 +7755,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="33" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="B74" s="35">
         <v>35878</v>
@@ -7662,7 +7788,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="33" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B75" s="35">
         <v>35817</v>
@@ -7693,7 +7819,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="33" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B76" s="35">
         <v>35845</v>
@@ -7726,7 +7852,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="33" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B77" s="35">
         <v>35859</v>
@@ -7759,7 +7885,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="33" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B78" s="35">
         <v>35873</v>
@@ -7792,7 +7918,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="33" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B79" s="35">
         <v>35878</v>
@@ -7825,7 +7951,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B80" s="35">
         <v>35817</v>
@@ -7856,7 +7982,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B81" s="35">
         <v>35845</v>
@@ -7889,7 +8015,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B82" s="35">
         <v>35859</v>
@@ -7922,7 +8048,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B83" s="35">
         <v>35873</v>
@@ -7955,7 +8081,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B84" s="35">
         <v>35878</v>
@@ -7986,7 +8112,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="33" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B85" s="35">
         <v>35899</v>
@@ -8019,7 +8145,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="33" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B86" s="35">
         <v>35817</v>
@@ -8050,7 +8176,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="33" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B87" s="35">
         <v>35845</v>
@@ -8083,7 +8209,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="33" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B88" s="35">
         <v>35859</v>
@@ -8116,7 +8242,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="33" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B89" s="35">
         <v>35871</v>
@@ -8149,7 +8275,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="33" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B90" s="35">
         <v>35817</v>
@@ -8180,7 +8306,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="33" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B91" s="35">
         <v>35845</v>
@@ -8213,7 +8339,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="33" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B92" s="35">
         <v>35859</v>
@@ -8246,7 +8372,7 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="33" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B93" s="35">
         <v>35873</v>
@@ -8277,7 +8403,7 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="33" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="B94" s="35">
         <v>35878</v>
@@ -8310,7 +8436,7 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B95" s="35">
         <v>35817</v>
@@ -8341,7 +8467,7 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B96" s="35">
         <v>35845</v>
@@ -8374,7 +8500,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B97" s="35">
         <v>35859</v>
@@ -8407,7 +8533,7 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B98" s="35">
         <v>35873</v>
@@ -8438,7 +8564,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="33" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B99" s="35">
         <v>35878</v>
@@ -8471,7 +8597,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="33" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B100" s="35">
         <v>35817</v>
@@ -8504,7 +8630,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B101" s="35">
         <v>35845</v>
@@ -8537,7 +8663,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="33" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B102" s="35">
         <v>35859</v>
@@ -8570,7 +8696,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="33" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B103" s="35">
         <v>35867</v>
@@ -8603,7 +8729,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B104" s="35">
         <v>35817</v>
@@ -8634,7 +8760,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B105" s="35">
         <v>35845</v>
@@ -8667,7 +8793,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B106" s="35">
         <v>35859</v>
@@ -8700,7 +8826,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B107" s="35">
         <v>35873</v>
@@ -8733,7 +8859,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="33" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B108" s="35">
         <v>35878</v>
@@ -8766,7 +8892,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B109" s="35">
         <v>35817</v>
@@ -8797,7 +8923,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B110" s="35">
         <v>35845</v>
@@ -8830,7 +8956,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B111" s="35">
         <v>35859</v>
@@ -8863,7 +8989,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B112" s="35">
         <v>35873</v>
@@ -8896,7 +9022,7 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="33" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B113" s="35">
         <v>35878</v>
@@ -9199,9 +9325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AFC0C-9ADA-4F34-AF6E-16A8777333E1}">
   <dimension ref="A1:AN416"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S154" sqref="S154"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9210,7 +9336,7 @@
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="14.140625" customWidth="1"/>
@@ -9239,7 +9365,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>213</v>
@@ -9254,7 +9380,7 @@
         <v>216</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>217</v>
+        <v>356</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>8</v>
@@ -9296,57 +9422,57 @@
         <v>228</v>
       </c>
       <c r="Z1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="AA1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AK1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="AH1" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>281</v>
-      </c>
       <c r="AL1" s="21" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AM1" s="37" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AN1" s="21" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C2" s="36">
         <v>43949</v>
@@ -9355,10 +9481,10 @@
         <v>96</v>
       </c>
       <c r="E2">
-        <v>1790</v>
+        <v>179</v>
       </c>
       <c r="F2">
-        <v>5380</v>
+        <v>538</v>
       </c>
       <c r="X2">
         <v>42.3</v>
@@ -9375,10 +9501,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C3" s="36">
         <v>43727</v>
@@ -9392,10 +9518,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C4" s="36">
         <v>43860</v>
@@ -9412,10 +9538,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="C5" s="36">
         <v>43959</v>
@@ -9429,10 +9555,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C6" s="36">
         <v>43949</v>
@@ -9441,10 +9567,10 @@
         <v>96</v>
       </c>
       <c r="E6">
-        <v>1910</v>
+        <v>191</v>
       </c>
       <c r="F6">
-        <v>5150</v>
+        <v>515</v>
       </c>
       <c r="X6">
         <v>41.5</v>
@@ -9461,10 +9587,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C7" s="36">
         <v>43959</v>
@@ -9478,10 +9604,10 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C8" s="36">
         <v>43949</v>
@@ -9490,10 +9616,10 @@
         <v>96</v>
       </c>
       <c r="E8">
-        <v>1820</v>
+        <v>182</v>
       </c>
       <c r="F8">
-        <v>4910</v>
+        <v>491</v>
       </c>
       <c r="X8">
         <v>41.3</v>
@@ -9510,10 +9636,10 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C9" s="36">
         <v>43959</v>
@@ -9527,10 +9653,10 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C10" s="36">
         <v>43949</v>
@@ -9539,10 +9665,10 @@
         <v>96</v>
       </c>
       <c r="E10">
-        <v>1820</v>
+        <v>182</v>
       </c>
       <c r="F10">
-        <v>5430</v>
+        <v>543</v>
       </c>
       <c r="X10">
         <v>41.8</v>
@@ -9559,10 +9685,10 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C11" s="36">
         <v>43959</v>
@@ -9576,10 +9702,10 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C12" s="36">
         <v>43949</v>
@@ -9588,12 +9714,11 @@
         <v>96</v>
       </c>
       <c r="E12">
-        <v>1930</v>
+        <v>193</v>
       </c>
       <c r="F12">
-        <v>5500</v>
-      </c>
-      <c r="J12" s="36"/>
+        <v>550</v>
+      </c>
       <c r="X12">
         <v>41.8</v>
       </c>
@@ -9609,10 +9734,10 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C13" s="36">
         <v>43959</v>
@@ -9627,10 +9752,10 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C14" s="36">
         <v>43949</v>
@@ -9639,12 +9764,11 @@
         <v>96</v>
       </c>
       <c r="E14">
-        <v>1880</v>
+        <v>188</v>
       </c>
       <c r="F14">
-        <v>5640</v>
-      </c>
-      <c r="J14" s="36"/>
+        <v>564</v>
+      </c>
       <c r="X14">
         <v>41.8</v>
       </c>
@@ -9660,10 +9784,10 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C15" s="36">
         <v>43959</v>
@@ -9671,17 +9795,16 @@
       <c r="D15">
         <v>106</v>
       </c>
-      <c r="J15" s="36"/>
       <c r="AF15">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C16" s="36">
         <v>43949</v>
@@ -9690,12 +9813,11 @@
         <v>96</v>
       </c>
       <c r="E16">
-        <v>1950</v>
+        <v>195</v>
       </c>
       <c r="F16">
-        <v>5540</v>
-      </c>
-      <c r="J16" s="36"/>
+        <v>554</v>
+      </c>
       <c r="X16">
         <v>41</v>
       </c>
@@ -9711,10 +9833,10 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C17" s="36">
         <v>43959</v>
@@ -9729,10 +9851,10 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C18" s="36">
         <v>43949</v>
@@ -9741,12 +9863,11 @@
         <v>96</v>
       </c>
       <c r="E18">
-        <v>1970</v>
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>5450</v>
-      </c>
-      <c r="J18" s="36"/>
+        <v>545</v>
+      </c>
       <c r="X18">
         <v>41.8</v>
       </c>
@@ -9762,10 +9883,10 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C19" s="36">
         <v>43959</v>
@@ -9773,17 +9894,16 @@
       <c r="D19">
         <v>106</v>
       </c>
-      <c r="J19" s="36"/>
       <c r="AF19">
         <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C20" s="36">
         <v>43949</v>
@@ -9792,12 +9912,11 @@
         <v>96</v>
       </c>
       <c r="E20">
-        <v>2320</v>
+        <v>232</v>
       </c>
       <c r="F20">
-        <v>6570</v>
-      </c>
-      <c r="J20" s="36"/>
+        <v>657</v>
+      </c>
       <c r="N20" s="36"/>
       <c r="X20">
         <v>41.3</v>
@@ -9814,10 +9933,10 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C21" s="36">
         <v>43959</v>
@@ -9833,10 +9952,10 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C22" s="36">
         <v>43949</v>
@@ -9845,12 +9964,11 @@
         <v>96</v>
       </c>
       <c r="E22">
-        <v>2270</v>
+        <v>227</v>
       </c>
       <c r="F22">
-        <v>6710</v>
-      </c>
-      <c r="J22" s="36"/>
+        <v>671</v>
+      </c>
       <c r="N22" s="36"/>
       <c r="X22">
         <v>41.3</v>
@@ -9867,10 +9985,10 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C23" s="36">
         <v>43959</v>
@@ -9878,7 +9996,6 @@
       <c r="D23">
         <v>106</v>
       </c>
-      <c r="J23" s="36"/>
       <c r="N23" s="36"/>
       <c r="AF23">
         <v>28</v>
@@ -9886,10 +10003,10 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C24" s="36">
         <v>43949</v>
@@ -9898,12 +10015,11 @@
         <v>96</v>
       </c>
       <c r="E24">
-        <v>2220</v>
+        <v>222</v>
       </c>
       <c r="F24">
-        <v>6960</v>
-      </c>
-      <c r="J24" s="36"/>
+        <v>696</v>
+      </c>
       <c r="N24" s="36"/>
       <c r="X24">
         <v>41.8</v>
@@ -9920,10 +10036,10 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C25" s="36">
         <v>43959</v>
@@ -9939,10 +10055,10 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C26" s="36">
         <v>43949</v>
@@ -9951,12 +10067,11 @@
         <v>96</v>
       </c>
       <c r="E26">
-        <v>2230</v>
+        <v>223</v>
       </c>
       <c r="F26">
-        <v>7060</v>
-      </c>
-      <c r="J26" s="36"/>
+        <v>706</v>
+      </c>
       <c r="N26" s="36"/>
       <c r="X26">
         <v>41</v>
@@ -9973,10 +10088,10 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C27" s="36">
         <v>43959</v>
@@ -9984,7 +10099,6 @@
       <c r="D27">
         <v>106</v>
       </c>
-      <c r="J27" s="36"/>
       <c r="N27" s="36"/>
       <c r="AF27">
         <v>22</v>
@@ -9992,10 +10106,10 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C28" s="36">
         <v>43949</v>
@@ -10004,12 +10118,11 @@
         <v>96</v>
       </c>
       <c r="E28">
-        <v>2540</v>
+        <v>254</v>
       </c>
       <c r="F28">
-        <v>7030</v>
-      </c>
-      <c r="J28" s="36"/>
+        <v>703</v>
+      </c>
       <c r="N28" s="36"/>
       <c r="X28">
         <v>41.3</v>
@@ -10026,10 +10139,10 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B29" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C29" s="36">
         <v>43959</v>
@@ -10045,10 +10158,10 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C30" s="36">
         <v>43949</v>
@@ -10057,12 +10170,11 @@
         <v>96</v>
       </c>
       <c r="E30">
-        <v>2430</v>
+        <v>243</v>
       </c>
       <c r="F30">
-        <v>7140</v>
-      </c>
-      <c r="J30" s="36"/>
+        <v>714</v>
+      </c>
       <c r="N30" s="36"/>
       <c r="X30">
         <v>41.3</v>
@@ -10079,10 +10191,10 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C31" s="36">
         <v>43959</v>
@@ -10090,7 +10202,6 @@
       <c r="D31">
         <v>106</v>
       </c>
-      <c r="J31" s="36"/>
       <c r="N31" s="36"/>
       <c r="AF31">
         <v>28</v>
@@ -10098,10 +10209,10 @@
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C32" s="36">
         <v>43949</v>
@@ -10110,12 +10221,11 @@
         <v>96</v>
       </c>
       <c r="E32">
-        <v>2430</v>
+        <v>243</v>
       </c>
       <c r="F32">
-        <v>7350</v>
-      </c>
-      <c r="J32" s="36"/>
+        <v>735</v>
+      </c>
       <c r="N32" s="36"/>
       <c r="X32">
         <v>40.799999999999997</v>
@@ -10132,10 +10242,10 @@
     </row>
     <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C33" s="36">
         <v>43959</v>
@@ -10151,10 +10261,10 @@
     </row>
     <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C34" s="36">
         <v>43949</v>
@@ -10163,12 +10273,11 @@
         <v>96</v>
       </c>
       <c r="E34">
-        <v>2390</v>
+        <v>239</v>
       </c>
       <c r="F34">
-        <v>7100</v>
-      </c>
-      <c r="J34" s="36"/>
+        <v>710</v>
+      </c>
       <c r="N34" s="36"/>
       <c r="X34">
         <v>41.5</v>
@@ -10185,10 +10294,10 @@
     </row>
     <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C35" s="36">
         <v>43959</v>
@@ -10207,7 +10316,7 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C36" s="36">
         <v>43739</v>
@@ -10222,7 +10331,7 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C37" s="36">
         <v>43862</v>
@@ -10237,7 +10346,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C38" s="36">
         <v>43878</v>
@@ -10279,7 +10388,7 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C39" s="36">
         <v>43905</v>
@@ -10297,7 +10406,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C40" s="36">
         <v>43912</v>
@@ -10315,7 +10424,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C41" s="36">
         <v>43917</v>
@@ -10324,9 +10433,8 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>2441</v>
-      </c>
-      <c r="J41" s="36"/>
+        <v>244.1</v>
+      </c>
       <c r="N41" s="36"/>
       <c r="X41">
         <v>39</v>
@@ -10340,7 +10448,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C42" s="36">
         <v>43919</v>
@@ -10359,7 +10467,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C43" s="36">
         <v>43928</v>
@@ -10378,7 +10486,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C44" s="36">
         <v>43938</v>
@@ -10387,12 +10495,11 @@
         <v>60</v>
       </c>
       <c r="E44">
-        <v>983</v>
+        <v>98.3</v>
       </c>
       <c r="F44">
-        <v>3006</v>
-      </c>
-      <c r="J44" s="36"/>
+        <v>300.60000000000002</v>
+      </c>
       <c r="L44">
         <v>0.33</v>
       </c>
@@ -10421,7 +10528,7 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C45" s="36">
         <v>43878</v>
@@ -10464,7 +10571,7 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C46" s="36">
         <v>43905</v>
@@ -10483,7 +10590,7 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C47" s="36">
         <v>43912</v>
@@ -10502,7 +10609,7 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C48" s="36">
         <v>43918</v>
@@ -10511,9 +10618,8 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>2458</v>
-      </c>
-      <c r="J48" s="36"/>
+        <v>245.8</v>
+      </c>
       <c r="N48" s="36"/>
       <c r="X48">
         <v>40</v>
@@ -10527,7 +10633,7 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C49" s="36">
         <v>43919</v>
@@ -10546,7 +10652,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C50" s="36">
         <v>43928</v>
@@ -10565,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C51" s="36">
         <v>43938</v>
@@ -10574,12 +10680,11 @@
         <v>59</v>
       </c>
       <c r="E51">
-        <v>895</v>
+        <v>89.5</v>
       </c>
       <c r="F51">
-        <v>2735</v>
-      </c>
-      <c r="J51" s="36"/>
+        <v>273.5</v>
+      </c>
       <c r="L51">
         <v>0.32</v>
       </c>
@@ -10608,7 +10713,7 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C52" s="36">
         <v>43878</v>
@@ -10639,7 +10744,7 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C53" s="36">
         <v>43905</v>
@@ -10658,7 +10763,7 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C54" s="36">
         <v>43912</v>
@@ -10677,7 +10782,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C55" s="36">
         <v>43917</v>
@@ -10686,9 +10791,8 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>2748</v>
-      </c>
-      <c r="J55" s="36"/>
+        <v>274.8</v>
+      </c>
       <c r="O55" s="36"/>
       <c r="X55">
         <v>39</v>
@@ -10702,7 +10806,7 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C56" s="36">
         <v>43919</v>
@@ -10721,7 +10825,7 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C57" s="36">
         <v>43928</v>
@@ -10740,7 +10844,7 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C58" s="36">
         <v>43937</v>
@@ -10749,12 +10853,11 @@
         <v>59</v>
       </c>
       <c r="E58">
-        <v>1041</v>
+        <v>104.1</v>
       </c>
       <c r="F58">
-        <v>3088</v>
-      </c>
-      <c r="J58" s="36"/>
+        <v>308.8</v>
+      </c>
       <c r="L58">
         <v>0.34</v>
       </c>
@@ -10783,7 +10886,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C59" s="36">
         <v>43878</v>
@@ -10814,7 +10917,7 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C60" s="36">
         <v>43905</v>
@@ -10833,7 +10936,7 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C61" s="36">
         <v>43912</v>
@@ -10852,7 +10955,7 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C62" s="36">
         <v>43917</v>
@@ -10861,9 +10964,8 @@
         <v>39</v>
       </c>
       <c r="F62">
-        <v>2500</v>
-      </c>
-      <c r="J62" s="36"/>
+        <v>250</v>
+      </c>
       <c r="O62" s="36"/>
       <c r="X62">
         <v>39</v>
@@ -10877,7 +10979,7 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C63" s="36">
         <v>43919</v>
@@ -10894,7 +10996,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C64" s="36">
         <v>43928</v>
@@ -10913,7 +11015,7 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="C65" s="36">
         <v>43938</v>
@@ -10922,12 +11024,11 @@
         <v>60</v>
       </c>
       <c r="E65">
-        <v>1046</v>
+        <v>104.6</v>
       </c>
       <c r="F65">
-        <v>2732</v>
-      </c>
-      <c r="J65" s="36"/>
+        <v>273.2</v>
+      </c>
       <c r="L65">
         <v>0.32</v>
       </c>
@@ -10956,7 +11057,7 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C66" s="36">
         <v>43878</v>
@@ -10999,7 +11100,7 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C67" s="36">
         <v>43905</v>
@@ -11018,7 +11119,7 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C68" s="36">
         <v>43912</v>
@@ -11037,7 +11138,7 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C69" s="36">
         <v>43917</v>
@@ -11046,9 +11147,8 @@
         <v>39</v>
       </c>
       <c r="F69">
-        <v>2638</v>
-      </c>
-      <c r="J69" s="36"/>
+        <v>263.8</v>
+      </c>
       <c r="O69" s="36"/>
       <c r="X69">
         <v>39</v>
@@ -11062,7 +11162,7 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C70" s="36">
         <v>43919</v>
@@ -11081,7 +11181,7 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C71" s="36">
         <v>43928</v>
@@ -11100,7 +11200,7 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="C72" s="36">
         <v>43938</v>
@@ -11109,12 +11209,11 @@
         <v>60</v>
       </c>
       <c r="E72">
-        <v>936</v>
+        <v>93.6</v>
       </c>
       <c r="F72">
-        <v>3058</v>
-      </c>
-      <c r="J72" s="36"/>
+        <v>305.8</v>
+      </c>
       <c r="L72">
         <v>0.31</v>
       </c>
@@ -11143,7 +11242,7 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C73" s="36">
         <v>43878</v>
@@ -11174,7 +11273,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C74" s="36">
         <v>43905</v>
@@ -11193,7 +11292,7 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C75" s="36">
         <v>43912</v>
@@ -11212,7 +11311,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C76" s="36">
         <v>43917</v>
@@ -11221,9 +11320,8 @@
         <v>39</v>
       </c>
       <c r="F76">
-        <v>2589</v>
-      </c>
-      <c r="J76" s="36"/>
+        <v>258.89999999999998</v>
+      </c>
       <c r="O76" s="36"/>
       <c r="X76">
         <v>39</v>
@@ -11237,7 +11335,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C77" s="36">
         <v>43919</v>
@@ -11254,7 +11352,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C78" s="36">
         <v>43928</v>
@@ -11273,7 +11371,7 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C79" s="36">
         <v>43938</v>
@@ -11282,12 +11380,11 @@
         <v>60</v>
       </c>
       <c r="E79">
-        <v>1034</v>
+        <v>103.4</v>
       </c>
       <c r="F79">
-        <v>3143</v>
-      </c>
-      <c r="J79" s="36"/>
+        <v>314.3</v>
+      </c>
       <c r="L79">
         <v>0.33</v>
       </c>
@@ -11316,7 +11413,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C80" s="36">
         <v>43878</v>
@@ -11347,7 +11444,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C81" s="36">
         <v>43905</v>
@@ -11366,7 +11463,7 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C82" s="36">
         <v>43912</v>
@@ -11385,7 +11482,7 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C83" s="36">
         <v>43917</v>
@@ -11394,9 +11491,8 @@
         <v>39</v>
       </c>
       <c r="F83">
-        <v>2663</v>
-      </c>
-      <c r="J83" s="36"/>
+        <v>266.3</v>
+      </c>
       <c r="O83" s="36"/>
       <c r="X83">
         <v>39</v>
@@ -11410,7 +11506,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C84" s="36">
         <v>43919</v>
@@ -11429,7 +11525,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C85" s="36">
         <v>43928</v>
@@ -11448,7 +11544,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="C86" s="36">
         <v>43938</v>
@@ -11457,12 +11553,11 @@
         <v>60</v>
       </c>
       <c r="E86">
-        <v>1164</v>
+        <v>116.4</v>
       </c>
       <c r="F86">
-        <v>3264</v>
-      </c>
-      <c r="J86" s="36"/>
+        <v>326.39999999999998</v>
+      </c>
       <c r="L86">
         <v>0.36</v>
       </c>
@@ -11491,7 +11586,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C87" s="36">
         <v>43878</v>
@@ -11534,7 +11629,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C88" s="36">
         <v>43905</v>
@@ -11553,7 +11648,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C89" s="36">
         <v>43912</v>
@@ -11572,7 +11667,7 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C90" s="36">
         <v>43918</v>
@@ -11581,9 +11676,8 @@
         <v>40</v>
       </c>
       <c r="F90">
-        <v>2462</v>
-      </c>
-      <c r="J90" s="36"/>
+        <v>246.2</v>
+      </c>
       <c r="O90" s="36"/>
       <c r="X90">
         <v>40</v>
@@ -11597,7 +11691,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C91" s="36">
         <v>43919</v>
@@ -11616,7 +11710,7 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C92" s="36">
         <v>43928</v>
@@ -11635,7 +11729,7 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C93" s="36">
         <v>43938</v>
@@ -11644,12 +11738,11 @@
         <v>60</v>
       </c>
       <c r="E93">
-        <v>922</v>
+        <v>92.2</v>
       </c>
       <c r="F93">
-        <v>3092</v>
-      </c>
-      <c r="J93" s="36"/>
+        <v>309.2</v>
+      </c>
       <c r="L93">
         <v>0.3</v>
       </c>
@@ -11678,7 +11771,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C94" s="36">
         <v>43878</v>
@@ -11721,7 +11814,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C95" s="36">
         <v>43905</v>
@@ -11740,7 +11833,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C96" s="36">
         <v>43912</v>
@@ -11759,7 +11852,7 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C97" s="36">
         <v>43917</v>
@@ -11768,9 +11861,8 @@
         <v>39</v>
       </c>
       <c r="F97">
-        <v>2395</v>
-      </c>
-      <c r="J97" s="36"/>
+        <v>239.5</v>
+      </c>
       <c r="O97" s="36"/>
       <c r="X97">
         <v>39</v>
@@ -11784,7 +11876,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C98" s="36">
         <v>43919</v>
@@ -11803,7 +11895,7 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C99" s="36">
         <v>43928</v>
@@ -11822,7 +11914,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="C100" s="36">
         <v>43937</v>
@@ -11831,12 +11923,11 @@
         <v>59</v>
       </c>
       <c r="E100">
-        <v>1295</v>
+        <v>129.5</v>
       </c>
       <c r="F100">
-        <v>3732</v>
-      </c>
-      <c r="J100" s="36"/>
+        <v>373.2</v>
+      </c>
       <c r="L100">
         <v>0.35</v>
       </c>
@@ -11865,7 +11956,7 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C101" s="36">
         <v>43878</v>
@@ -11908,7 +11999,7 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C102" s="36">
         <v>43905</v>
@@ -11927,7 +12018,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C103" s="36">
         <v>43912</v>
@@ -11946,7 +12037,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C104" s="36">
         <v>43918</v>
@@ -11955,9 +12046,8 @@
         <v>40</v>
       </c>
       <c r="F104">
-        <v>2161</v>
-      </c>
-      <c r="J104" s="36"/>
+        <v>216.1</v>
+      </c>
       <c r="O104" s="36"/>
       <c r="X104">
         <v>40</v>
@@ -11971,7 +12061,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C105" s="36">
         <v>43919</v>
@@ -11990,7 +12080,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C106" s="36">
         <v>43928</v>
@@ -12009,7 +12099,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C107" s="36">
         <v>43938</v>
@@ -12018,12 +12108,11 @@
         <v>60</v>
       </c>
       <c r="E107">
-        <v>1199</v>
+        <v>119.9</v>
       </c>
       <c r="F107">
-        <v>3920</v>
-      </c>
-      <c r="J107" s="36"/>
+        <v>392</v>
+      </c>
       <c r="L107">
         <v>0.3</v>
       </c>
@@ -12052,7 +12141,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C108" s="36">
         <v>43878</v>
@@ -12083,7 +12172,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C109" s="36">
         <v>43905</v>
@@ -12102,7 +12191,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C110" s="36">
         <v>43912</v>
@@ -12121,7 +12210,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C111" s="36">
         <v>43918</v>
@@ -12130,9 +12219,8 @@
         <v>40</v>
       </c>
       <c r="F111">
-        <v>2203</v>
-      </c>
-      <c r="J111" s="36"/>
+        <v>220.3</v>
+      </c>
       <c r="O111" s="36"/>
       <c r="X111">
         <v>40</v>
@@ -12146,7 +12234,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C112" s="36">
         <v>43919</v>
@@ -12165,7 +12253,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C113" s="36">
         <v>43928</v>
@@ -12184,7 +12272,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="C114" s="36">
         <v>43938</v>
@@ -12193,12 +12281,11 @@
         <v>60</v>
       </c>
       <c r="E114">
-        <v>1418</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="F114">
-        <v>4323</v>
-      </c>
-      <c r="J114" s="36"/>
+        <v>432.3</v>
+      </c>
       <c r="L114">
         <v>0.33</v>
       </c>
@@ -12227,7 +12314,7 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C115" s="36">
         <v>43878</v>
@@ -12258,7 +12345,7 @@
         <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C116" s="36">
         <v>43905</v>
@@ -12277,7 +12364,7 @@
         <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C117" s="36">
         <v>43912</v>
@@ -12296,7 +12383,7 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C118" s="36">
         <v>43917</v>
@@ -12305,9 +12392,8 @@
         <v>39</v>
       </c>
       <c r="F118">
-        <v>2568</v>
-      </c>
-      <c r="J118" s="36"/>
+        <v>256.8</v>
+      </c>
       <c r="O118" s="36"/>
       <c r="X118">
         <v>39</v>
@@ -12321,7 +12407,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C119" s="36">
         <v>43919</v>
@@ -12340,7 +12426,7 @@
         <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C120" s="36">
         <v>43928</v>
@@ -12359,7 +12445,7 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="C121" s="36">
         <v>43937</v>
@@ -12368,12 +12454,11 @@
         <v>59</v>
       </c>
       <c r="E121">
-        <v>1398</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="F121">
-        <v>4035</v>
-      </c>
-      <c r="J121" s="36"/>
+        <v>403.5</v>
+      </c>
       <c r="L121">
         <v>0.34</v>
       </c>
@@ -12402,7 +12487,7 @@
         <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C122" s="36">
         <v>43878</v>
@@ -12445,7 +12530,7 @@
         <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C123" s="36">
         <v>43905</v>
@@ -12464,7 +12549,7 @@
         <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C124" s="36">
         <v>43912</v>
@@ -12483,7 +12568,7 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C125" s="36">
         <v>43918</v>
@@ -12492,9 +12577,8 @@
         <v>40</v>
       </c>
       <c r="F125">
-        <v>2335</v>
-      </c>
-      <c r="J125" s="36"/>
+        <v>233.5</v>
+      </c>
       <c r="O125" s="36"/>
       <c r="X125">
         <v>40</v>
@@ -12508,7 +12592,7 @@
         <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C126" s="36">
         <v>43919</v>
@@ -12527,7 +12611,7 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C127" s="36">
         <v>43928</v>
@@ -12546,7 +12630,7 @@
         <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="C128" s="36">
         <v>43938</v>
@@ -12555,12 +12639,11 @@
         <v>60</v>
       </c>
       <c r="E128">
-        <v>1538</v>
+        <v>153.80000000000001</v>
       </c>
       <c r="F128">
-        <v>4197</v>
-      </c>
-      <c r="J128" s="36"/>
+        <v>419.7</v>
+      </c>
       <c r="L128">
         <v>0.37</v>
       </c>
@@ -12589,7 +12672,7 @@
         <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C129" s="36">
         <v>43878</v>
@@ -12620,7 +12703,7 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C130" s="36">
         <v>43905</v>
@@ -12639,7 +12722,7 @@
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C131" s="36">
         <v>43912</v>
@@ -12658,7 +12741,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C132" s="36">
         <v>43918</v>
@@ -12667,9 +12750,8 @@
         <v>40</v>
       </c>
       <c r="F132">
-        <v>2403</v>
-      </c>
-      <c r="J132" s="36"/>
+        <v>240.3</v>
+      </c>
       <c r="O132" s="36"/>
       <c r="X132">
         <v>40</v>
@@ -12683,7 +12765,7 @@
         <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C133" s="36">
         <v>43919</v>
@@ -12702,7 +12784,7 @@
         <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C134" s="36">
         <v>43928</v>
@@ -12721,7 +12803,7 @@
         <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="C135" s="36">
         <v>43938</v>
@@ -12730,12 +12812,11 @@
         <v>60</v>
       </c>
       <c r="E135">
-        <v>1408</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="F135">
-        <v>4378</v>
-      </c>
-      <c r="J135" s="36"/>
+        <v>437.8</v>
+      </c>
       <c r="L135">
         <v>0.32</v>
       </c>
@@ -12764,7 +12845,7 @@
         <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C136" s="36">
         <v>43878</v>
@@ -12795,7 +12876,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C137" s="36">
         <v>43905</v>
@@ -12814,7 +12895,7 @@
         <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C138" s="36">
         <v>43912</v>
@@ -12833,7 +12914,7 @@
         <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C139" s="36">
         <v>43918</v>
@@ -12842,9 +12923,8 @@
         <v>40</v>
       </c>
       <c r="F139">
-        <v>2597</v>
-      </c>
-      <c r="J139" s="36"/>
+        <v>259.7</v>
+      </c>
       <c r="O139" s="36"/>
       <c r="X139">
         <v>40</v>
@@ -12858,7 +12938,7 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C140" s="36">
         <v>43919</v>
@@ -12877,7 +12957,7 @@
         <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C141" s="36">
         <v>43928</v>
@@ -12896,7 +12976,7 @@
         <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C142" s="36">
         <v>43938</v>
@@ -12905,12 +12985,11 @@
         <v>60</v>
       </c>
       <c r="E142">
-        <v>1349</v>
+        <v>134.9</v>
       </c>
       <c r="F142">
-        <v>4241</v>
-      </c>
-      <c r="J142" s="36"/>
+        <v>424.1</v>
+      </c>
       <c r="L142">
         <v>0.32</v>
       </c>
@@ -12939,7 +13018,7 @@
         <v>109</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C143" s="36">
         <v>43878</v>
@@ -12982,7 +13061,7 @@
         <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C144" s="36">
         <v>43905</v>
@@ -13001,7 +13080,7 @@
         <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C145" s="36">
         <v>43912</v>
@@ -13020,7 +13099,7 @@
         <v>109</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C146" s="36">
         <v>43917</v>
@@ -13029,9 +13108,8 @@
         <v>39</v>
       </c>
       <c r="F146">
-        <v>2452</v>
-      </c>
-      <c r="J146" s="36"/>
+        <v>245.2</v>
+      </c>
       <c r="O146" s="36"/>
       <c r="X146">
         <v>39</v>
@@ -13045,7 +13123,7 @@
         <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C147" s="36">
         <v>43919</v>
@@ -13064,7 +13142,7 @@
         <v>109</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C148" s="36">
         <v>43928</v>
@@ -13083,7 +13161,7 @@
         <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C149" s="36">
         <v>43938</v>
@@ -13092,12 +13170,11 @@
         <v>60</v>
       </c>
       <c r="E149">
-        <v>1229</v>
+        <v>122.9</v>
       </c>
       <c r="F149">
-        <v>3779</v>
-      </c>
-      <c r="J149" s="36"/>
+        <v>377.9</v>
+      </c>
       <c r="L149">
         <v>0.32</v>
       </c>
@@ -13123,13 +13200,13 @@
     </row>
     <row r="150" spans="1:40">
       <c r="A150" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C150" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -13169,13 +13246,13 @@
     </row>
     <row r="151" spans="1:40">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C151" s="36">
-        <v>44150</v>
+        <v>43784</v>
       </c>
       <c r="D151">
         <v>32</v>
@@ -13188,13 +13265,13 @@
     </row>
     <row r="152" spans="1:40">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C152" s="36">
-        <v>44155</v>
+        <v>43789</v>
       </c>
       <c r="D152">
         <v>37</v>
@@ -13207,13 +13284,13 @@
     </row>
     <row r="153" spans="1:40">
       <c r="A153" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C153" s="36">
-        <v>44164</v>
+        <v>43798</v>
       </c>
       <c r="D153">
         <v>46</v>
@@ -13226,32 +13303,31 @@
     </row>
     <row r="154" spans="1:40">
       <c r="A154" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C154" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D154">
         <v>52</v>
       </c>
       <c r="F154">
-        <v>848</v>
-      </c>
-      <c r="J154" s="36"/>
+        <v>84.8</v>
+      </c>
       <c r="O154" s="36"/>
     </row>
     <row r="155" spans="1:40">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B155" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C155" s="36">
-        <v>44172</v>
+        <v>43806</v>
       </c>
       <c r="D155">
         <v>54</v>
@@ -13263,13 +13339,13 @@
     </row>
     <row r="156" spans="1:40">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C156" s="36">
-        <v>44182</v>
+        <v>43816</v>
       </c>
       <c r="D156">
         <v>64</v>
@@ -13281,24 +13357,23 @@
     </row>
     <row r="157" spans="1:40">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C157" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D157">
         <v>80</v>
       </c>
       <c r="E157">
-        <v>277</v>
+        <v>27.7</v>
       </c>
       <c r="F157">
-        <v>1701</v>
-      </c>
-      <c r="J157" s="36"/>
+        <v>170.1</v>
+      </c>
       <c r="AA157">
         <v>21.75</v>
       </c>
@@ -13329,13 +13404,13 @@
     </row>
     <row r="158" spans="1:40">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B158" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C158" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -13344,42 +13419,40 @@
     </row>
     <row r="159" spans="1:40">
       <c r="A159" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B159" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C159" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D159">
         <v>52</v>
       </c>
       <c r="F159">
-        <v>879</v>
-      </c>
-      <c r="J159" s="36"/>
+        <v>87.9</v>
+      </c>
     </row>
     <row r="160" spans="1:40">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B160" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C160" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D160">
         <v>80</v>
       </c>
       <c r="E160">
-        <v>269</v>
+        <v>26.9</v>
       </c>
       <c r="F160">
-        <v>1762</v>
-      </c>
-      <c r="J160" s="36"/>
+        <v>176.2</v>
+      </c>
       <c r="AA160">
         <v>24.65</v>
       </c>
@@ -13398,13 +13471,13 @@
     </row>
     <row r="161" spans="1:32">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="C161" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -13413,42 +13486,40 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="C162" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D162">
         <v>52</v>
       </c>
       <c r="F162">
-        <v>860</v>
-      </c>
-      <c r="J162" s="36"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="163" spans="1:32">
       <c r="A163" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="C163" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D163">
         <v>80</v>
       </c>
       <c r="E163">
-        <v>276</v>
+        <v>27.6</v>
       </c>
       <c r="F163">
-        <v>1663</v>
-      </c>
-      <c r="J163" s="36"/>
+        <v>166.3</v>
+      </c>
       <c r="AA163">
         <v>18.850000000000001</v>
       </c>
@@ -13467,13 +13538,13 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B164" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="C164" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -13482,42 +13553,40 @@
     </row>
     <row r="165" spans="1:32">
       <c r="A165" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="C165" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D165">
         <v>52</v>
       </c>
       <c r="F165">
-        <v>1012</v>
-      </c>
-      <c r="J165" s="36"/>
+        <v>101.2</v>
+      </c>
     </row>
     <row r="166" spans="1:32">
       <c r="A166" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="C166" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D166">
         <v>80</v>
       </c>
       <c r="E166">
-        <v>318</v>
+        <v>31.8</v>
       </c>
       <c r="F166">
-        <v>1799</v>
-      </c>
-      <c r="J166" s="36"/>
+        <v>179.9</v>
+      </c>
       <c r="AA166">
         <v>36.25</v>
       </c>
@@ -13536,13 +13605,13 @@
     </row>
     <row r="167" spans="1:32">
       <c r="A167" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C167" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -13551,42 +13620,40 @@
     </row>
     <row r="168" spans="1:32">
       <c r="A168" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C168" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D168">
         <v>52</v>
       </c>
       <c r="F168">
-        <v>1006</v>
-      </c>
-      <c r="J168" s="36"/>
+        <v>100.6</v>
+      </c>
     </row>
     <row r="169" spans="1:32">
       <c r="A169" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="C169" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D169">
         <v>80</v>
       </c>
       <c r="E169">
-        <v>294</v>
+        <v>29.4</v>
       </c>
       <c r="F169">
-        <v>1813</v>
-      </c>
-      <c r="J169" s="36"/>
+        <v>181.3</v>
+      </c>
       <c r="AA169">
         <v>63.8</v>
       </c>
@@ -13605,13 +13672,13 @@
     </row>
     <row r="170" spans="1:32">
       <c r="A170" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C170" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -13620,42 +13687,40 @@
     </row>
     <row r="171" spans="1:32">
       <c r="A171" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C171" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D171">
         <v>52</v>
       </c>
       <c r="F171">
-        <v>821</v>
-      </c>
-      <c r="J171" s="36"/>
+        <v>82.1</v>
+      </c>
     </row>
     <row r="172" spans="1:32">
       <c r="A172" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="C172" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D172">
         <v>80</v>
       </c>
       <c r="E172">
-        <v>291</v>
+        <v>29.1</v>
       </c>
       <c r="F172">
-        <v>1843</v>
-      </c>
-      <c r="J172" s="36"/>
+        <v>184.3</v>
+      </c>
       <c r="AA172">
         <v>76.849999999999994</v>
       </c>
@@ -13674,13 +13739,13 @@
     </row>
     <row r="173" spans="1:32">
       <c r="A173" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C173" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -13689,42 +13754,40 @@
     </row>
     <row r="174" spans="1:32">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C174" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D174">
         <v>52</v>
       </c>
       <c r="F174">
-        <v>973</v>
-      </c>
-      <c r="J174" s="36"/>
+        <v>97.3</v>
+      </c>
     </row>
     <row r="175" spans="1:32">
       <c r="A175" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B175" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="C175" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D175">
         <v>80</v>
       </c>
       <c r="E175">
-        <v>287</v>
+        <v>28.7</v>
       </c>
       <c r="F175">
-        <v>1790</v>
-      </c>
-      <c r="J175" s="36"/>
+        <v>179</v>
+      </c>
       <c r="AA175">
         <v>100.05</v>
       </c>
@@ -13743,13 +13806,13 @@
     </row>
     <row r="176" spans="1:32">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B176" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C176" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -13758,42 +13821,40 @@
     </row>
     <row r="177" spans="1:37">
       <c r="A177" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B177" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C177" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D177">
         <v>52</v>
       </c>
       <c r="F177">
-        <v>995</v>
-      </c>
-      <c r="J177" s="36"/>
+        <v>99.5</v>
+      </c>
     </row>
     <row r="178" spans="1:37">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B178" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C178" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D178">
         <v>80</v>
       </c>
       <c r="E178">
-        <v>271</v>
+        <v>27.1</v>
       </c>
       <c r="F178">
-        <v>1770</v>
-      </c>
-      <c r="J178" s="36"/>
+        <v>177</v>
+      </c>
       <c r="AA178">
         <v>153.69999999999999</v>
       </c>
@@ -13812,13 +13873,13 @@
     </row>
     <row r="179" spans="1:37">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B179" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C179" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -13854,13 +13915,13 @@
     </row>
     <row r="180" spans="1:37">
       <c r="A180" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C180" s="36">
-        <v>44150</v>
+        <v>43784</v>
       </c>
       <c r="D180">
         <v>32</v>
@@ -13872,13 +13933,13 @@
     </row>
     <row r="181" spans="1:37">
       <c r="A181" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C181" s="36">
-        <v>44155</v>
+        <v>43789</v>
       </c>
       <c r="D181">
         <v>37</v>
@@ -13890,13 +13951,13 @@
     </row>
     <row r="182" spans="1:37">
       <c r="A182" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B182" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C182" s="36">
-        <v>44164</v>
+        <v>43798</v>
       </c>
       <c r="D182">
         <v>46</v>
@@ -13908,31 +13969,30 @@
     </row>
     <row r="183" spans="1:37">
       <c r="A183" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B183" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C183" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D183">
         <v>52</v>
       </c>
       <c r="F183">
-        <v>1535</v>
-      </c>
-      <c r="J183" s="36"/>
+        <v>153.5</v>
+      </c>
     </row>
     <row r="184" spans="1:37">
       <c r="A184" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B184" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C184" s="36">
-        <v>44172</v>
+        <v>43806</v>
       </c>
       <c r="D184">
         <v>54</v>
@@ -13944,13 +14004,13 @@
     </row>
     <row r="185" spans="1:37">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C185" s="36">
-        <v>44182</v>
+        <v>43816</v>
       </c>
       <c r="D185">
         <v>64</v>
@@ -13962,24 +14022,23 @@
     </row>
     <row r="186" spans="1:37">
       <c r="A186" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B186" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C186" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D186">
         <v>80</v>
       </c>
       <c r="E186">
-        <v>759</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F186">
-        <v>3443</v>
-      </c>
-      <c r="J186" s="36"/>
+        <v>344.3</v>
+      </c>
       <c r="AA186">
         <v>29</v>
       </c>
@@ -14010,13 +14069,13 @@
     </row>
     <row r="187" spans="1:37">
       <c r="A187" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C187" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -14025,42 +14084,40 @@
     </row>
     <row r="188" spans="1:37">
       <c r="A188" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B188" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C188" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D188">
         <v>52</v>
       </c>
       <c r="F188">
-        <v>1565</v>
-      </c>
-      <c r="J188" s="36"/>
+        <v>156.5</v>
+      </c>
     </row>
     <row r="189" spans="1:37">
       <c r="A189" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B189" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C189" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D189">
         <v>80</v>
       </c>
       <c r="E189">
-        <v>838</v>
+        <v>83.8</v>
       </c>
       <c r="F189">
-        <v>3568</v>
-      </c>
-      <c r="J189" s="36"/>
+        <v>356.8</v>
+      </c>
       <c r="AA189">
         <v>21.75</v>
       </c>
@@ -14079,13 +14136,13 @@
     </row>
     <row r="190" spans="1:37">
       <c r="A190" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B190" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C190" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -14094,55 +14151,53 @@
     </row>
     <row r="191" spans="1:37">
       <c r="A191" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B191" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C191" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D191">
         <v>52</v>
       </c>
       <c r="F191">
-        <v>1490</v>
-      </c>
-      <c r="J191" s="36"/>
+        <v>149</v>
+      </c>
     </row>
     <row r="192" spans="1:37">
       <c r="A192" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C192" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D192">
         <v>80</v>
       </c>
       <c r="E192">
-        <v>828</v>
+        <v>82.8</v>
       </c>
       <c r="F192">
-        <v>3217</v>
-      </c>
-      <c r="J192" s="36"/>
+        <v>321.7</v>
+      </c>
       <c r="AF192">
         <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:32">
       <c r="A193" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B193" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C193" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -14151,42 +14206,40 @@
     </row>
     <row r="194" spans="1:32">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B194" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C194" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D194">
         <v>52</v>
       </c>
       <c r="F194">
-        <v>1479</v>
-      </c>
-      <c r="J194" s="36"/>
+        <v>147.9</v>
+      </c>
     </row>
     <row r="195" spans="1:32">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B195" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="C195" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D195">
         <v>80</v>
       </c>
       <c r="E195">
-        <v>809</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F195">
-        <v>3410</v>
-      </c>
-      <c r="J195" s="36"/>
+        <v>341</v>
+      </c>
       <c r="AA195">
         <v>63.8</v>
       </c>
@@ -14205,13 +14258,13 @@
     </row>
     <row r="196" spans="1:32">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C196" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -14220,42 +14273,40 @@
     </row>
     <row r="197" spans="1:32">
       <c r="A197" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C197" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D197">
         <v>52</v>
       </c>
       <c r="F197">
-        <v>1530</v>
-      </c>
-      <c r="J197" s="36"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="198" spans="1:32">
       <c r="A198" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C198" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D198">
         <v>80</v>
       </c>
       <c r="E198">
-        <v>775</v>
+        <v>77.5</v>
       </c>
       <c r="F198">
-        <v>3593</v>
-      </c>
-      <c r="J198" s="36"/>
+        <v>359.3</v>
+      </c>
       <c r="AA198">
         <v>59.45</v>
       </c>
@@ -14274,13 +14325,13 @@
     </row>
     <row r="199" spans="1:32">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C199" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -14289,42 +14340,40 @@
     </row>
     <row r="200" spans="1:32">
       <c r="A200" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C200" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D200">
         <v>52</v>
       </c>
       <c r="F200">
-        <v>1518</v>
-      </c>
-      <c r="J200" s="36"/>
+        <v>151.80000000000001</v>
+      </c>
     </row>
     <row r="201" spans="1:32">
       <c r="A201" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B201" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="C201" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D201">
         <v>80</v>
       </c>
       <c r="E201">
-        <v>779</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="F201">
-        <v>3575</v>
-      </c>
-      <c r="J201" s="36"/>
+        <v>357.5</v>
+      </c>
       <c r="AA201">
         <v>111.65</v>
       </c>
@@ -14343,13 +14392,13 @@
     </row>
     <row r="202" spans="1:32">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C202" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -14358,55 +14407,53 @@
     </row>
     <row r="203" spans="1:32">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C203" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D203">
         <v>52</v>
       </c>
       <c r="F203">
-        <v>1463</v>
-      </c>
-      <c r="J203" s="36"/>
+        <v>146.30000000000001</v>
+      </c>
     </row>
     <row r="204" spans="1:32">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="C204" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D204">
         <v>80</v>
       </c>
       <c r="E204">
-        <v>769</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="F204">
-        <v>3376</v>
-      </c>
-      <c r="J204" s="36"/>
+        <v>337.6</v>
+      </c>
       <c r="AF204">
         <v>180</v>
       </c>
     </row>
     <row r="205" spans="1:32">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C205" s="36">
-        <v>44118</v>
+        <v>43752</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -14427,42 +14474,40 @@
     </row>
     <row r="206" spans="1:32">
       <c r="A206" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C206" s="36">
-        <v>44170</v>
+        <v>43804</v>
       </c>
       <c r="D206">
         <v>52</v>
       </c>
       <c r="F206">
-        <v>1570</v>
-      </c>
-      <c r="J206" s="36"/>
+        <v>157</v>
+      </c>
     </row>
     <row r="207" spans="1:32">
       <c r="A207" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="C207" s="36">
-        <v>44198</v>
+        <v>43832</v>
       </c>
       <c r="D207">
         <v>80</v>
       </c>
       <c r="E207">
-        <v>818</v>
+        <v>81.8</v>
       </c>
       <c r="F207">
-        <v>3539</v>
-      </c>
-      <c r="J207" s="36"/>
+        <v>353.9</v>
+      </c>
       <c r="K207" s="36"/>
       <c r="L207" s="39"/>
       <c r="AF207">
@@ -14471,10 +14516,10 @@
     </row>
     <row r="208" spans="1:32">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B208" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C208" s="36">
         <v>43908</v>
@@ -14483,32 +14528,30 @@
         <v>49</v>
       </c>
       <c r="F208">
-        <v>946</v>
-      </c>
-      <c r="J208" s="36"/>
+        <v>94.6</v>
+      </c>
       <c r="K208" s="36"/>
       <c r="L208" s="39"/>
     </row>
     <row r="209" spans="1:39">
       <c r="A209" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B209" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C209" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D209">
         <v>91</v>
       </c>
       <c r="E209">
-        <v>1128</v>
+        <v>112.8</v>
       </c>
       <c r="F209">
-        <v>4827</v>
-      </c>
-      <c r="J209" s="36"/>
+        <v>482.7</v>
+      </c>
       <c r="K209" s="36"/>
       <c r="L209" s="39"/>
       <c r="X209">
@@ -14532,10 +14575,10 @@
     </row>
     <row r="210" spans="1:39">
       <c r="A210" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B210" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C210" s="36">
         <v>43859</v>
@@ -14579,10 +14622,10 @@
     </row>
     <row r="211" spans="1:39">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B211" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C211" s="36">
         <v>43887</v>
@@ -14599,10 +14642,10 @@
     </row>
     <row r="212" spans="1:39">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B212" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C212" s="36">
         <v>43893</v>
@@ -14619,10 +14662,10 @@
     </row>
     <row r="213" spans="1:39">
       <c r="A213" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C213" s="36">
         <v>43903</v>
@@ -14639,10 +14682,10 @@
     </row>
     <row r="214" spans="1:39">
       <c r="A214" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B214" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C214" s="36">
         <v>43908</v>
@@ -14651,21 +14694,20 @@
         <v>49</v>
       </c>
       <c r="F214">
-        <v>1046.25</v>
+        <v>104.625</v>
       </c>
       <c r="H214" s="38">
         <v>2.02</v>
       </c>
-      <c r="J214" s="36"/>
       <c r="K214" s="36"/>
       <c r="L214" s="39"/>
     </row>
     <row r="215" spans="1:39">
       <c r="A215" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B215" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C215" s="36">
         <v>43910</v>
@@ -14682,10 +14724,10 @@
     </row>
     <row r="216" spans="1:39">
       <c r="A216" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C216" s="36">
         <v>43916</v>
@@ -14702,10 +14744,10 @@
     </row>
     <row r="217" spans="1:39">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B217" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C217" s="36">
         <v>43923</v>
@@ -14719,10 +14761,10 @@
     </row>
     <row r="218" spans="1:39">
       <c r="A218" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C218" s="36">
         <v>43930</v>
@@ -14736,24 +14778,23 @@
     </row>
     <row r="219" spans="1:39">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B219" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="C219" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D219">
         <v>91</v>
       </c>
       <c r="E219">
-        <v>1157</v>
+        <v>115.7</v>
       </c>
       <c r="F219">
-        <v>4710.75</v>
-      </c>
-      <c r="J219" s="36"/>
+        <v>471.07499999999999</v>
+      </c>
       <c r="K219" s="36"/>
       <c r="L219" s="39"/>
       <c r="X219">
@@ -14789,10 +14830,10 @@
     </row>
     <row r="220" spans="1:39">
       <c r="A220" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C220" s="36">
         <v>43908</v>
@@ -14801,32 +14842,30 @@
         <v>49</v>
       </c>
       <c r="F220">
-        <v>1152.8800000000001</v>
-      </c>
-      <c r="J220" s="36"/>
+        <v>115.28800000000001</v>
+      </c>
       <c r="K220" s="36"/>
       <c r="L220" s="39"/>
     </row>
     <row r="221" spans="1:39">
       <c r="A221" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B221" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C221" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D221">
         <v>91</v>
       </c>
       <c r="E221">
-        <v>1241</v>
+        <v>124.1</v>
       </c>
       <c r="F221">
-        <v>5072.75</v>
-      </c>
-      <c r="J221" s="36"/>
+        <v>507.27499999999998</v>
+      </c>
       <c r="K221" s="36"/>
       <c r="L221" s="39"/>
       <c r="X221">
@@ -14847,10 +14886,10 @@
     </row>
     <row r="222" spans="1:39">
       <c r="A222" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="C222" s="36">
         <v>43908</v>
@@ -14859,32 +14898,30 @@
         <v>49</v>
       </c>
       <c r="F222">
-        <v>1123</v>
-      </c>
-      <c r="J222" s="36"/>
+        <v>112.3</v>
+      </c>
       <c r="K222" s="36"/>
       <c r="L222" s="39"/>
     </row>
     <row r="223" spans="1:39">
       <c r="A223" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B223" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="C223" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D223">
         <v>91</v>
       </c>
       <c r="E223">
-        <v>1250</v>
+        <v>125</v>
       </c>
       <c r="F223">
-        <v>4978.88</v>
-      </c>
-      <c r="J223" s="36"/>
+        <v>497.88800000000003</v>
+      </c>
       <c r="K223" s="36"/>
       <c r="L223" s="39"/>
       <c r="X223">
@@ -14905,10 +14942,10 @@
     </row>
     <row r="224" spans="1:39">
       <c r="A224" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="C224" s="36">
         <v>43908</v>
@@ -14917,32 +14954,30 @@
         <v>49</v>
       </c>
       <c r="F224">
-        <v>1065.5</v>
-      </c>
-      <c r="J224" s="36"/>
+        <v>106.55</v>
+      </c>
       <c r="K224" s="36"/>
       <c r="L224" s="39"/>
     </row>
     <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B225" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="C225" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D225">
         <v>91</v>
       </c>
       <c r="E225">
-        <v>1342</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="F225">
-        <v>4926.63</v>
-      </c>
-      <c r="J225" s="36"/>
+        <v>492.66300000000001</v>
+      </c>
       <c r="K225" s="36"/>
       <c r="L225" s="39"/>
       <c r="X225">
@@ -14963,10 +14998,10 @@
     </row>
     <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="C226" s="36">
         <v>43908</v>
@@ -14975,32 +15010,30 @@
         <v>49</v>
       </c>
       <c r="F226">
-        <v>997.25</v>
-      </c>
-      <c r="J226" s="36"/>
+        <v>99.724999999999994</v>
+      </c>
       <c r="K226" s="36"/>
       <c r="L226" s="39"/>
     </row>
     <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B227" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="C227" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D227">
         <v>91</v>
       </c>
       <c r="E227">
-        <v>1321</v>
+        <v>132.1</v>
       </c>
       <c r="F227">
-        <v>4833.63</v>
-      </c>
-      <c r="J227" s="36"/>
+        <v>483.363</v>
+      </c>
       <c r="K227" s="36"/>
       <c r="L227" s="39"/>
       <c r="X227">
@@ -15021,10 +15054,10 @@
     </row>
     <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B228" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="C228" s="36">
         <v>43908</v>
@@ -15033,32 +15066,30 @@
         <v>49</v>
       </c>
       <c r="F228">
-        <v>1080.25</v>
-      </c>
-      <c r="J228" s="36"/>
+        <v>108.02500000000001</v>
+      </c>
       <c r="K228" s="36"/>
       <c r="L228" s="39"/>
     </row>
     <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="C229" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D229">
         <v>91</v>
       </c>
       <c r="E229">
-        <v>1272</v>
+        <v>127.2</v>
       </c>
       <c r="F229">
-        <v>5176.38</v>
-      </c>
-      <c r="J229" s="36"/>
+        <v>517.63800000000003</v>
+      </c>
       <c r="K229" s="36"/>
       <c r="L229" s="39"/>
       <c r="X229">
@@ -15079,10 +15110,10 @@
     </row>
     <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B230" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="C230" s="36">
         <v>43908</v>
@@ -15091,32 +15122,30 @@
         <v>49</v>
       </c>
       <c r="F230">
-        <v>894.88</v>
-      </c>
-      <c r="J230" s="36"/>
+        <v>89.488</v>
+      </c>
       <c r="K230" s="36"/>
       <c r="L230" s="39"/>
     </row>
     <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="C231" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D231">
         <v>91</v>
       </c>
       <c r="E231">
-        <v>1296</v>
+        <v>129.6</v>
       </c>
       <c r="F231">
-        <v>4948.13</v>
-      </c>
-      <c r="J231" s="36"/>
+        <v>494.81299999999999</v>
+      </c>
       <c r="K231" s="36"/>
       <c r="L231" s="39"/>
       <c r="X231">
@@ -15137,10 +15166,10 @@
     </row>
     <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="C232" s="36">
         <v>43908</v>
@@ -15149,32 +15178,30 @@
         <v>49</v>
       </c>
       <c r="F232">
-        <v>776.25</v>
-      </c>
-      <c r="J232" s="36"/>
+        <v>77.625</v>
+      </c>
       <c r="K232" s="36"/>
       <c r="L232" s="39"/>
     </row>
     <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="C233" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D233">
         <v>91</v>
       </c>
       <c r="E233">
-        <v>1992</v>
+        <v>199.2</v>
       </c>
       <c r="F233">
-        <v>6353</v>
-      </c>
-      <c r="J233" s="36"/>
+        <v>635.29999999999995</v>
+      </c>
       <c r="K233" s="36"/>
       <c r="L233" s="39"/>
       <c r="O233" s="36"/>
@@ -15199,10 +15226,10 @@
     </row>
     <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B234" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C234" s="36">
         <v>43859</v>
@@ -15244,10 +15271,10 @@
     </row>
     <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B235" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C235" s="36">
         <v>43887</v>
@@ -15265,10 +15292,10 @@
     </row>
     <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B236" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C236" s="36">
         <v>43893</v>
@@ -15286,10 +15313,10 @@
     </row>
     <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B237" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C237" s="36">
         <v>43903</v>
@@ -15307,10 +15334,10 @@
     </row>
     <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B238" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C238" s="36">
         <v>43908</v>
@@ -15319,22 +15346,21 @@
         <v>49</v>
       </c>
       <c r="F238">
-        <v>987.88</v>
+        <v>98.787999999999997</v>
       </c>
       <c r="H238" s="38">
         <v>2.04</v>
       </c>
-      <c r="J238" s="36"/>
       <c r="K238" s="36"/>
       <c r="L238" s="39"/>
       <c r="O238" s="36"/>
     </row>
     <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C239" s="36">
         <v>43910</v>
@@ -15352,10 +15378,10 @@
     </row>
     <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C240" s="36">
         <v>43916</v>
@@ -15373,10 +15399,10 @@
     </row>
     <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C241" s="36">
         <v>43923</v>
@@ -15394,10 +15420,10 @@
     </row>
     <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C242" s="36">
         <v>43930</v>
@@ -15415,10 +15441,10 @@
     </row>
     <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B243" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C243" s="36">
         <v>43936</v>
@@ -15433,24 +15459,23 @@
     </row>
     <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="C244" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D244">
         <v>91</v>
       </c>
       <c r="E244">
-        <v>2083</v>
+        <v>208.3</v>
       </c>
       <c r="F244">
-        <v>6170.75</v>
-      </c>
-      <c r="J244" s="36"/>
+        <v>617.07500000000005</v>
+      </c>
       <c r="K244" s="36"/>
       <c r="L244" s="39"/>
       <c r="O244" s="36"/>
@@ -15487,10 +15512,10 @@
     </row>
     <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C245" s="36">
         <v>43908</v>
@@ -15499,33 +15524,31 @@
         <v>49</v>
       </c>
       <c r="F245">
-        <v>1103.25</v>
-      </c>
-      <c r="J245" s="36"/>
+        <v>110.325</v>
+      </c>
       <c r="K245" s="36"/>
       <c r="L245" s="39"/>
       <c r="O245" s="36"/>
     </row>
     <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C246" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D246">
         <v>91</v>
       </c>
       <c r="E246">
-        <v>1998</v>
+        <v>199.8</v>
       </c>
       <c r="F246">
-        <v>6696</v>
-      </c>
-      <c r="J246" s="36"/>
+        <v>669.6</v>
+      </c>
       <c r="K246" s="36"/>
       <c r="L246" s="39"/>
       <c r="O246" s="36"/>
@@ -15550,10 +15573,10 @@
     </row>
     <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C247" s="36">
         <v>43908</v>
@@ -15562,33 +15585,31 @@
         <v>49</v>
       </c>
       <c r="F247">
-        <v>851</v>
-      </c>
-      <c r="J247" s="36"/>
+        <v>85.1</v>
+      </c>
       <c r="K247" s="36"/>
       <c r="L247" s="39"/>
       <c r="O247" s="36"/>
     </row>
     <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C248" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D248">
         <v>91</v>
       </c>
       <c r="E248">
-        <v>2124</v>
+        <v>212.4</v>
       </c>
       <c r="F248">
-        <v>6212.13</v>
-      </c>
-      <c r="J248" s="36"/>
+        <v>621.21299999999997</v>
+      </c>
       <c r="K248" s="36"/>
       <c r="L248" s="39"/>
       <c r="O248" s="36"/>
@@ -15613,10 +15634,10 @@
     </row>
     <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="C249" s="36">
         <v>43908</v>
@@ -15625,9 +15646,8 @@
         <v>49</v>
       </c>
       <c r="F249">
-        <v>854.13</v>
-      </c>
-      <c r="J249" s="36"/>
+        <v>85.412999999999997</v>
+      </c>
       <c r="K249" s="36"/>
       <c r="L249" s="39"/>
       <c r="M249" s="36"/>
@@ -15635,24 +15655,23 @@
     </row>
     <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B250" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="C250" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D250">
         <v>91</v>
       </c>
       <c r="E250">
-        <v>2109</v>
+        <v>210.9</v>
       </c>
       <c r="F250">
-        <v>6574.38</v>
-      </c>
-      <c r="J250" s="36"/>
+        <v>657.43799999999999</v>
+      </c>
       <c r="K250" s="36"/>
       <c r="L250" s="39"/>
       <c r="M250" s="36"/>
@@ -15678,10 +15697,10 @@
     </row>
     <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B251" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="C251" s="36">
         <v>43908</v>
@@ -15690,9 +15709,8 @@
         <v>49</v>
       </c>
       <c r="F251">
-        <v>965.38</v>
-      </c>
-      <c r="J251" s="36"/>
+        <v>96.537999999999997</v>
+      </c>
       <c r="K251" s="36"/>
       <c r="L251" s="39"/>
       <c r="M251" s="36"/>
@@ -15700,24 +15718,23 @@
     </row>
     <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B252" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="C252" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D252">
         <v>91</v>
       </c>
       <c r="E252">
-        <v>2221</v>
+        <v>222.1</v>
       </c>
       <c r="F252">
-        <v>6716.25</v>
-      </c>
-      <c r="J252" s="36"/>
+        <v>671.625</v>
+      </c>
       <c r="K252" s="36"/>
       <c r="L252" s="39"/>
       <c r="M252" s="36"/>
@@ -15743,10 +15760,10 @@
     </row>
     <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C253" s="36">
         <v>43908</v>
@@ -15755,9 +15772,8 @@
         <v>49</v>
       </c>
       <c r="F253">
-        <v>1082.1300000000001</v>
-      </c>
-      <c r="J253" s="36"/>
+        <v>108.21300000000001</v>
+      </c>
       <c r="K253" s="36"/>
       <c r="L253" s="39"/>
       <c r="M253" s="36"/>
@@ -15765,24 +15781,23 @@
     </row>
     <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B254" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="C254" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D254">
         <v>91</v>
       </c>
       <c r="E254">
-        <v>2229</v>
+        <v>222.9</v>
       </c>
       <c r="F254">
-        <v>7470.25</v>
-      </c>
-      <c r="J254" s="36"/>
+        <v>747.02499999999998</v>
+      </c>
       <c r="K254" s="36"/>
       <c r="L254" s="39"/>
       <c r="M254" s="36"/>
@@ -15808,10 +15823,10 @@
     </row>
     <row r="255" spans="1:39">
       <c r="A255" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B255" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C255" s="36">
         <v>43908</v>
@@ -15820,9 +15835,8 @@
         <v>49</v>
       </c>
       <c r="F255">
-        <v>864.38</v>
-      </c>
-      <c r="J255" s="36"/>
+        <v>86.438000000000002</v>
+      </c>
       <c r="K255" s="36"/>
       <c r="L255" s="39"/>
       <c r="M255" s="36"/>
@@ -15830,24 +15844,23 @@
     </row>
     <row r="256" spans="1:39">
       <c r="A256" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C256" s="36">
-        <v>43945</v>
+        <v>43939</v>
       </c>
       <c r="D256">
         <v>91</v>
       </c>
       <c r="E256">
-        <v>2343</v>
+        <v>234.3</v>
       </c>
       <c r="F256">
-        <v>6890.63</v>
-      </c>
-      <c r="J256" s="36"/>
+        <v>689.06299999999999</v>
+      </c>
       <c r="K256" s="36"/>
       <c r="L256" s="39"/>
       <c r="M256" s="36"/>
@@ -15870,10 +15883,10 @@
     </row>
     <row r="257" spans="1:33">
       <c r="A257" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B257" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C257" s="36">
         <v>43363</v>
@@ -15898,10 +15911,10 @@
     </row>
     <row r="258" spans="1:33">
       <c r="A258" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B258" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C258" s="36">
         <v>43475</v>
@@ -15917,10 +15930,10 @@
     </row>
     <row r="259" spans="1:33">
       <c r="A259" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B259" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C259" s="36">
         <v>43480</v>
@@ -15939,10 +15952,10 @@
     </row>
     <row r="260" spans="1:33">
       <c r="A260" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B260" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C260" s="36">
         <v>43516</v>
@@ -15951,9 +15964,8 @@
         <v>41</v>
       </c>
       <c r="F260">
-        <v>1000</v>
-      </c>
-      <c r="J260" s="36"/>
+        <v>100</v>
+      </c>
       <c r="K260" s="36"/>
       <c r="L260" s="39"/>
       <c r="M260" s="36"/>
@@ -15961,10 +15973,10 @@
     </row>
     <row r="261" spans="1:33">
       <c r="A261" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B261" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C261" s="36">
         <v>43571</v>
@@ -15973,12 +15985,11 @@
         <v>97</v>
       </c>
       <c r="E261">
-        <v>1550</v>
+        <v>155</v>
       </c>
       <c r="F261">
-        <v>3700</v>
-      </c>
-      <c r="J261" s="36"/>
+        <v>370</v>
+      </c>
       <c r="K261" s="36"/>
       <c r="L261" s="39"/>
       <c r="M261" s="36"/>
@@ -15992,10 +16003,10 @@
     </row>
     <row r="262" spans="1:33">
       <c r="A262" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B262" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C262" s="36">
         <v>43475</v>
@@ -16011,10 +16022,10 @@
     </row>
     <row r="263" spans="1:33">
       <c r="A263" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C263" s="36">
         <v>43516</v>
@@ -16023,9 +16034,8 @@
         <v>41</v>
       </c>
       <c r="F263">
-        <v>1000</v>
-      </c>
-      <c r="J263" s="36"/>
+        <v>100</v>
+      </c>
       <c r="K263" s="36"/>
       <c r="L263" s="39"/>
       <c r="M263" s="36"/>
@@ -16033,10 +16043,10 @@
     </row>
     <row r="264" spans="1:33">
       <c r="A264" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B264" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C264" s="36">
         <v>43571</v>
@@ -16045,12 +16055,11 @@
         <v>97</v>
       </c>
       <c r="E264">
-        <v>1530</v>
+        <v>153</v>
       </c>
       <c r="F264">
-        <v>3700</v>
-      </c>
-      <c r="J264" s="36"/>
+        <v>370</v>
+      </c>
       <c r="K264" s="36"/>
       <c r="L264" s="39"/>
       <c r="M264" s="36"/>
@@ -16064,10 +16073,10 @@
     </row>
     <row r="265" spans="1:33">
       <c r="A265" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B265" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C265" s="36">
         <v>43475</v>
@@ -16089,10 +16098,10 @@
     </row>
     <row r="266" spans="1:33">
       <c r="A266" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B266" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C266" s="36">
         <v>43516</v>
@@ -16101,9 +16110,8 @@
         <v>41</v>
       </c>
       <c r="F266">
-        <v>900</v>
-      </c>
-      <c r="J266" s="36"/>
+        <v>90</v>
+      </c>
       <c r="K266" s="36"/>
       <c r="L266" s="39"/>
       <c r="M266" s="36"/>
@@ -16111,10 +16119,10 @@
     </row>
     <row r="267" spans="1:33">
       <c r="A267" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B267" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C267" s="36">
         <v>43571</v>
@@ -16123,12 +16131,11 @@
         <v>97</v>
       </c>
       <c r="E267">
-        <v>1720</v>
+        <v>172</v>
       </c>
       <c r="F267">
-        <v>4000</v>
-      </c>
-      <c r="J267" s="36"/>
+        <v>400</v>
+      </c>
       <c r="K267" s="36"/>
       <c r="L267" s="39"/>
       <c r="M267" s="36"/>
@@ -16142,10 +16149,10 @@
     </row>
     <row r="268" spans="1:33">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B268" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C268" s="36">
         <v>43475</v>
@@ -16167,10 +16174,10 @@
     </row>
     <row r="269" spans="1:33">
       <c r="A269" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B269" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C269" s="36">
         <v>43517</v>
@@ -16179,9 +16186,8 @@
         <v>42</v>
       </c>
       <c r="F269">
-        <v>800</v>
-      </c>
-      <c r="J269" s="36"/>
+        <v>80</v>
+      </c>
       <c r="K269" s="36"/>
       <c r="L269" s="39"/>
       <c r="M269" s="36"/>
@@ -16189,10 +16195,10 @@
     </row>
     <row r="270" spans="1:33">
       <c r="A270" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B270" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C270" s="36">
         <v>43571</v>
@@ -16201,12 +16207,11 @@
         <v>97</v>
       </c>
       <c r="E270">
-        <v>1540</v>
+        <v>154</v>
       </c>
       <c r="F270">
-        <v>3700</v>
-      </c>
-      <c r="J270" s="36"/>
+        <v>370</v>
+      </c>
       <c r="K270" s="36"/>
       <c r="L270" s="39"/>
       <c r="M270" s="36"/>
@@ -16220,10 +16225,10 @@
     </row>
     <row r="271" spans="1:33">
       <c r="A271" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B271" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C271" s="36">
         <v>43475</v>
@@ -16245,10 +16250,10 @@
     </row>
     <row r="272" spans="1:33">
       <c r="A272" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B272" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C272" s="36">
         <v>43517</v>
@@ -16257,9 +16262,8 @@
         <v>42</v>
       </c>
       <c r="F272">
-        <v>900</v>
-      </c>
-      <c r="J272" s="36"/>
+        <v>90</v>
+      </c>
       <c r="K272" s="36"/>
       <c r="L272" s="39"/>
       <c r="M272" s="36"/>
@@ -16267,10 +16271,10 @@
     </row>
     <row r="273" spans="1:33">
       <c r="A273" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B273" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C273" s="36">
         <v>43571</v>
@@ -16279,12 +16283,11 @@
         <v>97</v>
       </c>
       <c r="E273">
-        <v>1700</v>
+        <v>170</v>
       </c>
       <c r="F273">
-        <v>3900</v>
-      </c>
-      <c r="J273" s="36"/>
+        <v>390</v>
+      </c>
       <c r="K273" s="36"/>
       <c r="L273" s="39"/>
       <c r="M273" s="36"/>
@@ -16298,10 +16301,10 @@
     </row>
     <row r="274" spans="1:33">
       <c r="A274" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B274" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C274" s="36">
         <v>43475</v>
@@ -16323,10 +16326,10 @@
     </row>
     <row r="275" spans="1:33">
       <c r="A275" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B275" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C275" s="36">
         <v>43517</v>
@@ -16335,9 +16338,8 @@
         <v>42</v>
       </c>
       <c r="F275">
-        <v>900</v>
-      </c>
-      <c r="J275" s="36"/>
+        <v>90</v>
+      </c>
       <c r="K275" s="36"/>
       <c r="L275" s="39"/>
       <c r="M275" s="36"/>
@@ -16345,10 +16347,10 @@
     </row>
     <row r="276" spans="1:33">
       <c r="A276" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B276" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C276" s="36">
         <v>43571</v>
@@ -16357,12 +16359,11 @@
         <v>97</v>
       </c>
       <c r="E276">
-        <v>1570</v>
+        <v>157</v>
       </c>
       <c r="F276">
-        <v>3600</v>
-      </c>
-      <c r="J276" s="36"/>
+        <v>360</v>
+      </c>
       <c r="K276" s="36"/>
       <c r="L276" s="39"/>
       <c r="M276" s="36"/>
@@ -16376,10 +16377,10 @@
     </row>
     <row r="277" spans="1:33">
       <c r="A277" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B277" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C277" s="36">
         <v>43475</v>
@@ -16401,10 +16402,10 @@
     </row>
     <row r="278" spans="1:33">
       <c r="A278" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B278" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C278" s="36">
         <v>43516</v>
@@ -16413,9 +16414,8 @@
         <v>41</v>
       </c>
       <c r="F278">
-        <v>1000</v>
-      </c>
-      <c r="J278" s="36"/>
+        <v>100</v>
+      </c>
       <c r="K278" s="36"/>
       <c r="L278" s="39"/>
       <c r="M278" s="36"/>
@@ -16423,10 +16423,10 @@
     </row>
     <row r="279" spans="1:33">
       <c r="A279" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B279" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C279" s="36">
         <v>43571</v>
@@ -16435,12 +16435,11 @@
         <v>97</v>
       </c>
       <c r="E279">
-        <v>1640</v>
+        <v>164</v>
       </c>
       <c r="F279">
-        <v>3800</v>
-      </c>
-      <c r="J279" s="36"/>
+        <v>380</v>
+      </c>
       <c r="K279" s="36"/>
       <c r="L279" s="39"/>
       <c r="M279" s="36"/>
@@ -16454,10 +16453,10 @@
     </row>
     <row r="280" spans="1:33">
       <c r="A280" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B280" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C280" s="36">
         <v>43475</v>
@@ -16479,10 +16478,10 @@
     </row>
     <row r="281" spans="1:33">
       <c r="A281" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B281" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C281" s="36">
         <v>43518</v>
@@ -16491,9 +16490,8 @@
         <v>43</v>
       </c>
       <c r="F281">
-        <v>1000</v>
-      </c>
-      <c r="J281" s="36"/>
+        <v>100</v>
+      </c>
       <c r="K281" s="36"/>
       <c r="L281" s="39"/>
       <c r="M281" s="36"/>
@@ -16501,10 +16499,10 @@
     </row>
     <row r="282" spans="1:33">
       <c r="A282" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B282" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C282" s="36">
         <v>43571</v>
@@ -16513,12 +16511,11 @@
         <v>97</v>
       </c>
       <c r="E282">
-        <v>1660</v>
+        <v>166</v>
       </c>
       <c r="F282">
-        <v>3900</v>
-      </c>
-      <c r="J282" s="36"/>
+        <v>390</v>
+      </c>
       <c r="K282" s="36"/>
       <c r="L282" s="39"/>
       <c r="M282" s="36"/>
@@ -16532,10 +16529,10 @@
     </row>
     <row r="283" spans="1:33">
       <c r="A283" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B283" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C283" s="36">
         <v>43475</v>
@@ -16543,7 +16540,8 @@
       <c r="D283">
         <v>0</v>
       </c>
-      <c r="J283" s="36"/>
+      <c r="I283" s="38"/>
+      <c r="J283" s="38"/>
       <c r="K283" s="36"/>
       <c r="L283" s="39"/>
       <c r="M283" s="36"/>
@@ -16557,10 +16555,10 @@
     </row>
     <row r="284" spans="1:33">
       <c r="A284" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B284" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C284" s="36">
         <v>43517</v>
@@ -16569,9 +16567,10 @@
         <v>42</v>
       </c>
       <c r="F284">
-        <v>1000</v>
-      </c>
-      <c r="J284" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="I284" s="38"/>
+      <c r="J284" s="38"/>
       <c r="K284" s="36"/>
       <c r="L284" s="39"/>
       <c r="M284" s="36"/>
@@ -16579,10 +16578,10 @@
     </row>
     <row r="285" spans="1:33">
       <c r="A285" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B285" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C285" s="36">
         <v>43571</v>
@@ -16591,12 +16590,13 @@
         <v>97</v>
       </c>
       <c r="E285">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="F285">
-        <v>3700</v>
-      </c>
-      <c r="J285" s="36"/>
+        <v>370</v>
+      </c>
+      <c r="I285" s="38"/>
+      <c r="J285" s="38"/>
       <c r="K285" s="36"/>
       <c r="L285" s="39"/>
       <c r="M285" s="36"/>
@@ -16610,10 +16610,10 @@
     </row>
     <row r="286" spans="1:33">
       <c r="A286" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B286" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C286" s="36">
         <v>43475</v>
@@ -16621,7 +16621,8 @@
       <c r="D286">
         <v>0</v>
       </c>
-      <c r="J286" s="36"/>
+      <c r="I286" s="38"/>
+      <c r="J286" s="38"/>
       <c r="K286" s="36"/>
       <c r="L286" s="39"/>
       <c r="M286" s="36"/>
@@ -16635,10 +16636,10 @@
     </row>
     <row r="287" spans="1:33">
       <c r="A287" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B287" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C287" s="36">
         <v>43516</v>
@@ -16647,9 +16648,10 @@
         <v>41</v>
       </c>
       <c r="F287">
-        <v>1000</v>
-      </c>
-      <c r="J287" s="36"/>
+        <v>100</v>
+      </c>
+      <c r="I287" s="38"/>
+      <c r="J287" s="38"/>
       <c r="K287" s="36"/>
       <c r="L287" s="39"/>
       <c r="M287" s="36"/>
@@ -16657,10 +16659,10 @@
     </row>
     <row r="288" spans="1:33">
       <c r="A288" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="B288" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C288" s="36">
         <v>43571</v>
@@ -16669,12 +16671,13 @@
         <v>97</v>
       </c>
       <c r="E288">
-        <v>1570</v>
+        <v>157</v>
       </c>
       <c r="F288">
-        <v>3700</v>
-      </c>
-      <c r="J288" s="36"/>
+        <v>370</v>
+      </c>
+      <c r="I288" s="38"/>
+      <c r="J288" s="38"/>
       <c r="K288" s="36"/>
       <c r="L288" s="39"/>
       <c r="M288" s="36"/>
@@ -16688,10 +16691,10 @@
     </row>
     <row r="289" spans="1:37">
       <c r="A289" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C289" s="36">
         <v>43462</v>
@@ -16699,7 +16702,8 @@
       <c r="D289">
         <v>0</v>
       </c>
-      <c r="J289" s="36"/>
+      <c r="I289" s="38"/>
+      <c r="J289" s="38"/>
       <c r="K289" s="36"/>
       <c r="L289" s="39"/>
       <c r="M289" s="36"/>
@@ -16725,10 +16729,10 @@
     </row>
     <row r="290" spans="1:37">
       <c r="A290" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B290" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C290" s="36">
         <v>43494</v>
@@ -16739,7 +16743,8 @@
       <c r="H290" s="38">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J290" s="36"/>
+      <c r="I290" s="38"/>
+      <c r="J290" s="38"/>
       <c r="K290" s="36"/>
       <c r="L290" s="39"/>
       <c r="M290" s="36"/>
@@ -16747,10 +16752,10 @@
     </row>
     <row r="291" spans="1:37">
       <c r="A291" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C291" s="36">
         <v>43507</v>
@@ -16761,7 +16766,8 @@
       <c r="H291" s="38">
         <v>1.2</v>
       </c>
-      <c r="J291" s="36"/>
+      <c r="I291" s="38"/>
+      <c r="J291" s="38"/>
       <c r="K291" s="36"/>
       <c r="L291" s="39"/>
       <c r="M291" s="36"/>
@@ -16769,10 +16775,10 @@
     </row>
     <row r="292" spans="1:37">
       <c r="A292" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B292" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C292" s="36">
         <v>43515</v>
@@ -16783,7 +16789,8 @@
       <c r="H292" s="38">
         <v>1</v>
       </c>
-      <c r="J292" s="36"/>
+      <c r="I292" s="38"/>
+      <c r="J292" s="38"/>
       <c r="K292" s="36"/>
       <c r="L292" s="39"/>
       <c r="M292" s="36"/>
@@ -16791,10 +16798,10 @@
     </row>
     <row r="293" spans="1:37">
       <c r="A293" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B293" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C293" s="36">
         <v>43509</v>
@@ -16803,9 +16810,10 @@
         <v>57</v>
       </c>
       <c r="F293">
-        <v>2000</v>
-      </c>
-      <c r="J293" s="36"/>
+        <v>206.16785714285714</v>
+      </c>
+      <c r="I293" s="38"/>
+      <c r="J293" s="38"/>
       <c r="K293" s="36"/>
       <c r="L293" s="39"/>
       <c r="M293" s="36"/>
@@ -16813,10 +16821,10 @@
     </row>
     <row r="294" spans="1:37">
       <c r="A294" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B294" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C294" s="36">
         <v>43523</v>
@@ -16827,7 +16835,8 @@
       <c r="H294" s="38">
         <v>0.9</v>
       </c>
-      <c r="J294" s="36"/>
+      <c r="I294" s="38"/>
+      <c r="J294" s="38"/>
       <c r="K294" s="36"/>
       <c r="L294" s="39"/>
       <c r="M294" s="36"/>
@@ -16835,10 +16844,10 @@
     </row>
     <row r="295" spans="1:37">
       <c r="A295" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B295" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C295" s="36">
         <v>43531</v>
@@ -16849,7 +16858,8 @@
       <c r="H295" s="38">
         <v>0.72</v>
       </c>
-      <c r="J295" s="36"/>
+      <c r="I295" s="38"/>
+      <c r="J295" s="38"/>
       <c r="K295" s="36"/>
       <c r="L295" s="39"/>
       <c r="M295" s="36"/>
@@ -16857,10 +16867,10 @@
     </row>
     <row r="296" spans="1:37">
       <c r="A296" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B296" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C296" s="36">
         <v>43549</v>
@@ -16869,12 +16879,13 @@
         <v>88</v>
       </c>
       <c r="E296">
-        <v>900</v>
+        <v>96.739285714285714</v>
       </c>
       <c r="F296">
-        <v>2550</v>
-      </c>
-      <c r="J296" s="36"/>
+        <v>285.08571428571429</v>
+      </c>
+      <c r="I296" s="38"/>
+      <c r="J296" s="38"/>
       <c r="K296" s="36"/>
       <c r="L296" s="39"/>
       <c r="M296" s="36"/>
@@ -16885,10 +16896,10 @@
     </row>
     <row r="297" spans="1:37">
       <c r="A297" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B297" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C297" s="36">
         <v>43462</v>
@@ -16896,7 +16907,8 @@
       <c r="D297">
         <v>0</v>
       </c>
-      <c r="J297" s="36"/>
+      <c r="I297" s="38"/>
+      <c r="J297" s="38"/>
       <c r="K297" s="36"/>
       <c r="L297" s="39"/>
       <c r="M297" s="36"/>
@@ -16916,10 +16928,10 @@
     </row>
     <row r="298" spans="1:37">
       <c r="A298" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B298" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C298" s="36">
         <v>43494</v>
@@ -16930,7 +16942,8 @@
       <c r="H298" s="38">
         <v>1.05</v>
       </c>
-      <c r="J298" s="36"/>
+      <c r="I298" s="38"/>
+      <c r="J298" s="38"/>
       <c r="K298" s="36"/>
       <c r="L298" s="39"/>
       <c r="M298" s="36"/>
@@ -16938,10 +16951,10 @@
     </row>
     <row r="299" spans="1:37">
       <c r="A299" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C299" s="36">
         <v>43507</v>
@@ -16952,7 +16965,8 @@
       <c r="H299" s="38">
         <v>1.55</v>
       </c>
-      <c r="J299" s="36"/>
+      <c r="I299" s="38"/>
+      <c r="J299" s="38"/>
       <c r="K299" s="36"/>
       <c r="L299" s="39"/>
       <c r="M299" s="36"/>
@@ -16960,10 +16974,10 @@
     </row>
     <row r="300" spans="1:37">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B300" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C300" s="36">
         <v>43515</v>
@@ -16974,7 +16988,8 @@
       <c r="H300" s="38">
         <v>1.2</v>
       </c>
-      <c r="J300" s="36"/>
+      <c r="I300" s="38"/>
+      <c r="J300" s="38"/>
       <c r="K300" s="36"/>
       <c r="L300" s="39"/>
       <c r="M300" s="36"/>
@@ -16982,10 +16997,10 @@
     </row>
     <row r="301" spans="1:37">
       <c r="A301" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B301" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C301" s="36">
         <v>43509</v>
@@ -16994,9 +17009,10 @@
         <v>57</v>
       </c>
       <c r="F301">
-        <v>1750</v>
-      </c>
-      <c r="J301" s="36"/>
+        <v>189.11250000000001</v>
+      </c>
+      <c r="I301" s="38"/>
+      <c r="J301" s="38"/>
       <c r="K301" s="36"/>
       <c r="L301" s="39"/>
       <c r="M301" s="36"/>
@@ -17004,10 +17020,10 @@
     </row>
     <row r="302" spans="1:37">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B302" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C302" s="36">
         <v>43523</v>
@@ -17018,7 +17034,8 @@
       <c r="H302" s="38">
         <v>1.28</v>
       </c>
-      <c r="J302" s="36"/>
+      <c r="I302" s="38"/>
+      <c r="J302" s="38"/>
       <c r="K302" s="36"/>
       <c r="L302" s="39"/>
       <c r="M302" s="36"/>
@@ -17026,10 +17043,10 @@
     </row>
     <row r="303" spans="1:37">
       <c r="A303" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B303" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C303" s="36">
         <v>43531</v>
@@ -17040,7 +17057,8 @@
       <c r="H303" s="38">
         <v>1</v>
       </c>
-      <c r="J303" s="36"/>
+      <c r="I303" s="38"/>
+      <c r="J303" s="38"/>
       <c r="K303" s="36"/>
       <c r="L303" s="39"/>
       <c r="M303" s="36"/>
@@ -17048,10 +17066,10 @@
     </row>
     <row r="304" spans="1:37">
       <c r="A304" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B304" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="C304" s="36">
         <v>43549</v>
@@ -17060,12 +17078,13 @@
         <v>88</v>
       </c>
       <c r="E304">
-        <v>1150</v>
+        <v>113.6875</v>
       </c>
       <c r="F304">
-        <v>3000</v>
-      </c>
-      <c r="J304" s="36"/>
+        <v>302.625</v>
+      </c>
+      <c r="I304" s="38"/>
+      <c r="J304" s="38"/>
       <c r="K304" s="36"/>
       <c r="L304" s="39"/>
       <c r="M304" s="36"/>
@@ -17076,10 +17095,10 @@
     </row>
     <row r="305" spans="1:37">
       <c r="A305" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B305" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C305" s="36">
         <v>43462</v>
@@ -17087,7 +17106,8 @@
       <c r="D305">
         <v>0</v>
       </c>
-      <c r="J305" s="36"/>
+      <c r="I305" s="38"/>
+      <c r="J305" s="38"/>
       <c r="K305" s="36"/>
       <c r="L305" s="39"/>
       <c r="M305" s="36"/>
@@ -17107,10 +17127,10 @@
     </row>
     <row r="306" spans="1:37">
       <c r="A306" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B306" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C306" s="36">
         <v>43494</v>
@@ -17121,7 +17141,8 @@
       <c r="H306" s="38">
         <v>1.25</v>
       </c>
-      <c r="J306" s="36"/>
+      <c r="I306" s="38"/>
+      <c r="J306" s="38"/>
       <c r="K306" s="36"/>
       <c r="L306" s="39"/>
       <c r="M306" s="36"/>
@@ -17129,10 +17150,10 @@
     </row>
     <row r="307" spans="1:37">
       <c r="A307" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B307" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C307" s="36">
         <v>43507</v>
@@ -17143,7 +17164,8 @@
       <c r="H307" s="38">
         <v>1.5</v>
       </c>
-      <c r="J307" s="36"/>
+      <c r="I307" s="38"/>
+      <c r="J307" s="38"/>
       <c r="K307" s="36"/>
       <c r="L307" s="39"/>
       <c r="M307" s="36"/>
@@ -17151,10 +17173,10 @@
     </row>
     <row r="308" spans="1:37">
       <c r="A308" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B308" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C308" s="36">
         <v>43515</v>
@@ -17165,7 +17187,8 @@
       <c r="H308" s="38">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J308" s="36"/>
+      <c r="I308" s="38"/>
+      <c r="J308" s="38"/>
       <c r="K308" s="36"/>
       <c r="L308" s="39"/>
       <c r="M308" s="36"/>
@@ -17173,10 +17196,10 @@
     </row>
     <row r="309" spans="1:37">
       <c r="A309" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B309" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C309" s="36">
         <v>43509</v>
@@ -17185,9 +17208,10 @@
         <v>57</v>
       </c>
       <c r="F309">
-        <v>1500</v>
-      </c>
-      <c r="J309" s="36"/>
+        <v>151.36250000000001</v>
+      </c>
+      <c r="I309" s="38"/>
+      <c r="J309" s="38"/>
       <c r="K309" s="36"/>
       <c r="L309" s="39"/>
       <c r="M309" s="36"/>
@@ -17195,10 +17219,10 @@
     </row>
     <row r="310" spans="1:37">
       <c r="A310" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B310" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C310" s="36">
         <v>43523</v>
@@ -17209,7 +17233,8 @@
       <c r="H310" s="38">
         <v>1.05</v>
       </c>
-      <c r="J310" s="36"/>
+      <c r="I310" s="38"/>
+      <c r="J310" s="38"/>
       <c r="K310" s="36"/>
       <c r="L310" s="39"/>
       <c r="M310" s="36"/>
@@ -17217,10 +17242,10 @@
     </row>
     <row r="311" spans="1:37">
       <c r="A311" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B311" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C311" s="36">
         <v>43531</v>
@@ -17231,7 +17256,8 @@
       <c r="H311" s="38">
         <v>0.85</v>
       </c>
-      <c r="J311" s="36"/>
+      <c r="I311" s="38"/>
+      <c r="J311" s="38"/>
       <c r="K311" s="36"/>
       <c r="L311" s="39"/>
       <c r="M311" s="36"/>
@@ -17239,10 +17265,10 @@
     </row>
     <row r="312" spans="1:37">
       <c r="A312" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B312" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="C312" s="36">
         <v>43549</v>
@@ -17251,12 +17277,13 @@
         <v>88</v>
       </c>
       <c r="E312">
-        <v>800</v>
+        <v>80.712500000000006</v>
       </c>
       <c r="F312">
-        <v>2250</v>
-      </c>
-      <c r="J312" s="36"/>
+        <v>225.95</v>
+      </c>
+      <c r="I312" s="38"/>
+      <c r="J312" s="38"/>
       <c r="K312" s="36"/>
       <c r="L312" s="39"/>
       <c r="M312" s="36"/>
@@ -17267,10 +17294,10 @@
     </row>
     <row r="313" spans="1:37">
       <c r="A313" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B313" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C313" s="36">
         <v>43462</v>
@@ -17278,7 +17305,8 @@
       <c r="D313">
         <v>0</v>
       </c>
-      <c r="J313" s="36"/>
+      <c r="I313" s="38"/>
+      <c r="J313" s="38"/>
       <c r="K313" s="36"/>
       <c r="L313" s="39"/>
       <c r="M313" s="36"/>
@@ -17298,10 +17326,10 @@
     </row>
     <row r="314" spans="1:37">
       <c r="A314" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B314" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C314" s="36">
         <v>43494</v>
@@ -17312,7 +17340,8 @@
       <c r="H314" s="38">
         <v>1</v>
       </c>
-      <c r="J314" s="36"/>
+      <c r="I314" s="38"/>
+      <c r="J314" s="38"/>
       <c r="K314" s="36"/>
       <c r="L314" s="39"/>
       <c r="M314" s="36"/>
@@ -17320,10 +17349,10 @@
     </row>
     <row r="315" spans="1:37">
       <c r="A315" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B315" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C315" s="36">
         <v>43507</v>
@@ -17334,7 +17363,8 @@
       <c r="H315" s="38">
         <v>1.35</v>
       </c>
-      <c r="J315" s="36"/>
+      <c r="I315" s="38"/>
+      <c r="J315" s="38"/>
       <c r="K315" s="36"/>
       <c r="L315" s="39"/>
       <c r="M315" s="36"/>
@@ -17342,10 +17372,10 @@
     </row>
     <row r="316" spans="1:37">
       <c r="A316" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B316" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C316" s="36">
         <v>43515</v>
@@ -17356,7 +17386,8 @@
       <c r="H316" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J316" s="36"/>
+      <c r="I316" s="38"/>
+      <c r="J316" s="38"/>
       <c r="K316" s="36"/>
       <c r="L316" s="39"/>
       <c r="M316" s="36"/>
@@ -17364,10 +17395,10 @@
     </row>
     <row r="317" spans="1:37">
       <c r="A317" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B317" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C317" s="36">
         <v>43509</v>
@@ -17376,9 +17407,10 @@
         <v>57</v>
       </c>
       <c r="F317">
-        <v>1800</v>
-      </c>
-      <c r="J317" s="36"/>
+        <v>180.72499999999999</v>
+      </c>
+      <c r="I317" s="38"/>
+      <c r="J317" s="38"/>
       <c r="K317" s="36"/>
       <c r="L317" s="39"/>
       <c r="M317" s="36"/>
@@ -17386,10 +17418,10 @@
     </row>
     <row r="318" spans="1:37">
       <c r="A318" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B318" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C318" s="36">
         <v>43523</v>
@@ -17400,7 +17432,8 @@
       <c r="H318" s="38">
         <v>1</v>
       </c>
-      <c r="J318" s="36"/>
+      <c r="I318" s="38"/>
+      <c r="J318" s="38"/>
       <c r="K318" s="36"/>
       <c r="L318" s="39"/>
       <c r="M318" s="36"/>
@@ -17408,10 +17441,10 @@
     </row>
     <row r="319" spans="1:37">
       <c r="A319" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B319" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C319" s="36">
         <v>43531</v>
@@ -17422,7 +17455,8 @@
       <c r="H319" s="38">
         <v>0.95</v>
       </c>
-      <c r="J319" s="36"/>
+      <c r="I319" s="38"/>
+      <c r="J319" s="38"/>
       <c r="K319" s="36"/>
       <c r="L319" s="39"/>
       <c r="M319" s="36"/>
@@ -17430,10 +17464,10 @@
     </row>
     <row r="320" spans="1:37">
       <c r="A320" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B320" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C320" s="36">
         <v>43549</v>
@@ -17442,12 +17476,13 @@
         <v>88</v>
       </c>
       <c r="E320">
-        <v>990</v>
+        <v>98.45</v>
       </c>
       <c r="F320">
-        <v>2750</v>
-      </c>
-      <c r="J320" s="36"/>
+        <v>273.4375</v>
+      </c>
+      <c r="I320" s="38"/>
+      <c r="J320" s="38"/>
       <c r="K320" s="36"/>
       <c r="L320" s="39"/>
       <c r="M320" s="36"/>
@@ -17458,10 +17493,10 @@
     </row>
     <row r="321" spans="1:37">
       <c r="A321" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B321" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C321" s="36">
         <v>43462</v>
@@ -17469,7 +17504,8 @@
       <c r="D321">
         <v>0</v>
       </c>
-      <c r="J321" s="36"/>
+      <c r="I321" s="38"/>
+      <c r="J321" s="38"/>
       <c r="K321" s="36"/>
       <c r="L321" s="39"/>
       <c r="M321" s="36"/>
@@ -17489,10 +17525,10 @@
     </row>
     <row r="322" spans="1:37">
       <c r="A322" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B322" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C322" s="36">
         <v>43494</v>
@@ -17503,7 +17539,8 @@
       <c r="H322" s="38">
         <v>1.38</v>
       </c>
-      <c r="J322" s="36"/>
+      <c r="I322" s="38"/>
+      <c r="J322" s="38"/>
       <c r="K322" s="36"/>
       <c r="L322" s="39"/>
       <c r="M322" s="36"/>
@@ -17511,10 +17548,10 @@
     </row>
     <row r="323" spans="1:37">
       <c r="A323" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B323" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C323" s="36">
         <v>43507</v>
@@ -17525,7 +17562,8 @@
       <c r="H323" s="38">
         <v>1.72</v>
       </c>
-      <c r="J323" s="36"/>
+      <c r="I323" s="38"/>
+      <c r="J323" s="38"/>
       <c r="K323" s="36"/>
       <c r="L323" s="39"/>
       <c r="M323" s="36"/>
@@ -17533,10 +17571,10 @@
     </row>
     <row r="324" spans="1:37">
       <c r="A324" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B324" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C324" s="36">
         <v>43515</v>
@@ -17544,7 +17582,8 @@
       <c r="D324">
         <v>54</v>
       </c>
-      <c r="J324" s="36"/>
+      <c r="I324" s="38"/>
+      <c r="J324" s="38"/>
       <c r="K324" s="36"/>
       <c r="L324" s="39"/>
       <c r="M324" s="36"/>
@@ -17552,10 +17591,10 @@
     </row>
     <row r="325" spans="1:37">
       <c r="A325" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B325" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C325" s="36">
         <v>43509</v>
@@ -17564,9 +17603,10 @@
         <v>57</v>
       </c>
       <c r="F325">
-        <v>1750</v>
-      </c>
-      <c r="J325" s="36"/>
+        <v>176.67500000000001</v>
+      </c>
+      <c r="I325" s="38"/>
+      <c r="J325" s="38"/>
       <c r="K325" s="36"/>
       <c r="L325" s="39"/>
       <c r="M325" s="36"/>
@@ -17574,10 +17614,10 @@
     </row>
     <row r="326" spans="1:37">
       <c r="A326" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B326" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C326" s="36">
         <v>43523</v>
@@ -17585,7 +17625,8 @@
       <c r="D326">
         <v>62</v>
       </c>
-      <c r="J326" s="36"/>
+      <c r="I326" s="38"/>
+      <c r="J326" s="38"/>
       <c r="K326" s="36"/>
       <c r="L326" s="39"/>
       <c r="M326" s="36"/>
@@ -17593,10 +17634,10 @@
     </row>
     <row r="327" spans="1:37">
       <c r="A327" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B327" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C327" s="36">
         <v>43531</v>
@@ -17607,7 +17648,8 @@
       <c r="H327" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J327" s="36"/>
+      <c r="I327" s="38"/>
+      <c r="J327" s="38"/>
       <c r="K327" s="36"/>
       <c r="L327" s="39"/>
       <c r="M327" s="36"/>
@@ -17615,10 +17657,10 @@
     </row>
     <row r="328" spans="1:37">
       <c r="A328" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B328" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C328" s="36">
         <v>43549</v>
@@ -17627,12 +17669,13 @@
         <v>88</v>
       </c>
       <c r="E328">
-        <v>1100</v>
+        <v>102.75</v>
       </c>
       <c r="F328">
-        <v>2800</v>
-      </c>
-      <c r="J328" s="36"/>
+        <v>283.7</v>
+      </c>
+      <c r="I328" s="38"/>
+      <c r="J328" s="38"/>
       <c r="K328" s="36"/>
       <c r="L328" s="39"/>
       <c r="M328" s="36"/>
@@ -17643,10 +17686,10 @@
     </row>
     <row r="329" spans="1:37">
       <c r="A329" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B329" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C329" s="36">
         <v>43462</v>
@@ -17654,7 +17697,8 @@
       <c r="D329">
         <v>0</v>
       </c>
-      <c r="J329" s="36"/>
+      <c r="I329" s="38"/>
+      <c r="J329" s="38"/>
       <c r="K329" s="36"/>
       <c r="L329" s="39"/>
       <c r="M329" s="36"/>
@@ -17674,10 +17718,10 @@
     </row>
     <row r="330" spans="1:37">
       <c r="A330" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B330" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C330" s="36">
         <v>43494</v>
@@ -17688,7 +17732,8 @@
       <c r="H330" s="38">
         <v>1.2</v>
       </c>
-      <c r="J330" s="36"/>
+      <c r="I330" s="38"/>
+      <c r="J330" s="38"/>
       <c r="K330" s="36"/>
       <c r="L330" s="39"/>
       <c r="M330" s="36"/>
@@ -17696,10 +17741,10 @@
     </row>
     <row r="331" spans="1:37">
       <c r="A331" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B331" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C331" s="36">
         <v>43507</v>
@@ -17710,7 +17755,8 @@
       <c r="H331" s="38">
         <v>1.4</v>
       </c>
-      <c r="J331" s="36"/>
+      <c r="I331" s="38"/>
+      <c r="J331" s="38"/>
       <c r="K331" s="36"/>
       <c r="L331" s="39"/>
       <c r="M331" s="36"/>
@@ -17718,10 +17764,10 @@
     </row>
     <row r="332" spans="1:37">
       <c r="A332" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B332" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C332" s="36">
         <v>43515</v>
@@ -17732,7 +17778,8 @@
       <c r="H332" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J332" s="36"/>
+      <c r="I332" s="38"/>
+      <c r="J332" s="38"/>
       <c r="K332" s="36"/>
       <c r="L332" s="39"/>
       <c r="M332" s="36"/>
@@ -17740,10 +17787,10 @@
     </row>
     <row r="333" spans="1:37">
       <c r="A333" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B333" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C333" s="36">
         <v>43509</v>
@@ -17752,9 +17799,10 @@
         <v>57</v>
       </c>
       <c r="F333">
-        <v>1750</v>
-      </c>
-      <c r="J333" s="36"/>
+        <v>174.92500000000001</v>
+      </c>
+      <c r="I333" s="38"/>
+      <c r="J333" s="38"/>
       <c r="K333" s="36"/>
       <c r="L333" s="39"/>
       <c r="M333" s="36"/>
@@ -17762,10 +17810,10 @@
     </row>
     <row r="334" spans="1:37">
       <c r="A334" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B334" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C334" s="36">
         <v>43523</v>
@@ -17776,7 +17824,8 @@
       <c r="H334" s="38">
         <v>1</v>
       </c>
-      <c r="J334" s="36"/>
+      <c r="I334" s="38"/>
+      <c r="J334" s="38"/>
       <c r="K334" s="36"/>
       <c r="L334" s="39"/>
       <c r="M334" s="36"/>
@@ -17784,10 +17833,10 @@
     </row>
     <row r="335" spans="1:37">
       <c r="A335" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B335" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C335" s="36">
         <v>43531</v>
@@ -17798,7 +17847,8 @@
       <c r="H335" s="38">
         <v>0.97</v>
       </c>
-      <c r="J335" s="36"/>
+      <c r="I335" s="38"/>
+      <c r="J335" s="38"/>
       <c r="K335" s="36"/>
       <c r="L335" s="39"/>
       <c r="M335" s="36"/>
@@ -17806,10 +17856,10 @@
     </row>
     <row r="336" spans="1:37">
       <c r="A336" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B336" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C336" s="36">
         <v>43549</v>
@@ -17818,12 +17868,13 @@
         <v>88</v>
       </c>
       <c r="E336">
-        <v>990</v>
+        <v>98.087500000000006</v>
       </c>
       <c r="F336">
-        <v>2650</v>
-      </c>
-      <c r="J336" s="36"/>
+        <v>266.41250000000002</v>
+      </c>
+      <c r="I336" s="38"/>
+      <c r="J336" s="38"/>
       <c r="K336" s="36"/>
       <c r="L336" s="39"/>
       <c r="M336" s="36"/>
@@ -17834,10 +17885,10 @@
     </row>
     <row r="337" spans="1:37">
       <c r="A337" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B337" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C337" s="36">
         <v>43462</v>
@@ -17845,7 +17896,8 @@
       <c r="D337">
         <v>0</v>
       </c>
-      <c r="J337" s="36"/>
+      <c r="I337" s="38"/>
+      <c r="J337" s="38"/>
       <c r="K337" s="36"/>
       <c r="L337" s="39"/>
       <c r="M337" s="36"/>
@@ -17865,10 +17917,10 @@
     </row>
     <row r="338" spans="1:37">
       <c r="A338" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B338" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C338" s="36">
         <v>43494</v>
@@ -17879,7 +17931,8 @@
       <c r="H338" s="38">
         <v>1.05</v>
       </c>
-      <c r="J338" s="36"/>
+      <c r="I338" s="38"/>
+      <c r="J338" s="38"/>
       <c r="K338" s="36"/>
       <c r="L338" s="39"/>
       <c r="M338" s="36"/>
@@ -17887,10 +17940,10 @@
     </row>
     <row r="339" spans="1:37">
       <c r="A339" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B339" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C339" s="36">
         <v>43507</v>
@@ -17901,7 +17954,8 @@
       <c r="H339" s="38">
         <v>1.32</v>
       </c>
-      <c r="J339" s="36"/>
+      <c r="I339" s="38"/>
+      <c r="J339" s="38"/>
       <c r="K339" s="36"/>
       <c r="L339" s="39"/>
       <c r="M339" s="36"/>
@@ -17909,10 +17963,10 @@
     </row>
     <row r="340" spans="1:37">
       <c r="A340" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B340" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C340" s="36">
         <v>43515</v>
@@ -17920,7 +17974,8 @@
       <c r="D340">
         <v>54</v>
       </c>
-      <c r="J340" s="36"/>
+      <c r="I340" s="38"/>
+      <c r="J340" s="38"/>
       <c r="K340" s="36"/>
       <c r="L340" s="39"/>
       <c r="M340" s="36"/>
@@ -17928,10 +17983,10 @@
     </row>
     <row r="341" spans="1:37">
       <c r="A341" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B341" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C341" s="36">
         <v>43509</v>
@@ -17940,9 +17995,10 @@
         <v>57</v>
       </c>
       <c r="F341">
-        <v>2150</v>
-      </c>
-      <c r="J341" s="36"/>
+        <v>215.98750000000001</v>
+      </c>
+      <c r="I341" s="38"/>
+      <c r="J341" s="38"/>
       <c r="K341" s="36"/>
       <c r="L341" s="39"/>
       <c r="M341" s="36"/>
@@ -17950,10 +18006,10 @@
     </row>
     <row r="342" spans="1:37">
       <c r="A342" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B342" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C342" s="36">
         <v>43523</v>
@@ -17964,7 +18020,8 @@
       <c r="H342" s="38">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J342" s="36"/>
+      <c r="I342" s="38"/>
+      <c r="J342" s="38"/>
       <c r="K342" s="36"/>
       <c r="L342" s="39"/>
       <c r="M342" s="36"/>
@@ -17972,10 +18029,10 @@
     </row>
     <row r="343" spans="1:37">
       <c r="A343" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B343" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C343" s="36">
         <v>43531</v>
@@ -17986,7 +18043,8 @@
       <c r="H343" s="38">
         <v>0.9</v>
       </c>
-      <c r="J343" s="36"/>
+      <c r="I343" s="38"/>
+      <c r="J343" s="38"/>
       <c r="K343" s="36"/>
       <c r="L343" s="39"/>
       <c r="M343" s="36"/>
@@ -17994,10 +18052,10 @@
     </row>
     <row r="344" spans="1:37">
       <c r="A344" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B344" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C344" s="36">
         <v>43549</v>
@@ -18006,12 +18064,13 @@
         <v>88</v>
       </c>
       <c r="E344">
-        <v>1110</v>
+        <v>111.95</v>
       </c>
       <c r="F344">
-        <v>3000</v>
-      </c>
-      <c r="J344" s="36"/>
+        <v>299.2</v>
+      </c>
+      <c r="I344" s="38"/>
+      <c r="J344" s="38"/>
       <c r="K344" s="36"/>
       <c r="L344" s="39"/>
       <c r="M344" s="36"/>
@@ -18022,10 +18081,10 @@
     </row>
     <row r="345" spans="1:37">
       <c r="A345" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B345" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C345" s="36">
         <v>43462</v>
@@ -18033,7 +18092,8 @@
       <c r="D345">
         <v>0</v>
       </c>
-      <c r="J345" s="36"/>
+      <c r="I345" s="38"/>
+      <c r="J345" s="38"/>
       <c r="K345" s="36"/>
       <c r="L345" s="39"/>
       <c r="M345" s="36"/>
@@ -18053,10 +18113,10 @@
     </row>
     <row r="346" spans="1:37">
       <c r="A346" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B346" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C346" s="36">
         <v>43494</v>
@@ -18067,7 +18127,8 @@
       <c r="H346" s="38">
         <v>1.05</v>
       </c>
-      <c r="J346" s="36"/>
+      <c r="I346" s="38"/>
+      <c r="J346" s="38"/>
       <c r="K346" s="36"/>
       <c r="L346" s="39"/>
       <c r="M346" s="36"/>
@@ -18075,10 +18136,10 @@
     </row>
     <row r="347" spans="1:37">
       <c r="A347" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B347" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C347" s="36">
         <v>43507</v>
@@ -18089,7 +18150,8 @@
       <c r="H347" s="38">
         <v>1.32</v>
       </c>
-      <c r="J347" s="36"/>
+      <c r="I347" s="38"/>
+      <c r="J347" s="38"/>
       <c r="K347" s="36"/>
       <c r="L347" s="39"/>
       <c r="M347" s="36"/>
@@ -18097,10 +18159,10 @@
     </row>
     <row r="348" spans="1:37">
       <c r="A348" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B348" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C348" s="36">
         <v>43515</v>
@@ -18108,7 +18170,8 @@
       <c r="D348">
         <v>54</v>
       </c>
-      <c r="J348" s="36"/>
+      <c r="I348" s="38"/>
+      <c r="J348" s="38"/>
       <c r="K348" s="36"/>
       <c r="L348" s="39"/>
       <c r="M348" s="36"/>
@@ -18116,10 +18179,10 @@
     </row>
     <row r="349" spans="1:37">
       <c r="A349" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B349" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C349" s="36">
         <v>43509</v>
@@ -18128,9 +18191,10 @@
         <v>57</v>
       </c>
       <c r="F349">
-        <v>2100</v>
-      </c>
-      <c r="J349" s="36"/>
+        <v>210.16249999999999</v>
+      </c>
+      <c r="I349" s="38"/>
+      <c r="J349" s="38"/>
       <c r="K349" s="36"/>
       <c r="L349" s="39"/>
       <c r="M349" s="36"/>
@@ -18138,10 +18202,10 @@
     </row>
     <row r="350" spans="1:37">
       <c r="A350" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B350" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C350" s="36">
         <v>43523</v>
@@ -18152,7 +18216,8 @@
       <c r="H350" s="38">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J350" s="36"/>
+      <c r="I350" s="38"/>
+      <c r="J350" s="38"/>
       <c r="K350" s="36"/>
       <c r="L350" s="39"/>
       <c r="M350" s="36"/>
@@ -18160,10 +18225,10 @@
     </row>
     <row r="351" spans="1:37">
       <c r="A351" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B351" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C351" s="36">
         <v>43531</v>
@@ -18174,7 +18239,8 @@
       <c r="H351" s="38">
         <v>0.9</v>
       </c>
-      <c r="J351" s="36"/>
+      <c r="I351" s="38"/>
+      <c r="J351" s="38"/>
       <c r="K351" s="36"/>
       <c r="L351" s="39"/>
       <c r="M351" s="36"/>
@@ -18182,10 +18248,10 @@
     </row>
     <row r="352" spans="1:37">
       <c r="A352" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B352" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C352" s="36">
         <v>43549</v>
@@ -18194,12 +18260,13 @@
         <v>88</v>
       </c>
       <c r="E352">
-        <v>980</v>
+        <v>97.174999999999997</v>
       </c>
       <c r="F352">
-        <v>2700</v>
-      </c>
-      <c r="J352" s="36"/>
+        <v>268.07499999999999</v>
+      </c>
+      <c r="I352" s="38"/>
+      <c r="J352" s="38"/>
       <c r="K352" s="36"/>
       <c r="L352" s="39"/>
       <c r="M352" s="36"/>
@@ -18210,10 +18277,10 @@
     </row>
     <row r="353" spans="1:37">
       <c r="A353" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B353" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C353" s="36">
         <v>43462</v>
@@ -18221,6 +18288,8 @@
       <c r="D353">
         <v>0</v>
       </c>
+      <c r="I353" s="38"/>
+      <c r="J353" s="38"/>
       <c r="K353" s="36"/>
       <c r="L353" s="39"/>
       <c r="M353" s="36"/>
@@ -18240,10 +18309,10 @@
     </row>
     <row r="354" spans="1:37">
       <c r="A354" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B354" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C354" s="36">
         <v>43494</v>
@@ -18254,7 +18323,8 @@
       <c r="H354" s="38">
         <v>1.05</v>
       </c>
-      <c r="J354" s="36"/>
+      <c r="I354" s="38"/>
+      <c r="J354" s="38"/>
       <c r="K354" s="36"/>
       <c r="L354" s="39"/>
       <c r="M354" s="36"/>
@@ -18262,10 +18332,10 @@
     </row>
     <row r="355" spans="1:37">
       <c r="A355" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B355" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C355" s="36">
         <v>43507</v>
@@ -18276,7 +18346,8 @@
       <c r="H355" s="38">
         <v>1.32</v>
       </c>
-      <c r="J355" s="36"/>
+      <c r="I355" s="38"/>
+      <c r="J355" s="38"/>
       <c r="K355" s="36"/>
       <c r="L355" s="39"/>
       <c r="M355" s="36"/>
@@ -18284,10 +18355,10 @@
     </row>
     <row r="356" spans="1:37">
       <c r="A356" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B356" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C356" s="36">
         <v>43515</v>
@@ -18295,7 +18366,8 @@
       <c r="D356">
         <v>54</v>
       </c>
-      <c r="J356" s="36"/>
+      <c r="I356" s="38"/>
+      <c r="J356" s="38"/>
       <c r="K356" s="36"/>
       <c r="L356" s="39"/>
       <c r="M356" s="36"/>
@@ -18303,10 +18375,10 @@
     </row>
     <row r="357" spans="1:37">
       <c r="A357" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B357" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C357" s="36">
         <v>43509</v>
@@ -18315,9 +18387,10 @@
         <v>57</v>
       </c>
       <c r="F357">
-        <v>1850</v>
-      </c>
-      <c r="J357" s="36"/>
+        <v>190.15</v>
+      </c>
+      <c r="I357" s="38"/>
+      <c r="J357" s="38"/>
       <c r="K357" s="36"/>
       <c r="L357" s="39"/>
       <c r="M357" s="36"/>
@@ -18325,10 +18398,10 @@
     </row>
     <row r="358" spans="1:37">
       <c r="A358" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B358" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C358" s="36">
         <v>43523</v>
@@ -18339,7 +18412,8 @@
       <c r="H358" s="38">
         <v>1.35</v>
       </c>
-      <c r="J358" s="36"/>
+      <c r="I358" s="38"/>
+      <c r="J358" s="38"/>
       <c r="K358" s="36"/>
       <c r="L358" s="39"/>
       <c r="M358" s="36"/>
@@ -18347,10 +18421,10 @@
     </row>
     <row r="359" spans="1:37">
       <c r="A359" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B359" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C359" s="36">
         <v>43531</v>
@@ -18361,7 +18435,8 @@
       <c r="H359" s="38">
         <v>0.9</v>
       </c>
-      <c r="J359" s="36"/>
+      <c r="I359" s="38"/>
+      <c r="J359" s="38"/>
       <c r="K359" s="36"/>
       <c r="L359" s="38"/>
       <c r="M359" s="36"/>
@@ -18369,10 +18444,10 @@
     </row>
     <row r="360" spans="1:37">
       <c r="A360" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B360" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="C360" s="36">
         <v>43549</v>
@@ -18381,11 +18456,13 @@
         <v>88</v>
       </c>
       <c r="E360">
-        <v>1110</v>
+        <v>111.22499999999999</v>
       </c>
       <c r="F360">
-        <v>3000</v>
-      </c>
+        <v>301.11250000000001</v>
+      </c>
+      <c r="I360" s="38"/>
+      <c r="J360" s="38"/>
       <c r="K360" s="36"/>
       <c r="L360" s="38"/>
       <c r="M360" s="36"/>
@@ -18396,10 +18473,10 @@
     </row>
     <row r="361" spans="1:37">
       <c r="A361" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B361" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C361" s="36">
         <v>43462</v>
@@ -18407,6 +18484,8 @@
       <c r="D361">
         <v>0</v>
       </c>
+      <c r="I361" s="38"/>
+      <c r="J361" s="38"/>
       <c r="K361" s="39"/>
       <c r="L361" s="38"/>
       <c r="M361" s="36"/>
@@ -18426,10 +18505,10 @@
     </row>
     <row r="362" spans="1:37">
       <c r="A362" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B362" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C362" s="36">
         <v>43494</v>
@@ -18440,7 +18519,8 @@
       <c r="H362" s="38">
         <v>1.19</v>
       </c>
-      <c r="J362" s="36"/>
+      <c r="I362" s="38"/>
+      <c r="J362" s="38"/>
       <c r="K362" s="39"/>
       <c r="L362" s="38"/>
       <c r="M362" s="36"/>
@@ -18448,10 +18528,10 @@
     </row>
     <row r="363" spans="1:37">
       <c r="A363" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B363" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C363" s="36">
         <v>43507</v>
@@ -18462,7 +18542,8 @@
       <c r="H363" s="38">
         <v>1.4</v>
       </c>
-      <c r="J363" s="36"/>
+      <c r="I363" s="38"/>
+      <c r="J363" s="38"/>
       <c r="K363" s="39"/>
       <c r="L363" s="38"/>
       <c r="M363" s="36"/>
@@ -18470,10 +18551,10 @@
     </row>
     <row r="364" spans="1:37">
       <c r="A364" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B364" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C364" s="36">
         <v>43515</v>
@@ -18484,7 +18565,8 @@
       <c r="H364" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J364" s="36"/>
+      <c r="I364" s="38"/>
+      <c r="J364" s="38"/>
       <c r="K364" s="39"/>
       <c r="L364" s="38"/>
       <c r="M364" s="36"/>
@@ -18492,10 +18574,10 @@
     </row>
     <row r="365" spans="1:37">
       <c r="A365" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B365" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C365" s="36">
         <v>43509</v>
@@ -18504,8 +18586,10 @@
         <v>57</v>
       </c>
       <c r="F365">
-        <v>1900</v>
-      </c>
+        <v>1876.125</v>
+      </c>
+      <c r="I365" s="38"/>
+      <c r="J365" s="38"/>
       <c r="K365" s="39"/>
       <c r="L365" s="38"/>
       <c r="M365" s="36"/>
@@ -18513,10 +18597,10 @@
     </row>
     <row r="366" spans="1:37">
       <c r="A366" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B366" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C366" s="36">
         <v>43523</v>
@@ -18527,7 +18611,8 @@
       <c r="H366" s="38">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J366" s="36"/>
+      <c r="I366" s="38"/>
+      <c r="J366" s="38"/>
       <c r="K366" s="39"/>
       <c r="L366" s="38"/>
       <c r="M366" s="36"/>
@@ -18535,10 +18620,10 @@
     </row>
     <row r="367" spans="1:37">
       <c r="A367" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B367" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C367" s="36">
         <v>43531</v>
@@ -18549,7 +18634,8 @@
       <c r="H367" s="38">
         <v>0.9</v>
       </c>
-      <c r="J367" s="36"/>
+      <c r="I367" s="38"/>
+      <c r="J367" s="38"/>
       <c r="K367" s="39"/>
       <c r="L367" s="38"/>
       <c r="M367" s="36"/>
@@ -18557,10 +18643,10 @@
     </row>
     <row r="368" spans="1:37">
       <c r="A368" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B368" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="C368" s="36">
         <v>43549</v>
@@ -18569,11 +18655,13 @@
         <v>88</v>
       </c>
       <c r="E368">
-        <v>1180</v>
+        <v>117.72499999999999</v>
       </c>
       <c r="F368">
-        <v>3200</v>
-      </c>
+        <v>321.32499999999999</v>
+      </c>
+      <c r="I368" s="38"/>
+      <c r="J368" s="38"/>
       <c r="K368" s="39"/>
       <c r="L368" s="38"/>
       <c r="M368" s="36"/>
@@ -18587,11 +18675,13 @@
         <v>109</v>
       </c>
       <c r="B369" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="C369" s="36">
         <v>43466</v>
       </c>
+      <c r="I369" s="38"/>
+      <c r="J369" s="38"/>
       <c r="K369" s="39"/>
       <c r="L369" s="38"/>
       <c r="M369" s="36"/>
@@ -18620,7 +18710,7 @@
         <v>109</v>
       </c>
       <c r="B370" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="C370" s="36">
         <v>43521</v>
@@ -18628,6 +18718,8 @@
       <c r="D370">
         <v>0</v>
       </c>
+      <c r="I370" s="38"/>
+      <c r="J370" s="38"/>
       <c r="K370" s="39"/>
       <c r="L370" s="38"/>
       <c r="M370" s="36"/>
@@ -18656,7 +18748,7 @@
         <v>109</v>
       </c>
       <c r="B371" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="C371" s="36">
         <v>43566</v>
@@ -18665,8 +18757,10 @@
         <v>44.5</v>
       </c>
       <c r="F371">
-        <v>1900</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I371" s="38"/>
+      <c r="J371" s="38"/>
       <c r="K371" s="39"/>
       <c r="L371" s="38"/>
       <c r="M371" s="36"/>
@@ -18681,7 +18775,7 @@
         <v>109</v>
       </c>
       <c r="B372" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="C372" s="36">
         <v>43607</v>
@@ -18690,11 +18784,13 @@
         <v>86</v>
       </c>
       <c r="E372">
-        <v>1231</v>
+        <v>123.1</v>
       </c>
       <c r="G372">
-        <v>2300</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="I372" s="38"/>
+      <c r="J372" s="38"/>
       <c r="K372" s="39"/>
       <c r="L372" s="38">
         <f>E372/(E372+G372)</f>
@@ -18726,7 +18822,7 @@
         <v>109</v>
       </c>
       <c r="B373" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C373" s="36">
         <v>43521</v>
@@ -18734,6 +18830,8 @@
       <c r="D373">
         <v>0</v>
       </c>
+      <c r="I373" s="38"/>
+      <c r="J373" s="38"/>
       <c r="K373" s="39"/>
       <c r="L373" s="38"/>
       <c r="M373" s="36"/>
@@ -18744,7 +18842,7 @@
         <v>109</v>
       </c>
       <c r="B374" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C374" s="36">
         <v>43566</v>
@@ -18752,6 +18850,8 @@
       <c r="D374">
         <v>44.5</v>
       </c>
+      <c r="I374" s="38"/>
+      <c r="J374" s="38"/>
       <c r="K374" s="39"/>
       <c r="L374" s="38"/>
       <c r="M374" s="36"/>
@@ -18761,7 +18861,7 @@
         <v>109</v>
       </c>
       <c r="B375" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C375" s="36">
         <v>43607</v>
@@ -18770,8 +18870,10 @@
         <v>86</v>
       </c>
       <c r="E375">
-        <v>1231</v>
-      </c>
+        <v>123.1</v>
+      </c>
+      <c r="I375" s="38"/>
+      <c r="J375" s="38"/>
       <c r="K375" s="39"/>
       <c r="L375" s="38"/>
     </row>
@@ -18780,7 +18882,7 @@
         <v>109</v>
       </c>
       <c r="B376" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C376" s="36">
         <v>43521</v>
@@ -18788,6 +18890,8 @@
       <c r="D376">
         <v>0</v>
       </c>
+      <c r="I376" s="38"/>
+      <c r="J376" s="38"/>
       <c r="K376" s="39"/>
       <c r="L376" s="38"/>
       <c r="AG376">
@@ -18799,7 +18903,7 @@
         <v>109</v>
       </c>
       <c r="B377" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C377" s="36">
         <v>43567</v>
@@ -18808,8 +18912,10 @@
         <v>46</v>
       </c>
       <c r="F377">
-        <v>1750</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I377" s="38"/>
+      <c r="J377" s="38"/>
       <c r="K377" s="39"/>
       <c r="L377" s="38"/>
     </row>
@@ -18818,7 +18924,7 @@
         <v>109</v>
       </c>
       <c r="B378" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="C378" s="36">
         <v>43613</v>
@@ -18827,15 +18933,17 @@
         <v>91.5</v>
       </c>
       <c r="E378">
-        <v>1161</v>
+        <v>116.1</v>
       </c>
       <c r="G378">
-        <v>2300</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="I378" s="38"/>
+      <c r="J378" s="38"/>
       <c r="K378" s="39"/>
       <c r="L378" s="38">
         <f>E378/(E378+G378)</f>
-        <v>0.33545218145044786</v>
+        <v>0.33545218145044781</v>
       </c>
       <c r="AG378">
         <v>194</v>
@@ -18846,7 +18954,7 @@
         <v>109</v>
       </c>
       <c r="B379" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C379" s="36">
         <v>43521</v>
@@ -18854,6 +18962,8 @@
       <c r="D379">
         <v>0</v>
       </c>
+      <c r="I379" s="38"/>
+      <c r="J379" s="38"/>
       <c r="K379" s="39"/>
       <c r="L379" s="38"/>
     </row>
@@ -18862,7 +18972,7 @@
         <v>109</v>
       </c>
       <c r="B380" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C380" s="36">
         <v>43567</v>
@@ -18870,6 +18980,8 @@
       <c r="D380">
         <v>46</v>
       </c>
+      <c r="I380" s="38"/>
+      <c r="J380" s="38"/>
       <c r="K380" s="39"/>
       <c r="L380" s="38"/>
     </row>
@@ -18878,7 +18990,7 @@
         <v>109</v>
       </c>
       <c r="B381" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C381" s="36">
         <v>43613</v>
@@ -18887,8 +18999,10 @@
         <v>91.5</v>
       </c>
       <c r="E381">
-        <v>1161</v>
-      </c>
+        <v>116.1</v>
+      </c>
+      <c r="I381" s="38"/>
+      <c r="J381" s="38"/>
       <c r="K381" s="39"/>
       <c r="L381" s="38"/>
     </row>
@@ -18897,7 +19011,7 @@
         <v>109</v>
       </c>
       <c r="B382" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C382" s="36">
         <v>43521</v>
@@ -18905,6 +19019,8 @@
       <c r="D382">
         <v>0</v>
       </c>
+      <c r="I382" s="38"/>
+      <c r="J382" s="38"/>
       <c r="K382" s="39"/>
       <c r="L382" s="38"/>
       <c r="AG382">
@@ -18916,7 +19032,7 @@
         <v>109</v>
       </c>
       <c r="B383" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C383" s="36">
         <v>43568</v>
@@ -18925,8 +19041,10 @@
         <v>47</v>
       </c>
       <c r="F383">
-        <v>1900</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I383" s="38"/>
+      <c r="J383" s="38"/>
       <c r="K383" s="39"/>
       <c r="L383" s="38"/>
     </row>
@@ -18935,7 +19053,7 @@
         <v>109</v>
       </c>
       <c r="B384" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C384" s="36">
         <v>43613</v>
@@ -18944,15 +19062,17 @@
         <v>91.5</v>
       </c>
       <c r="E384">
-        <v>1127</v>
+        <v>112.7</v>
       </c>
       <c r="G384">
-        <v>2150</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="I384" s="38"/>
+      <c r="J384" s="38"/>
       <c r="K384" s="39"/>
       <c r="L384" s="38">
         <f>E384/(E384+G384)</f>
-        <v>0.34391211473909061</v>
+        <v>0.34391211473909067</v>
       </c>
       <c r="AG384">
         <v>188</v>
@@ -18963,7 +19083,7 @@
         <v>109</v>
       </c>
       <c r="B385" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="C385" s="36">
         <v>43521</v>
@@ -18971,6 +19091,8 @@
       <c r="D385">
         <v>0</v>
       </c>
+      <c r="I385" s="38"/>
+      <c r="J385" s="38"/>
       <c r="K385" s="39"/>
       <c r="L385" s="38"/>
     </row>
@@ -18979,7 +19101,7 @@
         <v>109</v>
       </c>
       <c r="B386" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="C386" s="36">
         <v>43568</v>
@@ -18987,6 +19109,8 @@
       <c r="D386">
         <v>47</v>
       </c>
+      <c r="I386" s="38"/>
+      <c r="J386" s="38"/>
       <c r="K386" s="39"/>
       <c r="L386" s="38"/>
     </row>
@@ -18995,7 +19119,7 @@
         <v>109</v>
       </c>
       <c r="B387" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="C387" s="36">
         <v>43613</v>
@@ -19004,8 +19128,10 @@
         <v>91.5</v>
       </c>
       <c r="E387">
-        <v>1127</v>
-      </c>
+        <v>112.7</v>
+      </c>
+      <c r="I387" s="38"/>
+      <c r="J387" s="38"/>
       <c r="K387" s="39"/>
       <c r="L387" s="38"/>
     </row>
@@ -19014,7 +19140,7 @@
         <v>109</v>
       </c>
       <c r="B388" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C388" s="36">
         <v>43521</v>
@@ -19022,6 +19148,8 @@
       <c r="D388">
         <v>0</v>
       </c>
+      <c r="I388" s="38"/>
+      <c r="J388" s="38"/>
       <c r="K388" s="39"/>
       <c r="L388" s="38"/>
       <c r="AG388">
@@ -19033,7 +19161,7 @@
         <v>109</v>
       </c>
       <c r="B389" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C389" s="36">
         <v>43568</v>
@@ -19042,8 +19170,10 @@
         <v>46.5</v>
       </c>
       <c r="F389">
-        <v>1850</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I389" s="38"/>
+      <c r="J389" s="38"/>
       <c r="K389" s="39"/>
       <c r="L389" s="38"/>
     </row>
@@ -19052,7 +19182,7 @@
         <v>109</v>
       </c>
       <c r="B390" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C390" s="36">
         <v>43610</v>
@@ -19061,15 +19191,17 @@
         <v>89</v>
       </c>
       <c r="E390">
-        <v>1094</v>
+        <v>109.4</v>
       </c>
       <c r="G390">
-        <v>2350</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="I390" s="38"/>
+      <c r="J390" s="38"/>
       <c r="K390" s="39"/>
       <c r="L390" s="38">
         <f>E390/(E390+G390)</f>
-        <v>0.31765389082462253</v>
+        <v>0.31765389082462259</v>
       </c>
       <c r="AG390">
         <v>194</v>
@@ -19080,7 +19212,7 @@
         <v>109</v>
       </c>
       <c r="B391" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C391" s="36">
         <v>43521</v>
@@ -19088,6 +19220,8 @@
       <c r="D391">
         <v>0</v>
       </c>
+      <c r="I391" s="38"/>
+      <c r="J391" s="38"/>
       <c r="K391" s="39"/>
       <c r="L391" s="38"/>
     </row>
@@ -19096,7 +19230,7 @@
         <v>109</v>
       </c>
       <c r="B392" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C392" s="36">
         <v>43568</v>
@@ -19104,6 +19238,8 @@
       <c r="D392">
         <v>46.5</v>
       </c>
+      <c r="I392" s="38"/>
+      <c r="J392" s="38"/>
       <c r="K392" s="39"/>
       <c r="L392" s="38"/>
     </row>
@@ -19112,7 +19248,7 @@
         <v>109</v>
       </c>
       <c r="B393" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="C393" s="36">
         <v>43610</v>
@@ -19121,8 +19257,10 @@
         <v>89</v>
       </c>
       <c r="E393">
-        <v>1094</v>
-      </c>
+        <v>109.4</v>
+      </c>
+      <c r="I393" s="38"/>
+      <c r="J393" s="38"/>
       <c r="K393" s="39"/>
       <c r="L393" s="38"/>
     </row>
@@ -19131,7 +19269,7 @@
         <v>109</v>
       </c>
       <c r="B394" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C394" s="36">
         <v>43521</v>
@@ -19139,6 +19277,8 @@
       <c r="D394">
         <v>0</v>
       </c>
+      <c r="I394" s="38"/>
+      <c r="J394" s="38"/>
       <c r="K394" s="39"/>
       <c r="L394" s="38"/>
       <c r="AG394">
@@ -19150,7 +19290,7 @@
         <v>109</v>
       </c>
       <c r="B395" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C395" s="36">
         <v>43568</v>
@@ -19159,8 +19299,10 @@
         <v>46.5</v>
       </c>
       <c r="F395">
-        <v>1950</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="I395" s="38"/>
+      <c r="J395" s="38"/>
       <c r="K395" s="39"/>
       <c r="L395" s="38"/>
     </row>
@@ -19169,7 +19311,7 @@
         <v>109</v>
       </c>
       <c r="B396" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="C396" s="36">
         <v>43604</v>
@@ -19178,11 +19320,13 @@
         <v>82.5</v>
       </c>
       <c r="E396">
-        <v>1217</v>
+        <v>121.7</v>
       </c>
       <c r="G396">
-        <v>2200</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I396" s="38"/>
+      <c r="J396" s="38"/>
       <c r="K396" s="39"/>
       <c r="L396" s="38">
         <f>E396/(E396+G396)</f>
@@ -19197,7 +19341,7 @@
         <v>109</v>
       </c>
       <c r="B397" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C397" s="36">
         <v>43521</v>
@@ -19205,6 +19349,8 @@
       <c r="D397">
         <v>0</v>
       </c>
+      <c r="I397" s="38"/>
+      <c r="J397" s="38"/>
       <c r="K397" s="39"/>
       <c r="L397" s="38"/>
     </row>
@@ -19213,7 +19359,7 @@
         <v>109</v>
       </c>
       <c r="B398" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C398" s="36">
         <v>43568</v>
@@ -19221,6 +19367,8 @@
       <c r="D398">
         <v>46.5</v>
       </c>
+      <c r="I398" s="38"/>
+      <c r="J398" s="38"/>
       <c r="K398" s="39"/>
       <c r="L398" s="38"/>
     </row>
@@ -19229,7 +19377,7 @@
         <v>109</v>
       </c>
       <c r="B399" t="s">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="C399" s="36">
         <v>43604</v>
@@ -19238,8 +19386,10 @@
         <v>82.5</v>
       </c>
       <c r="E399">
-        <v>1217</v>
-      </c>
+        <v>121.7</v>
+      </c>
+      <c r="I399" s="38"/>
+      <c r="J399" s="38"/>
       <c r="K399" s="39"/>
       <c r="L399" s="38"/>
     </row>
@@ -19248,7 +19398,7 @@
         <v>109</v>
       </c>
       <c r="B400" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C400" s="36">
         <v>43521</v>
@@ -19256,6 +19406,8 @@
       <c r="D400">
         <v>0</v>
       </c>
+      <c r="I400" s="38"/>
+      <c r="J400" s="38"/>
       <c r="K400" s="39"/>
       <c r="L400" s="38"/>
       <c r="AG400">
@@ -19267,7 +19419,7 @@
         <v>109</v>
       </c>
       <c r="B401" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C401" s="36">
         <v>43568</v>
@@ -19276,8 +19428,10 @@
         <v>46.5</v>
       </c>
       <c r="F401">
-        <v>1750</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I401" s="38"/>
+      <c r="J401" s="38"/>
       <c r="K401" s="39"/>
       <c r="L401" s="38"/>
     </row>
@@ -19286,7 +19440,7 @@
         <v>109</v>
       </c>
       <c r="B402" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="C402" s="36">
         <v>43609</v>
@@ -19295,11 +19449,13 @@
         <v>88</v>
       </c>
       <c r="E402">
-        <v>1251</v>
+        <v>125.1</v>
       </c>
       <c r="G402">
-        <v>2200</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="I402" s="38"/>
+      <c r="J402" s="38"/>
       <c r="K402" s="39"/>
       <c r="L402" s="38">
         <f>E402/(E402+G402)</f>
@@ -19314,7 +19470,7 @@
         <v>109</v>
       </c>
       <c r="B403" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="C403" s="36">
         <v>43521</v>
@@ -19322,6 +19478,8 @@
       <c r="D403">
         <v>0</v>
       </c>
+      <c r="I403" s="38"/>
+      <c r="J403" s="38"/>
       <c r="K403" s="39"/>
       <c r="L403" s="38"/>
     </row>
@@ -19330,7 +19488,7 @@
         <v>109</v>
       </c>
       <c r="B404" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="C404" s="36">
         <v>43568</v>
@@ -19338,6 +19496,8 @@
       <c r="D404">
         <v>46.5</v>
       </c>
+      <c r="I404" s="38"/>
+      <c r="J404" s="38"/>
       <c r="K404" s="39"/>
       <c r="L404" s="38"/>
     </row>
@@ -19346,7 +19506,7 @@
         <v>109</v>
       </c>
       <c r="B405" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="C405" s="36">
         <v>43609</v>
@@ -19355,8 +19515,10 @@
         <v>88</v>
       </c>
       <c r="E405">
-        <v>1251</v>
-      </c>
+        <v>125.1</v>
+      </c>
+      <c r="I405" s="38"/>
+      <c r="J405" s="38"/>
       <c r="K405" s="39"/>
       <c r="L405" s="38"/>
     </row>
@@ -19365,7 +19527,7 @@
         <v>109</v>
       </c>
       <c r="B406" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C406" s="36">
         <v>43521</v>
@@ -19373,6 +19535,8 @@
       <c r="D406">
         <v>0</v>
       </c>
+      <c r="I406" s="38"/>
+      <c r="J406" s="38"/>
       <c r="K406" s="39"/>
       <c r="L406" s="38"/>
       <c r="AG406">
@@ -19384,7 +19548,7 @@
         <v>109</v>
       </c>
       <c r="B407" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C407" s="36">
         <v>43566</v>
@@ -19393,8 +19557,10 @@
         <v>44.5</v>
       </c>
       <c r="F407">
-        <v>2000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="I407" s="38"/>
+      <c r="J407" s="38"/>
       <c r="K407" s="39"/>
       <c r="L407" s="38"/>
     </row>
@@ -19403,7 +19569,7 @@
         <v>109</v>
       </c>
       <c r="B408" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
       <c r="C408" s="36">
         <v>43616</v>
@@ -19412,11 +19578,13 @@
         <v>94.5</v>
       </c>
       <c r="E408">
-        <v>1460</v>
+        <v>146</v>
       </c>
       <c r="G408">
-        <v>2450</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="I408" s="38"/>
+      <c r="J408" s="38"/>
       <c r="K408" s="39"/>
       <c r="L408" s="38">
         <f>E408/(E408+G408)</f>
@@ -19431,7 +19599,7 @@
         <v>109</v>
       </c>
       <c r="B409" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C409" s="36">
         <v>43521</v>
@@ -19439,6 +19607,8 @@
       <c r="D409">
         <v>0</v>
       </c>
+      <c r="I409" s="38"/>
+      <c r="J409" s="38"/>
       <c r="K409" s="39"/>
       <c r="L409" s="38"/>
     </row>
@@ -19447,7 +19617,7 @@
         <v>109</v>
       </c>
       <c r="B410" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C410" s="36">
         <v>43566</v>
@@ -19455,6 +19625,8 @@
       <c r="D410">
         <v>44.5</v>
       </c>
+      <c r="I410" s="38"/>
+      <c r="J410" s="38"/>
       <c r="K410" s="39"/>
       <c r="L410" s="38"/>
     </row>
@@ -19463,7 +19635,7 @@
         <v>109</v>
       </c>
       <c r="B411" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C411" s="36">
         <v>43616</v>
@@ -19472,12 +19644,16 @@
         <v>94.5</v>
       </c>
       <c r="E411">
-        <v>1460</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="I411" s="38"/>
+      <c r="J411" s="38"/>
       <c r="K411" s="39"/>
       <c r="L411" s="38"/>
     </row>
     <row r="412" spans="1:33">
+      <c r="I412" s="38"/>
+      <c r="J412" s="38"/>
       <c r="K412" s="39"/>
       <c r="L412" s="38"/>
     </row>
@@ -19502,15 +19678,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -19682,21 +19849,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19714,11 +19882,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C1A03-0CF8-47F9-9068-6C2F76322F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82ABF3-889B-4834-B8EA-03772FD62AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -585,15 +585,6 @@
     <t>NT9SowPutland_Feb16</t>
   </si>
   <si>
-    <t>RCM1Irrig1</t>
-  </si>
-  <si>
-    <t>RCM1Irrig2</t>
-  </si>
-  <si>
-    <t>RCM1Irrig3</t>
-  </si>
-  <si>
     <t>RCM2Sow10</t>
   </si>
   <si>
@@ -1108,6 +1099,15 @@
   </si>
   <si>
     <t>Soybean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>RCM1IrrigPartial</t>
+  </si>
+  <si>
+    <t>RCM1IrrigFull</t>
+  </si>
+  <si>
+    <t>RCM1IrrigRainfed</t>
   </si>
 </sst>
 </file>
@@ -4796,9 +4796,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4818,61 +4818,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>6</v>
@@ -4881,10 +4881,10 @@
         <v>105</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6576,7 +6576,7 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="23">
         <v>28194</v>
@@ -6616,7 +6616,7 @@
     </row>
     <row r="44" spans="1:25">
       <c r="A44" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B44" s="23">
         <v>28194</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B45" s="23">
         <v>28193</v>
@@ -6696,7 +6696,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" s="23">
         <v>28591</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B47" s="23">
         <v>28591</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B48" s="23">
         <v>28591</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="19" t="s">
-        <v>182</v>
+        <v>355</v>
       </c>
       <c r="B49" s="23">
         <v>29400</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="19" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
       <c r="B50" s="23">
         <v>29400</v>
@@ -6863,7 +6863,7 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="19">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -6886,15 +6886,15 @@
         <v>119</v>
       </c>
       <c r="X50" s="21">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Y50" s="21">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="19" t="s">
-        <v>184</v>
+        <v>356</v>
       </c>
       <c r="B51" s="23">
         <v>29400</v>
@@ -6902,7 +6902,7 @@
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -6925,15 +6925,15 @@
         <v>119</v>
       </c>
       <c r="X51" s="21">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Y51" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:25">
       <c r="A52" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B52" s="23">
         <v>29312</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B53" s="23">
         <v>29312</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="54" spans="1:25">
       <c r="A54" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B54" s="23">
         <v>29312</v>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B55" s="23">
         <v>29312</v>
@@ -7093,7 +7093,7 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B56" s="23">
         <v>29312</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B57" s="23">
         <v>28171</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B58" s="23">
         <v>28239</v>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B59" s="23">
         <v>28239</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B60" s="23">
         <v>28239</v>
@@ -7273,7 +7273,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B61" s="23">
         <v>28171</v>
@@ -7308,7 +7308,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B62" s="23">
         <v>28171</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B63" s="23">
         <v>28171</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B64" s="23">
         <v>28200</v>
@@ -7413,7 +7413,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B65" s="23">
         <v>28200</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B66" s="23">
         <v>28200</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="19" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" s="23">
         <v>28200</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B68" s="23">
         <v>28239</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B69" s="23">
         <v>32970</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B70" s="35">
         <v>35817</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B71" s="35">
         <v>35845</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B72" s="35">
         <v>35859</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B73" s="35">
         <v>35873</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="33" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B74" s="35">
         <v>35878</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B75" s="35">
         <v>35817</v>
@@ -7819,7 +7819,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B76" s="35">
         <v>35845</v>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="35">
         <v>35859</v>
@@ -7885,7 +7885,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B78" s="35">
         <v>35873</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B79" s="35">
         <v>35878</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B80" s="35">
         <v>35817</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B81" s="35">
         <v>35845</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B82" s="35">
         <v>35859</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B83" s="35">
         <v>35873</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B84" s="35">
         <v>35878</v>
@@ -8112,7 +8112,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="33" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B85" s="35">
         <v>35899</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B86" s="35">
         <v>35817</v>
@@ -8176,7 +8176,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B87" s="35">
         <v>35845</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B88" s="35">
         <v>35859</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="33" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B89" s="35">
         <v>35871</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B90" s="35">
         <v>35817</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B91" s="35">
         <v>35845</v>
@@ -8339,7 +8339,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B92" s="35">
         <v>35859</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B93" s="35">
         <v>35873</v>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="33" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B94" s="35">
         <v>35878</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B95" s="35">
         <v>35817</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B96" s="35">
         <v>35845</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B97" s="35">
         <v>35859</v>
@@ -8533,7 +8533,7 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B98" s="35">
         <v>35873</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="33" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B99" s="35">
         <v>35878</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B100" s="35">
         <v>35817</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B101" s="35">
         <v>35845</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B102" s="35">
         <v>35859</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B103" s="35">
         <v>35867</v>
@@ -8729,7 +8729,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B104" s="35">
         <v>35817</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B105" s="35">
         <v>35845</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B106" s="35">
         <v>35859</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B107" s="35">
         <v>35873</v>
@@ -8859,7 +8859,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="33" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B108" s="35">
         <v>35878</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B109" s="35">
         <v>35817</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B110" s="35">
         <v>35845</v>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B111" s="35">
         <v>35859</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B112" s="35">
         <v>35873</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B113" s="35">
         <v>35878</v>
@@ -9325,8 +9325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AFC0C-9ADA-4F34-AF6E-16A8777333E1}">
   <dimension ref="A1:AN416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
@@ -9356,123 +9356,123 @@
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="K1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>216</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG1" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM1" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="AH1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN1" s="21" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="36">
         <v>43949</v>
@@ -9501,10 +9501,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C3" s="36">
         <v>43727</v>
@@ -9518,10 +9518,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" s="36">
         <v>43860</v>
@@ -9538,10 +9538,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" s="36">
         <v>43959</v>
@@ -9555,10 +9555,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C6" s="36">
         <v>43949</v>
@@ -9587,10 +9587,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" s="36">
         <v>43959</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C8" s="36">
         <v>43949</v>
@@ -9636,10 +9636,10 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C9" s="36">
         <v>43959</v>
@@ -9653,10 +9653,10 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C10" s="36">
         <v>43949</v>
@@ -9685,10 +9685,10 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C11" s="36">
         <v>43959</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" s="36">
         <v>43949</v>
@@ -9734,10 +9734,10 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C13" s="36">
         <v>43959</v>
@@ -9752,10 +9752,10 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" s="36">
         <v>43949</v>
@@ -9784,10 +9784,10 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="36">
         <v>43959</v>
@@ -9801,10 +9801,10 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" s="36">
         <v>43949</v>
@@ -9833,10 +9833,10 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C17" s="36">
         <v>43959</v>
@@ -9851,10 +9851,10 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C18" s="36">
         <v>43949</v>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C19" s="36">
         <v>43959</v>
@@ -9900,10 +9900,10 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C20" s="36">
         <v>43949</v>
@@ -9933,10 +9933,10 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C21" s="36">
         <v>43959</v>
@@ -9952,10 +9952,10 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" s="36">
         <v>43949</v>
@@ -9985,10 +9985,10 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C23" s="36">
         <v>43959</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C24" s="36">
         <v>43949</v>
@@ -10036,10 +10036,10 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C25" s="36">
         <v>43959</v>
@@ -10055,10 +10055,10 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C26" s="36">
         <v>43949</v>
@@ -10088,10 +10088,10 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C27" s="36">
         <v>43959</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" s="36">
         <v>43949</v>
@@ -10139,10 +10139,10 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C29" s="36">
         <v>43959</v>
@@ -10158,10 +10158,10 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C30" s="36">
         <v>43949</v>
@@ -10191,10 +10191,10 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C31" s="36">
         <v>43959</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C32" s="36">
         <v>43949</v>
@@ -10242,10 +10242,10 @@
     </row>
     <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C33" s="36">
         <v>43959</v>
@@ -10261,10 +10261,10 @@
     </row>
     <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C34" s="36">
         <v>43949</v>
@@ -10294,10 +10294,10 @@
     </row>
     <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C35" s="36">
         <v>43959</v>
@@ -10316,7 +10316,7 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C36" s="36">
         <v>43739</v>
@@ -10331,7 +10331,7 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C37" s="36">
         <v>43862</v>
@@ -10346,7 +10346,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C38" s="36">
         <v>43878</v>
@@ -10388,7 +10388,7 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C39" s="36">
         <v>43905</v>
@@ -10406,7 +10406,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C40" s="36">
         <v>43912</v>
@@ -10424,7 +10424,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C41" s="36">
         <v>43917</v>
@@ -10448,7 +10448,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C42" s="36">
         <v>43919</v>
@@ -10467,7 +10467,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C43" s="36">
         <v>43928</v>
@@ -10486,7 +10486,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C44" s="36">
         <v>43938</v>
@@ -10528,7 +10528,7 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C45" s="36">
         <v>43878</v>
@@ -10571,7 +10571,7 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C46" s="36">
         <v>43905</v>
@@ -10590,7 +10590,7 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C47" s="36">
         <v>43912</v>
@@ -10609,7 +10609,7 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C48" s="36">
         <v>43918</v>
@@ -10633,7 +10633,7 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C49" s="36">
         <v>43919</v>
@@ -10652,7 +10652,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C50" s="36">
         <v>43928</v>
@@ -10671,7 +10671,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C51" s="36">
         <v>43938</v>
@@ -10713,7 +10713,7 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C52" s="36">
         <v>43878</v>
@@ -10744,7 +10744,7 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C53" s="36">
         <v>43905</v>
@@ -10763,7 +10763,7 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C54" s="36">
         <v>43912</v>
@@ -10782,7 +10782,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="36">
         <v>43917</v>
@@ -10806,7 +10806,7 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C56" s="36">
         <v>43919</v>
@@ -10825,7 +10825,7 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C57" s="36">
         <v>43928</v>
@@ -10844,7 +10844,7 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C58" s="36">
         <v>43937</v>
@@ -10886,7 +10886,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C59" s="36">
         <v>43878</v>
@@ -10917,7 +10917,7 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C60" s="36">
         <v>43905</v>
@@ -10936,7 +10936,7 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C61" s="36">
         <v>43912</v>
@@ -10955,7 +10955,7 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C62" s="36">
         <v>43917</v>
@@ -10979,7 +10979,7 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C63" s="36">
         <v>43919</v>
@@ -10996,7 +10996,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C64" s="36">
         <v>43928</v>
@@ -11015,7 +11015,7 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C65" s="36">
         <v>43938</v>
@@ -11057,7 +11057,7 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C66" s="36">
         <v>43878</v>
@@ -11100,7 +11100,7 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C67" s="36">
         <v>43905</v>
@@ -11119,7 +11119,7 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C68" s="36">
         <v>43912</v>
@@ -11138,7 +11138,7 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C69" s="36">
         <v>43917</v>
@@ -11162,7 +11162,7 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C70" s="36">
         <v>43919</v>
@@ -11181,7 +11181,7 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C71" s="36">
         <v>43928</v>
@@ -11200,7 +11200,7 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C72" s="36">
         <v>43938</v>
@@ -11242,7 +11242,7 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C73" s="36">
         <v>43878</v>
@@ -11273,7 +11273,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C74" s="36">
         <v>43905</v>
@@ -11292,7 +11292,7 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C75" s="36">
         <v>43912</v>
@@ -11311,7 +11311,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C76" s="36">
         <v>43917</v>
@@ -11335,7 +11335,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C77" s="36">
         <v>43919</v>
@@ -11352,7 +11352,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C78" s="36">
         <v>43928</v>
@@ -11371,7 +11371,7 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C79" s="36">
         <v>43938</v>
@@ -11413,7 +11413,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C80" s="36">
         <v>43878</v>
@@ -11444,7 +11444,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C81" s="36">
         <v>43905</v>
@@ -11463,7 +11463,7 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C82" s="36">
         <v>43912</v>
@@ -11482,7 +11482,7 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C83" s="36">
         <v>43917</v>
@@ -11506,7 +11506,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C84" s="36">
         <v>43919</v>
@@ -11525,7 +11525,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C85" s="36">
         <v>43928</v>
@@ -11544,7 +11544,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C86" s="36">
         <v>43938</v>
@@ -11586,7 +11586,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C87" s="36">
         <v>43878</v>
@@ -11629,7 +11629,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C88" s="36">
         <v>43905</v>
@@ -11648,7 +11648,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C89" s="36">
         <v>43912</v>
@@ -11667,7 +11667,7 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C90" s="36">
         <v>43918</v>
@@ -11691,7 +11691,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C91" s="36">
         <v>43919</v>
@@ -11710,7 +11710,7 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C92" s="36">
         <v>43928</v>
@@ -11729,7 +11729,7 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C93" s="36">
         <v>43938</v>
@@ -11771,7 +11771,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C94" s="36">
         <v>43878</v>
@@ -11814,7 +11814,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C95" s="36">
         <v>43905</v>
@@ -11833,7 +11833,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C96" s="36">
         <v>43912</v>
@@ -11852,7 +11852,7 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C97" s="36">
         <v>43917</v>
@@ -11876,7 +11876,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C98" s="36">
         <v>43919</v>
@@ -11895,7 +11895,7 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C99" s="36">
         <v>43928</v>
@@ -11914,7 +11914,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C100" s="36">
         <v>43937</v>
@@ -11956,7 +11956,7 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C101" s="36">
         <v>43878</v>
@@ -11999,7 +11999,7 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C102" s="36">
         <v>43905</v>
@@ -12018,7 +12018,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C103" s="36">
         <v>43912</v>
@@ -12037,7 +12037,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C104" s="36">
         <v>43918</v>
@@ -12061,7 +12061,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C105" s="36">
         <v>43919</v>
@@ -12080,7 +12080,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C106" s="36">
         <v>43928</v>
@@ -12099,7 +12099,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C107" s="36">
         <v>43938</v>
@@ -12141,7 +12141,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C108" s="36">
         <v>43878</v>
@@ -12172,7 +12172,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C109" s="36">
         <v>43905</v>
@@ -12191,7 +12191,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C110" s="36">
         <v>43912</v>
@@ -12210,7 +12210,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C111" s="36">
         <v>43918</v>
@@ -12234,7 +12234,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C112" s="36">
         <v>43919</v>
@@ -12253,7 +12253,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C113" s="36">
         <v>43928</v>
@@ -12272,7 +12272,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C114" s="36">
         <v>43938</v>
@@ -12314,7 +12314,7 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C115" s="36">
         <v>43878</v>
@@ -12345,7 +12345,7 @@
         <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C116" s="36">
         <v>43905</v>
@@ -12364,7 +12364,7 @@
         <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C117" s="36">
         <v>43912</v>
@@ -12383,7 +12383,7 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C118" s="36">
         <v>43917</v>
@@ -12407,7 +12407,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C119" s="36">
         <v>43919</v>
@@ -12426,7 +12426,7 @@
         <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C120" s="36">
         <v>43928</v>
@@ -12445,7 +12445,7 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C121" s="36">
         <v>43937</v>
@@ -12487,7 +12487,7 @@
         <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C122" s="36">
         <v>43878</v>
@@ -12530,7 +12530,7 @@
         <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C123" s="36">
         <v>43905</v>
@@ -12549,7 +12549,7 @@
         <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C124" s="36">
         <v>43912</v>
@@ -12568,7 +12568,7 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C125" s="36">
         <v>43918</v>
@@ -12592,7 +12592,7 @@
         <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C126" s="36">
         <v>43919</v>
@@ -12611,7 +12611,7 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C127" s="36">
         <v>43928</v>
@@ -12630,7 +12630,7 @@
         <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C128" s="36">
         <v>43938</v>
@@ -12672,7 +12672,7 @@
         <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C129" s="36">
         <v>43878</v>
@@ -12703,7 +12703,7 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C130" s="36">
         <v>43905</v>
@@ -12722,7 +12722,7 @@
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C131" s="36">
         <v>43912</v>
@@ -12741,7 +12741,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C132" s="36">
         <v>43918</v>
@@ -12765,7 +12765,7 @@
         <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C133" s="36">
         <v>43919</v>
@@ -12784,7 +12784,7 @@
         <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C134" s="36">
         <v>43928</v>
@@ -12803,7 +12803,7 @@
         <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C135" s="36">
         <v>43938</v>
@@ -12845,7 +12845,7 @@
         <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C136" s="36">
         <v>43878</v>
@@ -12876,7 +12876,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C137" s="36">
         <v>43905</v>
@@ -12895,7 +12895,7 @@
         <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C138" s="36">
         <v>43912</v>
@@ -12914,7 +12914,7 @@
         <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C139" s="36">
         <v>43918</v>
@@ -12938,7 +12938,7 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C140" s="36">
         <v>43919</v>
@@ -12957,7 +12957,7 @@
         <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C141" s="36">
         <v>43928</v>
@@ -12976,7 +12976,7 @@
         <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C142" s="36">
         <v>43938</v>
@@ -13018,7 +13018,7 @@
         <v>109</v>
       </c>
       <c r="B143" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C143" s="36">
         <v>43878</v>
@@ -13061,7 +13061,7 @@
         <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C144" s="36">
         <v>43905</v>
@@ -13080,7 +13080,7 @@
         <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C145" s="36">
         <v>43912</v>
@@ -13099,7 +13099,7 @@
         <v>109</v>
       </c>
       <c r="B146" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C146" s="36">
         <v>43917</v>
@@ -13123,7 +13123,7 @@
         <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C147" s="36">
         <v>43919</v>
@@ -13142,7 +13142,7 @@
         <v>109</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C148" s="36">
         <v>43928</v>
@@ -13161,7 +13161,7 @@
         <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C149" s="36">
         <v>43938</v>
@@ -13200,10 +13200,10 @@
     </row>
     <row r="150" spans="1:40">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C150" s="36">
         <v>43752</v>
@@ -13246,10 +13246,10 @@
     </row>
     <row r="151" spans="1:40">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C151" s="36">
         <v>43784</v>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="152" spans="1:40">
       <c r="A152" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C152" s="36">
         <v>43789</v>
@@ -13284,10 +13284,10 @@
     </row>
     <row r="153" spans="1:40">
       <c r="A153" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C153" s="36">
         <v>43798</v>
@@ -13303,10 +13303,10 @@
     </row>
     <row r="154" spans="1:40">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C154" s="36">
         <v>43804</v>
@@ -13321,10 +13321,10 @@
     </row>
     <row r="155" spans="1:40">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C155" s="36">
         <v>43806</v>
@@ -13339,10 +13339,10 @@
     </row>
     <row r="156" spans="1:40">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C156" s="36">
         <v>43816</v>
@@ -13357,10 +13357,10 @@
     </row>
     <row r="157" spans="1:40">
       <c r="A157" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C157" s="36">
         <v>43832</v>
@@ -13404,10 +13404,10 @@
     </row>
     <row r="158" spans="1:40">
       <c r="A158" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C158" s="36">
         <v>43752</v>
@@ -13419,10 +13419,10 @@
     </row>
     <row r="159" spans="1:40">
       <c r="A159" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C159" s="36">
         <v>43804</v>
@@ -13436,10 +13436,10 @@
     </row>
     <row r="160" spans="1:40">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C160" s="36">
         <v>43832</v>
@@ -13471,10 +13471,10 @@
     </row>
     <row r="161" spans="1:32">
       <c r="A161" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C161" s="36">
         <v>43752</v>
@@ -13486,10 +13486,10 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C162" s="36">
         <v>43804</v>
@@ -13503,10 +13503,10 @@
     </row>
     <row r="163" spans="1:32">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B163" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C163" s="36">
         <v>43832</v>
@@ -13538,10 +13538,10 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C164" s="36">
         <v>43752</v>
@@ -13553,10 +13553,10 @@
     </row>
     <row r="165" spans="1:32">
       <c r="A165" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C165" s="36">
         <v>43804</v>
@@ -13570,10 +13570,10 @@
     </row>
     <row r="166" spans="1:32">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B166" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C166" s="36">
         <v>43832</v>
@@ -13605,10 +13605,10 @@
     </row>
     <row r="167" spans="1:32">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B167" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C167" s="36">
         <v>43752</v>
@@ -13620,10 +13620,10 @@
     </row>
     <row r="168" spans="1:32">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B168" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C168" s="36">
         <v>43804</v>
@@ -13637,10 +13637,10 @@
     </row>
     <row r="169" spans="1:32">
       <c r="A169" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C169" s="36">
         <v>43832</v>
@@ -13672,10 +13672,10 @@
     </row>
     <row r="170" spans="1:32">
       <c r="A170" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C170" s="36">
         <v>43752</v>
@@ -13687,10 +13687,10 @@
     </row>
     <row r="171" spans="1:32">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C171" s="36">
         <v>43804</v>
@@ -13704,10 +13704,10 @@
     </row>
     <row r="172" spans="1:32">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C172" s="36">
         <v>43832</v>
@@ -13739,10 +13739,10 @@
     </row>
     <row r="173" spans="1:32">
       <c r="A173" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B173" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C173" s="36">
         <v>43752</v>
@@ -13754,10 +13754,10 @@
     </row>
     <row r="174" spans="1:32">
       <c r="A174" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B174" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C174" s="36">
         <v>43804</v>
@@ -13771,10 +13771,10 @@
     </row>
     <row r="175" spans="1:32">
       <c r="A175" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C175" s="36">
         <v>43832</v>
@@ -13806,10 +13806,10 @@
     </row>
     <row r="176" spans="1:32">
       <c r="A176" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C176" s="36">
         <v>43752</v>
@@ -13821,10 +13821,10 @@
     </row>
     <row r="177" spans="1:37">
       <c r="A177" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B177" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C177" s="36">
         <v>43804</v>
@@ -13838,10 +13838,10 @@
     </row>
     <row r="178" spans="1:37">
       <c r="A178" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B178" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C178" s="36">
         <v>43832</v>
@@ -13873,10 +13873,10 @@
     </row>
     <row r="179" spans="1:37">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B179" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C179" s="36">
         <v>43752</v>
@@ -13915,10 +13915,10 @@
     </row>
     <row r="180" spans="1:37">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C180" s="36">
         <v>43784</v>
@@ -13933,10 +13933,10 @@
     </row>
     <row r="181" spans="1:37">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B181" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C181" s="36">
         <v>43789</v>
@@ -13951,10 +13951,10 @@
     </row>
     <row r="182" spans="1:37">
       <c r="A182" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C182" s="36">
         <v>43798</v>
@@ -13969,10 +13969,10 @@
     </row>
     <row r="183" spans="1:37">
       <c r="A183" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B183" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C183" s="36">
         <v>43804</v>
@@ -13986,10 +13986,10 @@
     </row>
     <row r="184" spans="1:37">
       <c r="A184" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B184" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C184" s="36">
         <v>43806</v>
@@ -14004,10 +14004,10 @@
     </row>
     <row r="185" spans="1:37">
       <c r="A185" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C185" s="36">
         <v>43816</v>
@@ -14022,10 +14022,10 @@
     </row>
     <row r="186" spans="1:37">
       <c r="A186" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C186" s="36">
         <v>43832</v>
@@ -14069,10 +14069,10 @@
     </row>
     <row r="187" spans="1:37">
       <c r="A187" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C187" s="36">
         <v>43752</v>
@@ -14084,10 +14084,10 @@
     </row>
     <row r="188" spans="1:37">
       <c r="A188" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B188" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C188" s="36">
         <v>43804</v>
@@ -14101,10 +14101,10 @@
     </row>
     <row r="189" spans="1:37">
       <c r="A189" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C189" s="36">
         <v>43832</v>
@@ -14136,10 +14136,10 @@
     </row>
     <row r="190" spans="1:37">
       <c r="A190" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B190" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C190" s="36">
         <v>43752</v>
@@ -14151,10 +14151,10 @@
     </row>
     <row r="191" spans="1:37">
       <c r="A191" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B191" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C191" s="36">
         <v>43804</v>
@@ -14168,10 +14168,10 @@
     </row>
     <row r="192" spans="1:37">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B192" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C192" s="36">
         <v>43832</v>
@@ -14191,10 +14191,10 @@
     </row>
     <row r="193" spans="1:32">
       <c r="A193" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C193" s="36">
         <v>43752</v>
@@ -14206,10 +14206,10 @@
     </row>
     <row r="194" spans="1:32">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C194" s="36">
         <v>43804</v>
@@ -14223,10 +14223,10 @@
     </row>
     <row r="195" spans="1:32">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C195" s="36">
         <v>43832</v>
@@ -14258,10 +14258,10 @@
     </row>
     <row r="196" spans="1:32">
       <c r="A196" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C196" s="36">
         <v>43752</v>
@@ -14273,10 +14273,10 @@
     </row>
     <row r="197" spans="1:32">
       <c r="A197" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B197" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C197" s="36">
         <v>43804</v>
@@ -14290,10 +14290,10 @@
     </row>
     <row r="198" spans="1:32">
       <c r="A198" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B198" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C198" s="36">
         <v>43832</v>
@@ -14325,10 +14325,10 @@
     </row>
     <row r="199" spans="1:32">
       <c r="A199" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B199" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C199" s="36">
         <v>43752</v>
@@ -14340,10 +14340,10 @@
     </row>
     <row r="200" spans="1:32">
       <c r="A200" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B200" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C200" s="36">
         <v>43804</v>
@@ -14357,10 +14357,10 @@
     </row>
     <row r="201" spans="1:32">
       <c r="A201" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C201" s="36">
         <v>43832</v>
@@ -14392,10 +14392,10 @@
     </row>
     <row r="202" spans="1:32">
       <c r="A202" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B202" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C202" s="36">
         <v>43752</v>
@@ -14407,10 +14407,10 @@
     </row>
     <row r="203" spans="1:32">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B203" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C203" s="36">
         <v>43804</v>
@@ -14424,10 +14424,10 @@
     </row>
     <row r="204" spans="1:32">
       <c r="A204" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B204" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C204" s="36">
         <v>43832</v>
@@ -14447,10 +14447,10 @@
     </row>
     <row r="205" spans="1:32">
       <c r="A205" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B205" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C205" s="36">
         <v>43752</v>
@@ -14474,10 +14474,10 @@
     </row>
     <row r="206" spans="1:32">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C206" s="36">
         <v>43804</v>
@@ -14491,10 +14491,10 @@
     </row>
     <row r="207" spans="1:32">
       <c r="A207" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B207" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C207" s="36">
         <v>43832</v>
@@ -14516,10 +14516,10 @@
     </row>
     <row r="208" spans="1:32">
       <c r="A208" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B208" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C208" s="36">
         <v>43908</v>
@@ -14535,10 +14535,10 @@
     </row>
     <row r="209" spans="1:39">
       <c r="A209" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B209" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C209" s="36">
         <v>43939</v>
@@ -14575,10 +14575,10 @@
     </row>
     <row r="210" spans="1:39">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B210" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C210" s="36">
         <v>43859</v>
@@ -14622,10 +14622,10 @@
     </row>
     <row r="211" spans="1:39">
       <c r="A211" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B211" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C211" s="36">
         <v>43887</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="212" spans="1:39">
       <c r="A212" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B212" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C212" s="36">
         <v>43893</v>
@@ -14662,10 +14662,10 @@
     </row>
     <row r="213" spans="1:39">
       <c r="A213" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B213" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C213" s="36">
         <v>43903</v>
@@ -14682,10 +14682,10 @@
     </row>
     <row r="214" spans="1:39">
       <c r="A214" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B214" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C214" s="36">
         <v>43908</v>
@@ -14704,10 +14704,10 @@
     </row>
     <row r="215" spans="1:39">
       <c r="A215" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B215" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C215" s="36">
         <v>43910</v>
@@ -14724,10 +14724,10 @@
     </row>
     <row r="216" spans="1:39">
       <c r="A216" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B216" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C216" s="36">
         <v>43916</v>
@@ -14744,10 +14744,10 @@
     </row>
     <row r="217" spans="1:39">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C217" s="36">
         <v>43923</v>
@@ -14761,10 +14761,10 @@
     </row>
     <row r="218" spans="1:39">
       <c r="A218" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B218" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C218" s="36">
         <v>43930</v>
@@ -14778,10 +14778,10 @@
     </row>
     <row r="219" spans="1:39">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C219" s="36">
         <v>43939</v>
@@ -14830,10 +14830,10 @@
     </row>
     <row r="220" spans="1:39">
       <c r="A220" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B220" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C220" s="36">
         <v>43908</v>
@@ -14849,10 +14849,10 @@
     </row>
     <row r="221" spans="1:39">
       <c r="A221" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B221" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C221" s="36">
         <v>43939</v>
@@ -14886,10 +14886,10 @@
     </row>
     <row r="222" spans="1:39">
       <c r="A222" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B222" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C222" s="36">
         <v>43908</v>
@@ -14905,10 +14905,10 @@
     </row>
     <row r="223" spans="1:39">
       <c r="A223" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B223" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C223" s="36">
         <v>43939</v>
@@ -14942,10 +14942,10 @@
     </row>
     <row r="224" spans="1:39">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B224" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C224" s="36">
         <v>43908</v>
@@ -14961,10 +14961,10 @@
     </row>
     <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B225" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C225" s="36">
         <v>43939</v>
@@ -14998,10 +14998,10 @@
     </row>
     <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B226" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C226" s="36">
         <v>43908</v>
@@ -15017,10 +15017,10 @@
     </row>
     <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B227" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C227" s="36">
         <v>43939</v>
@@ -15054,10 +15054,10 @@
     </row>
     <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B228" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C228" s="36">
         <v>43908</v>
@@ -15073,10 +15073,10 @@
     </row>
     <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B229" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C229" s="36">
         <v>43939</v>
@@ -15110,10 +15110,10 @@
     </row>
     <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B230" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C230" s="36">
         <v>43908</v>
@@ -15129,10 +15129,10 @@
     </row>
     <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B231" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C231" s="36">
         <v>43939</v>
@@ -15166,10 +15166,10 @@
     </row>
     <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C232" s="36">
         <v>43908</v>
@@ -15185,10 +15185,10 @@
     </row>
     <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B233" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C233" s="36">
         <v>43939</v>
@@ -15226,10 +15226,10 @@
     </row>
     <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B234" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C234" s="36">
         <v>43859</v>
@@ -15271,10 +15271,10 @@
     </row>
     <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B235" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C235" s="36">
         <v>43887</v>
@@ -15292,10 +15292,10 @@
     </row>
     <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C236" s="36">
         <v>43893</v>
@@ -15313,10 +15313,10 @@
     </row>
     <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C237" s="36">
         <v>43903</v>
@@ -15334,10 +15334,10 @@
     </row>
     <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C238" s="36">
         <v>43908</v>
@@ -15357,10 +15357,10 @@
     </row>
     <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C239" s="36">
         <v>43910</v>
@@ -15378,10 +15378,10 @@
     </row>
     <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B240" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C240" s="36">
         <v>43916</v>
@@ -15399,10 +15399,10 @@
     </row>
     <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C241" s="36">
         <v>43923</v>
@@ -15420,10 +15420,10 @@
     </row>
     <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C242" s="36">
         <v>43930</v>
@@ -15441,10 +15441,10 @@
     </row>
     <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C243" s="36">
         <v>43936</v>
@@ -15459,10 +15459,10 @@
     </row>
     <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C244" s="36">
         <v>43939</v>
@@ -15512,10 +15512,10 @@
     </row>
     <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B245" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C245" s="36">
         <v>43908</v>
@@ -15532,10 +15532,10 @@
     </row>
     <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B246" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C246" s="36">
         <v>43939</v>
@@ -15573,10 +15573,10 @@
     </row>
     <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B247" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C247" s="36">
         <v>43908</v>
@@ -15593,10 +15593,10 @@
     </row>
     <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B248" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C248" s="36">
         <v>43939</v>
@@ -15634,10 +15634,10 @@
     </row>
     <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B249" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C249" s="36">
         <v>43908</v>
@@ -15655,10 +15655,10 @@
     </row>
     <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B250" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C250" s="36">
         <v>43939</v>
@@ -15697,10 +15697,10 @@
     </row>
     <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B251" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C251" s="36">
         <v>43908</v>
@@ -15718,10 +15718,10 @@
     </row>
     <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B252" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C252" s="36">
         <v>43939</v>
@@ -15760,10 +15760,10 @@
     </row>
     <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B253" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C253" s="36">
         <v>43908</v>
@@ -15781,10 +15781,10 @@
     </row>
     <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B254" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C254" s="36">
         <v>43939</v>
@@ -15823,10 +15823,10 @@
     </row>
     <row r="255" spans="1:39">
       <c r="A255" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B255" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C255" s="36">
         <v>43908</v>
@@ -15844,10 +15844,10 @@
     </row>
     <row r="256" spans="1:39">
       <c r="A256" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B256" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C256" s="36">
         <v>43939</v>
@@ -15883,10 +15883,10 @@
     </row>
     <row r="257" spans="1:33">
       <c r="A257" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C257" s="36">
         <v>43363</v>
@@ -15911,10 +15911,10 @@
     </row>
     <row r="258" spans="1:33">
       <c r="A258" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C258" s="36">
         <v>43475</v>
@@ -15930,10 +15930,10 @@
     </row>
     <row r="259" spans="1:33">
       <c r="A259" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B259" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C259" s="36">
         <v>43480</v>
@@ -15952,10 +15952,10 @@
     </row>
     <row r="260" spans="1:33">
       <c r="A260" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B260" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C260" s="36">
         <v>43516</v>
@@ -15973,10 +15973,10 @@
     </row>
     <row r="261" spans="1:33">
       <c r="A261" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B261" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C261" s="36">
         <v>43571</v>
@@ -16003,10 +16003,10 @@
     </row>
     <row r="262" spans="1:33">
       <c r="A262" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C262" s="36">
         <v>43475</v>
@@ -16022,10 +16022,10 @@
     </row>
     <row r="263" spans="1:33">
       <c r="A263" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C263" s="36">
         <v>43516</v>
@@ -16043,10 +16043,10 @@
     </row>
     <row r="264" spans="1:33">
       <c r="A264" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C264" s="36">
         <v>43571</v>
@@ -16073,10 +16073,10 @@
     </row>
     <row r="265" spans="1:33">
       <c r="A265" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C265" s="36">
         <v>43475</v>
@@ -16098,10 +16098,10 @@
     </row>
     <row r="266" spans="1:33">
       <c r="A266" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C266" s="36">
         <v>43516</v>
@@ -16119,10 +16119,10 @@
     </row>
     <row r="267" spans="1:33">
       <c r="A267" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C267" s="36">
         <v>43571</v>
@@ -16149,10 +16149,10 @@
     </row>
     <row r="268" spans="1:33">
       <c r="A268" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C268" s="36">
         <v>43475</v>
@@ -16174,10 +16174,10 @@
     </row>
     <row r="269" spans="1:33">
       <c r="A269" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C269" s="36">
         <v>43517</v>
@@ -16195,10 +16195,10 @@
     </row>
     <row r="270" spans="1:33">
       <c r="A270" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C270" s="36">
         <v>43571</v>
@@ -16225,10 +16225,10 @@
     </row>
     <row r="271" spans="1:33">
       <c r="A271" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C271" s="36">
         <v>43475</v>
@@ -16250,10 +16250,10 @@
     </row>
     <row r="272" spans="1:33">
       <c r="A272" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C272" s="36">
         <v>43517</v>
@@ -16271,10 +16271,10 @@
     </row>
     <row r="273" spans="1:33">
       <c r="A273" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C273" s="36">
         <v>43571</v>
@@ -16301,10 +16301,10 @@
     </row>
     <row r="274" spans="1:33">
       <c r="A274" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B274" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C274" s="36">
         <v>43475</v>
@@ -16326,10 +16326,10 @@
     </row>
     <row r="275" spans="1:33">
       <c r="A275" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B275" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C275" s="36">
         <v>43517</v>
@@ -16347,10 +16347,10 @@
     </row>
     <row r="276" spans="1:33">
       <c r="A276" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B276" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C276" s="36">
         <v>43571</v>
@@ -16377,10 +16377,10 @@
     </row>
     <row r="277" spans="1:33">
       <c r="A277" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B277" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C277" s="36">
         <v>43475</v>
@@ -16402,10 +16402,10 @@
     </row>
     <row r="278" spans="1:33">
       <c r="A278" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C278" s="36">
         <v>43516</v>
@@ -16423,10 +16423,10 @@
     </row>
     <row r="279" spans="1:33">
       <c r="A279" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C279" s="36">
         <v>43571</v>
@@ -16453,10 +16453,10 @@
     </row>
     <row r="280" spans="1:33">
       <c r="A280" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C280" s="36">
         <v>43475</v>
@@ -16478,10 +16478,10 @@
     </row>
     <row r="281" spans="1:33">
       <c r="A281" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C281" s="36">
         <v>43518</v>
@@ -16499,10 +16499,10 @@
     </row>
     <row r="282" spans="1:33">
       <c r="A282" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C282" s="36">
         <v>43571</v>
@@ -16529,10 +16529,10 @@
     </row>
     <row r="283" spans="1:33">
       <c r="A283" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C283" s="36">
         <v>43475</v>
@@ -16555,10 +16555,10 @@
     </row>
     <row r="284" spans="1:33">
       <c r="A284" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B284" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C284" s="36">
         <v>43517</v>
@@ -16578,10 +16578,10 @@
     </row>
     <row r="285" spans="1:33">
       <c r="A285" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B285" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C285" s="36">
         <v>43571</v>
@@ -16610,10 +16610,10 @@
     </row>
     <row r="286" spans="1:33">
       <c r="A286" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B286" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C286" s="36">
         <v>43475</v>
@@ -16636,10 +16636,10 @@
     </row>
     <row r="287" spans="1:33">
       <c r="A287" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B287" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C287" s="36">
         <v>43516</v>
@@ -16659,10 +16659,10 @@
     </row>
     <row r="288" spans="1:33">
       <c r="A288" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B288" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C288" s="36">
         <v>43571</v>
@@ -16691,10 +16691,10 @@
     </row>
     <row r="289" spans="1:37">
       <c r="A289" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B289" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C289" s="36">
         <v>43462</v>
@@ -16729,10 +16729,10 @@
     </row>
     <row r="290" spans="1:37">
       <c r="A290" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B290" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C290" s="36">
         <v>43494</v>
@@ -16752,10 +16752,10 @@
     </row>
     <row r="291" spans="1:37">
       <c r="A291" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B291" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C291" s="36">
         <v>43507</v>
@@ -16775,10 +16775,10 @@
     </row>
     <row r="292" spans="1:37">
       <c r="A292" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B292" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C292" s="36">
         <v>43515</v>
@@ -16798,10 +16798,10 @@
     </row>
     <row r="293" spans="1:37">
       <c r="A293" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B293" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C293" s="36">
         <v>43509</v>
@@ -16821,10 +16821,10 @@
     </row>
     <row r="294" spans="1:37">
       <c r="A294" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B294" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C294" s="36">
         <v>43523</v>
@@ -16844,10 +16844,10 @@
     </row>
     <row r="295" spans="1:37">
       <c r="A295" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B295" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C295" s="36">
         <v>43531</v>
@@ -16867,10 +16867,10 @@
     </row>
     <row r="296" spans="1:37">
       <c r="A296" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B296" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C296" s="36">
         <v>43549</v>
@@ -16896,10 +16896,10 @@
     </row>
     <row r="297" spans="1:37">
       <c r="A297" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B297" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C297" s="36">
         <v>43462</v>
@@ -16928,10 +16928,10 @@
     </row>
     <row r="298" spans="1:37">
       <c r="A298" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B298" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C298" s="36">
         <v>43494</v>
@@ -16951,10 +16951,10 @@
     </row>
     <row r="299" spans="1:37">
       <c r="A299" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B299" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C299" s="36">
         <v>43507</v>
@@ -16974,10 +16974,10 @@
     </row>
     <row r="300" spans="1:37">
       <c r="A300" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B300" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C300" s="36">
         <v>43515</v>
@@ -16997,10 +16997,10 @@
     </row>
     <row r="301" spans="1:37">
       <c r="A301" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B301" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C301" s="36">
         <v>43509</v>
@@ -17020,10 +17020,10 @@
     </row>
     <row r="302" spans="1:37">
       <c r="A302" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B302" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C302" s="36">
         <v>43523</v>
@@ -17043,10 +17043,10 @@
     </row>
     <row r="303" spans="1:37">
       <c r="A303" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B303" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C303" s="36">
         <v>43531</v>
@@ -17066,10 +17066,10 @@
     </row>
     <row r="304" spans="1:37">
       <c r="A304" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B304" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C304" s="36">
         <v>43549</v>
@@ -17095,10 +17095,10 @@
     </row>
     <row r="305" spans="1:37">
       <c r="A305" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B305" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C305" s="36">
         <v>43462</v>
@@ -17127,10 +17127,10 @@
     </row>
     <row r="306" spans="1:37">
       <c r="A306" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B306" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C306" s="36">
         <v>43494</v>
@@ -17150,10 +17150,10 @@
     </row>
     <row r="307" spans="1:37">
       <c r="A307" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B307" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C307" s="36">
         <v>43507</v>
@@ -17173,10 +17173,10 @@
     </row>
     <row r="308" spans="1:37">
       <c r="A308" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B308" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C308" s="36">
         <v>43515</v>
@@ -17196,10 +17196,10 @@
     </row>
     <row r="309" spans="1:37">
       <c r="A309" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B309" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C309" s="36">
         <v>43509</v>
@@ -17219,10 +17219,10 @@
     </row>
     <row r="310" spans="1:37">
       <c r="A310" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B310" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C310" s="36">
         <v>43523</v>
@@ -17242,10 +17242,10 @@
     </row>
     <row r="311" spans="1:37">
       <c r="A311" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B311" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C311" s="36">
         <v>43531</v>
@@ -17265,10 +17265,10 @@
     </row>
     <row r="312" spans="1:37">
       <c r="A312" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B312" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C312" s="36">
         <v>43549</v>
@@ -17294,10 +17294,10 @@
     </row>
     <row r="313" spans="1:37">
       <c r="A313" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B313" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C313" s="36">
         <v>43462</v>
@@ -17326,10 +17326,10 @@
     </row>
     <row r="314" spans="1:37">
       <c r="A314" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B314" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C314" s="36">
         <v>43494</v>
@@ -17349,10 +17349,10 @@
     </row>
     <row r="315" spans="1:37">
       <c r="A315" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B315" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C315" s="36">
         <v>43507</v>
@@ -17372,10 +17372,10 @@
     </row>
     <row r="316" spans="1:37">
       <c r="A316" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B316" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C316" s="36">
         <v>43515</v>
@@ -17395,10 +17395,10 @@
     </row>
     <row r="317" spans="1:37">
       <c r="A317" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B317" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C317" s="36">
         <v>43509</v>
@@ -17418,10 +17418,10 @@
     </row>
     <row r="318" spans="1:37">
       <c r="A318" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B318" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C318" s="36">
         <v>43523</v>
@@ -17441,10 +17441,10 @@
     </row>
     <row r="319" spans="1:37">
       <c r="A319" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B319" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C319" s="36">
         <v>43531</v>
@@ -17464,10 +17464,10 @@
     </row>
     <row r="320" spans="1:37">
       <c r="A320" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B320" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C320" s="36">
         <v>43549</v>
@@ -17493,10 +17493,10 @@
     </row>
     <row r="321" spans="1:37">
       <c r="A321" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B321" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C321" s="36">
         <v>43462</v>
@@ -17525,10 +17525,10 @@
     </row>
     <row r="322" spans="1:37">
       <c r="A322" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B322" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C322" s="36">
         <v>43494</v>
@@ -17548,10 +17548,10 @@
     </row>
     <row r="323" spans="1:37">
       <c r="A323" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B323" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C323" s="36">
         <v>43507</v>
@@ -17571,10 +17571,10 @@
     </row>
     <row r="324" spans="1:37">
       <c r="A324" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B324" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C324" s="36">
         <v>43515</v>
@@ -17591,10 +17591,10 @@
     </row>
     <row r="325" spans="1:37">
       <c r="A325" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B325" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C325" s="36">
         <v>43509</v>
@@ -17614,10 +17614,10 @@
     </row>
     <row r="326" spans="1:37">
       <c r="A326" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B326" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C326" s="36">
         <v>43523</v>
@@ -17634,10 +17634,10 @@
     </row>
     <row r="327" spans="1:37">
       <c r="A327" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B327" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C327" s="36">
         <v>43531</v>
@@ -17657,10 +17657,10 @@
     </row>
     <row r="328" spans="1:37">
       <c r="A328" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B328" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C328" s="36">
         <v>43549</v>
@@ -17686,10 +17686,10 @@
     </row>
     <row r="329" spans="1:37">
       <c r="A329" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B329" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C329" s="36">
         <v>43462</v>
@@ -17718,10 +17718,10 @@
     </row>
     <row r="330" spans="1:37">
       <c r="A330" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B330" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C330" s="36">
         <v>43494</v>
@@ -17741,10 +17741,10 @@
     </row>
     <row r="331" spans="1:37">
       <c r="A331" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B331" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C331" s="36">
         <v>43507</v>
@@ -17764,10 +17764,10 @@
     </row>
     <row r="332" spans="1:37">
       <c r="A332" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B332" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C332" s="36">
         <v>43515</v>
@@ -17787,10 +17787,10 @@
     </row>
     <row r="333" spans="1:37">
       <c r="A333" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B333" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C333" s="36">
         <v>43509</v>
@@ -17810,10 +17810,10 @@
     </row>
     <row r="334" spans="1:37">
       <c r="A334" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B334" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C334" s="36">
         <v>43523</v>
@@ -17833,10 +17833,10 @@
     </row>
     <row r="335" spans="1:37">
       <c r="A335" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B335" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C335" s="36">
         <v>43531</v>
@@ -17856,10 +17856,10 @@
     </row>
     <row r="336" spans="1:37">
       <c r="A336" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C336" s="36">
         <v>43549</v>
@@ -17885,10 +17885,10 @@
     </row>
     <row r="337" spans="1:37">
       <c r="A337" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C337" s="36">
         <v>43462</v>
@@ -17917,10 +17917,10 @@
     </row>
     <row r="338" spans="1:37">
       <c r="A338" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B338" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C338" s="36">
         <v>43494</v>
@@ -17940,10 +17940,10 @@
     </row>
     <row r="339" spans="1:37">
       <c r="A339" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C339" s="36">
         <v>43507</v>
@@ -17963,10 +17963,10 @@
     </row>
     <row r="340" spans="1:37">
       <c r="A340" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B340" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C340" s="36">
         <v>43515</v>
@@ -17983,10 +17983,10 @@
     </row>
     <row r="341" spans="1:37">
       <c r="A341" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B341" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C341" s="36">
         <v>43509</v>
@@ -18006,10 +18006,10 @@
     </row>
     <row r="342" spans="1:37">
       <c r="A342" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B342" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C342" s="36">
         <v>43523</v>
@@ -18029,10 +18029,10 @@
     </row>
     <row r="343" spans="1:37">
       <c r="A343" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B343" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C343" s="36">
         <v>43531</v>
@@ -18052,10 +18052,10 @@
     </row>
     <row r="344" spans="1:37">
       <c r="A344" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B344" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C344" s="36">
         <v>43549</v>
@@ -18081,10 +18081,10 @@
     </row>
     <row r="345" spans="1:37">
       <c r="A345" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B345" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C345" s="36">
         <v>43462</v>
@@ -18113,10 +18113,10 @@
     </row>
     <row r="346" spans="1:37">
       <c r="A346" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B346" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C346" s="36">
         <v>43494</v>
@@ -18136,10 +18136,10 @@
     </row>
     <row r="347" spans="1:37">
       <c r="A347" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B347" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C347" s="36">
         <v>43507</v>
@@ -18159,10 +18159,10 @@
     </row>
     <row r="348" spans="1:37">
       <c r="A348" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B348" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C348" s="36">
         <v>43515</v>
@@ -18179,10 +18179,10 @@
     </row>
     <row r="349" spans="1:37">
       <c r="A349" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B349" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C349" s="36">
         <v>43509</v>
@@ -18202,10 +18202,10 @@
     </row>
     <row r="350" spans="1:37">
       <c r="A350" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B350" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C350" s="36">
         <v>43523</v>
@@ -18225,10 +18225,10 @@
     </row>
     <row r="351" spans="1:37">
       <c r="A351" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B351" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C351" s="36">
         <v>43531</v>
@@ -18248,10 +18248,10 @@
     </row>
     <row r="352" spans="1:37">
       <c r="A352" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B352" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C352" s="36">
         <v>43549</v>
@@ -18277,10 +18277,10 @@
     </row>
     <row r="353" spans="1:37">
       <c r="A353" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B353" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C353" s="36">
         <v>43462</v>
@@ -18309,10 +18309,10 @@
     </row>
     <row r="354" spans="1:37">
       <c r="A354" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B354" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C354" s="36">
         <v>43494</v>
@@ -18332,10 +18332,10 @@
     </row>
     <row r="355" spans="1:37">
       <c r="A355" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B355" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C355" s="36">
         <v>43507</v>
@@ -18355,10 +18355,10 @@
     </row>
     <row r="356" spans="1:37">
       <c r="A356" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B356" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C356" s="36">
         <v>43515</v>
@@ -18375,10 +18375,10 @@
     </row>
     <row r="357" spans="1:37">
       <c r="A357" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B357" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C357" s="36">
         <v>43509</v>
@@ -18398,10 +18398,10 @@
     </row>
     <row r="358" spans="1:37">
       <c r="A358" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B358" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C358" s="36">
         <v>43523</v>
@@ -18421,10 +18421,10 @@
     </row>
     <row r="359" spans="1:37">
       <c r="A359" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B359" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C359" s="36">
         <v>43531</v>
@@ -18444,10 +18444,10 @@
     </row>
     <row r="360" spans="1:37">
       <c r="A360" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B360" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C360" s="36">
         <v>43549</v>
@@ -18473,10 +18473,10 @@
     </row>
     <row r="361" spans="1:37">
       <c r="A361" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B361" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C361" s="36">
         <v>43462</v>
@@ -18505,10 +18505,10 @@
     </row>
     <row r="362" spans="1:37">
       <c r="A362" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B362" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C362" s="36">
         <v>43494</v>
@@ -18528,10 +18528,10 @@
     </row>
     <row r="363" spans="1:37">
       <c r="A363" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B363" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C363" s="36">
         <v>43507</v>
@@ -18551,10 +18551,10 @@
     </row>
     <row r="364" spans="1:37">
       <c r="A364" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B364" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C364" s="36">
         <v>43515</v>
@@ -18574,10 +18574,10 @@
     </row>
     <row r="365" spans="1:37">
       <c r="A365" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B365" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C365" s="36">
         <v>43509</v>
@@ -18597,10 +18597,10 @@
     </row>
     <row r="366" spans="1:37">
       <c r="A366" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B366" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C366" s="36">
         <v>43523</v>
@@ -18620,10 +18620,10 @@
     </row>
     <row r="367" spans="1:37">
       <c r="A367" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B367" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C367" s="36">
         <v>43531</v>
@@ -18643,10 +18643,10 @@
     </row>
     <row r="368" spans="1:37">
       <c r="A368" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B368" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C368" s="36">
         <v>43549</v>
@@ -18675,7 +18675,7 @@
         <v>109</v>
       </c>
       <c r="B369" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C369" s="36">
         <v>43466</v>
@@ -18710,7 +18710,7 @@
         <v>109</v>
       </c>
       <c r="B370" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C370" s="36">
         <v>43521</v>
@@ -18748,7 +18748,7 @@
         <v>109</v>
       </c>
       <c r="B371" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C371" s="36">
         <v>43566</v>
@@ -18775,7 +18775,7 @@
         <v>109</v>
       </c>
       <c r="B372" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C372" s="36">
         <v>43607</v>
@@ -18822,7 +18822,7 @@
         <v>109</v>
       </c>
       <c r="B373" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C373" s="36">
         <v>43521</v>
@@ -18842,7 +18842,7 @@
         <v>109</v>
       </c>
       <c r="B374" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C374" s="36">
         <v>43566</v>
@@ -18861,7 +18861,7 @@
         <v>109</v>
       </c>
       <c r="B375" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C375" s="36">
         <v>43607</v>
@@ -18882,7 +18882,7 @@
         <v>109</v>
       </c>
       <c r="B376" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C376" s="36">
         <v>43521</v>
@@ -18903,7 +18903,7 @@
         <v>109</v>
       </c>
       <c r="B377" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C377" s="36">
         <v>43567</v>
@@ -18924,7 +18924,7 @@
         <v>109</v>
       </c>
       <c r="B378" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C378" s="36">
         <v>43613</v>
@@ -18954,7 +18954,7 @@
         <v>109</v>
       </c>
       <c r="B379" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C379" s="36">
         <v>43521</v>
@@ -18972,7 +18972,7 @@
         <v>109</v>
       </c>
       <c r="B380" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C380" s="36">
         <v>43567</v>
@@ -18990,7 +18990,7 @@
         <v>109</v>
       </c>
       <c r="B381" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C381" s="36">
         <v>43613</v>
@@ -19011,7 +19011,7 @@
         <v>109</v>
       </c>
       <c r="B382" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C382" s="36">
         <v>43521</v>
@@ -19032,7 +19032,7 @@
         <v>109</v>
       </c>
       <c r="B383" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C383" s="36">
         <v>43568</v>
@@ -19053,7 +19053,7 @@
         <v>109</v>
       </c>
       <c r="B384" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C384" s="36">
         <v>43613</v>
@@ -19083,7 +19083,7 @@
         <v>109</v>
       </c>
       <c r="B385" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C385" s="36">
         <v>43521</v>
@@ -19101,7 +19101,7 @@
         <v>109</v>
       </c>
       <c r="B386" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C386" s="36">
         <v>43568</v>
@@ -19119,7 +19119,7 @@
         <v>109</v>
       </c>
       <c r="B387" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C387" s="36">
         <v>43613</v>
@@ -19140,7 +19140,7 @@
         <v>109</v>
       </c>
       <c r="B388" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C388" s="36">
         <v>43521</v>
@@ -19161,7 +19161,7 @@
         <v>109</v>
       </c>
       <c r="B389" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C389" s="36">
         <v>43568</v>
@@ -19182,7 +19182,7 @@
         <v>109</v>
       </c>
       <c r="B390" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C390" s="36">
         <v>43610</v>
@@ -19212,7 +19212,7 @@
         <v>109</v>
       </c>
       <c r="B391" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C391" s="36">
         <v>43521</v>
@@ -19230,7 +19230,7 @@
         <v>109</v>
       </c>
       <c r="B392" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C392" s="36">
         <v>43568</v>
@@ -19248,7 +19248,7 @@
         <v>109</v>
       </c>
       <c r="B393" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C393" s="36">
         <v>43610</v>
@@ -19269,7 +19269,7 @@
         <v>109</v>
       </c>
       <c r="B394" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C394" s="36">
         <v>43521</v>
@@ -19290,7 +19290,7 @@
         <v>109</v>
       </c>
       <c r="B395" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C395" s="36">
         <v>43568</v>
@@ -19311,7 +19311,7 @@
         <v>109</v>
       </c>
       <c r="B396" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C396" s="36">
         <v>43604</v>
@@ -19341,7 +19341,7 @@
         <v>109</v>
       </c>
       <c r="B397" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C397" s="36">
         <v>43521</v>
@@ -19359,7 +19359,7 @@
         <v>109</v>
       </c>
       <c r="B398" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C398" s="36">
         <v>43568</v>
@@ -19377,7 +19377,7 @@
         <v>109</v>
       </c>
       <c r="B399" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C399" s="36">
         <v>43604</v>
@@ -19398,7 +19398,7 @@
         <v>109</v>
       </c>
       <c r="B400" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C400" s="36">
         <v>43521</v>
@@ -19419,7 +19419,7 @@
         <v>109</v>
       </c>
       <c r="B401" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C401" s="36">
         <v>43568</v>
@@ -19440,7 +19440,7 @@
         <v>109</v>
       </c>
       <c r="B402" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C402" s="36">
         <v>43609</v>
@@ -19470,7 +19470,7 @@
         <v>109</v>
       </c>
       <c r="B403" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C403" s="36">
         <v>43521</v>
@@ -19488,7 +19488,7 @@
         <v>109</v>
       </c>
       <c r="B404" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C404" s="36">
         <v>43568</v>
@@ -19506,7 +19506,7 @@
         <v>109</v>
       </c>
       <c r="B405" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C405" s="36">
         <v>43609</v>
@@ -19527,7 +19527,7 @@
         <v>109</v>
       </c>
       <c r="B406" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C406" s="36">
         <v>43521</v>
@@ -19548,7 +19548,7 @@
         <v>109</v>
       </c>
       <c r="B407" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C407" s="36">
         <v>43566</v>
@@ -19569,7 +19569,7 @@
         <v>109</v>
       </c>
       <c r="B408" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C408" s="36">
         <v>43616</v>
@@ -19599,7 +19599,7 @@
         <v>109</v>
       </c>
       <c r="B409" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C409" s="36">
         <v>43521</v>
@@ -19617,7 +19617,7 @@
         <v>109</v>
       </c>
       <c r="B410" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C410" s="36">
         <v>43566</v>
@@ -19635,7 +19635,7 @@
         <v>109</v>
       </c>
       <c r="B411" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C411" s="36">
         <v>43616</v>
@@ -19850,18 +19850,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19883,18 +19883,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prototypes/Mungbean/MungbeanDataset.xlsx
+++ b/Prototypes/Mungbean/MungbeanDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C82ABF3-889B-4834-B8EA-03772FD62AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8CABC8-1ACD-4688-BDDD-D413149F35A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{62A5EF65-827C-4254-96DF-043A3E6D3D15}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="GenLit for Validation" sheetId="3" r:id="rId3"/>
     <sheet name="OldValidation" sheetId="4" r:id="rId4"/>
     <sheet name="DAF" sheetId="5" r:id="rId5"/>
+    <sheet name="RCN" sheetId="6" r:id="rId6"/>
+    <sheet name="CSIRO" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="402">
   <si>
     <t>SimulationName</t>
   </si>
@@ -609,12 +611,6 @@
     <t>RJL1_Dalby_doub_78IrrNo</t>
   </si>
   <si>
-    <t>RJL1_Dalby_fall_76IrrNo</t>
-  </si>
-  <si>
-    <t>RJL1_Dalby_fall_78IrrNo</t>
-  </si>
-  <si>
     <t>RJL1_Dalby_doub_78IrrYes</t>
   </si>
   <si>
@@ -654,9 +650,6 @@
     <t>RJLSow20p_100cm_Jan24</t>
   </si>
   <si>
-    <t>RCM_GattonSow1</t>
-  </si>
-  <si>
     <t>Clock.Day</t>
   </si>
   <si>
@@ -783,33 +776,6 @@
     <t>Soybean.Leaf.SpecificArea</t>
   </si>
   <si>
-    <t>Irr_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>Irr_Dec31SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>RF_Dec31SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec4SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec18SowEmerald</t>
-  </si>
-  <si>
-    <t>RO_Dec31SowEmerald</t>
-  </si>
-  <si>
     <t>ACRIN0N_Jade_rf</t>
   </si>
   <si>
@@ -1108,6 +1074,177 @@
   </si>
   <si>
     <t>RCM1IrrigRainfed</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldWide_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldMedium_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldNarrow_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldNWide_irr</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldNMedium_irr</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2015EmeraldNNarrow_irr</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009EmeraldSowNarrow_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009EmeraldSowWide_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009EmeraldSowWide_irr</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009HermitageSowWide</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009HermitageSowNarrow</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009BiloelaSowWide_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009BiloelaSowNarrow_rf</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009BiloelaSowWide_irr</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009KingaroySowWide</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009KingaroySowNarrow</t>
+  </si>
+  <si>
+    <t>Mungbean_RCN_2009BiloelaSowNarrow_irr</t>
+  </si>
+  <si>
+    <t>RCM_Gatton</t>
+  </si>
+  <si>
+    <t>RJL_afterwinterfallow1976</t>
+  </si>
+  <si>
+    <t>RJL_afterwinterfallow1978</t>
+  </si>
+  <si>
+    <t>jnghSowDec4Irr</t>
+  </si>
+  <si>
+    <t>jnghSowDec18Irr</t>
+  </si>
+  <si>
+    <t>jnghSowDec31Irr</t>
+  </si>
+  <si>
+    <t>jnghSowDec4RF</t>
+  </si>
+  <si>
+    <t>jnghSowDec18RF</t>
+  </si>
+  <si>
+    <t>jnghSowDec31RF</t>
+  </si>
+  <si>
+    <t>jnghSowDec4RO</t>
+  </si>
+  <si>
+    <t>jnghSowDec18RO</t>
+  </si>
+  <si>
+    <t>jnghSowDec31RO</t>
+  </si>
+  <si>
+    <t>Dalby2013_14S</t>
+  </si>
+  <si>
+    <t>TheGlen2013_14S</t>
+  </si>
+  <si>
+    <t>Belvedere2013_14S</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Warra</t>
+  </si>
+  <si>
+    <t>Billa_BillaSow2016</t>
+  </si>
+  <si>
+    <t>Billa_BillaSow2016_17</t>
+  </si>
+  <si>
+    <t>Billa_BillaSow2015</t>
+  </si>
+  <si>
+    <t>EmeraldSow2015_16S1</t>
+  </si>
+  <si>
+    <t>EmeraldSow2015_16S2</t>
+  </si>
+  <si>
+    <t>EmeraldSow2015_16S3</t>
+  </si>
+  <si>
+    <t>EmeraldSow2016_17S1</t>
+  </si>
+  <si>
+    <t>EmeraldSow2016_17S2</t>
+  </si>
+  <si>
+    <t>EmeraldSow2016_17S3</t>
+  </si>
+  <si>
+    <t>HRSSow2015_16S1</t>
+  </si>
+  <si>
+    <t>HRSSow2016_17</t>
+  </si>
+  <si>
+    <t>HRSSow2015_16S2</t>
+  </si>
+  <si>
+    <t>HRSSow2015_16S3</t>
+  </si>
+  <si>
+    <t>Kingaroy</t>
+  </si>
+  <si>
+    <t>PampasSowM10_dens33_canola</t>
+  </si>
+  <si>
+    <t>PampasSowM11_dens26_canola</t>
+  </si>
+  <si>
+    <t>PampasSowM12_dens25_fallow</t>
+  </si>
+  <si>
+    <t>PampasSowM7_dens25_wheat</t>
+  </si>
+  <si>
+    <t>PampasSowM8_dens33_wheat</t>
+  </si>
+  <si>
+    <t>PampasSowM9_dens33_faba</t>
+  </si>
+  <si>
+    <t>PampasSowS14_Jan19_dens23_fallow</t>
+  </si>
+  <si>
+    <t>PampasSowS3_Dec8_dens37_fallow</t>
+  </si>
+  <si>
+    <t>PampasSowS6_Dec8_dens36_fallow</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1436,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1349,6 +1486,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4796,9 +4945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD101650-216A-49EE-930A-6F7047CDD710}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4818,61 +4967,61 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="V1" s="19" t="s">
         <v>6</v>
@@ -4881,10 +5030,10 @@
         <v>105</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -6656,7 +6805,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" s="19" t="s">
-        <v>190</v>
+        <v>363</v>
       </c>
       <c r="B45" s="23">
         <v>28193</v>
@@ -6696,7 +6845,7 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B46" s="23">
         <v>28591</v>
@@ -6776,7 +6925,7 @@
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="19" t="s">
-        <v>191</v>
+        <v>364</v>
       </c>
       <c r="B48" s="23">
         <v>28591</v>
@@ -6816,7 +6965,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" s="19" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B49" s="23">
         <v>29400</v>
@@ -6855,7 +7004,7 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" s="19" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B50" s="23">
         <v>29400</v>
@@ -6894,7 +7043,7 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" s="19" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B51" s="23">
         <v>29400</v>
@@ -7133,7 +7282,7 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" s="23">
         <v>28171</v>
@@ -7168,7 +7317,7 @@
     </row>
     <row r="58" spans="1:25">
       <c r="A58" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B58" s="23">
         <v>28239</v>
@@ -7203,7 +7352,7 @@
     </row>
     <row r="59" spans="1:25">
       <c r="A59" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B59" s="23">
         <v>28239</v>
@@ -7238,7 +7387,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B60" s="23">
         <v>28239</v>
@@ -7273,7 +7422,7 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="23">
         <v>28171</v>
@@ -7308,7 +7457,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B62" s="23">
         <v>28171</v>
@@ -7343,7 +7492,7 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B63" s="23">
         <v>28171</v>
@@ -7378,7 +7527,7 @@
     </row>
     <row r="64" spans="1:25">
       <c r="A64" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B64" s="23">
         <v>28200</v>
@@ -7413,7 +7562,7 @@
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B65" s="23">
         <v>28200</v>
@@ -7448,7 +7597,7 @@
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B66" s="23">
         <v>28200</v>
@@ -7483,7 +7632,7 @@
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B67" s="23">
         <v>28200</v>
@@ -7518,7 +7667,7 @@
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B68" s="23">
         <v>28239</v>
@@ -7553,7 +7702,7 @@
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="19" t="s">
-        <v>205</v>
+        <v>362</v>
       </c>
       <c r="B69" s="23">
         <v>32970</v>
@@ -7625,7 +7774,7 @@
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="33" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="B70" s="35">
         <v>35817</v>
@@ -7656,7 +7805,7 @@
     </row>
     <row r="71" spans="1:26">
       <c r="A71" s="33" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="B71" s="35">
         <v>35845</v>
@@ -7689,7 +7838,7 @@
     </row>
     <row r="72" spans="1:26">
       <c r="A72" s="33" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="B72" s="35">
         <v>35859</v>
@@ -7722,7 +7871,7 @@
     </row>
     <row r="73" spans="1:26">
       <c r="A73" s="33" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="B73" s="35">
         <v>35873</v>
@@ -7755,7 +7904,7 @@
     </row>
     <row r="74" spans="1:26">
       <c r="A74" s="33" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="B74" s="35">
         <v>35878</v>
@@ -7788,7 +7937,7 @@
     </row>
     <row r="75" spans="1:26">
       <c r="A75" s="33" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B75" s="35">
         <v>35817</v>
@@ -7819,7 +7968,7 @@
     </row>
     <row r="76" spans="1:26">
       <c r="A76" s="33" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B76" s="35">
         <v>35845</v>
@@ -7852,7 +8001,7 @@
     </row>
     <row r="77" spans="1:26">
       <c r="A77" s="33" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B77" s="35">
         <v>35859</v>
@@ -7885,7 +8034,7 @@
     </row>
     <row r="78" spans="1:26">
       <c r="A78" s="33" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B78" s="35">
         <v>35873</v>
@@ -7918,7 +8067,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="33" t="s">
-        <v>249</v>
+        <v>366</v>
       </c>
       <c r="B79" s="35">
         <v>35878</v>
@@ -7951,7 +8100,7 @@
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B80" s="35">
         <v>35817</v>
@@ -7982,7 +8131,7 @@
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B81" s="35">
         <v>35845</v>
@@ -8015,7 +8164,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B82" s="35">
         <v>35859</v>
@@ -8048,7 +8197,7 @@
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B83" s="35">
         <v>35873</v>
@@ -8081,7 +8230,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B84" s="35">
         <v>35878</v>
@@ -8112,7 +8261,7 @@
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="33" t="s">
-        <v>250</v>
+        <v>367</v>
       </c>
       <c r="B85" s="35">
         <v>35899</v>
@@ -8145,7 +8294,7 @@
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="33" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="B86" s="35">
         <v>35817</v>
@@ -8176,7 +8325,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="33" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="B87" s="35">
         <v>35845</v>
@@ -8209,7 +8358,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="33" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="B88" s="35">
         <v>35859</v>
@@ -8242,7 +8391,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="33" t="s">
-        <v>251</v>
+        <v>368</v>
       </c>
       <c r="B89" s="35">
         <v>35871</v>
@@ -8275,7 +8424,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="33" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="B90" s="35">
         <v>35817</v>
@@ -8306,7 +8455,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="33" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="B91" s="35">
         <v>35845</v>
@@ -8339,7 +8488,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="33" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="B92" s="35">
         <v>35859</v>
@@ -8372,7 +8521,7 @@
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="33" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="B93" s="35">
         <v>35873</v>
@@ -8403,7 +8552,7 @@
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="33" t="s">
-        <v>252</v>
+        <v>369</v>
       </c>
       <c r="B94" s="35">
         <v>35878</v>
@@ -8436,7 +8585,7 @@
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="33" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B95" s="35">
         <v>35817</v>
@@ -8467,7 +8616,7 @@
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="33" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B96" s="35">
         <v>35845</v>
@@ -8500,7 +8649,7 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="33" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B97" s="35">
         <v>35859</v>
@@ -8533,7 +8682,7 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="33" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B98" s="35">
         <v>35873</v>
@@ -8564,7 +8713,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="33" t="s">
-        <v>253</v>
+        <v>370</v>
       </c>
       <c r="B99" s="35">
         <v>35878</v>
@@ -8597,7 +8746,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="33" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B100" s="35">
         <v>35817</v>
@@ -8630,7 +8779,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="33" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B101" s="35">
         <v>35845</v>
@@ -8663,7 +8812,7 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="33" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B102" s="35">
         <v>35859</v>
@@ -8696,7 +8845,7 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="33" t="s">
-        <v>254</v>
+        <v>371</v>
       </c>
       <c r="B103" s="35">
         <v>35867</v>
@@ -8729,7 +8878,7 @@
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="33" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B104" s="35">
         <v>35817</v>
@@ -8760,7 +8909,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="33" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B105" s="35">
         <v>35845</v>
@@ -8793,7 +8942,7 @@
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="33" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B106" s="35">
         <v>35859</v>
@@ -8826,7 +8975,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="33" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B107" s="35">
         <v>35873</v>
@@ -8859,7 +9008,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108" s="33" t="s">
-        <v>255</v>
+        <v>372</v>
       </c>
       <c r="B108" s="35">
         <v>35878</v>
@@ -8892,7 +9041,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="33" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B109" s="35">
         <v>35817</v>
@@ -8923,7 +9072,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110" s="33" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B110" s="35">
         <v>35845</v>
@@ -8956,7 +9105,7 @@
     </row>
     <row r="111" spans="1:26">
       <c r="A111" s="33" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B111" s="35">
         <v>35859</v>
@@ -8989,7 +9138,7 @@
     </row>
     <row r="112" spans="1:26">
       <c r="A112" s="33" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B112" s="35">
         <v>35873</v>
@@ -9022,7 +9171,7 @@
     </row>
     <row r="113" spans="1:26">
       <c r="A113" s="33" t="s">
-        <v>256</v>
+        <v>373</v>
       </c>
       <c r="B113" s="35">
         <v>35878</v>
@@ -9325,9 +9474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AFC0C-9ADA-4F34-AF6E-16A8777333E1}">
   <dimension ref="A1:AN416"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9356,123 +9505,123 @@
         <v>1</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="K1" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>213</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>220</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="X1" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC1" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE1" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AH1" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AJ1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM1" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="AH1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AN1" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="AM1" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN1" s="21" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C2" s="36">
         <v>43949</v>
@@ -9501,10 +9650,10 @@
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C3" s="36">
         <v>43727</v>
@@ -9518,10 +9667,10 @@
     </row>
     <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C4" s="36">
         <v>43860</v>
@@ -9538,10 +9687,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C5" s="36">
         <v>43959</v>
@@ -9555,10 +9704,10 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C6" s="36">
         <v>43949</v>
@@ -9587,10 +9736,10 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C7" s="36">
         <v>43959</v>
@@ -9604,10 +9753,10 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C8" s="36">
         <v>43949</v>
@@ -9636,10 +9785,10 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C9" s="36">
         <v>43959</v>
@@ -9653,10 +9802,10 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C10" s="36">
         <v>43949</v>
@@ -9685,10 +9834,10 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C11" s="36">
         <v>43959</v>
@@ -9702,10 +9851,10 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C12" s="36">
         <v>43949</v>
@@ -9734,10 +9883,10 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C13" s="36">
         <v>43959</v>
@@ -9752,10 +9901,10 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C14" s="36">
         <v>43949</v>
@@ -9784,10 +9933,10 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C15" s="36">
         <v>43959</v>
@@ -9801,10 +9950,10 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C16" s="36">
         <v>43949</v>
@@ -9833,10 +9982,10 @@
     </row>
     <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C17" s="36">
         <v>43959</v>
@@ -9851,10 +10000,10 @@
     </row>
     <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C18" s="36">
         <v>43949</v>
@@ -9883,10 +10032,10 @@
     </row>
     <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C19" s="36">
         <v>43959</v>
@@ -9900,10 +10049,10 @@
     </row>
     <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C20" s="36">
         <v>43949</v>
@@ -9933,10 +10082,10 @@
     </row>
     <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C21" s="36">
         <v>43959</v>
@@ -9952,10 +10101,10 @@
     </row>
     <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C22" s="36">
         <v>43949</v>
@@ -9985,10 +10134,10 @@
     </row>
     <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C23" s="36">
         <v>43959</v>
@@ -10003,10 +10152,10 @@
     </row>
     <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C24" s="36">
         <v>43949</v>
@@ -10036,10 +10185,10 @@
     </row>
     <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C25" s="36">
         <v>43959</v>
@@ -10055,10 +10204,10 @@
     </row>
     <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C26" s="36">
         <v>43949</v>
@@ -10088,10 +10237,10 @@
     </row>
     <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C27" s="36">
         <v>43959</v>
@@ -10106,10 +10255,10 @@
     </row>
     <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C28" s="36">
         <v>43949</v>
@@ -10139,10 +10288,10 @@
     </row>
     <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C29" s="36">
         <v>43959</v>
@@ -10158,10 +10307,10 @@
     </row>
     <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C30" s="36">
         <v>43949</v>
@@ -10191,10 +10340,10 @@
     </row>
     <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C31" s="36">
         <v>43959</v>
@@ -10209,10 +10358,10 @@
     </row>
     <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C32" s="36">
         <v>43949</v>
@@ -10242,10 +10391,10 @@
     </row>
     <row r="33" spans="1:40">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C33" s="36">
         <v>43959</v>
@@ -10261,10 +10410,10 @@
     </row>
     <row r="34" spans="1:40">
       <c r="A34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C34" s="36">
         <v>43949</v>
@@ -10294,10 +10443,10 @@
     </row>
     <row r="35" spans="1:40">
       <c r="A35" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C35" s="36">
         <v>43959</v>
@@ -10316,7 +10465,7 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C36" s="36">
         <v>43739</v>
@@ -10331,7 +10480,7 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C37" s="36">
         <v>43862</v>
@@ -10346,7 +10495,7 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C38" s="36">
         <v>43878</v>
@@ -10388,7 +10537,7 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C39" s="36">
         <v>43905</v>
@@ -10406,7 +10555,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C40" s="36">
         <v>43912</v>
@@ -10424,7 +10573,7 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C41" s="36">
         <v>43917</v>
@@ -10448,7 +10597,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C42" s="36">
         <v>43919</v>
@@ -10467,7 +10616,7 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C43" s="36">
         <v>43928</v>
@@ -10486,7 +10635,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C44" s="36">
         <v>43938</v>
@@ -10528,7 +10677,7 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C45" s="36">
         <v>43878</v>
@@ -10571,7 +10720,7 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C46" s="36">
         <v>43905</v>
@@ -10590,7 +10739,7 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C47" s="36">
         <v>43912</v>
@@ -10609,7 +10758,7 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C48" s="36">
         <v>43918</v>
@@ -10633,7 +10782,7 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C49" s="36">
         <v>43919</v>
@@ -10652,7 +10801,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C50" s="36">
         <v>43928</v>
@@ -10671,7 +10820,7 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C51" s="36">
         <v>43938</v>
@@ -10713,7 +10862,7 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C52" s="36">
         <v>43878</v>
@@ -10744,7 +10893,7 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C53" s="36">
         <v>43905</v>
@@ -10763,7 +10912,7 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C54" s="36">
         <v>43912</v>
@@ -10782,7 +10931,7 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C55" s="36">
         <v>43917</v>
@@ -10806,7 +10955,7 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C56" s="36">
         <v>43919</v>
@@ -10825,7 +10974,7 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C57" s="36">
         <v>43928</v>
@@ -10844,7 +10993,7 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C58" s="36">
         <v>43937</v>
@@ -10886,7 +11035,7 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C59" s="36">
         <v>43878</v>
@@ -10917,7 +11066,7 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C60" s="36">
         <v>43905</v>
@@ -10936,7 +11085,7 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C61" s="36">
         <v>43912</v>
@@ -10955,7 +11104,7 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C62" s="36">
         <v>43917</v>
@@ -10979,7 +11128,7 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C63" s="36">
         <v>43919</v>
@@ -10996,7 +11145,7 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C64" s="36">
         <v>43928</v>
@@ -11015,7 +11164,7 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C65" s="36">
         <v>43938</v>
@@ -11057,7 +11206,7 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C66" s="36">
         <v>43878</v>
@@ -11100,7 +11249,7 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C67" s="36">
         <v>43905</v>
@@ -11119,7 +11268,7 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C68" s="36">
         <v>43912</v>
@@ -11138,7 +11287,7 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C69" s="36">
         <v>43917</v>
@@ -11162,7 +11311,7 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C70" s="36">
         <v>43919</v>
@@ -11181,7 +11330,7 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C71" s="36">
         <v>43928</v>
@@ -11200,7 +11349,7 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C72" s="36">
         <v>43938</v>
@@ -11242,7 +11391,7 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C73" s="36">
         <v>43878</v>
@@ -11273,7 +11422,7 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C74" s="36">
         <v>43905</v>
@@ -11292,7 +11441,7 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C75" s="36">
         <v>43912</v>
@@ -11311,7 +11460,7 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C76" s="36">
         <v>43917</v>
@@ -11335,7 +11484,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C77" s="36">
         <v>43919</v>
@@ -11352,7 +11501,7 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C78" s="36">
         <v>43928</v>
@@ -11371,7 +11520,7 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C79" s="36">
         <v>43938</v>
@@ -11413,7 +11562,7 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C80" s="36">
         <v>43878</v>
@@ -11444,7 +11593,7 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C81" s="36">
         <v>43905</v>
@@ -11463,7 +11612,7 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C82" s="36">
         <v>43912</v>
@@ -11482,7 +11631,7 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C83" s="36">
         <v>43917</v>
@@ -11506,7 +11655,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C84" s="36">
         <v>43919</v>
@@ -11525,7 +11674,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C85" s="36">
         <v>43928</v>
@@ -11544,7 +11693,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C86" s="36">
         <v>43938</v>
@@ -11586,7 +11735,7 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C87" s="36">
         <v>43878</v>
@@ -11629,7 +11778,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C88" s="36">
         <v>43905</v>
@@ -11648,7 +11797,7 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C89" s="36">
         <v>43912</v>
@@ -11667,7 +11816,7 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C90" s="36">
         <v>43918</v>
@@ -11691,7 +11840,7 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C91" s="36">
         <v>43919</v>
@@ -11710,7 +11859,7 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C92" s="36">
         <v>43928</v>
@@ -11729,7 +11878,7 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C93" s="36">
         <v>43938</v>
@@ -11771,7 +11920,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C94" s="36">
         <v>43878</v>
@@ -11814,7 +11963,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C95" s="36">
         <v>43905</v>
@@ -11833,7 +11982,7 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C96" s="36">
         <v>43912</v>
@@ -11852,7 +12001,7 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C97" s="36">
         <v>43917</v>
@@ -11876,7 +12025,7 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C98" s="36">
         <v>43919</v>
@@ -11895,7 +12044,7 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C99" s="36">
         <v>43928</v>
@@ -11914,7 +12063,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C100" s="36">
         <v>43937</v>
@@ -11956,7 +12105,7 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C101" s="36">
         <v>43878</v>
@@ -11999,7 +12148,7 @@
         <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C102" s="36">
         <v>43905</v>
@@ -12018,7 +12167,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C103" s="36">
         <v>43912</v>
@@ -12037,7 +12186,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C104" s="36">
         <v>43918</v>
@@ -12061,7 +12210,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C105" s="36">
         <v>43919</v>
@@ -12080,7 +12229,7 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C106" s="36">
         <v>43928</v>
@@ -12099,7 +12248,7 @@
         <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C107" s="36">
         <v>43938</v>
@@ -12141,7 +12290,7 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C108" s="36">
         <v>43878</v>
@@ -12172,7 +12321,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C109" s="36">
         <v>43905</v>
@@ -12191,7 +12340,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C110" s="36">
         <v>43912</v>
@@ -12210,7 +12359,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C111" s="36">
         <v>43918</v>
@@ -12234,7 +12383,7 @@
         <v>109</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C112" s="36">
         <v>43919</v>
@@ -12253,7 +12402,7 @@
         <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C113" s="36">
         <v>43928</v>
@@ -12272,7 +12421,7 @@
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="C114" s="36">
         <v>43938</v>
@@ -12314,7 +12463,7 @@
         <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C115" s="36">
         <v>43878</v>
@@ -12345,7 +12494,7 @@
         <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C116" s="36">
         <v>43905</v>
@@ -12364,7 +12513,7 @@
         <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C117" s="36">
         <v>43912</v>
@@ -12383,7 +12532,7 @@
         <v>109</v>
       </c>
       <c r="B118" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C118" s="36">
         <v>43917</v>
@@ -12407,7 +12556,7 @@
         <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C119" s="36">
         <v>43919</v>
@@ -12426,7 +12575,7 @@
         <v>109</v>
       </c>
       <c r="B120" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C120" s="36">
         <v>43928</v>
@@ -12445,7 +12594,7 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C121" s="36">
         <v>43937</v>
@@ -12487,7 +12636,7 @@
         <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C122" s="36">
         <v>43878</v>
@@ -12530,7 +12679,7 @@
         <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C123" s="36">
         <v>43905</v>
@@ -12549,7 +12698,7 @@
         <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C124" s="36">
         <v>43912</v>
@@ -12568,7 +12717,7 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C125" s="36">
         <v>43918</v>
@@ -12592,7 +12741,7 @@
         <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C126" s="36">
         <v>43919</v>
@@ -12611,7 +12760,7 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C127" s="36">
         <v>43928</v>
@@ -12630,7 +12779,7 @@
         <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C128" s="36">
         <v>43938</v>
@@ -12672,7 +12821,7 @@
         <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C129" s="36">
         <v>43878</v>
@@ -12703,7 +12852,7 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C130" s="36">
         <v>43905</v>
@@ -12722,7 +12871,7 @@
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C131" s="36">
         <v>43912</v>
@@ -12741,7 +12890,7 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C132" s="36">
         <v>43918</v>
@@ -12765,7 +12914,7 @@
         <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C133" s="36">
         <v>43919</v>
@@ -12784,7 +12933,7 @@
         <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C134" s="36">
         <v>43928</v>
@@ -12803,7 +12952,7 @@
         <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C135" s="36">
         <v>43938</v>
@@ -12845,7 +12994,7 @@
         <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C136" s="36">
         <v>43878</v>
@@ -12876,7 +13025,7 @@
         <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C137" s="36">
         <v>43905</v>
@@ -12895,7 +13044,7 @@
         <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C138" s="36">
         <v>43912</v>
@@ -12914,7 +13063,7 @@
         <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C139" s="36">
         <v>43918</v>
@@ -12938,7 +13087,7 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C140" s="36">
         <v>43919</v>
@@ -12957,7 +13106,7 @@
         <v>109</v>
       </c>
       <c r="B141" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C141" s="36">
         <v>43928</v>
@@ -12976,7 +13125,7 @@
         <v>109</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C142" s="36">
         <v>43938</v>
@@ -13018,7 +13167,7 @@
         <v>109</v>
       </c>
       <c r="B143" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C143" s="36">
         <v>43878</v>
@@ -13061,7 +13210,7 @@
         <v>109</v>
       </c>
       <c r="B144" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C144" s="36">
         <v>43905</v>
@@ -13080,7 +13229,7 @@
         <v>109</v>
       </c>
       <c r="B145" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C145" s="36">
         <v>43912</v>
@@ -13099,7 +13248,7 @@
         <v>109</v>
       </c>
       <c r="B146" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C146" s="36">
         <v>43917</v>
@@ -13123,7 +13272,7 @@
         <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C147" s="36">
         <v>43919</v>
@@ -13142,7 +13291,7 @@
         <v>109</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C148" s="36">
         <v>43928</v>
@@ -13161,7 +13310,7 @@
         <v>109</v>
       </c>
       <c r="B149" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C149" s="36">
         <v>43938</v>
@@ -13200,10 +13349,10 @@
     </row>
     <row r="150" spans="1:40">
       <c r="A150" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C150" s="36">
         <v>43752</v>
@@ -13246,10 +13395,10 @@
     </row>
     <row r="151" spans="1:40">
       <c r="A151" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C151" s="36">
         <v>43784</v>
@@ -13265,10 +13414,10 @@
     </row>
     <row r="152" spans="1:40">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C152" s="36">
         <v>43789</v>
@@ -13284,10 +13433,10 @@
     </row>
     <row r="153" spans="1:40">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C153" s="36">
         <v>43798</v>
@@ -13303,10 +13452,10 @@
     </row>
     <row r="154" spans="1:40">
       <c r="A154" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C154" s="36">
         <v>43804</v>
@@ -13321,10 +13470,10 @@
     </row>
     <row r="155" spans="1:40">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C155" s="36">
         <v>43806</v>
@@ -13339,10 +13488,10 @@
     </row>
     <row r="156" spans="1:40">
       <c r="A156" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B156" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C156" s="36">
         <v>43816</v>
@@ -13357,10 +13506,10 @@
     </row>
     <row r="157" spans="1:40">
       <c r="A157" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B157" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C157" s="36">
         <v>43832</v>
@@ -13404,10 +13553,10 @@
     </row>
     <row r="158" spans="1:40">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C158" s="36">
         <v>43752</v>
@@ -13419,10 +13568,10 @@
     </row>
     <row r="159" spans="1:40">
       <c r="A159" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B159" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C159" s="36">
         <v>43804</v>
@@ -13436,10 +13585,10 @@
     </row>
     <row r="160" spans="1:40">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C160" s="36">
         <v>43832</v>
@@ -13471,10 +13620,10 @@
     </row>
     <row r="161" spans="1:32">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C161" s="36">
         <v>43752</v>
@@ -13486,10 +13635,10 @@
     </row>
     <row r="162" spans="1:32">
       <c r="A162" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C162" s="36">
         <v>43804</v>
@@ -13503,10 +13652,10 @@
     </row>
     <row r="163" spans="1:32">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C163" s="36">
         <v>43832</v>
@@ -13538,10 +13687,10 @@
     </row>
     <row r="164" spans="1:32">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B164" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C164" s="36">
         <v>43752</v>
@@ -13553,10 +13702,10 @@
     </row>
     <row r="165" spans="1:32">
       <c r="A165" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C165" s="36">
         <v>43804</v>
@@ -13570,10 +13719,10 @@
     </row>
     <row r="166" spans="1:32">
       <c r="A166" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C166" s="36">
         <v>43832</v>
@@ -13605,10 +13754,10 @@
     </row>
     <row r="167" spans="1:32">
       <c r="A167" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C167" s="36">
         <v>43752</v>
@@ -13620,10 +13769,10 @@
     </row>
     <row r="168" spans="1:32">
       <c r="A168" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C168" s="36">
         <v>43804</v>
@@ -13637,10 +13786,10 @@
     </row>
     <row r="169" spans="1:32">
       <c r="A169" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C169" s="36">
         <v>43832</v>
@@ -13672,10 +13821,10 @@
     </row>
     <row r="170" spans="1:32">
       <c r="A170" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B170" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C170" s="36">
         <v>43752</v>
@@ -13687,10 +13836,10 @@
     </row>
     <row r="171" spans="1:32">
       <c r="A171" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C171" s="36">
         <v>43804</v>
@@ -13704,10 +13853,10 @@
     </row>
     <row r="172" spans="1:32">
       <c r="A172" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C172" s="36">
         <v>43832</v>
@@ -13739,10 +13888,10 @@
     </row>
     <row r="173" spans="1:32">
       <c r="A173" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C173" s="36">
         <v>43752</v>
@@ -13754,10 +13903,10 @@
     </row>
     <row r="174" spans="1:32">
       <c r="A174" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C174" s="36">
         <v>43804</v>
@@ -13771,10 +13920,10 @@
     </row>
     <row r="175" spans="1:32">
       <c r="A175" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C175" s="36">
         <v>43832</v>
@@ -13806,10 +13955,10 @@
     </row>
     <row r="176" spans="1:32">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B176" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C176" s="36">
         <v>43752</v>
@@ -13821,10 +13970,10 @@
     </row>
     <row r="177" spans="1:37">
       <c r="A177" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C177" s="36">
         <v>43804</v>
@@ -13838,10 +13987,10 @@
     </row>
     <row r="178" spans="1:37">
       <c r="A178" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C178" s="36">
         <v>43832</v>
@@ -13873,10 +14022,10 @@
     </row>
     <row r="179" spans="1:37">
       <c r="A179" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C179" s="36">
         <v>43752</v>
@@ -13915,10 +14064,10 @@
     </row>
     <row r="180" spans="1:37">
       <c r="A180" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C180" s="36">
         <v>43784</v>
@@ -13933,10 +14082,10 @@
     </row>
     <row r="181" spans="1:37">
       <c r="A181" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B181" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C181" s="36">
         <v>43789</v>
@@ -13951,10 +14100,10 @@
     </row>
     <row r="182" spans="1:37">
       <c r="A182" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B182" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C182" s="36">
         <v>43798</v>
@@ -13969,10 +14118,10 @@
     </row>
     <row r="183" spans="1:37">
       <c r="A183" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B183" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C183" s="36">
         <v>43804</v>
@@ -13986,10 +14135,10 @@
     </row>
     <row r="184" spans="1:37">
       <c r="A184" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C184" s="36">
         <v>43806</v>
@@ -14004,10 +14153,10 @@
     </row>
     <row r="185" spans="1:37">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B185" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C185" s="36">
         <v>43816</v>
@@ -14022,10 +14171,10 @@
     </row>
     <row r="186" spans="1:37">
       <c r="A186" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B186" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C186" s="36">
         <v>43832</v>
@@ -14069,10 +14218,10 @@
     </row>
     <row r="187" spans="1:37">
       <c r="A187" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B187" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C187" s="36">
         <v>43752</v>
@@ -14084,10 +14233,10 @@
     </row>
     <row r="188" spans="1:37">
       <c r="A188" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B188" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C188" s="36">
         <v>43804</v>
@@ -14101,10 +14250,10 @@
     </row>
     <row r="189" spans="1:37">
       <c r="A189" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B189" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C189" s="36">
         <v>43832</v>
@@ -14136,10 +14285,10 @@
     </row>
     <row r="190" spans="1:37">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B190" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C190" s="36">
         <v>43752</v>
@@ -14151,10 +14300,10 @@
     </row>
     <row r="191" spans="1:37">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B191" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C191" s="36">
         <v>43804</v>
@@ -14168,10 +14317,10 @@
     </row>
     <row r="192" spans="1:37">
       <c r="A192" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B192" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C192" s="36">
         <v>43832</v>
@@ -14191,10 +14340,10 @@
     </row>
     <row r="193" spans="1:32">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C193" s="36">
         <v>43752</v>
@@ -14206,10 +14355,10 @@
     </row>
     <row r="194" spans="1:32">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B194" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C194" s="36">
         <v>43804</v>
@@ -14223,10 +14372,10 @@
     </row>
     <row r="195" spans="1:32">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B195" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C195" s="36">
         <v>43832</v>
@@ -14258,10 +14407,10 @@
     </row>
     <row r="196" spans="1:32">
       <c r="A196" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B196" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C196" s="36">
         <v>43752</v>
@@ -14273,10 +14422,10 @@
     </row>
     <row r="197" spans="1:32">
       <c r="A197" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B197" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C197" s="36">
         <v>43804</v>
@@ -14290,10 +14439,10 @@
     </row>
     <row r="198" spans="1:32">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B198" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C198" s="36">
         <v>43832</v>
@@ -14325,10 +14474,10 @@
     </row>
     <row r="199" spans="1:32">
       <c r="A199" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B199" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C199" s="36">
         <v>43752</v>
@@ -14340,10 +14489,10 @@
     </row>
     <row r="200" spans="1:32">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B200" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C200" s="36">
         <v>43804</v>
@@ -14357,10 +14506,10 @@
     </row>
     <row r="201" spans="1:32">
       <c r="A201" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C201" s="36">
         <v>43832</v>
@@ -14392,10 +14541,10 @@
     </row>
     <row r="202" spans="1:32">
       <c r="A202" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B202" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C202" s="36">
         <v>43752</v>
@@ -14407,10 +14556,10 @@
     </row>
     <row r="203" spans="1:32">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B203" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C203" s="36">
         <v>43804</v>
@@ -14424,10 +14573,10 @@
     </row>
     <row r="204" spans="1:32">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B204" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C204" s="36">
         <v>43832</v>
@@ -14447,10 +14596,10 @@
     </row>
     <row r="205" spans="1:32">
       <c r="A205" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B205" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C205" s="36">
         <v>43752</v>
@@ -14474,10 +14623,10 @@
     </row>
     <row r="206" spans="1:32">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B206" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C206" s="36">
         <v>43804</v>
@@ -14491,10 +14640,10 @@
     </row>
     <row r="207" spans="1:32">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B207" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C207" s="36">
         <v>43832</v>
@@ -14516,10 +14665,10 @@
     </row>
     <row r="208" spans="1:32">
       <c r="A208" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C208" s="36">
         <v>43908</v>
@@ -14535,10 +14684,10 @@
     </row>
     <row r="209" spans="1:39">
       <c r="A209" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C209" s="36">
         <v>43939</v>
@@ -14575,10 +14724,10 @@
     </row>
     <row r="210" spans="1:39">
       <c r="A210" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C210" s="36">
         <v>43859</v>
@@ -14622,10 +14771,10 @@
     </row>
     <row r="211" spans="1:39">
       <c r="A211" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B211" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C211" s="36">
         <v>43887</v>
@@ -14642,10 +14791,10 @@
     </row>
     <row r="212" spans="1:39">
       <c r="A212" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C212" s="36">
         <v>43893</v>
@@ -14662,10 +14811,10 @@
     </row>
     <row r="213" spans="1:39">
       <c r="A213" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C213" s="36">
         <v>43903</v>
@@ -14682,10 +14831,10 @@
     </row>
     <row r="214" spans="1:39">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C214" s="36">
         <v>43908</v>
@@ -14704,10 +14853,10 @@
     </row>
     <row r="215" spans="1:39">
       <c r="A215" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C215" s="36">
         <v>43910</v>
@@ -14724,10 +14873,10 @@
     </row>
     <row r="216" spans="1:39">
       <c r="A216" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C216" s="36">
         <v>43916</v>
@@ -14744,10 +14893,10 @@
     </row>
     <row r="217" spans="1:39">
       <c r="A217" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B217" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C217" s="36">
         <v>43923</v>
@@ -14761,10 +14910,10 @@
     </row>
     <row r="218" spans="1:39">
       <c r="A218" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C218" s="36">
         <v>43930</v>
@@ -14778,10 +14927,10 @@
     </row>
     <row r="219" spans="1:39">
       <c r="A219" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B219" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C219" s="36">
         <v>43939</v>
@@ -14830,10 +14979,10 @@
     </row>
     <row r="220" spans="1:39">
       <c r="A220" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C220" s="36">
         <v>43908</v>
@@ -14849,10 +14998,10 @@
     </row>
     <row r="221" spans="1:39">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B221" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C221" s="36">
         <v>43939</v>
@@ -14886,10 +15035,10 @@
     </row>
     <row r="222" spans="1:39">
       <c r="A222" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C222" s="36">
         <v>43908</v>
@@ -14905,10 +15054,10 @@
     </row>
     <row r="223" spans="1:39">
       <c r="A223" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C223" s="36">
         <v>43939</v>
@@ -14942,10 +15091,10 @@
     </row>
     <row r="224" spans="1:39">
       <c r="A224" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B224" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C224" s="36">
         <v>43908</v>
@@ -14961,10 +15110,10 @@
     </row>
     <row r="225" spans="1:39">
       <c r="A225" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B225" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C225" s="36">
         <v>43939</v>
@@ -14998,10 +15147,10 @@
     </row>
     <row r="226" spans="1:39">
       <c r="A226" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C226" s="36">
         <v>43908</v>
@@ -15017,10 +15166,10 @@
     </row>
     <row r="227" spans="1:39">
       <c r="A227" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C227" s="36">
         <v>43939</v>
@@ -15054,10 +15203,10 @@
     </row>
     <row r="228" spans="1:39">
       <c r="A228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B228" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C228" s="36">
         <v>43908</v>
@@ -15073,10 +15222,10 @@
     </row>
     <row r="229" spans="1:39">
       <c r="A229" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B229" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C229" s="36">
         <v>43939</v>
@@ -15110,10 +15259,10 @@
     </row>
     <row r="230" spans="1:39">
       <c r="A230" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B230" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C230" s="36">
         <v>43908</v>
@@ -15129,10 +15278,10 @@
     </row>
     <row r="231" spans="1:39">
       <c r="A231" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C231" s="36">
         <v>43939</v>
@@ -15166,10 +15315,10 @@
     </row>
     <row r="232" spans="1:39">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B232" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C232" s="36">
         <v>43908</v>
@@ -15185,10 +15334,10 @@
     </row>
     <row r="233" spans="1:39">
       <c r="A233" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C233" s="36">
         <v>43939</v>
@@ -15226,10 +15375,10 @@
     </row>
     <row r="234" spans="1:39">
       <c r="A234" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C234" s="36">
         <v>43859</v>
@@ -15271,10 +15420,10 @@
     </row>
     <row r="235" spans="1:39">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C235" s="36">
         <v>43887</v>
@@ -15292,10 +15441,10 @@
     </row>
     <row r="236" spans="1:39">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C236" s="36">
         <v>43893</v>
@@ -15313,10 +15462,10 @@
     </row>
     <row r="237" spans="1:39">
       <c r="A237" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B237" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C237" s="36">
         <v>43903</v>
@@ -15334,10 +15483,10 @@
     </row>
     <row r="238" spans="1:39">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C238" s="36">
         <v>43908</v>
@@ -15357,10 +15506,10 @@
     </row>
     <row r="239" spans="1:39">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C239" s="36">
         <v>43910</v>
@@ -15378,10 +15527,10 @@
     </row>
     <row r="240" spans="1:39">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C240" s="36">
         <v>43916</v>
@@ -15399,10 +15548,10 @@
     </row>
     <row r="241" spans="1:39">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C241" s="36">
         <v>43923</v>
@@ -15420,10 +15569,10 @@
     </row>
     <row r="242" spans="1:39">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B242" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C242" s="36">
         <v>43930</v>
@@ -15441,10 +15590,10 @@
     </row>
     <row r="243" spans="1:39">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C243" s="36">
         <v>43936</v>
@@ -15459,10 +15608,10 @@
     </row>
     <row r="244" spans="1:39">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B244" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C244" s="36">
         <v>43939</v>
@@ -15512,10 +15661,10 @@
     </row>
     <row r="245" spans="1:39">
       <c r="A245" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B245" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C245" s="36">
         <v>43908</v>
@@ -15532,10 +15681,10 @@
     </row>
     <row r="246" spans="1:39">
       <c r="A246" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B246" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C246" s="36">
         <v>43939</v>
@@ -15573,10 +15722,10 @@
     </row>
     <row r="247" spans="1:39">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B247" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C247" s="36">
         <v>43908</v>
@@ -15593,10 +15742,10 @@
     </row>
     <row r="248" spans="1:39">
       <c r="A248" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B248" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C248" s="36">
         <v>43939</v>
@@ -15634,10 +15783,10 @@
     </row>
     <row r="249" spans="1:39">
       <c r="A249" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B249" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C249" s="36">
         <v>43908</v>
@@ -15655,10 +15804,10 @@
     </row>
     <row r="250" spans="1:39">
       <c r="A250" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B250" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C250" s="36">
         <v>43939</v>
@@ -15697,10 +15846,10 @@
     </row>
     <row r="251" spans="1:39">
       <c r="A251" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B251" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C251" s="36">
         <v>43908</v>
@@ -15718,10 +15867,10 @@
     </row>
     <row r="252" spans="1:39">
       <c r="A252" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B252" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C252" s="36">
         <v>43939</v>
@@ -15760,10 +15909,10 @@
     </row>
     <row r="253" spans="1:39">
       <c r="A253" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B253" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C253" s="36">
         <v>43908</v>
@@ -15781,10 +15930,10 @@
     </row>
     <row r="254" spans="1:39">
       <c r="A254" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B254" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C254" s="36">
         <v>43939</v>
@@ -15823,10 +15972,10 @@
     </row>
     <row r="255" spans="1:39">
       <c r="A255" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B255" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C255" s="36">
         <v>43908</v>
@@ -15844,10 +15993,10 @@
     </row>
     <row r="256" spans="1:39">
       <c r="A256" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B256" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C256" s="36">
         <v>43939</v>
@@ -15883,10 +16032,10 @@
     </row>
     <row r="257" spans="1:33">
       <c r="A257" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C257" s="36">
         <v>43363</v>
@@ -15911,10 +16060,10 @@
     </row>
     <row r="258" spans="1:33">
       <c r="A258" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C258" s="36">
         <v>43475</v>
@@ -15930,10 +16079,10 @@
     </row>
     <row r="259" spans="1:33">
       <c r="A259" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B259" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C259" s="36">
         <v>43480</v>
@@ -15952,10 +16101,10 @@
     </row>
     <row r="260" spans="1:33">
       <c r="A260" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C260" s="36">
         <v>43516</v>
@@ -15973,10 +16122,10 @@
     </row>
     <row r="261" spans="1:33">
       <c r="A261" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B261" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C261" s="36">
         <v>43571</v>
@@ -16003,10 +16152,10 @@
     </row>
     <row r="262" spans="1:33">
       <c r="A262" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C262" s="36">
         <v>43475</v>
@@ -16022,10 +16171,10 @@
     </row>
     <row r="263" spans="1:33">
       <c r="A263" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C263" s="36">
         <v>43516</v>
@@ -16043,10 +16192,10 @@
     </row>
     <row r="264" spans="1:33">
       <c r="A264" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C264" s="36">
         <v>43571</v>
@@ -16073,10 +16222,10 @@
     </row>
     <row r="265" spans="1:33">
       <c r="A265" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B265" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C265" s="36">
         <v>43475</v>
@@ -16098,10 +16247,10 @@
     </row>
     <row r="266" spans="1:33">
       <c r="A266" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B266" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C266" s="36">
         <v>43516</v>
@@ -16119,10 +16268,10 @@
     </row>
     <row r="267" spans="1:33">
       <c r="A267" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C267" s="36">
         <v>43571</v>
@@ -16149,10 +16298,10 @@
     </row>
     <row r="268" spans="1:33">
       <c r="A268" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C268" s="36">
         <v>43475</v>
@@ -16174,10 +16323,10 @@
     </row>
     <row r="269" spans="1:33">
       <c r="A269" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C269" s="36">
         <v>43517</v>
@@ -16195,10 +16344,10 @@
     </row>
     <row r="270" spans="1:33">
       <c r="A270" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C270" s="36">
         <v>43571</v>
@@ -16225,10 +16374,10 @@
     </row>
     <row r="271" spans="1:33">
       <c r="A271" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C271" s="36">
         <v>43475</v>
@@ -16250,10 +16399,10 @@
     </row>
     <row r="272" spans="1:33">
       <c r="A272" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C272" s="36">
         <v>43517</v>
@@ -16271,10 +16420,10 @@
     </row>
     <row r="273" spans="1:33">
       <c r="A273" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C273" s="36">
         <v>43571</v>
@@ -16301,10 +16450,10 @@
     </row>
     <row r="274" spans="1:33">
       <c r="A274" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C274" s="36">
         <v>43475</v>
@@ -16326,10 +16475,10 @@
     </row>
     <row r="275" spans="1:33">
       <c r="A275" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C275" s="36">
         <v>43517</v>
@@ -16347,10 +16496,10 @@
     </row>
     <row r="276" spans="1:33">
       <c r="A276" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B276" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C276" s="36">
         <v>43571</v>
@@ -16377,10 +16526,10 @@
     </row>
     <row r="277" spans="1:33">
       <c r="A277" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B277" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C277" s="36">
         <v>43475</v>
@@ -16402,10 +16551,10 @@
     </row>
     <row r="278" spans="1:33">
       <c r="A278" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C278" s="36">
         <v>43516</v>
@@ -16423,10 +16572,10 @@
     </row>
     <row r="279" spans="1:33">
       <c r="A279" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B279" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="C279" s="36">
         <v>43571</v>
@@ -16453,10 +16602,10 @@
     </row>
     <row r="280" spans="1:33">
       <c r="A280" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B280" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C280" s="36">
         <v>43475</v>
@@ -16478,10 +16627,10 @@
     </row>
     <row r="281" spans="1:33">
       <c r="A281" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B281" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C281" s="36">
         <v>43518</v>
@@ -16499,10 +16648,10 @@
     </row>
     <row r="282" spans="1:33">
       <c r="A282" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C282" s="36">
         <v>43571</v>
@@ -16529,10 +16678,10 @@
     </row>
     <row r="283" spans="1:33">
       <c r="A283" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C283" s="36">
         <v>43475</v>
@@ -16555,10 +16704,10 @@
     </row>
     <row r="284" spans="1:33">
       <c r="A284" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B284" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C284" s="36">
         <v>43517</v>
@@ -16578,10 +16727,10 @@
     </row>
     <row r="285" spans="1:33">
       <c r="A285" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C285" s="36">
         <v>43571</v>
@@ -16610,10 +16759,10 @@
     </row>
     <row r="286" spans="1:33">
       <c r="A286" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B286" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C286" s="36">
         <v>43475</v>
@@ -16636,10 +16785,10 @@
     </row>
     <row r="287" spans="1:33">
       <c r="A287" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B287" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C287" s="36">
         <v>43516</v>
@@ -16659,10 +16808,10 @@
     </row>
     <row r="288" spans="1:33">
       <c r="A288" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B288" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C288" s="36">
         <v>43571</v>
@@ -16691,10 +16840,10 @@
     </row>
     <row r="289" spans="1:37">
       <c r="A289" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B289" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C289" s="36">
         <v>43462</v>
@@ -16729,10 +16878,10 @@
     </row>
     <row r="290" spans="1:37">
       <c r="A290" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B290" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C290" s="36">
         <v>43494</v>
@@ -16752,10 +16901,10 @@
     </row>
     <row r="291" spans="1:37">
       <c r="A291" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B291" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C291" s="36">
         <v>43507</v>
@@ -16775,10 +16924,10 @@
     </row>
     <row r="292" spans="1:37">
       <c r="A292" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B292" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C292" s="36">
         <v>43515</v>
@@ -16798,10 +16947,10 @@
     </row>
     <row r="293" spans="1:37">
       <c r="A293" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B293" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C293" s="36">
         <v>43509</v>
@@ -16821,10 +16970,10 @@
     </row>
     <row r="294" spans="1:37">
       <c r="A294" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B294" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C294" s="36">
         <v>43523</v>
@@ -16844,10 +16993,10 @@
     </row>
     <row r="295" spans="1:37">
       <c r="A295" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B295" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C295" s="36">
         <v>43531</v>
@@ -16867,10 +17016,10 @@
     </row>
     <row r="296" spans="1:37">
       <c r="A296" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C296" s="36">
         <v>43549</v>
@@ -16896,10 +17045,10 @@
     </row>
     <row r="297" spans="1:37">
       <c r="A297" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B297" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C297" s="36">
         <v>43462</v>
@@ -16928,10 +17077,10 @@
     </row>
     <row r="298" spans="1:37">
       <c r="A298" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B298" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C298" s="36">
         <v>43494</v>
@@ -16951,10 +17100,10 @@
     </row>
     <row r="299" spans="1:37">
       <c r="A299" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B299" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C299" s="36">
         <v>43507</v>
@@ -16974,10 +17123,10 @@
     </row>
     <row r="300" spans="1:37">
       <c r="A300" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B300" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C300" s="36">
         <v>43515</v>
@@ -16997,10 +17146,10 @@
     </row>
     <row r="301" spans="1:37">
       <c r="A301" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B301" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C301" s="36">
         <v>43509</v>
@@ -17020,10 +17169,10 @@
     </row>
     <row r="302" spans="1:37">
       <c r="A302" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B302" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C302" s="36">
         <v>43523</v>
@@ -17043,10 +17192,10 @@
     </row>
     <row r="303" spans="1:37">
       <c r="A303" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B303" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C303" s="36">
         <v>43531</v>
@@ -17066,10 +17215,10 @@
     </row>
     <row r="304" spans="1:37">
       <c r="A304" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B304" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C304" s="36">
         <v>43549</v>
@@ -17095,10 +17244,10 @@
     </row>
     <row r="305" spans="1:37">
       <c r="A305" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B305" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C305" s="36">
         <v>43462</v>
@@ -17127,10 +17276,10 @@
     </row>
     <row r="306" spans="1:37">
       <c r="A306" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B306" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C306" s="36">
         <v>43494</v>
@@ -17150,10 +17299,10 @@
     </row>
     <row r="307" spans="1:37">
       <c r="A307" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B307" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C307" s="36">
         <v>43507</v>
@@ -17173,10 +17322,10 @@
     </row>
     <row r="308" spans="1:37">
       <c r="A308" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B308" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C308" s="36">
         <v>43515</v>
@@ -17196,10 +17345,10 @@
     </row>
     <row r="309" spans="1:37">
       <c r="A309" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B309" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C309" s="36">
         <v>43509</v>
@@ -17219,10 +17368,10 @@
     </row>
     <row r="310" spans="1:37">
       <c r="A310" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B310" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C310" s="36">
         <v>43523</v>
@@ -17242,10 +17391,10 @@
     </row>
     <row r="311" spans="1:37">
       <c r="A311" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B311" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C311" s="36">
         <v>43531</v>
@@ -17265,10 +17414,10 @@
     </row>
     <row r="312" spans="1:37">
       <c r="A312" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B312" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C312" s="36">
         <v>43549</v>
@@ -17294,10 +17443,10 @@
     </row>
     <row r="313" spans="1:37">
       <c r="A313" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B313" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C313" s="36">
         <v>43462</v>
@@ -17326,10 +17475,10 @@
     </row>
     <row r="314" spans="1:37">
       <c r="A314" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B314" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C314" s="36">
         <v>43494</v>
@@ -17349,10 +17498,10 @@
     </row>
     <row r="315" spans="1:37">
       <c r="A315" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B315" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C315" s="36">
         <v>43507</v>
@@ -17372,10 +17521,10 @@
     </row>
     <row r="316" spans="1:37">
       <c r="A316" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B316" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C316" s="36">
         <v>43515</v>
@@ -17395,10 +17544,10 @@
     </row>
     <row r="317" spans="1:37">
       <c r="A317" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B317" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C317" s="36">
         <v>43509</v>
@@ -17418,10 +17567,10 @@
     </row>
     <row r="318" spans="1:37">
       <c r="A318" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B318" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C318" s="36">
         <v>43523</v>
@@ -17441,10 +17590,10 @@
     </row>
     <row r="319" spans="1:37">
       <c r="A319" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B319" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C319" s="36">
         <v>43531</v>
@@ -17464,10 +17613,10 @@
     </row>
     <row r="320" spans="1:37">
       <c r="A320" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B320" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C320" s="36">
         <v>43549</v>
@@ -17493,10 +17642,10 @@
     </row>
     <row r="321" spans="1:37">
       <c r="A321" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B321" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C321" s="36">
         <v>43462</v>
@@ -17525,10 +17674,10 @@
     </row>
     <row r="322" spans="1:37">
       <c r="A322" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B322" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C322" s="36">
         <v>43494</v>
@@ -17548,10 +17697,10 @@
     </row>
     <row r="323" spans="1:37">
       <c r="A323" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B323" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C323" s="36">
         <v>43507</v>
@@ -17571,10 +17720,10 @@
     </row>
     <row r="324" spans="1:37">
       <c r="A324" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C324" s="36">
         <v>43515</v>
@@ -17591,10 +17740,10 @@
     </row>
     <row r="325" spans="1:37">
       <c r="A325" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B325" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C325" s="36">
         <v>43509</v>
@@ -17614,10 +17763,10 @@
     </row>
     <row r="326" spans="1:37">
       <c r="A326" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B326" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C326" s="36">
         <v>43523</v>
@@ -17634,10 +17783,10 @@
     </row>
     <row r="327" spans="1:37">
       <c r="A327" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B327" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C327" s="36">
         <v>43531</v>
@@ -17657,10 +17806,10 @@
     </row>
     <row r="328" spans="1:37">
       <c r="A328" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B328" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C328" s="36">
         <v>43549</v>
@@ -17686,10 +17835,10 @@
     </row>
     <row r="329" spans="1:37">
       <c r="A329" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B329" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C329" s="36">
         <v>43462</v>
@@ -17718,10 +17867,10 @@
     </row>
     <row r="330" spans="1:37">
       <c r="A330" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C330" s="36">
         <v>43494</v>
@@ -17741,10 +17890,10 @@
     </row>
     <row r="331" spans="1:37">
       <c r="A331" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C331" s="36">
         <v>43507</v>
@@ -17764,10 +17913,10 @@
     </row>
     <row r="332" spans="1:37">
       <c r="A332" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B332" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C332" s="36">
         <v>43515</v>
@@ -17787,10 +17936,10 @@
     </row>
     <row r="333" spans="1:37">
       <c r="A333" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C333" s="36">
         <v>43509</v>
@@ -17810,10 +17959,10 @@
     </row>
     <row r="334" spans="1:37">
       <c r="A334" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B334" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C334" s="36">
         <v>43523</v>
@@ -17833,10 +17982,10 @@
     </row>
     <row r="335" spans="1:37">
       <c r="A335" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C335" s="36">
         <v>43531</v>
@@ -17856,10 +18005,10 @@
     </row>
     <row r="336" spans="1:37">
       <c r="A336" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B336" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C336" s="36">
         <v>43549</v>
@@ -17885,10 +18034,10 @@
     </row>
     <row r="337" spans="1:37">
       <c r="A337" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B337" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C337" s="36">
         <v>43462</v>
@@ -17917,10 +18066,10 @@
     </row>
     <row r="338" spans="1:37">
       <c r="A338" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B338" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C338" s="36">
         <v>43494</v>
@@ -17940,10 +18089,10 @@
     </row>
     <row r="339" spans="1:37">
       <c r="A339" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B339" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C339" s="36">
         <v>43507</v>
@@ -17963,10 +18112,10 @@
     </row>
     <row r="340" spans="1:37">
       <c r="A340" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B340" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C340" s="36">
         <v>43515</v>
@@ -17983,10 +18132,10 @@
     </row>
     <row r="341" spans="1:37">
       <c r="A341" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B341" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C341" s="36">
         <v>43509</v>
@@ -18006,10 +18155,10 @@
     </row>
     <row r="342" spans="1:37">
       <c r="A342" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B342" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C342" s="36">
         <v>43523</v>
@@ -18029,10 +18178,10 @@
     </row>
     <row r="343" spans="1:37">
       <c r="A343" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B343" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C343" s="36">
         <v>43531</v>
@@ -18052,10 +18201,10 @@
     </row>
     <row r="344" spans="1:37">
       <c r="A344" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B344" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C344" s="36">
         <v>43549</v>
@@ -18081,10 +18230,10 @@
     </row>
     <row r="345" spans="1:37">
       <c r="A345" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B345" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C345" s="36">
         <v>43462</v>
@@ -18113,10 +18262,10 @@
     </row>
     <row r="346" spans="1:37">
       <c r="A346" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B346" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C346" s="36">
         <v>43494</v>
@@ -18136,10 +18285,10 @@
     </row>
     <row r="347" spans="1:37">
       <c r="A347" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B347" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C347" s="36">
         <v>43507</v>
@@ -18159,10 +18308,10 @@
     </row>
     <row r="348" spans="1:37">
       <c r="A348" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B348" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C348" s="36">
         <v>43515</v>
@@ -18179,10 +18328,10 @@
     </row>
     <row r="349" spans="1:37">
       <c r="A349" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B349" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C349" s="36">
         <v>43509</v>
@@ -18202,10 +18351,10 @@
     </row>
     <row r="350" spans="1:37">
       <c r="A350" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B350" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C350" s="36">
         <v>43523</v>
@@ -18225,10 +18374,10 @@
     </row>
     <row r="351" spans="1:37">
       <c r="A351" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B351" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C351" s="36">
         <v>43531</v>
@@ -18248,10 +18397,10 @@
     </row>
     <row r="352" spans="1:37">
       <c r="A352" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B352" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C352" s="36">
         <v>43549</v>
@@ -18277,10 +18426,10 @@
     </row>
     <row r="353" spans="1:37">
       <c r="A353" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B353" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C353" s="36">
         <v>43462</v>
@@ -18309,10 +18458,10 @@
     </row>
     <row r="354" spans="1:37">
       <c r="A354" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B354" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C354" s="36">
         <v>43494</v>
@@ -18332,10 +18481,10 @@
     </row>
     <row r="355" spans="1:37">
       <c r="A355" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B355" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C355" s="36">
         <v>43507</v>
@@ -18355,10 +18504,10 @@
     </row>
     <row r="356" spans="1:37">
       <c r="A356" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B356" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C356" s="36">
         <v>43515</v>
@@ -18375,10 +18524,10 @@
     </row>
     <row r="357" spans="1:37">
       <c r="A357" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B357" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C357" s="36">
         <v>43509</v>
@@ -18398,10 +18547,10 @@
     </row>
     <row r="358" spans="1:37">
       <c r="A358" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B358" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C358" s="36">
         <v>43523</v>
@@ -18421,10 +18570,10 @@
     </row>
     <row r="359" spans="1:37">
       <c r="A359" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B359" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C359" s="36">
         <v>43531</v>
@@ -18444,10 +18593,10 @@
     </row>
     <row r="360" spans="1:37">
       <c r="A360" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B360" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C360" s="36">
         <v>43549</v>
@@ -18473,10 +18622,10 @@
     </row>
     <row r="361" spans="1:37">
       <c r="A361" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B361" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C361" s="36">
         <v>43462</v>
@@ -18505,10 +18654,10 @@
     </row>
     <row r="362" spans="1:37">
       <c r="A362" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B362" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C362" s="36">
         <v>43494</v>
@@ -18528,10 +18677,10 @@
     </row>
     <row r="363" spans="1:37">
       <c r="A363" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B363" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C363" s="36">
         <v>43507</v>
@@ -18551,10 +18700,10 @@
     </row>
     <row r="364" spans="1:37">
       <c r="A364" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B364" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C364" s="36">
         <v>43515</v>
@@ -18574,10 +18723,10 @@
     </row>
     <row r="365" spans="1:37">
       <c r="A365" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B365" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C365" s="36">
         <v>43509</v>
@@ -18597,10 +18746,10 @@
     </row>
     <row r="366" spans="1:37">
       <c r="A366" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B366" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C366" s="36">
         <v>43523</v>
@@ -18620,10 +18769,10 @@
     </row>
     <row r="367" spans="1:37">
       <c r="A367" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B367" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C367" s="36">
         <v>43531</v>
@@ -18643,10 +18792,10 @@
     </row>
     <row r="368" spans="1:37">
       <c r="A368" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B368" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C368" s="36">
         <v>43549</v>
@@ -18675,7 +18824,7 @@
         <v>109</v>
       </c>
       <c r="B369" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C369" s="36">
         <v>43466</v>
@@ -18710,7 +18859,7 @@
         <v>109</v>
       </c>
       <c r="B370" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C370" s="36">
         <v>43521</v>
@@ -18748,7 +18897,7 @@
         <v>109</v>
       </c>
       <c r="B371" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C371" s="36">
         <v>43566</v>
@@ -18775,7 +18924,7 @@
         <v>109</v>
       </c>
       <c r="B372" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C372" s="36">
         <v>43607</v>
@@ -18822,7 +18971,7 @@
         <v>109</v>
       </c>
       <c r="B373" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C373" s="36">
         <v>43521</v>
@@ -18842,7 +18991,7 @@
         <v>109</v>
       </c>
       <c r="B374" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C374" s="36">
         <v>43566</v>
@@ -18861,7 +19010,7 @@
         <v>109</v>
       </c>
       <c r="B375" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C375" s="36">
         <v>43607</v>
@@ -18882,7 +19031,7 @@
         <v>109</v>
       </c>
       <c r="B376" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C376" s="36">
         <v>43521</v>
@@ -18903,7 +19052,7 @@
         <v>109</v>
       </c>
       <c r="B377" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C377" s="36">
         <v>43567</v>
@@ -18924,7 +19073,7 @@
         <v>109</v>
       </c>
       <c r="B378" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C378" s="36">
         <v>43613</v>
@@ -18954,7 +19103,7 @@
         <v>109</v>
       </c>
       <c r="B379" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C379" s="36">
         <v>43521</v>
@@ -18972,7 +19121,7 @@
         <v>109</v>
       </c>
       <c r="B380" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C380" s="36">
         <v>43567</v>
@@ -18990,7 +19139,7 @@
         <v>109</v>
       </c>
       <c r="B381" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C381" s="36">
         <v>43613</v>
@@ -19011,7 +19160,7 @@
         <v>109</v>
       </c>
       <c r="B382" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C382" s="36">
         <v>43521</v>
@@ -19032,7 +19181,7 @@
         <v>109</v>
       </c>
       <c r="B383" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C383" s="36">
         <v>43568</v>
@@ -19053,7 +19202,7 @@
         <v>109</v>
       </c>
       <c r="B384" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C384" s="36">
         <v>43613</v>
@@ -19083,7 +19232,7 @@
         <v>109</v>
       </c>
       <c r="B385" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C385" s="36">
         <v>43521</v>
@@ -19101,7 +19250,7 @@
         <v>109</v>
       </c>
       <c r="B386" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C386" s="36">
         <v>43568</v>
@@ -19119,7 +19268,7 @@
         <v>109</v>
       </c>
       <c r="B387" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C387" s="36">
         <v>43613</v>
@@ -19140,7 +19289,7 @@
         <v>109</v>
       </c>
       <c r="B388" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C388" s="36">
         <v>43521</v>
@@ -19161,7 +19310,7 @@
         <v>109</v>
       </c>
       <c r="B389" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C389" s="36">
         <v>43568</v>
@@ -19182,7 +19331,7 @@
         <v>109</v>
       </c>
       <c r="B390" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C390" s="36">
         <v>43610</v>
@@ -19212,7 +19361,7 @@
         <v>109</v>
       </c>
       <c r="B391" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C391" s="36">
         <v>43521</v>
@@ -19230,7 +19379,7 @@
         <v>109</v>
       </c>
       <c r="B392" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C392" s="36">
         <v>43568</v>
@@ -19248,7 +19397,7 @@
         <v>109</v>
       </c>
       <c r="B393" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C393" s="36">
         <v>43610</v>
@@ -19269,7 +19418,7 @@
         <v>109</v>
       </c>
       <c r="B394" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C394" s="36">
         <v>43521</v>
@@ -19290,7 +19439,7 @@
         <v>109</v>
       </c>
       <c r="B395" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C395" s="36">
         <v>43568</v>
@@ -19311,7 +19460,7 @@
         <v>109</v>
       </c>
       <c r="B396" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C396" s="36">
         <v>43604</v>
@@ -19341,7 +19490,7 @@
         <v>109</v>
       </c>
       <c r="B397" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C397" s="36">
         <v>43521</v>
@@ -19359,7 +19508,7 @@
         <v>109</v>
       </c>
       <c r="B398" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C398" s="36">
         <v>43568</v>
@@ -19377,7 +19526,7 @@
         <v>109</v>
       </c>
       <c r="B399" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C399" s="36">
         <v>43604</v>
@@ -19398,7 +19547,7 @@
         <v>109</v>
       </c>
       <c r="B400" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C400" s="36">
         <v>43521</v>
@@ -19419,7 +19568,7 @@
         <v>109</v>
       </c>
       <c r="B401" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C401" s="36">
         <v>43568</v>
@@ -19440,7 +19589,7 @@
         <v>109</v>
       </c>
       <c r="B402" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C402" s="36">
         <v>43609</v>
@@ -19470,7 +19619,7 @@
         <v>109</v>
       </c>
       <c r="B403" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C403" s="36">
         <v>43521</v>
@@ -19488,7 +19637,7 @@
         <v>109</v>
       </c>
       <c r="B404" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C404" s="36">
         <v>43568</v>
@@ -19506,7 +19655,7 @@
         <v>109</v>
       </c>
       <c r="B405" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C405" s="36">
         <v>43609</v>
@@ -19527,7 +19676,7 @@
         <v>109</v>
       </c>
       <c r="B406" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C406" s="36">
         <v>43521</v>
@@ -19548,7 +19697,7 @@
         <v>109</v>
       </c>
       <c r="B407" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C407" s="36">
         <v>43566</v>
@@ -19569,7 +19718,7 @@
         <v>109</v>
       </c>
       <c r="B408" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C408" s="36">
         <v>43616</v>
@@ -19599,7 +19748,7 @@
         <v>109</v>
       </c>
       <c r="B409" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C409" s="36">
         <v>43521</v>
@@ -19617,7 +19766,7 @@
         <v>109</v>
       </c>
       <c r="B410" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C410" s="36">
         <v>43566</v>
@@ -19635,7 +19784,7 @@
         <v>109</v>
       </c>
       <c r="B411" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C411" s="36">
         <v>43616</v>
@@ -19677,7 +19826,2346 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7EF34-3791-458D-AA9E-584E662C818A}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" hidden="1">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
+      <c r="A3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1">
+      <c r="A10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1">
+      <c r="A11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1">
+      <c r="A14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1">
+      <c r="A16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" hidden="1">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" hidden="1">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" hidden="1">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" hidden="1">
+      <c r="A20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1">
+      <c r="A22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" hidden="1">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" hidden="1">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" hidden="1">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" hidden="1">
+      <c r="A26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" hidden="1">
+      <c r="A27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" hidden="1">
+      <c r="A28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" hidden="1">
+      <c r="A29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" hidden="1">
+      <c r="A30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1">
+      <c r="A31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" hidden="1">
+      <c r="A32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1">
+      <c r="A33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1">
+      <c r="A34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1">
+      <c r="A35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1">
+      <c r="A36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1">
+      <c r="A37" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1">
+      <c r="A38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1">
+      <c r="A40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1">
+      <c r="A41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1">
+      <c r="A42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1">
+      <c r="A43" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="36">
+        <v>39951</v>
+      </c>
+      <c r="C44">
+        <v>809</v>
+      </c>
+      <c r="D44">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="36">
+        <v>39951</v>
+      </c>
+      <c r="C45">
+        <v>728</v>
+      </c>
+      <c r="D45">
+        <v>22675</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B46" s="36">
+        <v>39951</v>
+      </c>
+      <c r="C46">
+        <v>906</v>
+      </c>
+      <c r="D46">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47" s="36">
+        <v>39951</v>
+      </c>
+      <c r="C47">
+        <v>1022</v>
+      </c>
+      <c r="D47">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" s="36">
+        <v>40291</v>
+      </c>
+      <c r="C48">
+        <v>1931</v>
+      </c>
+      <c r="D48">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="36">
+        <v>40291</v>
+      </c>
+      <c r="C49">
+        <v>2125</v>
+      </c>
+      <c r="D49">
+        <v>6688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B50" s="36">
+        <v>40296</v>
+      </c>
+      <c r="C50">
+        <v>1293</v>
+      </c>
+      <c r="D50">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B51" s="36">
+        <v>40296</v>
+      </c>
+      <c r="C51">
+        <v>1758</v>
+      </c>
+      <c r="D51">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" s="36">
+        <v>40296</v>
+      </c>
+      <c r="C52">
+        <v>1372</v>
+      </c>
+      <c r="D52">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" s="36">
+        <v>40296</v>
+      </c>
+      <c r="C53">
+        <v>1744</v>
+      </c>
+      <c r="D53">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>359</v>
+      </c>
+      <c r="B54" s="36">
+        <v>40324</v>
+      </c>
+      <c r="C54">
+        <v>1581</v>
+      </c>
+      <c r="D54">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B55" s="36">
+        <v>40324</v>
+      </c>
+      <c r="C55">
+        <v>1911</v>
+      </c>
+      <c r="D55">
+        <v>5940</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21442B68-ED14-4DF6-8C80-514DCAF17E92}">
+  <dimension ref="A1:F95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="42">
+        <v>41769</v>
+      </c>
+      <c r="C2" s="41">
+        <v>103</v>
+      </c>
+      <c r="D2" s="43">
+        <v>4528</v>
+      </c>
+      <c r="E2" s="43">
+        <v>736.01449279999997</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0.16254737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="42">
+        <v>41769</v>
+      </c>
+      <c r="C3" s="41">
+        <v>103</v>
+      </c>
+      <c r="D3" s="43">
+        <v>4808</v>
+      </c>
+      <c r="E3" s="43">
+        <v>791.5168539</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0.16462497000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="42">
+        <v>41769</v>
+      </c>
+      <c r="C4" s="41">
+        <v>103</v>
+      </c>
+      <c r="D4" s="43">
+        <v>3688</v>
+      </c>
+      <c r="E4" s="43">
+        <v>838.33333330000005</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0.227313811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="42">
+        <v>41873</v>
+      </c>
+      <c r="C5" s="41">
+        <v>98</v>
+      </c>
+      <c r="D5" s="43">
+        <v>3824</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1182.7176139999999</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0.30928807899999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="42">
+        <v>41873</v>
+      </c>
+      <c r="C6" s="41">
+        <v>98</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3864</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1578.727273</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.40857331099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="42">
+        <v>41873</v>
+      </c>
+      <c r="C7" s="41">
+        <v>98</v>
+      </c>
+      <c r="D7" s="43">
+        <v>3144</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1423.3372979999999</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.45271542599999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="42">
+        <v>41779</v>
+      </c>
+      <c r="C8" s="41">
+        <v>76</v>
+      </c>
+      <c r="D8" s="43">
+        <v>3446.5</v>
+      </c>
+      <c r="E8" s="43">
+        <v>783.29660980000006</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0.227273062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="42">
+        <v>41779</v>
+      </c>
+      <c r="C9" s="41">
+        <v>76</v>
+      </c>
+      <c r="D9" s="43">
+        <v>3539</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1240.806591</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.350609379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="42">
+        <v>41779</v>
+      </c>
+      <c r="C10" s="41">
+        <v>76</v>
+      </c>
+      <c r="D10" s="43">
+        <v>3490.5</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1404.3422459999999</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0.40233268799999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="B11" s="42">
+        <v>41779</v>
+      </c>
+      <c r="C11" s="41">
+        <v>76</v>
+      </c>
+      <c r="D11" s="43">
+        <v>3008.5</v>
+      </c>
+      <c r="E11" s="43">
+        <v>1175.7792979999999</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.39081911200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" s="42">
+        <v>42075</v>
+      </c>
+      <c r="C12" s="41">
+        <v>83</v>
+      </c>
+      <c r="D12" s="43">
+        <v>3267.5</v>
+      </c>
+      <c r="E12" s="43">
+        <v>762.40098869999997</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0.233328535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="42">
+        <v>42075</v>
+      </c>
+      <c r="C13" s="41">
+        <v>83</v>
+      </c>
+      <c r="D13" s="43">
+        <v>2848</v>
+      </c>
+      <c r="E13" s="43">
+        <v>763.8813566</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0.26821676799999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B14" s="42">
+        <v>42075</v>
+      </c>
+      <c r="C14" s="41">
+        <v>83</v>
+      </c>
+      <c r="D14" s="43">
+        <v>2872.5</v>
+      </c>
+      <c r="E14" s="43">
+        <v>754.61335710000003</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0.26270264799999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="42">
+        <v>42075</v>
+      </c>
+      <c r="C15" s="41">
+        <v>83</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2675.5</v>
+      </c>
+      <c r="E15" s="43">
+        <v>900.4930435</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0.33657000300000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B16" s="42">
+        <v>42082</v>
+      </c>
+      <c r="C16" s="41">
+        <v>86</v>
+      </c>
+      <c r="D16" s="43">
+        <v>6626.6666670000004</v>
+      </c>
+      <c r="E16" s="43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" s="42">
+        <v>42082</v>
+      </c>
+      <c r="C17" s="41">
+        <v>86</v>
+      </c>
+      <c r="D17" s="43">
+        <v>7706.6666670000004</v>
+      </c>
+      <c r="E17" s="43">
+        <v>2150.85734</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0.279090485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="42">
+        <v>42082</v>
+      </c>
+      <c r="C18" s="41">
+        <v>86</v>
+      </c>
+      <c r="D18" s="43">
+        <v>4986.6666670000004</v>
+      </c>
+      <c r="E18" s="43">
+        <v>1785.164732</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.35798758000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="42">
+        <v>42106</v>
+      </c>
+      <c r="C19" s="41">
+        <v>63</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1866.666667</v>
+      </c>
+      <c r="E19" s="43">
+        <v>618.31111109999995</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.33123809500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="42">
+        <v>42106</v>
+      </c>
+      <c r="C20" s="41">
+        <v>63</v>
+      </c>
+      <c r="D20" s="43">
+        <v>2066.666667</v>
+      </c>
+      <c r="E20" s="43">
+        <v>717.09401709999997</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.346980976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="42">
+        <v>42106</v>
+      </c>
+      <c r="C21" s="41">
+        <v>63</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1600</v>
+      </c>
+      <c r="E21" s="43">
+        <v>652.5</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.40781250000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="42">
+        <v>42518</v>
+      </c>
+      <c r="C22" s="41">
+        <v>110</v>
+      </c>
+      <c r="D22" s="43">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="43">
+        <v>2068.0320240000001</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.34467200399999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="42">
+        <v>42518</v>
+      </c>
+      <c r="C23" s="41">
+        <v>110</v>
+      </c>
+      <c r="D23" s="43">
+        <v>4520</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1735.369312</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0.38393126399999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" s="42">
+        <v>42518</v>
+      </c>
+      <c r="C24" s="41">
+        <v>110</v>
+      </c>
+      <c r="D24" s="43">
+        <v>6400</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1365.4357660000001</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0.213349338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" s="42">
+        <v>42480</v>
+      </c>
+      <c r="C25" s="41">
+        <v>97</v>
+      </c>
+      <c r="D25" s="43">
+        <v>2672</v>
+      </c>
+      <c r="E25" s="43">
+        <v>1283.888222</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0.48049708899999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B26" s="42">
+        <v>42480</v>
+      </c>
+      <c r="C26" s="41">
+        <v>97</v>
+      </c>
+      <c r="D26" s="43">
+        <v>4408</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1084.254684</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.24597429300000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="B27" s="42">
+        <v>42480</v>
+      </c>
+      <c r="C27" s="41">
+        <v>97</v>
+      </c>
+      <c r="D27" s="43">
+        <v>3448</v>
+      </c>
+      <c r="E27" s="43">
+        <v>1908.6394359999999</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.55354972000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B28" s="42">
+        <v>42442</v>
+      </c>
+      <c r="C28" s="41">
+        <v>91</v>
+      </c>
+      <c r="D28" s="43">
+        <v>3928</v>
+      </c>
+      <c r="E28" s="43">
+        <v>957.65920730000005</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0.24380326099999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B29" s="42">
+        <v>42442</v>
+      </c>
+      <c r="C29" s="41">
+        <v>91</v>
+      </c>
+      <c r="D29" s="43">
+        <v>4672</v>
+      </c>
+      <c r="E29" s="43">
+        <v>1286.0520240000001</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.27526798499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="42">
+        <v>42442</v>
+      </c>
+      <c r="C30" s="41">
+        <v>91</v>
+      </c>
+      <c r="D30" s="43">
+        <v>5640</v>
+      </c>
+      <c r="E30" s="43">
+        <v>1117.93381</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0.198215215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31" s="42">
+        <v>42437</v>
+      </c>
+      <c r="C31" s="41">
+        <v>80</v>
+      </c>
+      <c r="D31" s="43">
+        <v>5808</v>
+      </c>
+      <c r="E31" s="43">
+        <v>1835.7910449999999</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0.31607972499999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32" s="42">
+        <v>42437</v>
+      </c>
+      <c r="C32" s="41">
+        <v>80</v>
+      </c>
+      <c r="D32" s="43">
+        <v>5848</v>
+      </c>
+      <c r="E32" s="43">
+        <v>1790.0783220000001</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0.30610094399999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33" s="42">
+        <v>42437</v>
+      </c>
+      <c r="C33" s="41">
+        <v>80</v>
+      </c>
+      <c r="D33" s="43">
+        <v>5760</v>
+      </c>
+      <c r="E33" s="43">
+        <v>1892.1139459999999</v>
+      </c>
+      <c r="F33" s="44">
+        <v>0.32849200499999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B34" s="42">
+        <v>42510</v>
+      </c>
+      <c r="C34" s="41">
+        <v>96</v>
+      </c>
+      <c r="D34" s="43">
+        <v>6720</v>
+      </c>
+      <c r="E34" s="43">
+        <v>1532.060606</v>
+      </c>
+      <c r="F34" s="44">
+        <v>0.22798520899999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35" s="42">
+        <v>42510</v>
+      </c>
+      <c r="C35" s="41">
+        <v>96</v>
+      </c>
+      <c r="D35" s="43">
+        <v>6992</v>
+      </c>
+      <c r="E35" s="43">
+        <v>1317.522273</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0.188432819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="B36" s="42">
+        <v>42510</v>
+      </c>
+      <c r="C36" s="41">
+        <v>96</v>
+      </c>
+      <c r="D36" s="43">
+        <v>7496</v>
+      </c>
+      <c r="E36" s="43">
+        <v>1568.349091</v>
+      </c>
+      <c r="F36" s="44">
+        <v>0.20922479899999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B37" s="42">
+        <v>42444</v>
+      </c>
+      <c r="C37" s="41">
+        <v>97</v>
+      </c>
+      <c r="D37" s="43">
+        <v>6768</v>
+      </c>
+      <c r="E37" s="43">
+        <v>1453.7116169999999</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0.214791906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B38" s="42">
+        <v>42444</v>
+      </c>
+      <c r="C38" s="41">
+        <v>97</v>
+      </c>
+      <c r="D38" s="43">
+        <v>4710</v>
+      </c>
+      <c r="E38" s="43">
+        <v>1405.491133</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0.29840576099999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="B39" s="42">
+        <v>42444</v>
+      </c>
+      <c r="C39" s="41">
+        <v>97</v>
+      </c>
+      <c r="D39" s="43">
+        <v>4928</v>
+      </c>
+      <c r="E39" s="43">
+        <v>1722.706856</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0.34957525499999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B40" s="42">
+        <v>42470</v>
+      </c>
+      <c r="C40" s="41">
+        <v>96</v>
+      </c>
+      <c r="D40" s="43">
+        <v>3001</v>
+      </c>
+      <c r="E40" s="43">
+        <v>1012.6048950000001</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0.33742249099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B41" s="42">
+        <v>42470</v>
+      </c>
+      <c r="C41" s="41">
+        <v>96</v>
+      </c>
+      <c r="D41" s="43">
+        <v>3597</v>
+      </c>
+      <c r="E41" s="43">
+        <v>1566.3253549999999</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0.43545325400000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B42" s="42">
+        <v>42470</v>
+      </c>
+      <c r="C42" s="41">
+        <v>96</v>
+      </c>
+      <c r="D42" s="43">
+        <v>3655</v>
+      </c>
+      <c r="E42" s="43">
+        <v>973.35664340000005</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0.266308247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="42">
+        <v>42515</v>
+      </c>
+      <c r="C43" s="41">
+        <v>71</v>
+      </c>
+      <c r="D43" s="43">
+        <v>4152</v>
+      </c>
+      <c r="E43" s="43">
+        <v>1249.770174</v>
+      </c>
+      <c r="F43" s="44">
+        <v>0.30100437699999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="42">
+        <v>42515</v>
+      </c>
+      <c r="C44" s="41">
+        <v>71</v>
+      </c>
+      <c r="D44" s="43">
+        <v>4172</v>
+      </c>
+      <c r="E44" s="43">
+        <v>1156.7481319999999</v>
+      </c>
+      <c r="F44" s="44">
+        <v>0.27726465300000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" s="42">
+        <v>42515</v>
+      </c>
+      <c r="C45" s="41">
+        <v>71</v>
+      </c>
+      <c r="D45" s="43">
+        <v>3052</v>
+      </c>
+      <c r="E45" s="43">
+        <v>1302.4343449999999</v>
+      </c>
+      <c r="F45" s="44">
+        <v>0.42674782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="B46" s="42">
+        <v>42837</v>
+      </c>
+      <c r="C46" s="41">
+        <v>130</v>
+      </c>
+      <c r="D46" s="43">
+        <v>4328</v>
+      </c>
+      <c r="E46" s="43">
+        <v>2521.5948739999999</v>
+      </c>
+      <c r="F46" s="44">
+        <v>0.582623585</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="B47" s="42">
+        <v>42837</v>
+      </c>
+      <c r="C47" s="41">
+        <v>130</v>
+      </c>
+      <c r="D47" s="43">
+        <v>4904</v>
+      </c>
+      <c r="E47" s="43">
+        <v>2676.9705720000002</v>
+      </c>
+      <c r="F47" s="44">
+        <v>0.54587491300000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" s="42">
+        <v>42837</v>
+      </c>
+      <c r="C48" s="41">
+        <v>130</v>
+      </c>
+      <c r="D48" s="43">
+        <v>5904</v>
+      </c>
+      <c r="E48" s="43">
+        <v>2626.218891</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0.44482027299999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B49" s="42">
+        <v>42803</v>
+      </c>
+      <c r="C49" s="41">
+        <v>70</v>
+      </c>
+      <c r="D49" s="43">
+        <v>3799</v>
+      </c>
+      <c r="E49" s="43">
+        <v>657.46753249999995</v>
+      </c>
+      <c r="F49" s="44">
+        <v>0.173063315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B50" s="42">
+        <v>42803</v>
+      </c>
+      <c r="C50" s="41">
+        <v>70</v>
+      </c>
+      <c r="D50" s="43">
+        <v>5207</v>
+      </c>
+      <c r="E50" s="43">
+        <v>847.14400639999997</v>
+      </c>
+      <c r="F50" s="44">
+        <v>0.16269329900000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="B51" s="42">
+        <v>42803</v>
+      </c>
+      <c r="C51" s="41">
+        <v>70</v>
+      </c>
+      <c r="D51" s="43">
+        <v>4272</v>
+      </c>
+      <c r="E51" s="43">
+        <v>481.92982460000002</v>
+      </c>
+      <c r="F51" s="44">
+        <v>0.112811289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B52" s="42">
+        <v>42847</v>
+      </c>
+      <c r="C52" s="41">
+        <v>82</v>
+      </c>
+      <c r="D52" s="43">
+        <v>5280</v>
+      </c>
+      <c r="E52" s="43">
+        <v>1204.679842</v>
+      </c>
+      <c r="F52" s="44">
+        <v>0.228159061</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="42">
+        <v>42847</v>
+      </c>
+      <c r="C53" s="41">
+        <v>82</v>
+      </c>
+      <c r="D53" s="43">
+        <v>5026</v>
+      </c>
+      <c r="E53" s="43">
+        <v>1027.1152119999999</v>
+      </c>
+      <c r="F53" s="44">
+        <v>0.20436036799999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="B54" s="42">
+        <v>42847</v>
+      </c>
+      <c r="C54" s="41">
+        <v>82</v>
+      </c>
+      <c r="D54" s="43">
+        <v>5449</v>
+      </c>
+      <c r="E54" s="43">
+        <v>1447.84689</v>
+      </c>
+      <c r="F54" s="44">
+        <v>0.265708734</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="42">
+        <v>42917</v>
+      </c>
+      <c r="C55" s="41">
+        <v>112</v>
+      </c>
+      <c r="D55" s="43">
+        <v>4876</v>
+      </c>
+      <c r="E55" s="43">
+        <v>1518.283772</v>
+      </c>
+      <c r="F55" s="44">
+        <v>0.31137895199999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="42">
+        <v>42917</v>
+      </c>
+      <c r="C56" s="41">
+        <v>112</v>
+      </c>
+      <c r="D56" s="43">
+        <v>5712</v>
+      </c>
+      <c r="E56" s="43">
+        <v>1534.53719</v>
+      </c>
+      <c r="F56" s="44">
+        <v>0.26865146899999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="B57" s="42">
+        <v>42917</v>
+      </c>
+      <c r="C57" s="41">
+        <v>112</v>
+      </c>
+      <c r="D57" s="43">
+        <v>5879</v>
+      </c>
+      <c r="E57" s="43">
+        <v>1520.7125309999999</v>
+      </c>
+      <c r="F57" s="44">
+        <v>0.25866857100000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" s="42">
+        <v>42472</v>
+      </c>
+      <c r="C58" s="41">
+        <v>66</v>
+      </c>
+      <c r="D58" s="43">
+        <v>1666</v>
+      </c>
+      <c r="E58" s="43">
+        <v>500</v>
+      </c>
+      <c r="F58" s="44">
+        <v>0.30012004799999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="B59" s="42">
+        <v>42818</v>
+      </c>
+      <c r="C59" s="41">
+        <v>90</v>
+      </c>
+      <c r="D59" s="43">
+        <v>1729</v>
+      </c>
+      <c r="E59" s="43">
+        <v>504</v>
+      </c>
+      <c r="F59" s="44">
+        <v>0.29149797599999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B60" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C60" s="41">
+        <v>75</v>
+      </c>
+      <c r="D60" s="43">
+        <v>1924</v>
+      </c>
+      <c r="E60" s="43">
+        <v>436.8</v>
+      </c>
+      <c r="F60" s="44">
+        <v>0.22702702699999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C61" s="41">
+        <v>75</v>
+      </c>
+      <c r="D61" s="43">
+        <v>3920</v>
+      </c>
+      <c r="E61" s="43">
+        <v>813.2</v>
+      </c>
+      <c r="F61" s="44">
+        <v>0.20744898000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C62" s="41">
+        <v>75</v>
+      </c>
+      <c r="D62" s="43">
+        <v>4348</v>
+      </c>
+      <c r="E62" s="43">
+        <v>1028</v>
+      </c>
+      <c r="F62" s="44">
+        <v>0.23643054299999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C63" s="41">
+        <v>75</v>
+      </c>
+      <c r="D63" s="43">
+        <v>3688</v>
+      </c>
+      <c r="E63" s="43">
+        <v>916.8</v>
+      </c>
+      <c r="F63" s="44">
+        <v>0.24859002199999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B64" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C64" s="41">
+        <v>75</v>
+      </c>
+      <c r="D64" s="43">
+        <v>1988</v>
+      </c>
+      <c r="E64" s="43">
+        <v>365.6</v>
+      </c>
+      <c r="F64" s="44">
+        <v>0.18390342100000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C65" s="41">
+        <v>75</v>
+      </c>
+      <c r="D65" s="43">
+        <v>3584</v>
+      </c>
+      <c r="E65" s="43">
+        <v>786.8</v>
+      </c>
+      <c r="F65" s="44">
+        <v>0.21953125000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B66" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C66" s="41">
+        <v>75</v>
+      </c>
+      <c r="D66" s="43">
+        <v>3064</v>
+      </c>
+      <c r="E66" s="43">
+        <v>647.20000000000005</v>
+      </c>
+      <c r="F66" s="44">
+        <v>0.211227154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="B67" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C67" s="41">
+        <v>75</v>
+      </c>
+      <c r="D67" s="43">
+        <v>3796</v>
+      </c>
+      <c r="E67" s="43">
+        <v>908</v>
+      </c>
+      <c r="F67" s="44">
+        <v>0.239199157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B68" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C68" s="41">
+        <v>75</v>
+      </c>
+      <c r="D68" s="43">
+        <v>1608</v>
+      </c>
+      <c r="E68" s="43">
+        <v>248.8</v>
+      </c>
+      <c r="F68" s="44">
+        <v>0.154726368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C69" s="41">
+        <v>75</v>
+      </c>
+      <c r="D69" s="43">
+        <v>1904</v>
+      </c>
+      <c r="E69" s="43">
+        <v>335.6</v>
+      </c>
+      <c r="F69" s="44">
+        <v>0.17626050400000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C70" s="41">
+        <v>75</v>
+      </c>
+      <c r="D70" s="43">
+        <v>1976</v>
+      </c>
+      <c r="E70" s="43">
+        <v>193.6</v>
+      </c>
+      <c r="F70" s="44">
+        <v>9.7975708999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="B71" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C71" s="41">
+        <v>75</v>
+      </c>
+      <c r="D71" s="43">
+        <v>1488</v>
+      </c>
+      <c r="E71" s="43">
+        <v>435.6</v>
+      </c>
+      <c r="F71" s="44">
+        <v>0.29274193500000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C72" s="41">
+        <v>75</v>
+      </c>
+      <c r="D72" s="43">
+        <v>1840</v>
+      </c>
+      <c r="E72" s="43">
+        <v>339.2</v>
+      </c>
+      <c r="F72" s="44">
+        <v>0.18434782599999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C73" s="41">
+        <v>75</v>
+      </c>
+      <c r="D73" s="43">
+        <v>3016</v>
+      </c>
+      <c r="E73" s="43">
+        <v>676.4</v>
+      </c>
+      <c r="F73" s="44">
+        <v>0.22427055700000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B74" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C74" s="41">
+        <v>75</v>
+      </c>
+      <c r="D74" s="43">
+        <v>2688</v>
+      </c>
+      <c r="E74" s="43">
+        <v>456.4</v>
+      </c>
+      <c r="F74" s="44">
+        <v>0.16979166700000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="B75" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C75" s="41">
+        <v>75</v>
+      </c>
+      <c r="D75" s="43">
+        <v>2288</v>
+      </c>
+      <c r="E75" s="43">
+        <v>482.8</v>
+      </c>
+      <c r="F75" s="44">
+        <v>0.21101398599999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C76" s="41">
+        <v>75</v>
+      </c>
+      <c r="D76" s="43">
+        <v>1960</v>
+      </c>
+      <c r="E76" s="43">
+        <v>325.60000000000002</v>
+      </c>
+      <c r="F76" s="44">
+        <v>0.16612244900000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B77" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C77" s="41">
+        <v>75</v>
+      </c>
+      <c r="D77" s="43">
+        <v>3252</v>
+      </c>
+      <c r="E77" s="43">
+        <v>723.2</v>
+      </c>
+      <c r="F77" s="44">
+        <v>0.22238622399999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B78" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C78" s="41">
+        <v>75</v>
+      </c>
+      <c r="D78" s="43">
+        <v>2604</v>
+      </c>
+      <c r="E78" s="43">
+        <v>492.4</v>
+      </c>
+      <c r="F78" s="44">
+        <v>0.189093702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="B79" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C79" s="41">
+        <v>75</v>
+      </c>
+      <c r="D79" s="43">
+        <v>2384</v>
+      </c>
+      <c r="E79" s="43">
+        <v>566.79999999999995</v>
+      </c>
+      <c r="F79" s="44">
+        <v>0.23775167799999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C80" s="41">
+        <v>75</v>
+      </c>
+      <c r="D80" s="43">
+        <v>1772</v>
+      </c>
+      <c r="E80" s="43">
+        <v>251.2</v>
+      </c>
+      <c r="F80" s="44">
+        <v>0.14176072200000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C81" s="41">
+        <v>75</v>
+      </c>
+      <c r="D81" s="43">
+        <v>2396</v>
+      </c>
+      <c r="E81" s="43">
+        <v>509.6</v>
+      </c>
+      <c r="F81" s="44">
+        <v>0.212687813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B82" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C82" s="41">
+        <v>75</v>
+      </c>
+      <c r="D82" s="43">
+        <v>3000</v>
+      </c>
+      <c r="E82" s="43">
+        <v>607.6</v>
+      </c>
+      <c r="F82" s="44">
+        <v>0.20253333300000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="B83" s="42">
+        <v>42460</v>
+      </c>
+      <c r="C83" s="41">
+        <v>75</v>
+      </c>
+      <c r="D83" s="43">
+        <v>2144</v>
+      </c>
+      <c r="E83" s="43">
+        <v>510.4</v>
+      </c>
+      <c r="F83" s="44">
+        <v>0.23805970100000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" s="42">
+        <v>42489</v>
+      </c>
+      <c r="C84" s="41">
+        <v>113</v>
+      </c>
+      <c r="D84" s="43">
+        <v>4348</v>
+      </c>
+      <c r="E84" s="43">
+        <v>1238</v>
+      </c>
+      <c r="F84" s="44">
+        <v>0.28472861100000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B85" s="42">
+        <v>42489</v>
+      </c>
+      <c r="C85" s="41">
+        <v>113</v>
+      </c>
+      <c r="D85" s="43">
+        <v>4348</v>
+      </c>
+      <c r="E85" s="43">
+        <v>1238</v>
+      </c>
+      <c r="F85" s="44">
+        <v>0.28472861100000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B86" s="42">
+        <v>42489</v>
+      </c>
+      <c r="C86" s="41">
+        <v>113</v>
+      </c>
+      <c r="D86" s="43">
+        <v>4348</v>
+      </c>
+      <c r="E86" s="43">
+        <v>1238</v>
+      </c>
+      <c r="F86" s="44">
+        <v>0.28472861100000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="B87" s="42">
+        <v>42489</v>
+      </c>
+      <c r="C87" s="41">
+        <v>113</v>
+      </c>
+      <c r="D87" s="43">
+        <v>4348</v>
+      </c>
+      <c r="E87" s="43">
+        <v>1238</v>
+      </c>
+      <c r="F87" s="44">
+        <v>0.28472861100000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B88" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C88" s="41">
+        <v>69</v>
+      </c>
+      <c r="D88" s="43">
+        <v>3448.5714290000001</v>
+      </c>
+      <c r="E88" s="43">
+        <v>540</v>
+      </c>
+      <c r="F88" s="44">
+        <v>0.156586578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B89" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C89" s="41">
+        <v>69</v>
+      </c>
+      <c r="D89" s="43">
+        <v>4854.2857139999996</v>
+      </c>
+      <c r="E89" s="43">
+        <v>1042.857143</v>
+      </c>
+      <c r="F89" s="44">
+        <v>0.214832254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B90" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C90" s="41">
+        <v>69</v>
+      </c>
+      <c r="D90" s="43">
+        <v>5384</v>
+      </c>
+      <c r="E90" s="43">
+        <v>1072.5714290000001</v>
+      </c>
+      <c r="F90" s="44">
+        <v>0.19921460399999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="B91" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C91" s="41">
+        <v>69</v>
+      </c>
+      <c r="D91" s="43">
+        <v>6246.2857139999996</v>
+      </c>
+      <c r="E91" s="43">
+        <v>1494.857143</v>
+      </c>
+      <c r="F91" s="44">
+        <v>0.23931936700000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B92" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C92" s="41">
+        <v>69</v>
+      </c>
+      <c r="D92" s="43">
+        <v>2209.4285709999999</v>
+      </c>
+      <c r="E92" s="43">
+        <v>386.57142859999999</v>
+      </c>
+      <c r="F92" s="44">
+        <v>0.174964438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B93" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C93" s="41">
+        <v>69</v>
+      </c>
+      <c r="D93" s="43">
+        <v>3780.2857140000001</v>
+      </c>
+      <c r="E93" s="43">
+        <v>951.7142857</v>
+      </c>
+      <c r="F93" s="44">
+        <v>0.25175723700000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B94" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C94" s="41">
+        <v>69</v>
+      </c>
+      <c r="D94" s="43">
+        <v>2866.8571430000002</v>
+      </c>
+      <c r="E94" s="43">
+        <v>446.85714289999999</v>
+      </c>
+      <c r="F94" s="44">
+        <v>0.15587004199999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B95" s="42">
+        <v>42445</v>
+      </c>
+      <c r="C95" s="41">
+        <v>69</v>
+      </c>
+      <c r="D95" s="43">
+        <v>4643.4285710000004</v>
+      </c>
+      <c r="E95" s="43">
+        <v>1134.857143</v>
+      </c>
+      <c r="F95" s="44">
+        <v>0.244400689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A45BC839F4BE8447922040F5D2C02304" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1243886f4b07e40b57a977e252b01cc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5a34fac-6ddc-409e-8f59-46c346bf84a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="70115bd4df903e7bd44618623e0fa24b" ns3:_="">
     <xsd:import namespace="b5a34fac-6ddc-409e-8f59-46c346bf84a9"/>
@@ -19849,7 +22337,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19858,13 +22346,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7096A5B-E165-4D48-AA67-5AA047CEF183}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19882,19 +22373,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D440B84-038E-46D7-9B2F-7CCCE15CDFB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17A7A3C0-B1E9-42DC-84CA-ABF0A7638650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>